--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>29113500</v>
+        <v>30114500</v>
       </c>
       <c r="E8" s="3">
-        <v>28402000</v>
+        <v>29049000</v>
       </c>
       <c r="F8" s="3">
-        <v>27280900</v>
+        <v>28650300</v>
       </c>
       <c r="G8" s="3">
-        <v>28208700</v>
+        <v>27519400</v>
       </c>
       <c r="H8" s="3">
-        <v>27373100</v>
+        <v>28455400</v>
       </c>
       <c r="I8" s="3">
-        <v>28031900</v>
+        <v>27612500</v>
       </c>
       <c r="J8" s="3">
+        <v>28277000</v>
+      </c>
+      <c r="K8" s="3">
         <v>27932000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21402000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>14588000</v>
+        <v>15240600</v>
       </c>
       <c r="E9" s="3">
-        <v>14742800</v>
+        <v>14311300</v>
       </c>
       <c r="F9" s="3">
-        <v>15845200</v>
+        <v>14871700</v>
       </c>
       <c r="G9" s="3">
-        <v>17579000</v>
+        <v>15983800</v>
       </c>
       <c r="H9" s="3">
-        <v>16768700</v>
+        <v>17732700</v>
       </c>
       <c r="I9" s="3">
-        <v>16629200</v>
+        <v>16915300</v>
       </c>
       <c r="J9" s="3">
+        <v>16774600</v>
+      </c>
+      <c r="K9" s="3">
         <v>34958100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>12689700</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14525400</v>
+        <v>14874000</v>
       </c>
       <c r="E10" s="3">
-        <v>13659100</v>
+        <v>14737700</v>
       </c>
       <c r="F10" s="3">
-        <v>11435700</v>
+        <v>13778500</v>
       </c>
       <c r="G10" s="3">
-        <v>10629700</v>
+        <v>11535700</v>
       </c>
       <c r="H10" s="3">
-        <v>10604500</v>
+        <v>10722700</v>
       </c>
       <c r="I10" s="3">
-        <v>11402700</v>
+        <v>10697200</v>
       </c>
       <c r="J10" s="3">
+        <v>11502400</v>
+      </c>
+      <c r="K10" s="3">
         <v>-7026100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8712300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>17600</v>
+        <v>169500</v>
       </c>
       <c r="E14" s="3">
-        <v>2113700</v>
+        <v>26600</v>
       </c>
       <c r="F14" s="3">
-        <v>158100</v>
+        <v>2132100</v>
       </c>
       <c r="G14" s="3">
-        <v>153700</v>
+        <v>159500</v>
       </c>
       <c r="H14" s="3">
-        <v>-760900</v>
+        <v>155100</v>
       </c>
       <c r="I14" s="3">
-        <v>378800</v>
+        <v>-767600</v>
       </c>
       <c r="J14" s="3">
+        <v>382100</v>
+      </c>
+      <c r="K14" s="3">
         <v>442500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>48200</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3053500</v>
+        <v>3257500</v>
       </c>
       <c r="E15" s="3">
-        <v>3026100</v>
+        <v>3178800</v>
       </c>
       <c r="F15" s="3">
-        <v>1725000</v>
+        <v>3052500</v>
       </c>
       <c r="G15" s="3">
-        <v>1727200</v>
+        <v>1740000</v>
       </c>
       <c r="H15" s="3">
-        <v>1744700</v>
+        <v>1742300</v>
       </c>
       <c r="I15" s="3">
-        <v>1719500</v>
+        <v>1760000</v>
       </c>
       <c r="J15" s="3">
+        <v>1734500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1730400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1383400</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27664100</v>
+        <v>28995900</v>
       </c>
       <c r="E17" s="3">
-        <v>28384400</v>
+        <v>27506100</v>
       </c>
       <c r="F17" s="3">
-        <v>26064300</v>
+        <v>28632600</v>
       </c>
       <c r="G17" s="3">
-        <v>27016300</v>
+        <v>26292200</v>
       </c>
       <c r="H17" s="3">
-        <v>26542000</v>
+        <v>27252500</v>
       </c>
       <c r="I17" s="3">
-        <v>28281200</v>
+        <v>26774000</v>
       </c>
       <c r="J17" s="3">
+        <v>28528500</v>
+      </c>
+      <c r="K17" s="3">
         <v>28734700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>21372800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1449400</v>
+        <v>1118700</v>
       </c>
       <c r="E18" s="3">
-        <v>17600</v>
+        <v>1542900</v>
       </c>
       <c r="F18" s="3">
-        <v>1216600</v>
+        <v>17700</v>
       </c>
       <c r="G18" s="3">
-        <v>1192400</v>
+        <v>1227200</v>
       </c>
       <c r="H18" s="3">
-        <v>831200</v>
+        <v>1202900</v>
       </c>
       <c r="I18" s="3">
-        <v>-249200</v>
+        <v>838500</v>
       </c>
       <c r="J18" s="3">
+        <v>-251400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-802600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>29200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-288800</v>
+        <v>-283500</v>
       </c>
       <c r="E20" s="3">
-        <v>677500</v>
+        <v>-363300</v>
       </c>
       <c r="F20" s="3">
-        <v>-61500</v>
+        <v>683400</v>
       </c>
       <c r="G20" s="3">
-        <v>-698300</v>
+        <v>-62000</v>
       </c>
       <c r="H20" s="3">
-        <v>-444700</v>
+        <v>-704400</v>
       </c>
       <c r="I20" s="3">
-        <v>60400</v>
+        <v>-448600</v>
       </c>
       <c r="J20" s="3">
+        <v>60900</v>
+      </c>
+      <c r="K20" s="3">
         <v>146000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-570000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4333200</v>
+        <v>4121700</v>
       </c>
       <c r="E21" s="3">
-        <v>3818200</v>
+        <v>4357300</v>
       </c>
       <c r="F21" s="3">
-        <v>2986100</v>
+        <v>3826000</v>
       </c>
       <c r="G21" s="3">
-        <v>2288800</v>
+        <v>2997200</v>
       </c>
       <c r="H21" s="3">
-        <v>2283500</v>
+        <v>2294100</v>
       </c>
       <c r="I21" s="3">
-        <v>1719100</v>
+        <v>2287900</v>
       </c>
       <c r="J21" s="3">
+        <v>1718500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1265700</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>476500</v>
+        <v>451900</v>
       </c>
       <c r="E22" s="3">
-        <v>553400</v>
+        <v>480700</v>
       </c>
       <c r="F22" s="3">
-        <v>251400</v>
+        <v>558200</v>
       </c>
       <c r="G22" s="3">
-        <v>311800</v>
+        <v>253600</v>
       </c>
       <c r="H22" s="3">
-        <v>362300</v>
+        <v>314600</v>
       </c>
       <c r="I22" s="3">
-        <v>390900</v>
+        <v>365500</v>
       </c>
       <c r="J22" s="3">
+        <v>394300</v>
+      </c>
+      <c r="K22" s="3">
         <v>375500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>684100</v>
+        <v>383200</v>
       </c>
       <c r="E23" s="3">
-        <v>141600</v>
+        <v>698900</v>
       </c>
       <c r="F23" s="3">
-        <v>903700</v>
+        <v>142900</v>
       </c>
       <c r="G23" s="3">
-        <v>182300</v>
+        <v>911600</v>
       </c>
       <c r="H23" s="3">
-        <v>24200</v>
+        <v>183900</v>
       </c>
       <c r="I23" s="3">
-        <v>-579700</v>
+        <v>24400</v>
       </c>
       <c r="J23" s="3">
+        <v>-584800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1032100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-562100</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>249200</v>
+        <v>84200</v>
       </c>
       <c r="E24" s="3">
-        <v>-23100</v>
+        <v>248100</v>
       </c>
       <c r="F24" s="3">
-        <v>322800</v>
+        <v>-23300</v>
       </c>
       <c r="G24" s="3">
-        <v>32900</v>
+        <v>325600</v>
       </c>
       <c r="H24" s="3">
-        <v>214100</v>
+        <v>33200</v>
       </c>
       <c r="I24" s="3">
-        <v>1050800</v>
+        <v>216000</v>
       </c>
       <c r="J24" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="K24" s="3">
         <v>18700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-84100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>434800</v>
+        <v>299100</v>
       </c>
       <c r="E26" s="3">
-        <v>164700</v>
+        <v>450800</v>
       </c>
       <c r="F26" s="3">
-        <v>580800</v>
+        <v>166100</v>
       </c>
       <c r="G26" s="3">
-        <v>149300</v>
+        <v>585900</v>
       </c>
       <c r="H26" s="3">
-        <v>-190000</v>
+        <v>150600</v>
       </c>
       <c r="I26" s="3">
-        <v>-1630500</v>
+        <v>-191600</v>
       </c>
       <c r="J26" s="3">
+        <v>-1644800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1050800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-478000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>408500</v>
+        <v>302400</v>
       </c>
       <c r="E27" s="3">
-        <v>160300</v>
+        <v>437500</v>
       </c>
       <c r="F27" s="3">
-        <v>573200</v>
+        <v>161700</v>
       </c>
       <c r="G27" s="3">
-        <v>81300</v>
+        <v>578200</v>
       </c>
       <c r="H27" s="3">
-        <v>-242700</v>
+        <v>82000</v>
       </c>
       <c r="I27" s="3">
-        <v>-1872100</v>
+        <v>-244800</v>
       </c>
       <c r="J27" s="3">
+        <v>-1888500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1128700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-495900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-8800</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>296500</v>
+        <v>-8900</v>
       </c>
       <c r="G29" s="3">
-        <v>28500</v>
+        <v>299100</v>
       </c>
       <c r="H29" s="3">
+        <v>28800</v>
+      </c>
+      <c r="I29" s="3">
         <v>-4400</v>
       </c>
-      <c r="I29" s="3">
-        <v>-134000</v>
-      </c>
       <c r="J29" s="3">
+        <v>-135100</v>
+      </c>
+      <c r="K29" s="3">
         <v>-216300</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>288800</v>
+        <v>283500</v>
       </c>
       <c r="E32" s="3">
-        <v>-677500</v>
+        <v>363300</v>
       </c>
       <c r="F32" s="3">
-        <v>61500</v>
+        <v>-683400</v>
       </c>
       <c r="G32" s="3">
-        <v>698300</v>
+        <v>62000</v>
       </c>
       <c r="H32" s="3">
-        <v>444700</v>
+        <v>704400</v>
       </c>
       <c r="I32" s="3">
-        <v>-60400</v>
+        <v>448600</v>
       </c>
       <c r="J32" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-146000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>570000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408500</v>
+        <v>302400</v>
       </c>
       <c r="E33" s="3">
-        <v>151500</v>
+        <v>437500</v>
       </c>
       <c r="F33" s="3">
-        <v>869600</v>
+        <v>152800</v>
       </c>
       <c r="G33" s="3">
-        <v>109800</v>
+        <v>877200</v>
       </c>
       <c r="H33" s="3">
-        <v>-247100</v>
+        <v>110800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2006000</v>
+        <v>-249200</v>
       </c>
       <c r="J33" s="3">
+        <v>-2023600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1345100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-495900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408500</v>
+        <v>302400</v>
       </c>
       <c r="E35" s="3">
-        <v>151500</v>
+        <v>437500</v>
       </c>
       <c r="F35" s="3">
-        <v>869600</v>
+        <v>152800</v>
       </c>
       <c r="G35" s="3">
-        <v>109800</v>
+        <v>877200</v>
       </c>
       <c r="H35" s="3">
-        <v>-247100</v>
+        <v>110800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2006000</v>
+        <v>-249200</v>
       </c>
       <c r="J35" s="3">
+        <v>-2023600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1345100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-495900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3936300</v>
+        <v>4122900</v>
       </c>
       <c r="E41" s="3">
-        <v>10263000</v>
+        <v>3978600</v>
       </c>
       <c r="F41" s="3">
-        <v>4323900</v>
+        <v>10373300</v>
       </c>
       <c r="G41" s="3">
-        <v>3408200</v>
+        <v>4370400</v>
       </c>
       <c r="H41" s="3">
-        <v>6937200</v>
+        <v>3444800</v>
       </c>
       <c r="I41" s="3">
-        <v>4045000</v>
+        <v>7011700</v>
       </c>
       <c r="J41" s="3">
+        <v>4088500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7510300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4631600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>356900</v>
+        <v>887800</v>
       </c>
       <c r="E42" s="3">
-        <v>462300</v>
+        <v>360700</v>
       </c>
       <c r="F42" s="3">
-        <v>142700</v>
+        <v>467200</v>
       </c>
       <c r="G42" s="3">
-        <v>1061800</v>
+        <v>144300</v>
       </c>
       <c r="H42" s="3">
-        <v>864100</v>
+        <v>1073200</v>
       </c>
       <c r="I42" s="3">
-        <v>1132000</v>
+        <v>873400</v>
       </c>
       <c r="J42" s="3">
+        <v>1144200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1024400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>842600</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2955800</v>
+        <v>3006400</v>
       </c>
       <c r="E43" s="3">
-        <v>5239700</v>
+        <v>2987600</v>
       </c>
       <c r="F43" s="3">
-        <v>2482600</v>
+        <v>5296000</v>
       </c>
       <c r="G43" s="3">
-        <v>2443100</v>
+        <v>2509300</v>
       </c>
       <c r="H43" s="3">
-        <v>4276700</v>
+        <v>2469300</v>
       </c>
       <c r="I43" s="3">
-        <v>2507800</v>
+        <v>4322700</v>
       </c>
       <c r="J43" s="3">
+        <v>2534800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4172400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4229900</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>695000</v>
+        <v>817900</v>
       </c>
       <c r="E44" s="3">
-        <v>1223200</v>
+        <v>702500</v>
       </c>
       <c r="F44" s="3">
-        <v>621500</v>
+        <v>1236300</v>
       </c>
       <c r="G44" s="3">
-        <v>584100</v>
+        <v>628100</v>
       </c>
       <c r="H44" s="3">
-        <v>1181400</v>
+        <v>590400</v>
       </c>
       <c r="I44" s="3">
-        <v>561100</v>
+        <v>1194100</v>
       </c>
       <c r="J44" s="3">
+        <v>567100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1144100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1312700</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>616000</v>
+        <v>641500</v>
       </c>
       <c r="E45" s="3">
-        <v>2241000</v>
+        <v>625900</v>
       </c>
       <c r="F45" s="3">
-        <v>781800</v>
+        <v>2265100</v>
       </c>
       <c r="G45" s="3">
-        <v>787300</v>
+        <v>790200</v>
       </c>
       <c r="H45" s="3">
-        <v>1631600</v>
+        <v>795700</v>
       </c>
       <c r="I45" s="3">
-        <v>923400</v>
+        <v>1649200</v>
       </c>
       <c r="J45" s="3">
+        <v>933300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1748000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2028600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>8560000</v>
+        <v>9476600</v>
       </c>
       <c r="E46" s="3">
-        <v>9945700</v>
+        <v>8655300</v>
       </c>
       <c r="F46" s="3">
-        <v>8352500</v>
+        <v>10052600</v>
       </c>
       <c r="G46" s="3">
-        <v>8284400</v>
+        <v>8442200</v>
       </c>
       <c r="H46" s="3">
-        <v>7879200</v>
+        <v>8373400</v>
       </c>
       <c r="I46" s="3">
-        <v>8714800</v>
+        <v>7963900</v>
       </c>
       <c r="J46" s="3">
+        <v>8808500</v>
+      </c>
+      <c r="K46" s="3">
         <v>8321700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7189700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1986300</v>
+        <v>1560400</v>
       </c>
       <c r="E47" s="3">
-        <v>1730400</v>
+        <v>2007600</v>
       </c>
       <c r="F47" s="3">
-        <v>1537200</v>
+        <v>1749000</v>
       </c>
       <c r="G47" s="3">
-        <v>1477900</v>
+        <v>1553700</v>
       </c>
       <c r="H47" s="3">
-        <v>1805100</v>
+        <v>1493800</v>
       </c>
       <c r="I47" s="3">
-        <v>2349700</v>
+        <v>1824500</v>
       </c>
       <c r="J47" s="3">
+        <v>2375000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2246500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2734300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18570500</v>
+        <v>20073000</v>
       </c>
       <c r="E48" s="3">
-        <v>44879700</v>
+        <v>19393800</v>
       </c>
       <c r="F48" s="3">
-        <v>11637700</v>
+        <v>38855200</v>
       </c>
       <c r="G48" s="3">
-        <v>11433500</v>
+        <v>11762800</v>
       </c>
       <c r="H48" s="3">
-        <v>23009700</v>
+        <v>11556300</v>
       </c>
       <c r="I48" s="3">
-        <v>12308600</v>
+        <v>23257000</v>
       </c>
       <c r="J48" s="3">
+        <v>12440900</v>
+      </c>
+      <c r="K48" s="3">
         <v>26308100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6730800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1549300</v>
+        <v>1689100</v>
       </c>
       <c r="E49" s="3">
-        <v>2938200</v>
+        <v>1565900</v>
       </c>
       <c r="F49" s="3">
-        <v>1409800</v>
+        <v>2969800</v>
       </c>
       <c r="G49" s="3">
-        <v>1389000</v>
+        <v>1425000</v>
       </c>
       <c r="H49" s="3">
-        <v>2749400</v>
+        <v>1403900</v>
       </c>
       <c r="I49" s="3">
-        <v>1244000</v>
+        <v>2778900</v>
       </c>
       <c r="J49" s="3">
+        <v>1257400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2402400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2214800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1238500</v>
+        <v>1310700</v>
       </c>
       <c r="E52" s="3">
-        <v>1594300</v>
+        <v>1268500</v>
       </c>
       <c r="F52" s="3">
-        <v>2242100</v>
+        <v>1611400</v>
       </c>
       <c r="G52" s="3">
-        <v>3037100</v>
+        <v>2266200</v>
       </c>
       <c r="H52" s="3">
-        <v>3221500</v>
+        <v>3069700</v>
       </c>
       <c r="I52" s="3">
-        <v>3295100</v>
+        <v>3256200</v>
       </c>
       <c r="J52" s="3">
+        <v>3330500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4415100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7902200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31904600</v>
+        <v>34109700</v>
       </c>
       <c r="E54" s="3">
-        <v>32899400</v>
+        <v>32891100</v>
       </c>
       <c r="F54" s="3">
-        <v>25179300</v>
+        <v>33252900</v>
       </c>
       <c r="G54" s="3">
-        <v>25621800</v>
+        <v>25449900</v>
       </c>
       <c r="H54" s="3">
-        <v>25518600</v>
+        <v>25897200</v>
       </c>
       <c r="I54" s="3">
-        <v>27912300</v>
+        <v>25792900</v>
       </c>
       <c r="J54" s="3">
+        <v>28212200</v>
+      </c>
+      <c r="K54" s="3">
         <v>29338600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29861800</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2701100</v>
+        <v>2640200</v>
       </c>
       <c r="E57" s="3">
-        <v>2596800</v>
+        <v>2723400</v>
       </c>
       <c r="F57" s="3">
-        <v>2590200</v>
+        <v>2624700</v>
       </c>
       <c r="G57" s="3">
-        <v>2629700</v>
+        <v>2618000</v>
       </c>
       <c r="H57" s="3">
-        <v>2683500</v>
+        <v>2658000</v>
       </c>
       <c r="I57" s="3">
-        <v>2601200</v>
+        <v>2712400</v>
       </c>
       <c r="J57" s="3">
+        <v>2629100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2436500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2916100</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1927000</v>
+        <v>1947700</v>
       </c>
       <c r="E58" s="3">
-        <v>4040600</v>
+        <v>1947700</v>
       </c>
       <c r="F58" s="3">
-        <v>1028800</v>
+        <v>4084100</v>
       </c>
       <c r="G58" s="3">
-        <v>2113700</v>
+        <v>1039900</v>
       </c>
       <c r="H58" s="3">
-        <v>5132100</v>
+        <v>2136400</v>
       </c>
       <c r="I58" s="3">
-        <v>1811700</v>
+        <v>5187200</v>
       </c>
       <c r="J58" s="3">
+        <v>1831200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3308300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2849900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8896000</v>
+        <v>9449900</v>
       </c>
       <c r="E59" s="3">
-        <v>11673900</v>
+        <v>9026000</v>
       </c>
       <c r="F59" s="3">
-        <v>7515800</v>
+        <v>11799400</v>
       </c>
       <c r="G59" s="3">
-        <v>8431500</v>
+        <v>7596600</v>
       </c>
       <c r="H59" s="3">
-        <v>11750800</v>
+        <v>8522200</v>
       </c>
       <c r="I59" s="3">
-        <v>10068700</v>
+        <v>11877100</v>
       </c>
       <c r="J59" s="3">
+        <v>10176900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9336300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11662000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13524100</v>
+        <v>14037900</v>
       </c>
       <c r="E60" s="3">
-        <v>13235300</v>
+        <v>13697200</v>
       </c>
       <c r="F60" s="3">
-        <v>11134800</v>
+        <v>13377500</v>
       </c>
       <c r="G60" s="3">
-        <v>13174900</v>
+        <v>11254500</v>
       </c>
       <c r="H60" s="3">
-        <v>12986000</v>
+        <v>13316500</v>
       </c>
       <c r="I60" s="3">
-        <v>11918800</v>
+        <v>13125600</v>
       </c>
       <c r="J60" s="3">
+        <v>12046900</v>
+      </c>
+      <c r="K60" s="3">
         <v>10790000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10262800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10187200</v>
+        <v>10454300</v>
       </c>
       <c r="E61" s="3">
-        <v>10825200</v>
+        <v>10296700</v>
       </c>
       <c r="F61" s="3">
-        <v>8159200</v>
+        <v>10941500</v>
       </c>
       <c r="G61" s="3">
-        <v>7751900</v>
+        <v>8246900</v>
       </c>
       <c r="H61" s="3">
-        <v>8777400</v>
+        <v>7835200</v>
       </c>
       <c r="I61" s="3">
-        <v>9438400</v>
+        <v>8871700</v>
       </c>
       <c r="J61" s="3">
+        <v>9539800</v>
+      </c>
+      <c r="K61" s="3">
         <v>10502400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10353700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6145500</v>
+        <v>7066100</v>
       </c>
       <c r="E62" s="3">
-        <v>6578100</v>
+        <v>6901800</v>
       </c>
       <c r="F62" s="3">
-        <v>4462300</v>
+        <v>6648800</v>
       </c>
       <c r="G62" s="3">
-        <v>4395300</v>
+        <v>4510200</v>
       </c>
       <c r="H62" s="3">
-        <v>5060700</v>
+        <v>4442500</v>
       </c>
       <c r="I62" s="3">
-        <v>4473300</v>
+        <v>5115100</v>
       </c>
       <c r="J62" s="3">
+        <v>4521300</v>
+      </c>
+      <c r="K62" s="3">
         <v>4509500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3911300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29870000</v>
+        <v>31574900</v>
       </c>
       <c r="E66" s="3">
-        <v>30255400</v>
+        <v>30909000</v>
       </c>
       <c r="F66" s="3">
-        <v>23769500</v>
+        <v>30580500</v>
       </c>
       <c r="G66" s="3">
-        <v>25374800</v>
+        <v>24025000</v>
       </c>
       <c r="H66" s="3">
-        <v>26278400</v>
+        <v>25647500</v>
       </c>
       <c r="I66" s="3">
-        <v>25447200</v>
+        <v>26560800</v>
       </c>
       <c r="J66" s="3">
+        <v>25720700</v>
+      </c>
+      <c r="K66" s="3">
         <v>25397800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24300100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1313200</v>
+        <v>-1085400</v>
       </c>
       <c r="E72" s="3">
-        <v>-4617100</v>
+        <v>-1428300</v>
       </c>
       <c r="F72" s="3">
-        <v>341500</v>
+        <v>-4666700</v>
       </c>
       <c r="G72" s="3">
-        <v>-498500</v>
+        <v>345100</v>
       </c>
       <c r="H72" s="3">
-        <v>-4891600</v>
+        <v>-503800</v>
       </c>
       <c r="I72" s="3">
-        <v>-1033200</v>
+        <v>-4944200</v>
       </c>
       <c r="J72" s="3">
+        <v>-1044300</v>
+      </c>
+      <c r="K72" s="3">
         <v>442500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1991500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2034600</v>
+        <v>2534800</v>
       </c>
       <c r="E76" s="3">
-        <v>2644000</v>
+        <v>1982100</v>
       </c>
       <c r="F76" s="3">
-        <v>1409800</v>
+        <v>2672400</v>
       </c>
       <c r="G76" s="3">
-        <v>247100</v>
+        <v>1425000</v>
       </c>
       <c r="H76" s="3">
-        <v>-759800</v>
+        <v>249700</v>
       </c>
       <c r="I76" s="3">
-        <v>2465000</v>
+        <v>-768000</v>
       </c>
       <c r="J76" s="3">
+        <v>2491500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3940700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5561700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408500</v>
+        <v>302400</v>
       </c>
       <c r="E81" s="3">
-        <v>151500</v>
+        <v>437500</v>
       </c>
       <c r="F81" s="3">
-        <v>869600</v>
+        <v>152800</v>
       </c>
       <c r="G81" s="3">
-        <v>109800</v>
+        <v>877200</v>
       </c>
       <c r="H81" s="3">
-        <v>-247100</v>
+        <v>110800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2006000</v>
+        <v>-249200</v>
       </c>
       <c r="J81" s="3">
+        <v>-2023600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1345100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-495900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3167700</v>
+        <v>3308400</v>
       </c>
       <c r="E83" s="3">
-        <v>3118300</v>
+        <v>3198700</v>
       </c>
       <c r="F83" s="3">
-        <v>1828200</v>
+        <v>3145600</v>
       </c>
       <c r="G83" s="3">
-        <v>1791900</v>
+        <v>1844200</v>
       </c>
       <c r="H83" s="3">
-        <v>1894100</v>
+        <v>1807600</v>
       </c>
       <c r="I83" s="3">
-        <v>1905000</v>
+        <v>1910600</v>
       </c>
       <c r="J83" s="3">
+        <v>1921700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1919300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4075800</v>
+        <v>4314100</v>
       </c>
       <c r="E89" s="3">
-        <v>4500700</v>
+        <v>4206700</v>
       </c>
       <c r="F89" s="3">
-        <v>2458400</v>
+        <v>4540100</v>
       </c>
       <c r="G89" s="3">
-        <v>2086200</v>
+        <v>2479900</v>
       </c>
       <c r="H89" s="3">
-        <v>1117800</v>
+        <v>2104400</v>
       </c>
       <c r="I89" s="3">
-        <v>1623900</v>
+        <v>1127500</v>
       </c>
       <c r="J89" s="3">
+        <v>1638100</v>
+      </c>
+      <c r="K89" s="3">
         <v>934400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>626100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2759300</v>
+        <v>-3734800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2549600</v>
+        <v>-5933400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2102700</v>
+        <v>-2571800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3484000</v>
+        <v>-2121100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1571200</v>
+        <v>-3514400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1302200</v>
+        <v>-1585000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1313600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1616300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2100400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2874600</v>
+        <v>-3675000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2955800</v>
+        <v>-2995000</v>
       </c>
       <c r="F94" s="3">
-        <v>-798200</v>
+        <v>-2981700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1275900</v>
+        <v>-805200</v>
       </c>
       <c r="H94" s="3">
-        <v>-621500</v>
+        <v>-1287000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1014600</v>
+        <v>-626900</v>
       </c>
       <c r="J94" s="3">
+        <v>-1023400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-269000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-41700</v>
+        <v>-28800</v>
       </c>
       <c r="E96" s="3">
-        <v>-41700</v>
+        <v>-42100</v>
       </c>
       <c r="F96" s="3">
-        <v>-41700</v>
+        <v>-42100</v>
       </c>
       <c r="G96" s="3">
-        <v>-20900</v>
+        <v>-42100</v>
       </c>
       <c r="H96" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-2200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2402400</v>
+        <v>-495100</v>
       </c>
       <c r="E100" s="3">
-        <v>-702700</v>
+        <v>-2423400</v>
       </c>
       <c r="F100" s="3">
-        <v>-732400</v>
+        <v>-708900</v>
       </c>
       <c r="G100" s="3">
-        <v>-553400</v>
+        <v>-738800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1079300</v>
+        <v>-558200</v>
       </c>
       <c r="I100" s="3">
-        <v>-173500</v>
+        <v>-1088800</v>
       </c>
       <c r="J100" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="K100" s="3">
         <v>476500</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7700</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>-36200</v>
+        <v>7800</v>
       </c>
       <c r="F101" s="3">
-        <v>-14300</v>
+        <v>-36600</v>
       </c>
       <c r="G101" s="3">
-        <v>-47200</v>
+        <v>-14400</v>
       </c>
       <c r="H101" s="3">
-        <v>-84500</v>
+        <v>-47600</v>
       </c>
       <c r="I101" s="3">
-        <v>-39500</v>
+        <v>-85300</v>
       </c>
       <c r="J101" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3300</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1193500</v>
+        <v>145100</v>
       </c>
       <c r="E102" s="3">
-        <v>805900</v>
+        <v>-1204000</v>
       </c>
       <c r="F102" s="3">
-        <v>913500</v>
+        <v>813000</v>
       </c>
       <c r="G102" s="3">
-        <v>209700</v>
+        <v>921500</v>
       </c>
       <c r="H102" s="3">
-        <v>-667600</v>
+        <v>211600</v>
       </c>
       <c r="I102" s="3">
-        <v>396400</v>
+        <v>-673400</v>
       </c>
       <c r="J102" s="3">
+        <v>399800</v>
+      </c>
+      <c r="K102" s="3">
         <v>1138600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1640300</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>30114500</v>
+        <v>32161900</v>
       </c>
       <c r="E8" s="3">
-        <v>29049000</v>
+        <v>31023900</v>
       </c>
       <c r="F8" s="3">
-        <v>28650300</v>
+        <v>30598100</v>
       </c>
       <c r="G8" s="3">
-        <v>27519400</v>
+        <v>29390300</v>
       </c>
       <c r="H8" s="3">
-        <v>28455400</v>
+        <v>30389900</v>
       </c>
       <c r="I8" s="3">
-        <v>27612500</v>
+        <v>29489700</v>
       </c>
       <c r="J8" s="3">
-        <v>28277000</v>
+        <v>30199400</v>
       </c>
       <c r="K8" s="3">
         <v>27932000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15240600</v>
+        <v>16276700</v>
       </c>
       <c r="E9" s="3">
-        <v>14311300</v>
+        <v>15284300</v>
       </c>
       <c r="F9" s="3">
-        <v>14871700</v>
+        <v>15882800</v>
       </c>
       <c r="G9" s="3">
-        <v>15983800</v>
+        <v>17070400</v>
       </c>
       <c r="H9" s="3">
-        <v>17732700</v>
+        <v>18938200</v>
       </c>
       <c r="I9" s="3">
-        <v>16915300</v>
+        <v>18065200</v>
       </c>
       <c r="J9" s="3">
-        <v>16774600</v>
+        <v>17915000</v>
       </c>
       <c r="K9" s="3">
         <v>34958100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>14874000</v>
+        <v>15885200</v>
       </c>
       <c r="E10" s="3">
-        <v>14737700</v>
+        <v>15739700</v>
       </c>
       <c r="F10" s="3">
-        <v>13778500</v>
+        <v>14715300</v>
       </c>
       <c r="G10" s="3">
-        <v>11535700</v>
+        <v>12319900</v>
       </c>
       <c r="H10" s="3">
-        <v>10722700</v>
+        <v>11451700</v>
       </c>
       <c r="I10" s="3">
-        <v>10697200</v>
+        <v>11424400</v>
       </c>
       <c r="J10" s="3">
-        <v>11502400</v>
+        <v>12284400</v>
       </c>
       <c r="K10" s="3">
         <v>-7026100</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>169500</v>
+        <v>181000</v>
       </c>
       <c r="E14" s="3">
-        <v>26600</v>
+        <v>28400</v>
       </c>
       <c r="F14" s="3">
-        <v>2132100</v>
+        <v>2277100</v>
       </c>
       <c r="G14" s="3">
-        <v>159500</v>
+        <v>170300</v>
       </c>
       <c r="H14" s="3">
-        <v>155100</v>
+        <v>165600</v>
       </c>
       <c r="I14" s="3">
-        <v>-767600</v>
+        <v>-819700</v>
       </c>
       <c r="J14" s="3">
-        <v>382100</v>
+        <v>408100</v>
       </c>
       <c r="K14" s="3">
         <v>442500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3257500</v>
+        <v>3478900</v>
       </c>
       <c r="E15" s="3">
-        <v>3178800</v>
+        <v>3394900</v>
       </c>
       <c r="F15" s="3">
-        <v>3052500</v>
+        <v>3260100</v>
       </c>
       <c r="G15" s="3">
-        <v>1740000</v>
+        <v>1858300</v>
       </c>
       <c r="H15" s="3">
-        <v>1742300</v>
+        <v>1860700</v>
       </c>
       <c r="I15" s="3">
-        <v>1760000</v>
+        <v>1879600</v>
       </c>
       <c r="J15" s="3">
-        <v>1734500</v>
+        <v>1852400</v>
       </c>
       <c r="K15" s="3">
         <v>1730400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>28995900</v>
+        <v>30967100</v>
       </c>
       <c r="E17" s="3">
-        <v>27506100</v>
+        <v>29376100</v>
       </c>
       <c r="F17" s="3">
-        <v>28632600</v>
+        <v>30579100</v>
       </c>
       <c r="G17" s="3">
-        <v>26292200</v>
+        <v>28079700</v>
       </c>
       <c r="H17" s="3">
-        <v>27252500</v>
+        <v>29105300</v>
       </c>
       <c r="I17" s="3">
-        <v>26774000</v>
+        <v>28594200</v>
       </c>
       <c r="J17" s="3">
-        <v>28528500</v>
+        <v>30468000</v>
       </c>
       <c r="K17" s="3">
         <v>28734700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1118700</v>
+        <v>1194700</v>
       </c>
       <c r="E18" s="3">
-        <v>1542900</v>
+        <v>1647800</v>
       </c>
       <c r="F18" s="3">
-        <v>17700</v>
+        <v>18900</v>
       </c>
       <c r="G18" s="3">
-        <v>1227200</v>
+        <v>1310700</v>
       </c>
       <c r="H18" s="3">
-        <v>1202900</v>
+        <v>1284600</v>
       </c>
       <c r="I18" s="3">
-        <v>838500</v>
+        <v>895500</v>
       </c>
       <c r="J18" s="3">
-        <v>-251400</v>
+        <v>-268500</v>
       </c>
       <c r="K18" s="3">
         <v>-802600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-283500</v>
+        <v>-302800</v>
       </c>
       <c r="E20" s="3">
-        <v>-363300</v>
+        <v>-388000</v>
       </c>
       <c r="F20" s="3">
-        <v>683400</v>
+        <v>729800</v>
       </c>
       <c r="G20" s="3">
-        <v>-62000</v>
+        <v>-66200</v>
       </c>
       <c r="H20" s="3">
-        <v>-704400</v>
+        <v>-752300</v>
       </c>
       <c r="I20" s="3">
-        <v>-448600</v>
+        <v>-479100</v>
       </c>
       <c r="J20" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="K20" s="3">
         <v>146000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4121700</v>
+        <v>4426500</v>
       </c>
       <c r="E21" s="3">
-        <v>4357300</v>
+        <v>4677200</v>
       </c>
       <c r="F21" s="3">
-        <v>3826000</v>
+        <v>4109400</v>
       </c>
       <c r="G21" s="3">
-        <v>2997200</v>
+        <v>3214600</v>
       </c>
       <c r="H21" s="3">
-        <v>2294100</v>
+        <v>2463500</v>
       </c>
       <c r="I21" s="3">
-        <v>2287900</v>
+        <v>2457600</v>
       </c>
       <c r="J21" s="3">
-        <v>1718500</v>
+        <v>1849600</v>
       </c>
       <c r="K21" s="3">
         <v>1265700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>451900</v>
+        <v>482600</v>
       </c>
       <c r="E22" s="3">
-        <v>480700</v>
+        <v>513400</v>
       </c>
       <c r="F22" s="3">
-        <v>558200</v>
+        <v>596200</v>
       </c>
       <c r="G22" s="3">
-        <v>253600</v>
+        <v>270900</v>
       </c>
       <c r="H22" s="3">
-        <v>314600</v>
+        <v>335900</v>
       </c>
       <c r="I22" s="3">
-        <v>365500</v>
+        <v>390400</v>
       </c>
       <c r="J22" s="3">
-        <v>394300</v>
+        <v>421100</v>
       </c>
       <c r="K22" s="3">
         <v>375500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>383200</v>
+        <v>409300</v>
       </c>
       <c r="E23" s="3">
-        <v>698900</v>
+        <v>746400</v>
       </c>
       <c r="F23" s="3">
-        <v>142900</v>
+        <v>152600</v>
       </c>
       <c r="G23" s="3">
-        <v>911600</v>
+        <v>973500</v>
       </c>
       <c r="H23" s="3">
-        <v>183900</v>
+        <v>196400</v>
       </c>
       <c r="I23" s="3">
-        <v>24400</v>
+        <v>26000</v>
       </c>
       <c r="J23" s="3">
-        <v>-584800</v>
+        <v>-624600</v>
       </c>
       <c r="K23" s="3">
         <v>-1032100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>84200</v>
+        <v>89900</v>
       </c>
       <c r="E24" s="3">
-        <v>248100</v>
+        <v>265000</v>
       </c>
       <c r="F24" s="3">
-        <v>-23300</v>
+        <v>-24800</v>
       </c>
       <c r="G24" s="3">
-        <v>325600</v>
+        <v>347800</v>
       </c>
       <c r="H24" s="3">
-        <v>33200</v>
+        <v>35500</v>
       </c>
       <c r="I24" s="3">
-        <v>216000</v>
+        <v>230700</v>
       </c>
       <c r="J24" s="3">
-        <v>1060000</v>
+        <v>1132000</v>
       </c>
       <c r="K24" s="3">
         <v>18700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>299100</v>
+        <v>319400</v>
       </c>
       <c r="E26" s="3">
-        <v>450800</v>
+        <v>481400</v>
       </c>
       <c r="F26" s="3">
-        <v>166100</v>
+        <v>177400</v>
       </c>
       <c r="G26" s="3">
-        <v>585900</v>
+        <v>625800</v>
       </c>
       <c r="H26" s="3">
-        <v>150600</v>
+        <v>160900</v>
       </c>
       <c r="I26" s="3">
-        <v>-191600</v>
+        <v>-204600</v>
       </c>
       <c r="J26" s="3">
-        <v>-1644800</v>
+        <v>-1756600</v>
       </c>
       <c r="K26" s="3">
         <v>-1050800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>302400</v>
+        <v>322900</v>
       </c>
       <c r="E27" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="F27" s="3">
-        <v>161700</v>
+        <v>172700</v>
       </c>
       <c r="G27" s="3">
-        <v>578200</v>
+        <v>617500</v>
       </c>
       <c r="H27" s="3">
-        <v>82000</v>
+        <v>87500</v>
       </c>
       <c r="I27" s="3">
-        <v>-244800</v>
+        <v>-261400</v>
       </c>
       <c r="J27" s="3">
-        <v>-1888500</v>
+        <v>-2016800</v>
       </c>
       <c r="K27" s="3">
         <v>-1128700</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-8900</v>
+        <v>-9500</v>
       </c>
       <c r="G29" s="3">
-        <v>299100</v>
+        <v>319400</v>
       </c>
       <c r="H29" s="3">
-        <v>28800</v>
+        <v>30800</v>
       </c>
       <c r="I29" s="3">
-        <v>-4400</v>
+        <v>-4700</v>
       </c>
       <c r="J29" s="3">
-        <v>-135100</v>
+        <v>-144300</v>
       </c>
       <c r="K29" s="3">
         <v>-216300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>283500</v>
+        <v>302800</v>
       </c>
       <c r="E32" s="3">
-        <v>363300</v>
+        <v>388000</v>
       </c>
       <c r="F32" s="3">
-        <v>-683400</v>
+        <v>-729800</v>
       </c>
       <c r="G32" s="3">
-        <v>62000</v>
+        <v>66200</v>
       </c>
       <c r="H32" s="3">
-        <v>704400</v>
+        <v>752300</v>
       </c>
       <c r="I32" s="3">
-        <v>448600</v>
+        <v>479100</v>
       </c>
       <c r="J32" s="3">
-        <v>-60900</v>
+        <v>-65100</v>
       </c>
       <c r="K32" s="3">
         <v>-146000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>302400</v>
+        <v>322900</v>
       </c>
       <c r="E33" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="F33" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="G33" s="3">
-        <v>877200</v>
+        <v>936900</v>
       </c>
       <c r="H33" s="3">
-        <v>110800</v>
+        <v>118300</v>
       </c>
       <c r="I33" s="3">
-        <v>-249200</v>
+        <v>-266200</v>
       </c>
       <c r="J33" s="3">
-        <v>-2023600</v>
+        <v>-2161200</v>
       </c>
       <c r="K33" s="3">
         <v>-1345100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>302400</v>
+        <v>322900</v>
       </c>
       <c r="E35" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="F35" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="G35" s="3">
-        <v>877200</v>
+        <v>936900</v>
       </c>
       <c r="H35" s="3">
-        <v>110800</v>
+        <v>118300</v>
       </c>
       <c r="I35" s="3">
-        <v>-249200</v>
+        <v>-266200</v>
       </c>
       <c r="J35" s="3">
-        <v>-2023600</v>
+        <v>-2161200</v>
       </c>
       <c r="K35" s="3">
         <v>-1345100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4122900</v>
+        <v>4394500</v>
       </c>
       <c r="E41" s="3">
-        <v>3978600</v>
+        <v>4240700</v>
       </c>
       <c r="F41" s="3">
-        <v>10373300</v>
+        <v>11056600</v>
       </c>
       <c r="G41" s="3">
-        <v>4370400</v>
+        <v>4658300</v>
       </c>
       <c r="H41" s="3">
-        <v>3444800</v>
+        <v>3671700</v>
       </c>
       <c r="I41" s="3">
-        <v>7011700</v>
+        <v>7473600</v>
       </c>
       <c r="J41" s="3">
-        <v>4088500</v>
+        <v>4357800</v>
       </c>
       <c r="K41" s="3">
         <v>7510300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>887800</v>
+        <v>946300</v>
       </c>
       <c r="E42" s="3">
-        <v>360700</v>
+        <v>384400</v>
       </c>
       <c r="F42" s="3">
-        <v>467200</v>
+        <v>498000</v>
       </c>
       <c r="G42" s="3">
-        <v>144300</v>
+        <v>153800</v>
       </c>
       <c r="H42" s="3">
-        <v>1073200</v>
+        <v>1143900</v>
       </c>
       <c r="I42" s="3">
-        <v>873400</v>
+        <v>930900</v>
       </c>
       <c r="J42" s="3">
-        <v>1144200</v>
+        <v>1219600</v>
       </c>
       <c r="K42" s="3">
         <v>1024400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3006400</v>
+        <v>3204500</v>
       </c>
       <c r="E43" s="3">
-        <v>2987600</v>
+        <v>3184400</v>
       </c>
       <c r="F43" s="3">
-        <v>5296000</v>
+        <v>5644800</v>
       </c>
       <c r="G43" s="3">
-        <v>2509300</v>
+        <v>2674500</v>
       </c>
       <c r="H43" s="3">
-        <v>2469300</v>
+        <v>2632000</v>
       </c>
       <c r="I43" s="3">
-        <v>4322700</v>
+        <v>4607400</v>
       </c>
       <c r="J43" s="3">
-        <v>2534800</v>
+        <v>2701700</v>
       </c>
       <c r="K43" s="3">
         <v>4172400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>817900</v>
+        <v>871800</v>
       </c>
       <c r="E44" s="3">
-        <v>702500</v>
+        <v>748800</v>
       </c>
       <c r="F44" s="3">
-        <v>1236300</v>
+        <v>1317800</v>
       </c>
       <c r="G44" s="3">
-        <v>628100</v>
+        <v>669500</v>
       </c>
       <c r="H44" s="3">
-        <v>590400</v>
+        <v>629300</v>
       </c>
       <c r="I44" s="3">
-        <v>1194100</v>
+        <v>1272800</v>
       </c>
       <c r="J44" s="3">
-        <v>567100</v>
+        <v>604500</v>
       </c>
       <c r="K44" s="3">
         <v>1144100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>641500</v>
+        <v>683700</v>
       </c>
       <c r="E45" s="3">
-        <v>625900</v>
+        <v>667200</v>
       </c>
       <c r="F45" s="3">
-        <v>2265100</v>
+        <v>2414300</v>
       </c>
       <c r="G45" s="3">
-        <v>790200</v>
+        <v>842200</v>
       </c>
       <c r="H45" s="3">
-        <v>795700</v>
+        <v>848100</v>
       </c>
       <c r="I45" s="3">
-        <v>1649200</v>
+        <v>1757800</v>
       </c>
       <c r="J45" s="3">
-        <v>933300</v>
+        <v>994800</v>
       </c>
       <c r="K45" s="3">
         <v>1748000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9476600</v>
+        <v>10100800</v>
       </c>
       <c r="E46" s="3">
-        <v>8655300</v>
+        <v>9225400</v>
       </c>
       <c r="F46" s="3">
-        <v>10052600</v>
+        <v>10714700</v>
       </c>
       <c r="G46" s="3">
-        <v>8442200</v>
+        <v>8998300</v>
       </c>
       <c r="H46" s="3">
-        <v>8373400</v>
+        <v>8925000</v>
       </c>
       <c r="I46" s="3">
-        <v>7963900</v>
+        <v>8488500</v>
       </c>
       <c r="J46" s="3">
-        <v>8808500</v>
+        <v>9388700</v>
       </c>
       <c r="K46" s="3">
         <v>8321700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1560400</v>
+        <v>1663200</v>
       </c>
       <c r="E47" s="3">
-        <v>2007600</v>
+        <v>2139900</v>
       </c>
       <c r="F47" s="3">
-        <v>1749000</v>
+        <v>1864300</v>
       </c>
       <c r="G47" s="3">
-        <v>1553700</v>
+        <v>1656100</v>
       </c>
       <c r="H47" s="3">
-        <v>1493800</v>
+        <v>1592200</v>
       </c>
       <c r="I47" s="3">
-        <v>1824500</v>
+        <v>1944700</v>
       </c>
       <c r="J47" s="3">
-        <v>2375000</v>
+        <v>2531400</v>
       </c>
       <c r="K47" s="3">
         <v>2246500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20073000</v>
+        <v>21395100</v>
       </c>
       <c r="E48" s="3">
-        <v>19393800</v>
+        <v>20671200</v>
       </c>
       <c r="F48" s="3">
-        <v>38855200</v>
+        <v>41414500</v>
       </c>
       <c r="G48" s="3">
-        <v>11762800</v>
+        <v>12537600</v>
       </c>
       <c r="H48" s="3">
-        <v>11556300</v>
+        <v>12317500</v>
       </c>
       <c r="I48" s="3">
-        <v>23257000</v>
+        <v>24788900</v>
       </c>
       <c r="J48" s="3">
-        <v>12440900</v>
+        <v>13260300</v>
       </c>
       <c r="K48" s="3">
         <v>26308100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1689100</v>
+        <v>1800400</v>
       </c>
       <c r="E49" s="3">
-        <v>1565900</v>
+        <v>1669100</v>
       </c>
       <c r="F49" s="3">
-        <v>2969800</v>
+        <v>3165400</v>
       </c>
       <c r="G49" s="3">
-        <v>1425000</v>
+        <v>1518800</v>
       </c>
       <c r="H49" s="3">
-        <v>1403900</v>
+        <v>1496400</v>
       </c>
       <c r="I49" s="3">
-        <v>2778900</v>
+        <v>2962000</v>
       </c>
       <c r="J49" s="3">
-        <v>1257400</v>
+        <v>1340200</v>
       </c>
       <c r="K49" s="3">
         <v>2402400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1310700</v>
+        <v>1397000</v>
       </c>
       <c r="E52" s="3">
-        <v>1268500</v>
+        <v>1352100</v>
       </c>
       <c r="F52" s="3">
-        <v>1611400</v>
+        <v>1717600</v>
       </c>
       <c r="G52" s="3">
-        <v>2266200</v>
+        <v>2415500</v>
       </c>
       <c r="H52" s="3">
-        <v>3069700</v>
+        <v>3271900</v>
       </c>
       <c r="I52" s="3">
-        <v>3256200</v>
+        <v>3470600</v>
       </c>
       <c r="J52" s="3">
-        <v>3330500</v>
+        <v>3549900</v>
       </c>
       <c r="K52" s="3">
         <v>4415100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34109700</v>
+        <v>36356400</v>
       </c>
       <c r="E54" s="3">
-        <v>32891100</v>
+        <v>35057600</v>
       </c>
       <c r="F54" s="3">
-        <v>33252900</v>
+        <v>35443200</v>
       </c>
       <c r="G54" s="3">
-        <v>25449900</v>
+        <v>27126300</v>
       </c>
       <c r="H54" s="3">
-        <v>25897200</v>
+        <v>27603000</v>
       </c>
       <c r="I54" s="3">
-        <v>25792900</v>
+        <v>27491800</v>
       </c>
       <c r="J54" s="3">
-        <v>28212200</v>
+        <v>30070500</v>
       </c>
       <c r="K54" s="3">
         <v>29338600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2640200</v>
+        <v>2814100</v>
       </c>
       <c r="E57" s="3">
-        <v>2723400</v>
+        <v>2902800</v>
       </c>
       <c r="F57" s="3">
-        <v>2624700</v>
+        <v>2797600</v>
       </c>
       <c r="G57" s="3">
-        <v>2618000</v>
+        <v>2790500</v>
       </c>
       <c r="H57" s="3">
-        <v>2658000</v>
+        <v>2833000</v>
       </c>
       <c r="I57" s="3">
-        <v>2712400</v>
+        <v>2891000</v>
       </c>
       <c r="J57" s="3">
-        <v>2629100</v>
+        <v>2802300</v>
       </c>
       <c r="K57" s="3">
         <v>2436500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1947700</v>
+        <v>2076000</v>
       </c>
       <c r="E58" s="3">
-        <v>1947700</v>
+        <v>2076000</v>
       </c>
       <c r="F58" s="3">
-        <v>4084100</v>
+        <v>4353100</v>
       </c>
       <c r="G58" s="3">
-        <v>1039900</v>
+        <v>1108400</v>
       </c>
       <c r="H58" s="3">
-        <v>2136400</v>
+        <v>2277100</v>
       </c>
       <c r="I58" s="3">
-        <v>5187200</v>
+        <v>5528900</v>
       </c>
       <c r="J58" s="3">
-        <v>1831200</v>
+        <v>1951800</v>
       </c>
       <c r="K58" s="3">
         <v>3308300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9449900</v>
+        <v>10072400</v>
       </c>
       <c r="E59" s="3">
-        <v>9026000</v>
+        <v>9620500</v>
       </c>
       <c r="F59" s="3">
-        <v>11799400</v>
+        <v>12576600</v>
       </c>
       <c r="G59" s="3">
-        <v>7596600</v>
+        <v>8097000</v>
       </c>
       <c r="H59" s="3">
-        <v>8522200</v>
+        <v>9083500</v>
       </c>
       <c r="I59" s="3">
-        <v>11877100</v>
+        <v>12659400</v>
       </c>
       <c r="J59" s="3">
-        <v>10176900</v>
+        <v>10847200</v>
       </c>
       <c r="K59" s="3">
         <v>9336300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14037900</v>
+        <v>14962500</v>
       </c>
       <c r="E60" s="3">
-        <v>13697200</v>
+        <v>14599400</v>
       </c>
       <c r="F60" s="3">
-        <v>13377500</v>
+        <v>14258700</v>
       </c>
       <c r="G60" s="3">
-        <v>11254500</v>
+        <v>11995800</v>
       </c>
       <c r="H60" s="3">
-        <v>13316500</v>
+        <v>14193600</v>
       </c>
       <c r="I60" s="3">
-        <v>13125600</v>
+        <v>13990200</v>
       </c>
       <c r="J60" s="3">
-        <v>12046900</v>
+        <v>12840400</v>
       </c>
       <c r="K60" s="3">
         <v>10790000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10454300</v>
+        <v>11142900</v>
       </c>
       <c r="E61" s="3">
-        <v>10296700</v>
+        <v>10974900</v>
       </c>
       <c r="F61" s="3">
-        <v>10941500</v>
+        <v>11662200</v>
       </c>
       <c r="G61" s="3">
-        <v>8246900</v>
+        <v>8790100</v>
       </c>
       <c r="H61" s="3">
-        <v>7835200</v>
+        <v>8351300</v>
       </c>
       <c r="I61" s="3">
-        <v>8871700</v>
+        <v>9456100</v>
       </c>
       <c r="J61" s="3">
-        <v>9539800</v>
+        <v>10168200</v>
       </c>
       <c r="K61" s="3">
         <v>10502400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7066100</v>
+        <v>7531500</v>
       </c>
       <c r="E62" s="3">
-        <v>6901800</v>
+        <v>7356500</v>
       </c>
       <c r="F62" s="3">
-        <v>6648800</v>
+        <v>7086800</v>
       </c>
       <c r="G62" s="3">
-        <v>4510200</v>
+        <v>4807300</v>
       </c>
       <c r="H62" s="3">
-        <v>4442500</v>
+        <v>4735100</v>
       </c>
       <c r="I62" s="3">
-        <v>5115100</v>
+        <v>5452000</v>
       </c>
       <c r="J62" s="3">
-        <v>4521300</v>
+        <v>4819100</v>
       </c>
       <c r="K62" s="3">
         <v>4509500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>31574900</v>
+        <v>33654700</v>
       </c>
       <c r="E66" s="3">
-        <v>30909000</v>
+        <v>32944900</v>
       </c>
       <c r="F66" s="3">
-        <v>30580500</v>
+        <v>32594800</v>
       </c>
       <c r="G66" s="3">
-        <v>24025000</v>
+        <v>25607400</v>
       </c>
       <c r="H66" s="3">
-        <v>25647500</v>
+        <v>27336800</v>
       </c>
       <c r="I66" s="3">
-        <v>26560800</v>
+        <v>28310300</v>
       </c>
       <c r="J66" s="3">
-        <v>25720700</v>
+        <v>27414900</v>
       </c>
       <c r="K66" s="3">
         <v>25397800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1085400</v>
+        <v>-1156900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1428300</v>
+        <v>-1522400</v>
       </c>
       <c r="F72" s="3">
-        <v>-4666700</v>
+        <v>-4974100</v>
       </c>
       <c r="G72" s="3">
-        <v>345100</v>
+        <v>367900</v>
       </c>
       <c r="H72" s="3">
-        <v>-503800</v>
+        <v>-537000</v>
       </c>
       <c r="I72" s="3">
-        <v>-4944200</v>
+        <v>-5269800</v>
       </c>
       <c r="J72" s="3">
-        <v>-1044300</v>
+        <v>-1113100</v>
       </c>
       <c r="K72" s="3">
         <v>442500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2534800</v>
+        <v>2701700</v>
       </c>
       <c r="E76" s="3">
-        <v>1982100</v>
+        <v>2112700</v>
       </c>
       <c r="F76" s="3">
-        <v>2672400</v>
+        <v>2848400</v>
       </c>
       <c r="G76" s="3">
-        <v>1425000</v>
+        <v>1518800</v>
       </c>
       <c r="H76" s="3">
-        <v>249700</v>
+        <v>266200</v>
       </c>
       <c r="I76" s="3">
-        <v>-768000</v>
+        <v>-818600</v>
       </c>
       <c r="J76" s="3">
-        <v>2491500</v>
+        <v>2655600</v>
       </c>
       <c r="K76" s="3">
         <v>3940700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>302400</v>
+        <v>322900</v>
       </c>
       <c r="E81" s="3">
-        <v>437500</v>
+        <v>467200</v>
       </c>
       <c r="F81" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="G81" s="3">
-        <v>877200</v>
+        <v>936900</v>
       </c>
       <c r="H81" s="3">
-        <v>110800</v>
+        <v>118300</v>
       </c>
       <c r="I81" s="3">
-        <v>-249200</v>
+        <v>-266200</v>
       </c>
       <c r="J81" s="3">
-        <v>-2023600</v>
+        <v>-2161200</v>
       </c>
       <c r="K81" s="3">
         <v>-1345100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3308400</v>
+        <v>3533300</v>
       </c>
       <c r="E83" s="3">
-        <v>3198700</v>
+        <v>3416200</v>
       </c>
       <c r="F83" s="3">
-        <v>3145600</v>
+        <v>3359400</v>
       </c>
       <c r="G83" s="3">
-        <v>1844200</v>
+        <v>1969500</v>
       </c>
       <c r="H83" s="3">
-        <v>1807600</v>
+        <v>1930500</v>
       </c>
       <c r="I83" s="3">
-        <v>1910600</v>
+        <v>2040500</v>
       </c>
       <c r="J83" s="3">
-        <v>1921700</v>
+        <v>2052300</v>
       </c>
       <c r="K83" s="3">
         <v>1919300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4314100</v>
+        <v>4607400</v>
       </c>
       <c r="E89" s="3">
-        <v>4206700</v>
+        <v>4492700</v>
       </c>
       <c r="F89" s="3">
-        <v>4540100</v>
+        <v>4848700</v>
       </c>
       <c r="G89" s="3">
-        <v>2479900</v>
+        <v>2648500</v>
       </c>
       <c r="H89" s="3">
-        <v>2104400</v>
+        <v>2247500</v>
       </c>
       <c r="I89" s="3">
-        <v>1127500</v>
+        <v>1204200</v>
       </c>
       <c r="J89" s="3">
-        <v>1638100</v>
+        <v>1749500</v>
       </c>
       <c r="K89" s="3">
         <v>934400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3734800</v>
+        <v>-3988700</v>
       </c>
       <c r="E91" s="3">
-        <v>-5933400</v>
+        <v>-6336800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2571800</v>
+        <v>-2746700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2121100</v>
+        <v>-2265300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3514400</v>
+        <v>-3753300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1585000</v>
+        <v>-1692700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1313600</v>
+        <v>-1402900</v>
       </c>
       <c r="K91" s="3">
         <v>-1616300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3675000</v>
+        <v>-3924900</v>
       </c>
       <c r="E94" s="3">
-        <v>-2995000</v>
+        <v>-3198600</v>
       </c>
       <c r="F94" s="3">
-        <v>-2981700</v>
+        <v>-3184400</v>
       </c>
       <c r="G94" s="3">
-        <v>-805200</v>
+        <v>-860000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1287000</v>
+        <v>-1374500</v>
       </c>
       <c r="I94" s="3">
-        <v>-626900</v>
+        <v>-669500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1023400</v>
+        <v>-1093000</v>
       </c>
       <c r="K94" s="3">
         <v>-269000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-28800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-42100</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-42100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-42100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-21000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-4400</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-2200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-495100</v>
+        <v>-528800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2423400</v>
+        <v>-2588200</v>
       </c>
       <c r="F100" s="3">
-        <v>-708900</v>
+        <v>-757100</v>
       </c>
       <c r="G100" s="3">
-        <v>-738800</v>
+        <v>-789000</v>
       </c>
       <c r="H100" s="3">
-        <v>-558200</v>
+        <v>-596200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1088800</v>
+        <v>-1162800</v>
       </c>
       <c r="J100" s="3">
-        <v>-175000</v>
+        <v>-186900</v>
       </c>
       <c r="K100" s="3">
         <v>476500</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="F101" s="3">
-        <v>-36600</v>
+        <v>-39000</v>
       </c>
       <c r="G101" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="H101" s="3">
-        <v>-47600</v>
+        <v>-50900</v>
       </c>
       <c r="I101" s="3">
-        <v>-85300</v>
+        <v>-91100</v>
       </c>
       <c r="J101" s="3">
-        <v>-39900</v>
+        <v>-42600</v>
       </c>
       <c r="K101" s="3">
         <v>-3300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>145100</v>
+        <v>155000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1204000</v>
+        <v>-1285800</v>
       </c>
       <c r="F102" s="3">
-        <v>813000</v>
+        <v>868200</v>
       </c>
       <c r="G102" s="3">
-        <v>921500</v>
+        <v>984200</v>
       </c>
       <c r="H102" s="3">
-        <v>211600</v>
+        <v>225900</v>
       </c>
       <c r="I102" s="3">
-        <v>-673400</v>
+        <v>-719200</v>
       </c>
       <c r="J102" s="3">
-        <v>399800</v>
+        <v>427000</v>
       </c>
       <c r="K102" s="3">
         <v>1138600</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32161900</v>
+        <v>32523500</v>
       </c>
       <c r="E8" s="3">
-        <v>31023900</v>
+        <v>31372700</v>
       </c>
       <c r="F8" s="3">
-        <v>30598100</v>
+        <v>30942100</v>
       </c>
       <c r="G8" s="3">
-        <v>29390300</v>
+        <v>29720800</v>
       </c>
       <c r="H8" s="3">
-        <v>30389900</v>
+        <v>30731600</v>
       </c>
       <c r="I8" s="3">
-        <v>29489700</v>
+        <v>29821300</v>
       </c>
       <c r="J8" s="3">
-        <v>30199400</v>
+        <v>30539000</v>
       </c>
       <c r="K8" s="3">
         <v>27932000</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16276700</v>
+        <v>16459700</v>
       </c>
       <c r="E9" s="3">
-        <v>15284300</v>
+        <v>15456100</v>
       </c>
       <c r="F9" s="3">
-        <v>15882800</v>
+        <v>16061400</v>
       </c>
       <c r="G9" s="3">
-        <v>17070400</v>
+        <v>17262400</v>
       </c>
       <c r="H9" s="3">
-        <v>18938200</v>
+        <v>19151200</v>
       </c>
       <c r="I9" s="3">
-        <v>18065200</v>
+        <v>18268400</v>
       </c>
       <c r="J9" s="3">
-        <v>17915000</v>
+        <v>18116400</v>
       </c>
       <c r="K9" s="3">
         <v>34958100</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>15885200</v>
+        <v>16063800</v>
       </c>
       <c r="E10" s="3">
-        <v>15739700</v>
+        <v>15916600</v>
       </c>
       <c r="F10" s="3">
-        <v>14715300</v>
+        <v>14880700</v>
       </c>
       <c r="G10" s="3">
-        <v>12319900</v>
+        <v>12458400</v>
       </c>
       <c r="H10" s="3">
-        <v>11451700</v>
+        <v>11580400</v>
       </c>
       <c r="I10" s="3">
-        <v>11424400</v>
+        <v>11552900</v>
       </c>
       <c r="J10" s="3">
-        <v>12284400</v>
+        <v>12422500</v>
       </c>
       <c r="K10" s="3">
         <v>-7026100</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>181000</v>
+        <v>183000</v>
       </c>
       <c r="E14" s="3">
-        <v>28400</v>
+        <v>28700</v>
       </c>
       <c r="F14" s="3">
-        <v>2277100</v>
+        <v>2302700</v>
       </c>
       <c r="G14" s="3">
-        <v>170300</v>
+        <v>172300</v>
       </c>
       <c r="H14" s="3">
-        <v>165600</v>
+        <v>167500</v>
       </c>
       <c r="I14" s="3">
-        <v>-819700</v>
+        <v>-829000</v>
       </c>
       <c r="J14" s="3">
-        <v>408100</v>
+        <v>412700</v>
       </c>
       <c r="K14" s="3">
         <v>442500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3478900</v>
+        <v>3518000</v>
       </c>
       <c r="E15" s="3">
-        <v>3394900</v>
+        <v>3433100</v>
       </c>
       <c r="F15" s="3">
-        <v>3260100</v>
+        <v>3296700</v>
       </c>
       <c r="G15" s="3">
-        <v>1858300</v>
+        <v>1879200</v>
       </c>
       <c r="H15" s="3">
-        <v>1860700</v>
+        <v>1881600</v>
       </c>
       <c r="I15" s="3">
-        <v>1879600</v>
+        <v>1900800</v>
       </c>
       <c r="J15" s="3">
-        <v>1852400</v>
+        <v>1873200</v>
       </c>
       <c r="K15" s="3">
         <v>1730400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>30967100</v>
+        <v>31315300</v>
       </c>
       <c r="E17" s="3">
-        <v>29376100</v>
+        <v>29706400</v>
       </c>
       <c r="F17" s="3">
-        <v>30579100</v>
+        <v>30923000</v>
       </c>
       <c r="G17" s="3">
-        <v>28079700</v>
+        <v>28395400</v>
       </c>
       <c r="H17" s="3">
-        <v>29105300</v>
+        <v>29432500</v>
       </c>
       <c r="I17" s="3">
-        <v>28594200</v>
+        <v>28915700</v>
       </c>
       <c r="J17" s="3">
-        <v>30468000</v>
+        <v>30810500</v>
       </c>
       <c r="K17" s="3">
         <v>28734700</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1194700</v>
+        <v>1208200</v>
       </c>
       <c r="E18" s="3">
-        <v>1647800</v>
+        <v>1666300</v>
       </c>
       <c r="F18" s="3">
-        <v>18900</v>
+        <v>19100</v>
       </c>
       <c r="G18" s="3">
-        <v>1310700</v>
+        <v>1325400</v>
       </c>
       <c r="H18" s="3">
-        <v>1284600</v>
+        <v>1299100</v>
       </c>
       <c r="I18" s="3">
-        <v>895500</v>
+        <v>905500</v>
       </c>
       <c r="J18" s="3">
-        <v>-268500</v>
+        <v>-271500</v>
       </c>
       <c r="K18" s="3">
         <v>-802600</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-302800</v>
+        <v>-306200</v>
       </c>
       <c r="E20" s="3">
-        <v>-388000</v>
+        <v>-392400</v>
       </c>
       <c r="F20" s="3">
-        <v>729800</v>
+        <v>738100</v>
       </c>
       <c r="G20" s="3">
-        <v>-66200</v>
+        <v>-67000</v>
       </c>
       <c r="H20" s="3">
-        <v>-752300</v>
+        <v>-760800</v>
       </c>
       <c r="I20" s="3">
-        <v>-479100</v>
+        <v>-484500</v>
       </c>
       <c r="J20" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="K20" s="3">
         <v>146000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4426500</v>
+        <v>4460300</v>
       </c>
       <c r="E21" s="3">
-        <v>4677200</v>
+        <v>4714400</v>
       </c>
       <c r="F21" s="3">
-        <v>4109400</v>
+        <v>4140500</v>
       </c>
       <c r="G21" s="3">
-        <v>3214600</v>
+        <v>3241900</v>
       </c>
       <c r="H21" s="3">
-        <v>2463500</v>
+        <v>2482500</v>
       </c>
       <c r="I21" s="3">
-        <v>2457600</v>
+        <v>2476100</v>
       </c>
       <c r="J21" s="3">
-        <v>1849600</v>
+        <v>1861200</v>
       </c>
       <c r="K21" s="3">
         <v>1265700</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>482600</v>
+        <v>488000</v>
       </c>
       <c r="E22" s="3">
-        <v>513400</v>
+        <v>519200</v>
       </c>
       <c r="F22" s="3">
-        <v>596200</v>
+        <v>602900</v>
       </c>
       <c r="G22" s="3">
-        <v>270900</v>
+        <v>273900</v>
       </c>
       <c r="H22" s="3">
-        <v>335900</v>
+        <v>339700</v>
       </c>
       <c r="I22" s="3">
-        <v>390400</v>
+        <v>394700</v>
       </c>
       <c r="J22" s="3">
-        <v>421100</v>
+        <v>425800</v>
       </c>
       <c r="K22" s="3">
         <v>375500</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>409300</v>
+        <v>413900</v>
       </c>
       <c r="E23" s="3">
-        <v>746400</v>
+        <v>754800</v>
       </c>
       <c r="F23" s="3">
-        <v>152600</v>
+        <v>154300</v>
       </c>
       <c r="G23" s="3">
-        <v>973500</v>
+        <v>984500</v>
       </c>
       <c r="H23" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="I23" s="3">
-        <v>26000</v>
+        <v>26300</v>
       </c>
       <c r="J23" s="3">
-        <v>-624600</v>
+        <v>-631600</v>
       </c>
       <c r="K23" s="3">
         <v>-1032100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>89900</v>
+        <v>90900</v>
       </c>
       <c r="E24" s="3">
-        <v>265000</v>
+        <v>267900</v>
       </c>
       <c r="F24" s="3">
-        <v>-24800</v>
+        <v>-25100</v>
       </c>
       <c r="G24" s="3">
-        <v>347800</v>
+        <v>351700</v>
       </c>
       <c r="H24" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="I24" s="3">
-        <v>230700</v>
+        <v>233300</v>
       </c>
       <c r="J24" s="3">
-        <v>1132000</v>
+        <v>1144800</v>
       </c>
       <c r="K24" s="3">
         <v>18700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>319400</v>
+        <v>323000</v>
       </c>
       <c r="E26" s="3">
-        <v>481400</v>
+        <v>486900</v>
       </c>
       <c r="F26" s="3">
-        <v>177400</v>
+        <v>179400</v>
       </c>
       <c r="G26" s="3">
-        <v>625800</v>
+        <v>632800</v>
       </c>
       <c r="H26" s="3">
-        <v>160900</v>
+        <v>162700</v>
       </c>
       <c r="I26" s="3">
-        <v>-204600</v>
+        <v>-206900</v>
       </c>
       <c r="J26" s="3">
-        <v>-1756600</v>
+        <v>-1776400</v>
       </c>
       <c r="K26" s="3">
         <v>-1050800</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>322900</v>
+        <v>326600</v>
       </c>
       <c r="E27" s="3">
-        <v>467200</v>
+        <v>472500</v>
       </c>
       <c r="F27" s="3">
-        <v>172700</v>
+        <v>174600</v>
       </c>
       <c r="G27" s="3">
-        <v>617500</v>
+        <v>624400</v>
       </c>
       <c r="H27" s="3">
-        <v>87500</v>
+        <v>88500</v>
       </c>
       <c r="I27" s="3">
-        <v>-261400</v>
+        <v>-264400</v>
       </c>
       <c r="J27" s="3">
-        <v>-2016800</v>
+        <v>-2039500</v>
       </c>
       <c r="K27" s="3">
         <v>-1128700</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="G29" s="3">
-        <v>319400</v>
+        <v>323000</v>
       </c>
       <c r="H29" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="I29" s="3">
-        <v>-4700</v>
+        <v>-4800</v>
       </c>
       <c r="J29" s="3">
-        <v>-144300</v>
+        <v>-145900</v>
       </c>
       <c r="K29" s="3">
         <v>-216300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>302800</v>
+        <v>306200</v>
       </c>
       <c r="E32" s="3">
-        <v>388000</v>
+        <v>392400</v>
       </c>
       <c r="F32" s="3">
-        <v>-729800</v>
+        <v>-738100</v>
       </c>
       <c r="G32" s="3">
-        <v>66200</v>
+        <v>67000</v>
       </c>
       <c r="H32" s="3">
-        <v>752300</v>
+        <v>760800</v>
       </c>
       <c r="I32" s="3">
-        <v>479100</v>
+        <v>484500</v>
       </c>
       <c r="J32" s="3">
-        <v>-65100</v>
+        <v>-65800</v>
       </c>
       <c r="K32" s="3">
         <v>-146000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>322900</v>
+        <v>326600</v>
       </c>
       <c r="E33" s="3">
-        <v>467200</v>
+        <v>472500</v>
       </c>
       <c r="F33" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="G33" s="3">
-        <v>936900</v>
+        <v>947400</v>
       </c>
       <c r="H33" s="3">
-        <v>118300</v>
+        <v>119600</v>
       </c>
       <c r="I33" s="3">
-        <v>-266200</v>
+        <v>-269100</v>
       </c>
       <c r="J33" s="3">
-        <v>-2161200</v>
+        <v>-2185500</v>
       </c>
       <c r="K33" s="3">
         <v>-1345100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>322900</v>
+        <v>326600</v>
       </c>
       <c r="E35" s="3">
-        <v>467200</v>
+        <v>472500</v>
       </c>
       <c r="F35" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="G35" s="3">
-        <v>936900</v>
+        <v>947400</v>
       </c>
       <c r="H35" s="3">
-        <v>118300</v>
+        <v>119600</v>
       </c>
       <c r="I35" s="3">
-        <v>-266200</v>
+        <v>-269100</v>
       </c>
       <c r="J35" s="3">
-        <v>-2161200</v>
+        <v>-2185500</v>
       </c>
       <c r="K35" s="3">
         <v>-1345100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4394500</v>
+        <v>4443900</v>
       </c>
       <c r="E41" s="3">
-        <v>4240700</v>
+        <v>4288400</v>
       </c>
       <c r="F41" s="3">
-        <v>11056600</v>
+        <v>11180900</v>
       </c>
       <c r="G41" s="3">
-        <v>4658300</v>
+        <v>4710600</v>
       </c>
       <c r="H41" s="3">
-        <v>3671700</v>
+        <v>3713000</v>
       </c>
       <c r="I41" s="3">
-        <v>7473600</v>
+        <v>7557600</v>
       </c>
       <c r="J41" s="3">
-        <v>4357800</v>
+        <v>4406800</v>
       </c>
       <c r="K41" s="3">
         <v>7510300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>946300</v>
+        <v>957000</v>
       </c>
       <c r="E42" s="3">
-        <v>384400</v>
+        <v>388800</v>
       </c>
       <c r="F42" s="3">
-        <v>498000</v>
+        <v>503600</v>
       </c>
       <c r="G42" s="3">
-        <v>153800</v>
+        <v>155500</v>
       </c>
       <c r="H42" s="3">
-        <v>1143900</v>
+        <v>1156700</v>
       </c>
       <c r="I42" s="3">
-        <v>930900</v>
+        <v>941400</v>
       </c>
       <c r="J42" s="3">
-        <v>1219600</v>
+        <v>1233300</v>
       </c>
       <c r="K42" s="3">
         <v>1024400</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3204500</v>
+        <v>3240500</v>
       </c>
       <c r="E43" s="3">
-        <v>3184400</v>
+        <v>3220200</v>
       </c>
       <c r="F43" s="3">
-        <v>5644800</v>
+        <v>5708300</v>
       </c>
       <c r="G43" s="3">
-        <v>2674500</v>
+        <v>2704600</v>
       </c>
       <c r="H43" s="3">
-        <v>2632000</v>
+        <v>2661500</v>
       </c>
       <c r="I43" s="3">
-        <v>4607400</v>
+        <v>4659200</v>
       </c>
       <c r="J43" s="3">
-        <v>2701700</v>
+        <v>2732100</v>
       </c>
       <c r="K43" s="3">
         <v>4172400</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>871800</v>
+        <v>881600</v>
       </c>
       <c r="E44" s="3">
-        <v>748800</v>
+        <v>757200</v>
       </c>
       <c r="F44" s="3">
-        <v>1317800</v>
+        <v>1332600</v>
       </c>
       <c r="G44" s="3">
-        <v>669500</v>
+        <v>677000</v>
       </c>
       <c r="H44" s="3">
-        <v>629300</v>
+        <v>636400</v>
       </c>
       <c r="I44" s="3">
-        <v>1272800</v>
+        <v>1287100</v>
       </c>
       <c r="J44" s="3">
-        <v>604500</v>
+        <v>611300</v>
       </c>
       <c r="K44" s="3">
         <v>1144100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>683700</v>
+        <v>691400</v>
       </c>
       <c r="E45" s="3">
-        <v>667200</v>
+        <v>674700</v>
       </c>
       <c r="F45" s="3">
-        <v>2414300</v>
+        <v>2441400</v>
       </c>
       <c r="G45" s="3">
-        <v>842200</v>
+        <v>851700</v>
       </c>
       <c r="H45" s="3">
-        <v>848100</v>
+        <v>857700</v>
       </c>
       <c r="I45" s="3">
-        <v>1757800</v>
+        <v>1777600</v>
       </c>
       <c r="J45" s="3">
-        <v>994800</v>
+        <v>1006000</v>
       </c>
       <c r="K45" s="3">
         <v>1748000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10100800</v>
+        <v>10214400</v>
       </c>
       <c r="E46" s="3">
-        <v>9225400</v>
+        <v>9329200</v>
       </c>
       <c r="F46" s="3">
-        <v>10714700</v>
+        <v>10835200</v>
       </c>
       <c r="G46" s="3">
-        <v>8998300</v>
+        <v>9099500</v>
       </c>
       <c r="H46" s="3">
-        <v>8925000</v>
+        <v>9025300</v>
       </c>
       <c r="I46" s="3">
-        <v>8488500</v>
+        <v>8583900</v>
       </c>
       <c r="J46" s="3">
-        <v>9388700</v>
+        <v>9494200</v>
       </c>
       <c r="K46" s="3">
         <v>8321700</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1663200</v>
+        <v>1681900</v>
       </c>
       <c r="E47" s="3">
-        <v>2139900</v>
+        <v>2163900</v>
       </c>
       <c r="F47" s="3">
-        <v>1864300</v>
+        <v>1885200</v>
       </c>
       <c r="G47" s="3">
-        <v>1656100</v>
+        <v>1674700</v>
       </c>
       <c r="H47" s="3">
-        <v>1592200</v>
+        <v>1610100</v>
       </c>
       <c r="I47" s="3">
-        <v>1944700</v>
+        <v>1966600</v>
       </c>
       <c r="J47" s="3">
-        <v>2531400</v>
+        <v>2559900</v>
       </c>
       <c r="K47" s="3">
         <v>2246500</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21395100</v>
+        <v>21635700</v>
       </c>
       <c r="E48" s="3">
-        <v>20671200</v>
+        <v>20903600</v>
       </c>
       <c r="F48" s="3">
-        <v>41414500</v>
+        <v>41880200</v>
       </c>
       <c r="G48" s="3">
-        <v>12537600</v>
+        <v>12678500</v>
       </c>
       <c r="H48" s="3">
-        <v>12317500</v>
+        <v>12456000</v>
       </c>
       <c r="I48" s="3">
-        <v>24788900</v>
+        <v>25067600</v>
       </c>
       <c r="J48" s="3">
-        <v>13260300</v>
+        <v>13409400</v>
       </c>
       <c r="K48" s="3">
         <v>26308100</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800400</v>
+        <v>1820600</v>
       </c>
       <c r="E49" s="3">
-        <v>1669100</v>
+        <v>1687800</v>
       </c>
       <c r="F49" s="3">
-        <v>3165400</v>
+        <v>3201000</v>
       </c>
       <c r="G49" s="3">
-        <v>1518800</v>
+        <v>1535900</v>
       </c>
       <c r="H49" s="3">
-        <v>1496400</v>
+        <v>1513200</v>
       </c>
       <c r="I49" s="3">
-        <v>2962000</v>
+        <v>2995300</v>
       </c>
       <c r="J49" s="3">
-        <v>1340200</v>
+        <v>1355300</v>
       </c>
       <c r="K49" s="3">
         <v>2402400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1397000</v>
+        <v>1412700</v>
       </c>
       <c r="E52" s="3">
-        <v>1352100</v>
+        <v>1367300</v>
       </c>
       <c r="F52" s="3">
-        <v>1717600</v>
+        <v>1736900</v>
       </c>
       <c r="G52" s="3">
-        <v>2415500</v>
+        <v>2442600</v>
       </c>
       <c r="H52" s="3">
-        <v>3271900</v>
+        <v>3308700</v>
       </c>
       <c r="I52" s="3">
-        <v>3470600</v>
+        <v>3509700</v>
       </c>
       <c r="J52" s="3">
-        <v>3549900</v>
+        <v>3589800</v>
       </c>
       <c r="K52" s="3">
         <v>4415100</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36356400</v>
+        <v>36765200</v>
       </c>
       <c r="E54" s="3">
-        <v>35057600</v>
+        <v>35451800</v>
       </c>
       <c r="F54" s="3">
-        <v>35443200</v>
+        <v>35841700</v>
       </c>
       <c r="G54" s="3">
-        <v>27126300</v>
+        <v>27431300</v>
       </c>
       <c r="H54" s="3">
-        <v>27603000</v>
+        <v>27913300</v>
       </c>
       <c r="I54" s="3">
-        <v>27491800</v>
+        <v>27800900</v>
       </c>
       <c r="J54" s="3">
-        <v>30070500</v>
+        <v>30408600</v>
       </c>
       <c r="K54" s="3">
         <v>29338600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2814100</v>
+        <v>2845800</v>
       </c>
       <c r="E57" s="3">
-        <v>2902800</v>
+        <v>2935500</v>
       </c>
       <c r="F57" s="3">
-        <v>2797600</v>
+        <v>2829000</v>
       </c>
       <c r="G57" s="3">
-        <v>2790500</v>
+        <v>2821800</v>
       </c>
       <c r="H57" s="3">
-        <v>2833000</v>
+        <v>2864900</v>
       </c>
       <c r="I57" s="3">
-        <v>2891000</v>
+        <v>2923500</v>
       </c>
       <c r="J57" s="3">
-        <v>2802300</v>
+        <v>2833800</v>
       </c>
       <c r="K57" s="3">
         <v>2436500</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2076000</v>
+        <v>2099300</v>
       </c>
       <c r="E58" s="3">
-        <v>2076000</v>
+        <v>2099300</v>
       </c>
       <c r="F58" s="3">
-        <v>4353100</v>
+        <v>4402000</v>
       </c>
       <c r="G58" s="3">
-        <v>1108400</v>
+        <v>1120800</v>
       </c>
       <c r="H58" s="3">
-        <v>2277100</v>
+        <v>2302700</v>
       </c>
       <c r="I58" s="3">
-        <v>5528900</v>
+        <v>5591000</v>
       </c>
       <c r="J58" s="3">
-        <v>1951800</v>
+        <v>1973700</v>
       </c>
       <c r="K58" s="3">
         <v>3308300</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10072400</v>
+        <v>10185600</v>
       </c>
       <c r="E59" s="3">
-        <v>9620500</v>
+        <v>9728700</v>
       </c>
       <c r="F59" s="3">
-        <v>12576600</v>
+        <v>12718000</v>
       </c>
       <c r="G59" s="3">
-        <v>8097000</v>
+        <v>8188000</v>
       </c>
       <c r="H59" s="3">
-        <v>9083500</v>
+        <v>9185600</v>
       </c>
       <c r="I59" s="3">
-        <v>12659400</v>
+        <v>12801700</v>
       </c>
       <c r="J59" s="3">
-        <v>10847200</v>
+        <v>10969200</v>
       </c>
       <c r="K59" s="3">
         <v>9336300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14962500</v>
+        <v>15130700</v>
       </c>
       <c r="E60" s="3">
-        <v>14599400</v>
+        <v>14763500</v>
       </c>
       <c r="F60" s="3">
-        <v>14258700</v>
+        <v>14419000</v>
       </c>
       <c r="G60" s="3">
-        <v>11995800</v>
+        <v>12130700</v>
       </c>
       <c r="H60" s="3">
-        <v>14193600</v>
+        <v>14353200</v>
       </c>
       <c r="I60" s="3">
-        <v>13990200</v>
+        <v>14147500</v>
       </c>
       <c r="J60" s="3">
-        <v>12840400</v>
+        <v>12984800</v>
       </c>
       <c r="K60" s="3">
         <v>10790000</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11142900</v>
+        <v>11268200</v>
       </c>
       <c r="E61" s="3">
-        <v>10974900</v>
+        <v>11098300</v>
       </c>
       <c r="F61" s="3">
-        <v>11662200</v>
+        <v>11793300</v>
       </c>
       <c r="G61" s="3">
-        <v>8790100</v>
+        <v>8889000</v>
       </c>
       <c r="H61" s="3">
-        <v>8351300</v>
+        <v>8445200</v>
       </c>
       <c r="I61" s="3">
-        <v>9456100</v>
+        <v>9562400</v>
       </c>
       <c r="J61" s="3">
-        <v>10168200</v>
+        <v>10282500</v>
       </c>
       <c r="K61" s="3">
         <v>10502400</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7531500</v>
+        <v>7616200</v>
       </c>
       <c r="E62" s="3">
-        <v>7356500</v>
+        <v>7439200</v>
       </c>
       <c r="F62" s="3">
-        <v>7086800</v>
+        <v>7166400</v>
       </c>
       <c r="G62" s="3">
-        <v>4807300</v>
+        <v>4861400</v>
       </c>
       <c r="H62" s="3">
-        <v>4735100</v>
+        <v>4788400</v>
       </c>
       <c r="I62" s="3">
-        <v>5452000</v>
+        <v>5513300</v>
       </c>
       <c r="J62" s="3">
-        <v>4819100</v>
+        <v>4873300</v>
       </c>
       <c r="K62" s="3">
         <v>4509500</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33654700</v>
+        <v>34033100</v>
       </c>
       <c r="E66" s="3">
-        <v>32944900</v>
+        <v>33315400</v>
       </c>
       <c r="F66" s="3">
-        <v>32594800</v>
+        <v>32961300</v>
       </c>
       <c r="G66" s="3">
-        <v>25607400</v>
+        <v>25895300</v>
       </c>
       <c r="H66" s="3">
-        <v>27336800</v>
+        <v>27644200</v>
       </c>
       <c r="I66" s="3">
-        <v>28310300</v>
+        <v>28628700</v>
       </c>
       <c r="J66" s="3">
-        <v>27414900</v>
+        <v>27723100</v>
       </c>
       <c r="K66" s="3">
         <v>25397800</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1156900</v>
+        <v>-1169900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1522400</v>
+        <v>-1539500</v>
       </c>
       <c r="F72" s="3">
-        <v>-4974100</v>
+        <v>-5030000</v>
       </c>
       <c r="G72" s="3">
-        <v>367900</v>
+        <v>372000</v>
       </c>
       <c r="H72" s="3">
-        <v>-537000</v>
+        <v>-543100</v>
       </c>
       <c r="I72" s="3">
-        <v>-5269800</v>
+        <v>-5329100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1113100</v>
+        <v>-1125600</v>
       </c>
       <c r="K72" s="3">
         <v>442500</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2701700</v>
+        <v>2732100</v>
       </c>
       <c r="E76" s="3">
-        <v>2112700</v>
+        <v>2136400</v>
       </c>
       <c r="F76" s="3">
-        <v>2848400</v>
+        <v>2880400</v>
       </c>
       <c r="G76" s="3">
-        <v>1518800</v>
+        <v>1535900</v>
       </c>
       <c r="H76" s="3">
-        <v>266200</v>
+        <v>269100</v>
       </c>
       <c r="I76" s="3">
-        <v>-818600</v>
+        <v>-827800</v>
       </c>
       <c r="J76" s="3">
-        <v>2655600</v>
+        <v>2685500</v>
       </c>
       <c r="K76" s="3">
         <v>3940700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>322900</v>
+        <v>326600</v>
       </c>
       <c r="E81" s="3">
-        <v>467200</v>
+        <v>472500</v>
       </c>
       <c r="F81" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="G81" s="3">
-        <v>936900</v>
+        <v>947400</v>
       </c>
       <c r="H81" s="3">
-        <v>118300</v>
+        <v>119600</v>
       </c>
       <c r="I81" s="3">
-        <v>-266200</v>
+        <v>-269100</v>
       </c>
       <c r="J81" s="3">
-        <v>-2161200</v>
+        <v>-2185500</v>
       </c>
       <c r="K81" s="3">
         <v>-1345100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3533300</v>
+        <v>3573000</v>
       </c>
       <c r="E83" s="3">
-        <v>3416200</v>
+        <v>3454600</v>
       </c>
       <c r="F83" s="3">
-        <v>3359400</v>
+        <v>3397200</v>
       </c>
       <c r="G83" s="3">
-        <v>1969500</v>
+        <v>1991700</v>
       </c>
       <c r="H83" s="3">
-        <v>1930500</v>
+        <v>1952200</v>
       </c>
       <c r="I83" s="3">
-        <v>2040500</v>
+        <v>2063400</v>
       </c>
       <c r="J83" s="3">
-        <v>2052300</v>
+        <v>2075400</v>
       </c>
       <c r="K83" s="3">
         <v>1919300</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4607400</v>
+        <v>4659200</v>
       </c>
       <c r="E89" s="3">
-        <v>4492700</v>
+        <v>4543200</v>
       </c>
       <c r="F89" s="3">
-        <v>4848700</v>
+        <v>4903200</v>
       </c>
       <c r="G89" s="3">
-        <v>2648500</v>
+        <v>2678300</v>
       </c>
       <c r="H89" s="3">
-        <v>2247500</v>
+        <v>2272800</v>
       </c>
       <c r="I89" s="3">
-        <v>1204200</v>
+        <v>1217700</v>
       </c>
       <c r="J89" s="3">
-        <v>1749500</v>
+        <v>1769200</v>
       </c>
       <c r="K89" s="3">
         <v>934400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3988700</v>
+        <v>-4033600</v>
       </c>
       <c r="E91" s="3">
-        <v>-6336800</v>
+        <v>-6408000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2746700</v>
+        <v>-2777600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2265300</v>
+        <v>-2290700</v>
       </c>
       <c r="H91" s="3">
-        <v>-3753300</v>
+        <v>-3795500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1692700</v>
+        <v>-1711800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1402900</v>
+        <v>-1418700</v>
       </c>
       <c r="K91" s="3">
         <v>-1616300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3924900</v>
+        <v>-3969000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3198600</v>
+        <v>-3234500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3184400</v>
+        <v>-3220200</v>
       </c>
       <c r="G94" s="3">
-        <v>-860000</v>
+        <v>-869600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1374500</v>
+        <v>-1390000</v>
       </c>
       <c r="I94" s="3">
-        <v>-669500</v>
+        <v>-677000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1093000</v>
+        <v>-1105300</v>
       </c>
       <c r="K94" s="3">
         <v>-269000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-528800</v>
+        <v>-534700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2588200</v>
+        <v>-2617300</v>
       </c>
       <c r="F100" s="3">
-        <v>-757100</v>
+        <v>-765600</v>
       </c>
       <c r="G100" s="3">
-        <v>-789000</v>
+        <v>-797900</v>
       </c>
       <c r="H100" s="3">
-        <v>-596200</v>
+        <v>-602900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1162800</v>
+        <v>-1175900</v>
       </c>
       <c r="J100" s="3">
-        <v>-186900</v>
+        <v>-189000</v>
       </c>
       <c r="K100" s="3">
         <v>476500</v>
@@ -3466,22 +3466,22 @@
         <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="F101" s="3">
-        <v>-39000</v>
+        <v>-39500</v>
       </c>
       <c r="G101" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="H101" s="3">
-        <v>-50900</v>
+        <v>-51400</v>
       </c>
       <c r="I101" s="3">
-        <v>-91100</v>
+        <v>-92100</v>
       </c>
       <c r="J101" s="3">
-        <v>-42600</v>
+        <v>-43100</v>
       </c>
       <c r="K101" s="3">
         <v>-3300</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>155000</v>
+        <v>156700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1285800</v>
+        <v>-1300300</v>
       </c>
       <c r="F102" s="3">
-        <v>868200</v>
+        <v>878000</v>
       </c>
       <c r="G102" s="3">
-        <v>984200</v>
+        <v>995200</v>
       </c>
       <c r="H102" s="3">
-        <v>225900</v>
+        <v>228500</v>
       </c>
       <c r="I102" s="3">
-        <v>-719200</v>
+        <v>-727300</v>
       </c>
       <c r="J102" s="3">
-        <v>427000</v>
+        <v>431800</v>
       </c>
       <c r="K102" s="3">
         <v>1138600</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>32523500</v>
+        <v>13043900</v>
       </c>
       <c r="E8" s="3">
-        <v>31372700</v>
+        <v>31985100</v>
       </c>
       <c r="F8" s="3">
-        <v>30942100</v>
+        <v>30853400</v>
       </c>
       <c r="G8" s="3">
-        <v>29720800</v>
+        <v>30429900</v>
       </c>
       <c r="H8" s="3">
-        <v>30731600</v>
+        <v>29228800</v>
       </c>
       <c r="I8" s="3">
-        <v>29821300</v>
+        <v>30222900</v>
       </c>
       <c r="J8" s="3">
+        <v>29327700</v>
+      </c>
+      <c r="K8" s="3">
         <v>30539000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27932000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21402000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>16459700</v>
+        <v>8294800</v>
       </c>
       <c r="E9" s="3">
-        <v>15456100</v>
+        <v>16187300</v>
       </c>
       <c r="F9" s="3">
-        <v>16061400</v>
+        <v>15200300</v>
       </c>
       <c r="G9" s="3">
-        <v>17262400</v>
+        <v>15795500</v>
       </c>
       <c r="H9" s="3">
-        <v>19151200</v>
+        <v>16976600</v>
       </c>
       <c r="I9" s="3">
-        <v>18268400</v>
+        <v>18834200</v>
       </c>
       <c r="J9" s="3">
+        <v>17966000</v>
+      </c>
+      <c r="K9" s="3">
         <v>18116400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>34958100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>12689700</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>16063800</v>
+        <v>4749100</v>
       </c>
       <c r="E10" s="3">
-        <v>15916600</v>
+        <v>15797900</v>
       </c>
       <c r="F10" s="3">
-        <v>14880700</v>
+        <v>15653200</v>
       </c>
       <c r="G10" s="3">
-        <v>12458400</v>
+        <v>14634400</v>
       </c>
       <c r="H10" s="3">
-        <v>11580400</v>
+        <v>12252200</v>
       </c>
       <c r="I10" s="3">
-        <v>11552900</v>
+        <v>11388700</v>
       </c>
       <c r="J10" s="3">
+        <v>11361700</v>
+      </c>
+      <c r="K10" s="3">
         <v>12422500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-7026100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8712300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>183000</v>
+        <v>1756400</v>
       </c>
       <c r="E14" s="3">
-        <v>28700</v>
+        <v>180000</v>
       </c>
       <c r="F14" s="3">
-        <v>2302700</v>
+        <v>28200</v>
       </c>
       <c r="G14" s="3">
-        <v>172300</v>
+        <v>2264600</v>
       </c>
       <c r="H14" s="3">
-        <v>167500</v>
+        <v>169400</v>
       </c>
       <c r="I14" s="3">
-        <v>-829000</v>
+        <v>164700</v>
       </c>
       <c r="J14" s="3">
+        <v>-815200</v>
+      </c>
+      <c r="K14" s="3">
         <v>412700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>442500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>48200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3518000</v>
+        <v>3218600</v>
       </c>
       <c r="E15" s="3">
-        <v>3433100</v>
+        <v>3459800</v>
       </c>
       <c r="F15" s="3">
-        <v>3296700</v>
+        <v>3376300</v>
       </c>
       <c r="G15" s="3">
-        <v>1879200</v>
+        <v>3242200</v>
       </c>
       <c r="H15" s="3">
-        <v>1881600</v>
+        <v>1848100</v>
       </c>
       <c r="I15" s="3">
-        <v>1900800</v>
+        <v>1850500</v>
       </c>
       <c r="J15" s="3">
+        <v>1869300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1873200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1730400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1383400</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>31315300</v>
+        <v>20102300</v>
       </c>
       <c r="E17" s="3">
-        <v>29706400</v>
+        <v>30797000</v>
       </c>
       <c r="F17" s="3">
-        <v>30923000</v>
+        <v>29214700</v>
       </c>
       <c r="G17" s="3">
-        <v>28395400</v>
+        <v>30411100</v>
       </c>
       <c r="H17" s="3">
-        <v>29432500</v>
+        <v>27925400</v>
       </c>
       <c r="I17" s="3">
-        <v>28915700</v>
+        <v>28945300</v>
       </c>
       <c r="J17" s="3">
+        <v>28437100</v>
+      </c>
+      <c r="K17" s="3">
         <v>30810500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>28734700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>21372800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1208200</v>
+        <v>-7058400</v>
       </c>
       <c r="E18" s="3">
-        <v>1666300</v>
+        <v>1188200</v>
       </c>
       <c r="F18" s="3">
-        <v>19100</v>
+        <v>1638700</v>
       </c>
       <c r="G18" s="3">
-        <v>1325400</v>
+        <v>18800</v>
       </c>
       <c r="H18" s="3">
-        <v>1299100</v>
+        <v>1303500</v>
       </c>
       <c r="I18" s="3">
-        <v>905500</v>
+        <v>1277600</v>
       </c>
       <c r="J18" s="3">
+        <v>890500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-271500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-802600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-306200</v>
+        <v>-576400</v>
       </c>
       <c r="E20" s="3">
-        <v>-392400</v>
+        <v>-301200</v>
       </c>
       <c r="F20" s="3">
-        <v>738100</v>
+        <v>-385900</v>
       </c>
       <c r="G20" s="3">
-        <v>-67000</v>
+        <v>725800</v>
       </c>
       <c r="H20" s="3">
-        <v>-760800</v>
+        <v>-65900</v>
       </c>
       <c r="I20" s="3">
-        <v>-484500</v>
+        <v>-748200</v>
       </c>
       <c r="J20" s="3">
+        <v>-476400</v>
+      </c>
+      <c r="K20" s="3">
         <v>65800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>146000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-570000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4460300</v>
+        <v>-4257800</v>
       </c>
       <c r="E21" s="3">
-        <v>4714400</v>
+        <v>4415300</v>
       </c>
       <c r="F21" s="3">
-        <v>4140500</v>
+        <v>4664200</v>
       </c>
       <c r="G21" s="3">
-        <v>3241900</v>
+        <v>4099300</v>
       </c>
       <c r="H21" s="3">
-        <v>2482500</v>
+        <v>3204300</v>
       </c>
       <c r="I21" s="3">
-        <v>2476100</v>
+        <v>2457100</v>
       </c>
       <c r="J21" s="3">
+        <v>2451700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1861200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1265700</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>488000</v>
+        <v>515300</v>
       </c>
       <c r="E22" s="3">
-        <v>519200</v>
+        <v>480000</v>
       </c>
       <c r="F22" s="3">
-        <v>602900</v>
+        <v>510600</v>
       </c>
       <c r="G22" s="3">
-        <v>273900</v>
+        <v>592900</v>
       </c>
       <c r="H22" s="3">
-        <v>339700</v>
+        <v>269400</v>
       </c>
       <c r="I22" s="3">
-        <v>394700</v>
+        <v>334100</v>
       </c>
       <c r="J22" s="3">
+        <v>388200</v>
+      </c>
+      <c r="K22" s="3">
         <v>425800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>375500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>413900</v>
+        <v>-8150100</v>
       </c>
       <c r="E23" s="3">
-        <v>754800</v>
+        <v>407000</v>
       </c>
       <c r="F23" s="3">
-        <v>154300</v>
+        <v>742300</v>
       </c>
       <c r="G23" s="3">
-        <v>984500</v>
+        <v>151800</v>
       </c>
       <c r="H23" s="3">
-        <v>198600</v>
+        <v>968200</v>
       </c>
       <c r="I23" s="3">
-        <v>26300</v>
+        <v>195300</v>
       </c>
       <c r="J23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-631600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1032100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-562100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90900</v>
+        <v>114100</v>
       </c>
       <c r="E24" s="3">
-        <v>267900</v>
+        <v>89400</v>
       </c>
       <c r="F24" s="3">
-        <v>-25100</v>
+        <v>263500</v>
       </c>
       <c r="G24" s="3">
-        <v>351700</v>
+        <v>-24700</v>
       </c>
       <c r="H24" s="3">
-        <v>35900</v>
+        <v>345900</v>
       </c>
       <c r="I24" s="3">
-        <v>233300</v>
+        <v>35300</v>
       </c>
       <c r="J24" s="3">
+        <v>229400</v>
+      </c>
+      <c r="K24" s="3">
         <v>1144800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-84100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>323000</v>
+        <v>-8264200</v>
       </c>
       <c r="E26" s="3">
-        <v>486900</v>
+        <v>317600</v>
       </c>
       <c r="F26" s="3">
-        <v>179400</v>
+        <v>478800</v>
       </c>
       <c r="G26" s="3">
-        <v>632800</v>
+        <v>176500</v>
       </c>
       <c r="H26" s="3">
-        <v>162700</v>
+        <v>622300</v>
       </c>
       <c r="I26" s="3">
-        <v>-206900</v>
+        <v>160000</v>
       </c>
       <c r="J26" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1050800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-478000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>326600</v>
+        <v>-8326600</v>
       </c>
       <c r="E27" s="3">
-        <v>472500</v>
+        <v>321200</v>
       </c>
       <c r="F27" s="3">
-        <v>174600</v>
+        <v>464700</v>
       </c>
       <c r="G27" s="3">
-        <v>624400</v>
+        <v>171800</v>
       </c>
       <c r="H27" s="3">
-        <v>88500</v>
+        <v>614100</v>
       </c>
       <c r="I27" s="3">
-        <v>-264400</v>
+        <v>87100</v>
       </c>
       <c r="J27" s="3">
+        <v>-260000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2039500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1128700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-495900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-9600</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>323000</v>
+        <v>-9400</v>
       </c>
       <c r="H29" s="3">
-        <v>31100</v>
+        <v>317600</v>
       </c>
       <c r="I29" s="3">
-        <v>-4800</v>
+        <v>30600</v>
       </c>
       <c r="J29" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K29" s="3">
         <v>-145900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-216300</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>306200</v>
+        <v>576400</v>
       </c>
       <c r="E32" s="3">
-        <v>392400</v>
+        <v>301200</v>
       </c>
       <c r="F32" s="3">
-        <v>-738100</v>
+        <v>385900</v>
       </c>
       <c r="G32" s="3">
-        <v>67000</v>
+        <v>-725800</v>
       </c>
       <c r="H32" s="3">
-        <v>760800</v>
+        <v>65900</v>
       </c>
       <c r="I32" s="3">
-        <v>484500</v>
+        <v>748200</v>
       </c>
       <c r="J32" s="3">
+        <v>476400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-65800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-146000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>570000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>326600</v>
+        <v>-8326600</v>
       </c>
       <c r="E33" s="3">
-        <v>472500</v>
+        <v>321200</v>
       </c>
       <c r="F33" s="3">
-        <v>165100</v>
+        <v>464700</v>
       </c>
       <c r="G33" s="3">
-        <v>947400</v>
+        <v>162300</v>
       </c>
       <c r="H33" s="3">
-        <v>119600</v>
+        <v>931700</v>
       </c>
       <c r="I33" s="3">
-        <v>-269100</v>
+        <v>117600</v>
       </c>
       <c r="J33" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2185500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1345100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-495900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>326600</v>
+        <v>-8326600</v>
       </c>
       <c r="E35" s="3">
-        <v>472500</v>
+        <v>321200</v>
       </c>
       <c r="F35" s="3">
-        <v>165100</v>
+        <v>464700</v>
       </c>
       <c r="G35" s="3">
-        <v>947400</v>
+        <v>162300</v>
       </c>
       <c r="H35" s="3">
-        <v>119600</v>
+        <v>931700</v>
       </c>
       <c r="I35" s="3">
-        <v>-269100</v>
+        <v>117600</v>
       </c>
       <c r="J35" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2185500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1345100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-495900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4443900</v>
+        <v>7556000</v>
       </c>
       <c r="E41" s="3">
-        <v>4288400</v>
+        <v>4370300</v>
       </c>
       <c r="F41" s="3">
-        <v>11180900</v>
+        <v>4217400</v>
       </c>
       <c r="G41" s="3">
-        <v>4710600</v>
+        <v>10995800</v>
       </c>
       <c r="H41" s="3">
-        <v>3713000</v>
+        <v>4632700</v>
       </c>
       <c r="I41" s="3">
-        <v>7557600</v>
+        <v>3651500</v>
       </c>
       <c r="J41" s="3">
+        <v>7432500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4406800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7510300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4631600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>957000</v>
+        <v>714100</v>
       </c>
       <c r="E42" s="3">
-        <v>388800</v>
+        <v>941100</v>
       </c>
       <c r="F42" s="3">
-        <v>503600</v>
+        <v>382300</v>
       </c>
       <c r="G42" s="3">
-        <v>155500</v>
+        <v>495300</v>
       </c>
       <c r="H42" s="3">
-        <v>1156700</v>
+        <v>152900</v>
       </c>
       <c r="I42" s="3">
-        <v>941400</v>
+        <v>1137600</v>
       </c>
       <c r="J42" s="3">
+        <v>925800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1233300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1024400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>842600</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3240500</v>
+        <v>2284600</v>
       </c>
       <c r="E43" s="3">
-        <v>3220200</v>
+        <v>3186900</v>
       </c>
       <c r="F43" s="3">
-        <v>5708300</v>
+        <v>3166900</v>
       </c>
       <c r="G43" s="3">
-        <v>2704600</v>
+        <v>5613800</v>
       </c>
       <c r="H43" s="3">
-        <v>2661500</v>
+        <v>2659800</v>
       </c>
       <c r="I43" s="3">
-        <v>4659200</v>
+        <v>2617500</v>
       </c>
       <c r="J43" s="3">
+        <v>4582100</v>
+      </c>
+      <c r="K43" s="3">
         <v>2732100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4172400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4229900</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>881600</v>
+        <v>638800</v>
       </c>
       <c r="E44" s="3">
-        <v>757200</v>
+        <v>867000</v>
       </c>
       <c r="F44" s="3">
-        <v>1332600</v>
+        <v>744700</v>
       </c>
       <c r="G44" s="3">
-        <v>677000</v>
+        <v>1310500</v>
       </c>
       <c r="H44" s="3">
-        <v>636400</v>
+        <v>665800</v>
       </c>
       <c r="I44" s="3">
-        <v>1287100</v>
+        <v>625800</v>
       </c>
       <c r="J44" s="3">
+        <v>1265800</v>
+      </c>
+      <c r="K44" s="3">
         <v>611300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1144100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1312700</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>691400</v>
+        <v>447000</v>
       </c>
       <c r="E45" s="3">
-        <v>674700</v>
+        <v>680000</v>
       </c>
       <c r="F45" s="3">
-        <v>2441400</v>
+        <v>663500</v>
       </c>
       <c r="G45" s="3">
-        <v>851700</v>
+        <v>2401000</v>
       </c>
       <c r="H45" s="3">
-        <v>857700</v>
+        <v>837600</v>
       </c>
       <c r="I45" s="3">
-        <v>1777600</v>
+        <v>843500</v>
       </c>
       <c r="J45" s="3">
+        <v>1748100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1006000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1748000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2028600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10214400</v>
+        <v>11640500</v>
       </c>
       <c r="E46" s="3">
-        <v>9329200</v>
+        <v>10045300</v>
       </c>
       <c r="F46" s="3">
-        <v>10835200</v>
+        <v>9174700</v>
       </c>
       <c r="G46" s="3">
-        <v>9099500</v>
+        <v>10655800</v>
       </c>
       <c r="H46" s="3">
-        <v>9025300</v>
+        <v>8948900</v>
       </c>
       <c r="I46" s="3">
-        <v>8583900</v>
+        <v>8875900</v>
       </c>
       <c r="J46" s="3">
+        <v>8441800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9494200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8321700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7189700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1681900</v>
+        <v>1210500</v>
       </c>
       <c r="E47" s="3">
-        <v>2163900</v>
+        <v>1654000</v>
       </c>
       <c r="F47" s="3">
-        <v>1885200</v>
+        <v>2128100</v>
       </c>
       <c r="G47" s="3">
-        <v>1674700</v>
+        <v>1854000</v>
       </c>
       <c r="H47" s="3">
-        <v>1610100</v>
+        <v>1647000</v>
       </c>
       <c r="I47" s="3">
-        <v>1966600</v>
+        <v>1583400</v>
       </c>
       <c r="J47" s="3">
+        <v>1934000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2559900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2246500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2734300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21635700</v>
+        <v>20301100</v>
       </c>
       <c r="E48" s="3">
-        <v>20903600</v>
+        <v>21277500</v>
       </c>
       <c r="F48" s="3">
-        <v>41880200</v>
+        <v>20557600</v>
       </c>
       <c r="G48" s="3">
-        <v>12678500</v>
+        <v>41186900</v>
       </c>
       <c r="H48" s="3">
-        <v>12456000</v>
+        <v>12468700</v>
       </c>
       <c r="I48" s="3">
-        <v>25067600</v>
+        <v>12249900</v>
       </c>
       <c r="J48" s="3">
+        <v>24652600</v>
+      </c>
+      <c r="K48" s="3">
         <v>13409400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26308100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6730800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1820600</v>
+        <v>1699900</v>
       </c>
       <c r="E49" s="3">
-        <v>1687800</v>
+        <v>1790500</v>
       </c>
       <c r="F49" s="3">
-        <v>3201000</v>
+        <v>1659900</v>
       </c>
       <c r="G49" s="3">
-        <v>1535900</v>
+        <v>3148000</v>
       </c>
       <c r="H49" s="3">
-        <v>1513200</v>
+        <v>1510500</v>
       </c>
       <c r="I49" s="3">
-        <v>2995300</v>
+        <v>1488100</v>
       </c>
       <c r="J49" s="3">
+        <v>2945700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1355300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2402400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2214800</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1412700</v>
+        <v>688200</v>
       </c>
       <c r="E52" s="3">
-        <v>1367300</v>
+        <v>1389300</v>
       </c>
       <c r="F52" s="3">
-        <v>1736900</v>
+        <v>1344600</v>
       </c>
       <c r="G52" s="3">
-        <v>2442600</v>
+        <v>1708100</v>
       </c>
       <c r="H52" s="3">
-        <v>3308700</v>
+        <v>2402200</v>
       </c>
       <c r="I52" s="3">
-        <v>3509700</v>
+        <v>3253900</v>
       </c>
       <c r="J52" s="3">
+        <v>3451600</v>
+      </c>
+      <c r="K52" s="3">
         <v>3589800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4415100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7902200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>36765200</v>
+        <v>35540200</v>
       </c>
       <c r="E54" s="3">
-        <v>35451800</v>
+        <v>36156700</v>
       </c>
       <c r="F54" s="3">
-        <v>35841700</v>
+        <v>34865000</v>
       </c>
       <c r="G54" s="3">
-        <v>27431300</v>
+        <v>35248500</v>
       </c>
       <c r="H54" s="3">
-        <v>27913300</v>
+        <v>26977200</v>
       </c>
       <c r="I54" s="3">
-        <v>27800900</v>
+        <v>27451300</v>
       </c>
       <c r="J54" s="3">
+        <v>27340700</v>
+      </c>
+      <c r="K54" s="3">
         <v>30408600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29338600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29861800</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2845800</v>
+        <v>1688100</v>
       </c>
       <c r="E57" s="3">
-        <v>2935500</v>
+        <v>2798700</v>
       </c>
       <c r="F57" s="3">
-        <v>2829000</v>
+        <v>2886900</v>
       </c>
       <c r="G57" s="3">
-        <v>2821800</v>
+        <v>2782200</v>
       </c>
       <c r="H57" s="3">
-        <v>2864900</v>
+        <v>2775100</v>
       </c>
       <c r="I57" s="3">
-        <v>2923500</v>
+        <v>2817500</v>
       </c>
       <c r="J57" s="3">
+        <v>2875100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2833800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2436500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2916100</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2099300</v>
+        <v>2432800</v>
       </c>
       <c r="E58" s="3">
-        <v>2099300</v>
+        <v>2064600</v>
       </c>
       <c r="F58" s="3">
-        <v>4402000</v>
+        <v>2064600</v>
       </c>
       <c r="G58" s="3">
-        <v>1120800</v>
+        <v>4329200</v>
       </c>
       <c r="H58" s="3">
-        <v>2302700</v>
+        <v>1102300</v>
       </c>
       <c r="I58" s="3">
-        <v>5591000</v>
+        <v>2264600</v>
       </c>
       <c r="J58" s="3">
+        <v>5498500</v>
+      </c>
+      <c r="K58" s="3">
         <v>1973700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3308300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2849900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10185600</v>
+        <v>9734700</v>
       </c>
       <c r="E59" s="3">
-        <v>9728700</v>
+        <v>10017000</v>
       </c>
       <c r="F59" s="3">
-        <v>12718000</v>
+        <v>9567700</v>
       </c>
       <c r="G59" s="3">
-        <v>8188000</v>
+        <v>12507500</v>
       </c>
       <c r="H59" s="3">
-        <v>9185600</v>
+        <v>8052500</v>
       </c>
       <c r="I59" s="3">
-        <v>12801700</v>
+        <v>9033600</v>
       </c>
       <c r="J59" s="3">
+        <v>12589800</v>
+      </c>
+      <c r="K59" s="3">
         <v>10969200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9336300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11662000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15130700</v>
+        <v>13855600</v>
       </c>
       <c r="E60" s="3">
-        <v>14763500</v>
+        <v>14880300</v>
       </c>
       <c r="F60" s="3">
-        <v>14419000</v>
+        <v>14519100</v>
       </c>
       <c r="G60" s="3">
-        <v>12130700</v>
+        <v>14180300</v>
       </c>
       <c r="H60" s="3">
-        <v>14353200</v>
+        <v>11929900</v>
       </c>
       <c r="I60" s="3">
-        <v>14147500</v>
+        <v>14115600</v>
       </c>
       <c r="J60" s="3">
+        <v>13913300</v>
+      </c>
+      <c r="K60" s="3">
         <v>12984800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10790000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10262800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11268200</v>
+        <v>19523500</v>
       </c>
       <c r="E61" s="3">
-        <v>11098300</v>
+        <v>11081700</v>
       </c>
       <c r="F61" s="3">
-        <v>11793300</v>
+        <v>10914600</v>
       </c>
       <c r="G61" s="3">
-        <v>8889000</v>
+        <v>11598100</v>
       </c>
       <c r="H61" s="3">
-        <v>8445200</v>
+        <v>8741800</v>
       </c>
       <c r="I61" s="3">
-        <v>9562400</v>
+        <v>8305400</v>
       </c>
       <c r="J61" s="3">
+        <v>9404100</v>
+      </c>
+      <c r="K61" s="3">
         <v>10282500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10502400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10353700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7616200</v>
+        <v>8534800</v>
       </c>
       <c r="E62" s="3">
-        <v>7439200</v>
+        <v>7490100</v>
       </c>
       <c r="F62" s="3">
-        <v>7166400</v>
+        <v>7316000</v>
       </c>
       <c r="G62" s="3">
-        <v>4861400</v>
+        <v>7047800</v>
       </c>
       <c r="H62" s="3">
-        <v>4788400</v>
+        <v>4780900</v>
       </c>
       <c r="I62" s="3">
-        <v>5513300</v>
+        <v>4709100</v>
       </c>
       <c r="J62" s="3">
+        <v>5422000</v>
+      </c>
+      <c r="K62" s="3">
         <v>4873300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4509500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3911300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34033100</v>
+        <v>41924500</v>
       </c>
       <c r="E66" s="3">
-        <v>33315400</v>
+        <v>33469800</v>
       </c>
       <c r="F66" s="3">
-        <v>32961300</v>
+        <v>32763900</v>
       </c>
       <c r="G66" s="3">
-        <v>25895300</v>
+        <v>32415700</v>
       </c>
       <c r="H66" s="3">
-        <v>27644200</v>
+        <v>25466700</v>
       </c>
       <c r="I66" s="3">
-        <v>28628700</v>
+        <v>27186600</v>
       </c>
       <c r="J66" s="3">
+        <v>28154800</v>
+      </c>
+      <c r="K66" s="3">
         <v>27723100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25397800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24300100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1169900</v>
+        <v>-9668800</v>
       </c>
       <c r="E72" s="3">
-        <v>-1539500</v>
+        <v>-1150500</v>
       </c>
       <c r="F72" s="3">
-        <v>-5030000</v>
+        <v>-1514000</v>
       </c>
       <c r="G72" s="3">
-        <v>372000</v>
+        <v>-4946800</v>
       </c>
       <c r="H72" s="3">
-        <v>-543100</v>
+        <v>365900</v>
       </c>
       <c r="I72" s="3">
-        <v>-5329100</v>
+        <v>-534100</v>
       </c>
       <c r="J72" s="3">
+        <v>-5240900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1125600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>442500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1991500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2732100</v>
+        <v>-6384300</v>
       </c>
       <c r="E76" s="3">
-        <v>2136400</v>
+        <v>2686900</v>
       </c>
       <c r="F76" s="3">
-        <v>2880400</v>
+        <v>2101100</v>
       </c>
       <c r="G76" s="3">
-        <v>1535900</v>
+        <v>2832800</v>
       </c>
       <c r="H76" s="3">
-        <v>269100</v>
+        <v>1510500</v>
       </c>
       <c r="I76" s="3">
-        <v>-827800</v>
+        <v>264700</v>
       </c>
       <c r="J76" s="3">
+        <v>-814100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2685500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3940700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5561700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>326600</v>
+        <v>-8326600</v>
       </c>
       <c r="E81" s="3">
-        <v>472500</v>
+        <v>321200</v>
       </c>
       <c r="F81" s="3">
-        <v>165100</v>
+        <v>464700</v>
       </c>
       <c r="G81" s="3">
-        <v>947400</v>
+        <v>162300</v>
       </c>
       <c r="H81" s="3">
-        <v>119600</v>
+        <v>931700</v>
       </c>
       <c r="I81" s="3">
-        <v>-269100</v>
+        <v>117600</v>
       </c>
       <c r="J81" s="3">
+        <v>-264700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2185500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1345100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-495900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3573000</v>
+        <v>3363300</v>
       </c>
       <c r="E83" s="3">
-        <v>3454600</v>
+        <v>3513900</v>
       </c>
       <c r="F83" s="3">
-        <v>3397200</v>
+        <v>3397400</v>
       </c>
       <c r="G83" s="3">
-        <v>1991700</v>
+        <v>3341000</v>
       </c>
       <c r="H83" s="3">
-        <v>1952200</v>
+        <v>1958700</v>
       </c>
       <c r="I83" s="3">
-        <v>2063400</v>
+        <v>1919900</v>
       </c>
       <c r="J83" s="3">
+        <v>2029300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2075400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1919300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4659200</v>
+        <v>-3324500</v>
       </c>
       <c r="E89" s="3">
-        <v>4543200</v>
+        <v>4582100</v>
       </c>
       <c r="F89" s="3">
-        <v>4903200</v>
+        <v>4468000</v>
       </c>
       <c r="G89" s="3">
-        <v>2678300</v>
+        <v>4822100</v>
       </c>
       <c r="H89" s="3">
-        <v>2272800</v>
+        <v>2634000</v>
       </c>
       <c r="I89" s="3">
-        <v>1217700</v>
+        <v>2235200</v>
       </c>
       <c r="J89" s="3">
+        <v>1197600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1769200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>934400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>626100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4033600</v>
+        <v>-2469300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6408000</v>
+        <v>-3966800</v>
       </c>
       <c r="F91" s="3">
-        <v>-2777600</v>
+        <v>-6302000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2290700</v>
+        <v>-2731600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3795500</v>
+        <v>-2252800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1711800</v>
+        <v>-3732700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1683400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1418700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1616300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2100400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3969000</v>
+        <v>-1862200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3234500</v>
+        <v>-3903300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3220200</v>
+        <v>-3181000</v>
       </c>
       <c r="G94" s="3">
-        <v>-869600</v>
+        <v>-3166900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1390000</v>
+        <v>-855200</v>
       </c>
       <c r="I94" s="3">
-        <v>-677000</v>
+        <v>-1367000</v>
       </c>
       <c r="J94" s="3">
+        <v>-665800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1105300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-269000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3319,14 +3552,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-534700</v>
+        <v>8407700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2617300</v>
+        <v>-525900</v>
       </c>
       <c r="F100" s="3">
-        <v>-765600</v>
+        <v>-2574000</v>
       </c>
       <c r="G100" s="3">
-        <v>-797900</v>
+        <v>-752900</v>
       </c>
       <c r="H100" s="3">
-        <v>-602900</v>
+        <v>-784700</v>
       </c>
       <c r="I100" s="3">
-        <v>-1175900</v>
+        <v>-592900</v>
       </c>
       <c r="J100" s="3">
+        <v>-1156400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-189000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>476500</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>8400</v>
-      </c>
       <c r="F101" s="3">
-        <v>-39500</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>-15600</v>
+        <v>-38800</v>
       </c>
       <c r="H101" s="3">
-        <v>-51400</v>
+        <v>-15300</v>
       </c>
       <c r="I101" s="3">
-        <v>-92100</v>
+        <v>-50600</v>
       </c>
       <c r="J101" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-43100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3300</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>156700</v>
+        <v>3189200</v>
       </c>
       <c r="E102" s="3">
-        <v>-1300300</v>
+        <v>154100</v>
       </c>
       <c r="F102" s="3">
-        <v>878000</v>
+        <v>-1278700</v>
       </c>
       <c r="G102" s="3">
-        <v>995200</v>
+        <v>863500</v>
       </c>
       <c r="H102" s="3">
-        <v>228500</v>
+        <v>978800</v>
       </c>
       <c r="I102" s="3">
-        <v>-727300</v>
+        <v>224700</v>
       </c>
       <c r="J102" s="3">
+        <v>-715300</v>
+      </c>
+      <c r="K102" s="3">
         <v>431800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1138600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1640300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -720,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13043900</v>
+        <v>13582700</v>
       </c>
       <c r="E8" s="3">
-        <v>31985100</v>
+        <v>33306300</v>
       </c>
       <c r="F8" s="3">
-        <v>30853400</v>
+        <v>32127800</v>
       </c>
       <c r="G8" s="3">
-        <v>30429900</v>
+        <v>31686800</v>
       </c>
       <c r="H8" s="3">
-        <v>29228800</v>
+        <v>30436100</v>
       </c>
       <c r="I8" s="3">
-        <v>30222900</v>
+        <v>31471200</v>
       </c>
       <c r="J8" s="3">
-        <v>29327700</v>
+        <v>30539000</v>
       </c>
       <c r="K8" s="3">
         <v>30539000</v>
@@ -756,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8294800</v>
+        <v>8637400</v>
       </c>
       <c r="E9" s="3">
-        <v>16187300</v>
+        <v>16855900</v>
       </c>
       <c r="F9" s="3">
-        <v>15200300</v>
+        <v>15828100</v>
       </c>
       <c r="G9" s="3">
-        <v>15795500</v>
+        <v>16447900</v>
       </c>
       <c r="H9" s="3">
-        <v>16976600</v>
+        <v>17677800</v>
       </c>
       <c r="I9" s="3">
-        <v>18834200</v>
+        <v>19612100</v>
       </c>
       <c r="J9" s="3">
-        <v>17966000</v>
+        <v>18708000</v>
       </c>
       <c r="K9" s="3">
         <v>18116400</v>
@@ -792,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4749100</v>
+        <v>4945300</v>
       </c>
       <c r="E10" s="3">
-        <v>15797900</v>
+        <v>16450400</v>
       </c>
       <c r="F10" s="3">
-        <v>15653200</v>
+        <v>16299700</v>
       </c>
       <c r="G10" s="3">
-        <v>14634400</v>
+        <v>15238900</v>
       </c>
       <c r="H10" s="3">
-        <v>12252200</v>
+        <v>12758300</v>
       </c>
       <c r="I10" s="3">
-        <v>11388700</v>
+        <v>11859100</v>
       </c>
       <c r="J10" s="3">
-        <v>11361700</v>
+        <v>11831000</v>
       </c>
       <c r="K10" s="3">
         <v>12422500</v>
@@ -916,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1756400</v>
+        <v>1828900</v>
       </c>
       <c r="E14" s="3">
-        <v>180000</v>
+        <v>187400</v>
       </c>
       <c r="F14" s="3">
-        <v>28200</v>
+        <v>29400</v>
       </c>
       <c r="G14" s="3">
-        <v>2264600</v>
+        <v>2358100</v>
       </c>
       <c r="H14" s="3">
-        <v>169400</v>
+        <v>176400</v>
       </c>
       <c r="I14" s="3">
-        <v>164700</v>
+        <v>171500</v>
       </c>
       <c r="J14" s="3">
-        <v>-815200</v>
+        <v>-848900</v>
       </c>
       <c r="K14" s="3">
         <v>412700</v>
@@ -952,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3218600</v>
+        <v>3351600</v>
       </c>
       <c r="E15" s="3">
-        <v>3459800</v>
+        <v>3602700</v>
       </c>
       <c r="F15" s="3">
-        <v>3376300</v>
+        <v>3515700</v>
       </c>
       <c r="G15" s="3">
-        <v>3242200</v>
+        <v>3376100</v>
       </c>
       <c r="H15" s="3">
-        <v>1848100</v>
+        <v>1924500</v>
       </c>
       <c r="I15" s="3">
-        <v>1850500</v>
+        <v>1926900</v>
       </c>
       <c r="J15" s="3">
-        <v>1869300</v>
+        <v>1946500</v>
       </c>
       <c r="K15" s="3">
         <v>1873200</v>
@@ -1001,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20102300</v>
+        <v>20932600</v>
       </c>
       <c r="E17" s="3">
-        <v>30797000</v>
+        <v>32069000</v>
       </c>
       <c r="F17" s="3">
-        <v>29214700</v>
+        <v>30421400</v>
       </c>
       <c r="G17" s="3">
-        <v>30411100</v>
+        <v>31667200</v>
       </c>
       <c r="H17" s="3">
-        <v>27925400</v>
+        <v>29078800</v>
       </c>
       <c r="I17" s="3">
-        <v>28945300</v>
+        <v>30140900</v>
       </c>
       <c r="J17" s="3">
-        <v>28437100</v>
+        <v>29611700</v>
       </c>
       <c r="K17" s="3">
         <v>30810500</v>
@@ -1037,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7058400</v>
+        <v>-7349900</v>
       </c>
       <c r="E18" s="3">
-        <v>1188200</v>
+        <v>1237200</v>
       </c>
       <c r="F18" s="3">
-        <v>1638700</v>
+        <v>1706400</v>
       </c>
       <c r="G18" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="H18" s="3">
-        <v>1303500</v>
+        <v>1357300</v>
       </c>
       <c r="I18" s="3">
-        <v>1277600</v>
+        <v>1330300</v>
       </c>
       <c r="J18" s="3">
-        <v>890500</v>
+        <v>927300</v>
       </c>
       <c r="K18" s="3">
         <v>-271500</v>
@@ -1089,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-576400</v>
+        <v>-628400</v>
       </c>
       <c r="E20" s="3">
-        <v>-301200</v>
+        <v>-313600</v>
       </c>
       <c r="F20" s="3">
-        <v>-385900</v>
+        <v>-401800</v>
       </c>
       <c r="G20" s="3">
-        <v>725800</v>
+        <v>755800</v>
       </c>
       <c r="H20" s="3">
-        <v>-65900</v>
+        <v>-68600</v>
       </c>
       <c r="I20" s="3">
-        <v>-748200</v>
+        <v>-779100</v>
       </c>
       <c r="J20" s="3">
-        <v>-476400</v>
+        <v>-496100</v>
       </c>
       <c r="K20" s="3">
         <v>65800</v>
@@ -1125,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4257800</v>
+        <v>-4486100</v>
       </c>
       <c r="E21" s="3">
-        <v>4415300</v>
+        <v>4572200</v>
       </c>
       <c r="F21" s="3">
-        <v>4664200</v>
+        <v>4832300</v>
       </c>
       <c r="G21" s="3">
-        <v>4099300</v>
+        <v>4244500</v>
       </c>
       <c r="H21" s="3">
-        <v>3204300</v>
+        <v>3322500</v>
       </c>
       <c r="I21" s="3">
-        <v>2457100</v>
+        <v>2544700</v>
       </c>
       <c r="J21" s="3">
-        <v>2451700</v>
+        <v>2538300</v>
       </c>
       <c r="K21" s="3">
         <v>1861200</v>
@@ -1161,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>515300</v>
+        <v>508400</v>
       </c>
       <c r="E22" s="3">
-        <v>480000</v>
+        <v>499800</v>
       </c>
       <c r="F22" s="3">
-        <v>510600</v>
+        <v>531600</v>
       </c>
       <c r="G22" s="3">
-        <v>592900</v>
+        <v>617400</v>
       </c>
       <c r="H22" s="3">
-        <v>269400</v>
+        <v>280500</v>
       </c>
       <c r="I22" s="3">
-        <v>334100</v>
+        <v>347900</v>
       </c>
       <c r="J22" s="3">
-        <v>388200</v>
+        <v>404200</v>
       </c>
       <c r="K22" s="3">
         <v>425800</v>
@@ -1197,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8150100</v>
+        <v>-8486700</v>
       </c>
       <c r="E23" s="3">
-        <v>407000</v>
+        <v>423800</v>
       </c>
       <c r="F23" s="3">
-        <v>742300</v>
+        <v>773000</v>
       </c>
       <c r="G23" s="3">
-        <v>151800</v>
+        <v>158000</v>
       </c>
       <c r="H23" s="3">
-        <v>968200</v>
+        <v>1008200</v>
       </c>
       <c r="I23" s="3">
-        <v>195300</v>
+        <v>203300</v>
       </c>
       <c r="J23" s="3">
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="K23" s="3">
         <v>-631600</v>
@@ -1233,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114100</v>
+        <v>118800</v>
       </c>
       <c r="E24" s="3">
-        <v>89400</v>
+        <v>93100</v>
       </c>
       <c r="F24" s="3">
-        <v>263500</v>
+        <v>274400</v>
       </c>
       <c r="G24" s="3">
-        <v>-24700</v>
+        <v>-25700</v>
       </c>
       <c r="H24" s="3">
-        <v>345900</v>
+        <v>360100</v>
       </c>
       <c r="I24" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="J24" s="3">
-        <v>229400</v>
+        <v>238900</v>
       </c>
       <c r="K24" s="3">
         <v>1144800</v>
@@ -1305,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8264200</v>
+        <v>-8605600</v>
       </c>
       <c r="E26" s="3">
-        <v>317600</v>
+        <v>330700</v>
       </c>
       <c r="F26" s="3">
-        <v>478800</v>
+        <v>498600</v>
       </c>
       <c r="G26" s="3">
-        <v>176500</v>
+        <v>183700</v>
       </c>
       <c r="H26" s="3">
-        <v>622300</v>
+        <v>648000</v>
       </c>
       <c r="I26" s="3">
-        <v>160000</v>
+        <v>166600</v>
       </c>
       <c r="J26" s="3">
-        <v>-203500</v>
+        <v>-211900</v>
       </c>
       <c r="K26" s="3">
         <v>-1776400</v>
@@ -1341,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8326600</v>
+        <v>-8670500</v>
       </c>
       <c r="E27" s="3">
-        <v>321200</v>
+        <v>334400</v>
       </c>
       <c r="F27" s="3">
-        <v>464700</v>
+        <v>483900</v>
       </c>
       <c r="G27" s="3">
-        <v>171800</v>
+        <v>178800</v>
       </c>
       <c r="H27" s="3">
-        <v>614100</v>
+        <v>639400</v>
       </c>
       <c r="I27" s="3">
-        <v>87100</v>
+        <v>90600</v>
       </c>
       <c r="J27" s="3">
-        <v>-260000</v>
+        <v>-270700</v>
       </c>
       <c r="K27" s="3">
         <v>-2039500</v>
@@ -1422,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-9400</v>
+        <v>-9800</v>
       </c>
       <c r="H29" s="3">
-        <v>317600</v>
+        <v>330700</v>
       </c>
       <c r="I29" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="J29" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K29" s="3">
         <v>-145900</v>
@@ -1521,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>576400</v>
+        <v>628400</v>
       </c>
       <c r="E32" s="3">
-        <v>301200</v>
+        <v>313600</v>
       </c>
       <c r="F32" s="3">
-        <v>385900</v>
+        <v>401800</v>
       </c>
       <c r="G32" s="3">
-        <v>-725800</v>
+        <v>-755800</v>
       </c>
       <c r="H32" s="3">
-        <v>65900</v>
+        <v>68600</v>
       </c>
       <c r="I32" s="3">
-        <v>748200</v>
+        <v>779100</v>
       </c>
       <c r="J32" s="3">
-        <v>476400</v>
+        <v>496100</v>
       </c>
       <c r="K32" s="3">
         <v>-65800</v>
@@ -1557,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8326600</v>
+        <v>-8670500</v>
       </c>
       <c r="E33" s="3">
-        <v>321200</v>
+        <v>334400</v>
       </c>
       <c r="F33" s="3">
-        <v>464700</v>
+        <v>483900</v>
       </c>
       <c r="G33" s="3">
-        <v>162300</v>
+        <v>169000</v>
       </c>
       <c r="H33" s="3">
-        <v>931700</v>
+        <v>970200</v>
       </c>
       <c r="I33" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="J33" s="3">
-        <v>-264700</v>
+        <v>-275600</v>
       </c>
       <c r="K33" s="3">
         <v>-2185500</v>
@@ -1629,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8326600</v>
+        <v>-8670500</v>
       </c>
       <c r="E35" s="3">
-        <v>321200</v>
+        <v>334400</v>
       </c>
       <c r="F35" s="3">
-        <v>464700</v>
+        <v>483900</v>
       </c>
       <c r="G35" s="3">
-        <v>162300</v>
+        <v>169000</v>
       </c>
       <c r="H35" s="3">
-        <v>931700</v>
+        <v>970200</v>
       </c>
       <c r="I35" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="J35" s="3">
-        <v>-264700</v>
+        <v>-275600</v>
       </c>
       <c r="K35" s="3">
         <v>-2185500</v>
@@ -1738,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7556000</v>
+        <v>7868100</v>
       </c>
       <c r="E41" s="3">
-        <v>4370300</v>
+        <v>4550800</v>
       </c>
       <c r="F41" s="3">
-        <v>4217400</v>
+        <v>4391600</v>
       </c>
       <c r="G41" s="3">
-        <v>10995800</v>
+        <v>11450000</v>
       </c>
       <c r="H41" s="3">
-        <v>4632700</v>
+        <v>4824000</v>
       </c>
       <c r="I41" s="3">
-        <v>3651500</v>
+        <v>3802400</v>
       </c>
       <c r="J41" s="3">
-        <v>7432500</v>
+        <v>7739500</v>
       </c>
       <c r="K41" s="3">
         <v>4406800</v>
@@ -1774,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>714100</v>
+        <v>743600</v>
       </c>
       <c r="E42" s="3">
-        <v>941100</v>
+        <v>980000</v>
       </c>
       <c r="F42" s="3">
-        <v>382300</v>
+        <v>398100</v>
       </c>
       <c r="G42" s="3">
-        <v>495300</v>
+        <v>515700</v>
       </c>
       <c r="H42" s="3">
-        <v>152900</v>
+        <v>159200</v>
       </c>
       <c r="I42" s="3">
-        <v>1137600</v>
+        <v>1184600</v>
       </c>
       <c r="J42" s="3">
-        <v>925800</v>
+        <v>964100</v>
       </c>
       <c r="K42" s="3">
         <v>1233300</v>
@@ -1810,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2284600</v>
+        <v>2378900</v>
       </c>
       <c r="E43" s="3">
-        <v>3186900</v>
+        <v>3318500</v>
       </c>
       <c r="F43" s="3">
-        <v>3166900</v>
+        <v>3297700</v>
       </c>
       <c r="G43" s="3">
-        <v>5613800</v>
+        <v>5845700</v>
       </c>
       <c r="H43" s="3">
-        <v>2659800</v>
+        <v>2769700</v>
       </c>
       <c r="I43" s="3">
-        <v>2617500</v>
+        <v>2725600</v>
       </c>
       <c r="J43" s="3">
-        <v>4582100</v>
+        <v>4771300</v>
       </c>
       <c r="K43" s="3">
         <v>2732100</v>
@@ -1846,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>638800</v>
+        <v>665200</v>
       </c>
       <c r="E44" s="3">
-        <v>867000</v>
+        <v>902800</v>
       </c>
       <c r="F44" s="3">
-        <v>744700</v>
+        <v>775400</v>
       </c>
       <c r="G44" s="3">
-        <v>1310500</v>
+        <v>1364600</v>
       </c>
       <c r="H44" s="3">
-        <v>665800</v>
+        <v>693300</v>
       </c>
       <c r="I44" s="3">
-        <v>625800</v>
+        <v>651700</v>
       </c>
       <c r="J44" s="3">
-        <v>1265800</v>
+        <v>1318100</v>
       </c>
       <c r="K44" s="3">
         <v>611300</v>
@@ -1882,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>447000</v>
+        <v>465500</v>
       </c>
       <c r="E45" s="3">
-        <v>680000</v>
+        <v>708000</v>
       </c>
       <c r="F45" s="3">
-        <v>663500</v>
+        <v>690900</v>
       </c>
       <c r="G45" s="3">
-        <v>2401000</v>
+        <v>2500200</v>
       </c>
       <c r="H45" s="3">
-        <v>837600</v>
+        <v>872200</v>
       </c>
       <c r="I45" s="3">
-        <v>843500</v>
+        <v>878300</v>
       </c>
       <c r="J45" s="3">
-        <v>1748100</v>
+        <v>1820300</v>
       </c>
       <c r="K45" s="3">
         <v>1006000</v>
@@ -1918,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11640500</v>
+        <v>12121300</v>
       </c>
       <c r="E46" s="3">
-        <v>10045300</v>
+        <v>10460200</v>
       </c>
       <c r="F46" s="3">
-        <v>9174700</v>
+        <v>9553700</v>
       </c>
       <c r="G46" s="3">
-        <v>10655800</v>
+        <v>11096000</v>
       </c>
       <c r="H46" s="3">
-        <v>8948900</v>
+        <v>9318500</v>
       </c>
       <c r="I46" s="3">
-        <v>8875900</v>
+        <v>9242500</v>
       </c>
       <c r="J46" s="3">
-        <v>8441800</v>
+        <v>8790500</v>
       </c>
       <c r="K46" s="3">
         <v>9494200</v>
@@ -1954,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1210500</v>
+        <v>1260500</v>
       </c>
       <c r="E47" s="3">
-        <v>1654000</v>
+        <v>1722300</v>
       </c>
       <c r="F47" s="3">
-        <v>2128100</v>
+        <v>2216000</v>
       </c>
       <c r="G47" s="3">
-        <v>1854000</v>
+        <v>1930600</v>
       </c>
       <c r="H47" s="3">
-        <v>1647000</v>
+        <v>1715000</v>
       </c>
       <c r="I47" s="3">
-        <v>1583400</v>
+        <v>1648800</v>
       </c>
       <c r="J47" s="3">
-        <v>1934000</v>
+        <v>2013900</v>
       </c>
       <c r="K47" s="3">
         <v>2559900</v>
@@ -1990,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20301100</v>
+        <v>21139700</v>
       </c>
       <c r="E48" s="3">
-        <v>21277500</v>
+        <v>22156400</v>
       </c>
       <c r="F48" s="3">
-        <v>20557600</v>
+        <v>21406700</v>
       </c>
       <c r="G48" s="3">
-        <v>41186900</v>
+        <v>42888100</v>
       </c>
       <c r="H48" s="3">
-        <v>12468700</v>
+        <v>12983700</v>
       </c>
       <c r="I48" s="3">
-        <v>12249900</v>
+        <v>12755800</v>
       </c>
       <c r="J48" s="3">
-        <v>24652600</v>
+        <v>25670900</v>
       </c>
       <c r="K48" s="3">
         <v>13409400</v>
@@ -2026,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1699900</v>
+        <v>1770100</v>
       </c>
       <c r="E49" s="3">
-        <v>1790500</v>
+        <v>1864400</v>
       </c>
       <c r="F49" s="3">
-        <v>1659900</v>
+        <v>1728500</v>
       </c>
       <c r="G49" s="3">
-        <v>3148000</v>
+        <v>3278100</v>
       </c>
       <c r="H49" s="3">
-        <v>1510500</v>
+        <v>1572900</v>
       </c>
       <c r="I49" s="3">
-        <v>1488100</v>
+        <v>1549600</v>
       </c>
       <c r="J49" s="3">
-        <v>2945700</v>
+        <v>3067400</v>
       </c>
       <c r="K49" s="3">
         <v>1355300</v>
@@ -2134,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>688200</v>
+        <v>716600</v>
       </c>
       <c r="E52" s="3">
-        <v>1389300</v>
+        <v>1446700</v>
       </c>
       <c r="F52" s="3">
-        <v>1344600</v>
+        <v>1400200</v>
       </c>
       <c r="G52" s="3">
-        <v>1708100</v>
+        <v>1778700</v>
       </c>
       <c r="H52" s="3">
-        <v>2402200</v>
+        <v>2501400</v>
       </c>
       <c r="I52" s="3">
-        <v>3253900</v>
+        <v>3388300</v>
       </c>
       <c r="J52" s="3">
-        <v>3451600</v>
+        <v>3594100</v>
       </c>
       <c r="K52" s="3">
         <v>3589800</v>
@@ -2206,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35540200</v>
+        <v>37008200</v>
       </c>
       <c r="E54" s="3">
-        <v>36156700</v>
+        <v>37650100</v>
       </c>
       <c r="F54" s="3">
-        <v>34865000</v>
+        <v>36305000</v>
       </c>
       <c r="G54" s="3">
-        <v>35248500</v>
+        <v>36704400</v>
       </c>
       <c r="H54" s="3">
-        <v>26977200</v>
+        <v>28091500</v>
       </c>
       <c r="I54" s="3">
-        <v>27451300</v>
+        <v>28585100</v>
       </c>
       <c r="J54" s="3">
-        <v>27340700</v>
+        <v>28470000</v>
       </c>
       <c r="K54" s="3">
         <v>30408600</v>
@@ -2274,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1688100</v>
+        <v>1757900</v>
       </c>
       <c r="E57" s="3">
-        <v>2798700</v>
+        <v>2914300</v>
       </c>
       <c r="F57" s="3">
-        <v>2886900</v>
+        <v>3006100</v>
       </c>
       <c r="G57" s="3">
-        <v>2782200</v>
+        <v>2897100</v>
       </c>
       <c r="H57" s="3">
-        <v>2775100</v>
+        <v>2889800</v>
       </c>
       <c r="I57" s="3">
-        <v>2817500</v>
+        <v>2933900</v>
       </c>
       <c r="J57" s="3">
-        <v>2875100</v>
+        <v>2993900</v>
       </c>
       <c r="K57" s="3">
         <v>2833800</v>
@@ -2310,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2432800</v>
+        <v>2512500</v>
       </c>
       <c r="E58" s="3">
-        <v>2064600</v>
+        <v>2149900</v>
       </c>
       <c r="F58" s="3">
-        <v>2064600</v>
+        <v>2149900</v>
       </c>
       <c r="G58" s="3">
-        <v>4329200</v>
+        <v>4508000</v>
       </c>
       <c r="H58" s="3">
-        <v>1102300</v>
+        <v>1147800</v>
       </c>
       <c r="I58" s="3">
-        <v>2264600</v>
+        <v>2358100</v>
       </c>
       <c r="J58" s="3">
-        <v>5498500</v>
+        <v>5725600</v>
       </c>
       <c r="K58" s="3">
         <v>1973700</v>
@@ -2346,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9734700</v>
+        <v>10157600</v>
       </c>
       <c r="E59" s="3">
-        <v>10017000</v>
+        <v>10430800</v>
       </c>
       <c r="F59" s="3">
-        <v>9567700</v>
+        <v>9962800</v>
       </c>
       <c r="G59" s="3">
-        <v>12507500</v>
+        <v>13024100</v>
       </c>
       <c r="H59" s="3">
-        <v>8052500</v>
+        <v>8385100</v>
       </c>
       <c r="I59" s="3">
-        <v>9033600</v>
+        <v>9406700</v>
       </c>
       <c r="J59" s="3">
-        <v>12589800</v>
+        <v>13109800</v>
       </c>
       <c r="K59" s="3">
         <v>10969200</v>
@@ -2382,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13855600</v>
+        <v>14427900</v>
       </c>
       <c r="E60" s="3">
-        <v>14880300</v>
+        <v>15494900</v>
       </c>
       <c r="F60" s="3">
-        <v>14519100</v>
+        <v>15118800</v>
       </c>
       <c r="G60" s="3">
-        <v>14180300</v>
+        <v>14766000</v>
       </c>
       <c r="H60" s="3">
-        <v>11929900</v>
+        <v>12422600</v>
       </c>
       <c r="I60" s="3">
-        <v>14115600</v>
+        <v>14698700</v>
       </c>
       <c r="J60" s="3">
-        <v>13913300</v>
+        <v>14488000</v>
       </c>
       <c r="K60" s="3">
         <v>12984800</v>
@@ -2418,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19523500</v>
+        <v>20329900</v>
       </c>
       <c r="E61" s="3">
-        <v>11081700</v>
+        <v>11539400</v>
       </c>
       <c r="F61" s="3">
-        <v>10914600</v>
+        <v>11365500</v>
       </c>
       <c r="G61" s="3">
-        <v>11598100</v>
+        <v>12077200</v>
       </c>
       <c r="H61" s="3">
-        <v>8741800</v>
+        <v>9102900</v>
       </c>
       <c r="I61" s="3">
-        <v>8305400</v>
+        <v>8648400</v>
       </c>
       <c r="J61" s="3">
-        <v>9404100</v>
+        <v>9792600</v>
       </c>
       <c r="K61" s="3">
         <v>10282500</v>
@@ -2454,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8534800</v>
+        <v>8887300</v>
       </c>
       <c r="E62" s="3">
-        <v>7490100</v>
+        <v>7799500</v>
       </c>
       <c r="F62" s="3">
-        <v>7316000</v>
+        <v>7618200</v>
       </c>
       <c r="G62" s="3">
-        <v>7047800</v>
+        <v>7338900</v>
       </c>
       <c r="H62" s="3">
-        <v>4780900</v>
+        <v>4978400</v>
       </c>
       <c r="I62" s="3">
-        <v>4709100</v>
+        <v>4903600</v>
       </c>
       <c r="J62" s="3">
-        <v>5422000</v>
+        <v>5646000</v>
       </c>
       <c r="K62" s="3">
         <v>4873300</v>
@@ -2598,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41924500</v>
+        <v>43656200</v>
       </c>
       <c r="E66" s="3">
-        <v>33469800</v>
+        <v>34852200</v>
       </c>
       <c r="F66" s="3">
-        <v>32763900</v>
+        <v>34117200</v>
       </c>
       <c r="G66" s="3">
-        <v>32415700</v>
+        <v>33754600</v>
       </c>
       <c r="H66" s="3">
-        <v>25466700</v>
+        <v>26518600</v>
       </c>
       <c r="I66" s="3">
-        <v>27186600</v>
+        <v>28309500</v>
       </c>
       <c r="J66" s="3">
-        <v>28154800</v>
+        <v>29317700</v>
       </c>
       <c r="K66" s="3">
         <v>27723100</v>
@@ -2794,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9668800</v>
+        <v>-10068200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1150500</v>
+        <v>-1198000</v>
       </c>
       <c r="F72" s="3">
-        <v>-1514000</v>
+        <v>-1576600</v>
       </c>
       <c r="G72" s="3">
-        <v>-4946800</v>
+        <v>-5151100</v>
       </c>
       <c r="H72" s="3">
-        <v>365900</v>
+        <v>381000</v>
       </c>
       <c r="I72" s="3">
-        <v>-534100</v>
+        <v>-556100</v>
       </c>
       <c r="J72" s="3">
-        <v>-5240900</v>
+        <v>-5457300</v>
       </c>
       <c r="K72" s="3">
         <v>-1125600</v>
@@ -2938,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6384300</v>
+        <v>-6648000</v>
       </c>
       <c r="E76" s="3">
-        <v>2686900</v>
+        <v>2797900</v>
       </c>
       <c r="F76" s="3">
-        <v>2101100</v>
+        <v>2187800</v>
       </c>
       <c r="G76" s="3">
-        <v>2832800</v>
+        <v>2949800</v>
       </c>
       <c r="H76" s="3">
-        <v>1510500</v>
+        <v>1572900</v>
       </c>
       <c r="I76" s="3">
-        <v>264700</v>
+        <v>275600</v>
       </c>
       <c r="J76" s="3">
-        <v>-814100</v>
+        <v>-847700</v>
       </c>
       <c r="K76" s="3">
         <v>2685500</v>
@@ -3051,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8326600</v>
+        <v>-8670500</v>
       </c>
       <c r="E81" s="3">
-        <v>321200</v>
+        <v>334400</v>
       </c>
       <c r="F81" s="3">
-        <v>464700</v>
+        <v>483900</v>
       </c>
       <c r="G81" s="3">
-        <v>162300</v>
+        <v>169000</v>
       </c>
       <c r="H81" s="3">
-        <v>931700</v>
+        <v>970200</v>
       </c>
       <c r="I81" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="J81" s="3">
-        <v>-264700</v>
+        <v>-275600</v>
       </c>
       <c r="K81" s="3">
         <v>-2185500</v>
@@ -3103,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3363300</v>
+        <v>3502200</v>
       </c>
       <c r="E83" s="3">
-        <v>3513900</v>
+        <v>3659000</v>
       </c>
       <c r="F83" s="3">
-        <v>3397400</v>
+        <v>3537800</v>
       </c>
       <c r="G83" s="3">
-        <v>3341000</v>
+        <v>3479000</v>
       </c>
       <c r="H83" s="3">
-        <v>1958700</v>
+        <v>2039600</v>
       </c>
       <c r="I83" s="3">
-        <v>1919900</v>
+        <v>1999200</v>
       </c>
       <c r="J83" s="3">
-        <v>2029300</v>
+        <v>2113100</v>
       </c>
       <c r="K83" s="3">
         <v>2075400</v>
@@ -3319,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3324500</v>
+        <v>-3461800</v>
       </c>
       <c r="E89" s="3">
-        <v>4582100</v>
+        <v>4771300</v>
       </c>
       <c r="F89" s="3">
-        <v>4468000</v>
+        <v>4652500</v>
       </c>
       <c r="G89" s="3">
-        <v>4822100</v>
+        <v>5021200</v>
       </c>
       <c r="H89" s="3">
-        <v>2634000</v>
+        <v>2742800</v>
       </c>
       <c r="I89" s="3">
-        <v>2235200</v>
+        <v>2327500</v>
       </c>
       <c r="J89" s="3">
-        <v>1197600</v>
+        <v>1247000</v>
       </c>
       <c r="K89" s="3">
         <v>1769200</v>
@@ -3371,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2469300</v>
+        <v>-2571300</v>
       </c>
       <c r="E91" s="3">
-        <v>-3966800</v>
+        <v>-4130700</v>
       </c>
       <c r="F91" s="3">
-        <v>-6302000</v>
+        <v>-6562300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2731600</v>
+        <v>-2844400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2252800</v>
+        <v>-2345900</v>
       </c>
       <c r="I91" s="3">
-        <v>-3732700</v>
+        <v>-3886900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1683400</v>
+        <v>-1753000</v>
       </c>
       <c r="K91" s="3">
         <v>-1418700</v>
@@ -3479,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1862200</v>
+        <v>-1939200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3903300</v>
+        <v>-4064500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3181000</v>
+        <v>-3312400</v>
       </c>
       <c r="G94" s="3">
-        <v>-3166900</v>
+        <v>-3297700</v>
       </c>
       <c r="H94" s="3">
-        <v>-855200</v>
+        <v>-890600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1367000</v>
+        <v>-1423400</v>
       </c>
       <c r="J94" s="3">
-        <v>-665800</v>
+        <v>-693300</v>
       </c>
       <c r="K94" s="3">
         <v>-1105300</v>
@@ -3675,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8407700</v>
+        <v>8755000</v>
       </c>
       <c r="E100" s="3">
-        <v>-525900</v>
+        <v>-547600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2574000</v>
+        <v>-2680300</v>
       </c>
       <c r="G100" s="3">
-        <v>-752900</v>
+        <v>-784000</v>
       </c>
       <c r="H100" s="3">
-        <v>-784700</v>
+        <v>-817100</v>
       </c>
       <c r="I100" s="3">
-        <v>-592900</v>
+        <v>-617400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1156400</v>
+        <v>-1204200</v>
       </c>
       <c r="K100" s="3">
         <v>-189000</v>
@@ -3711,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-31800</v>
+        <v>-33100</v>
       </c>
       <c r="E101" s="3">
         <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="G101" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="H101" s="3">
-        <v>-15300</v>
+        <v>-15900</v>
       </c>
       <c r="I101" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="J101" s="3">
-        <v>-90600</v>
+        <v>-94300</v>
       </c>
       <c r="K101" s="3">
         <v>-43100</v>
@@ -3747,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3189200</v>
+        <v>3320900</v>
       </c>
       <c r="E102" s="3">
-        <v>154100</v>
+        <v>160500</v>
       </c>
       <c r="F102" s="3">
-        <v>-1278700</v>
+        <v>-1331600</v>
       </c>
       <c r="G102" s="3">
-        <v>863500</v>
+        <v>899100</v>
       </c>
       <c r="H102" s="3">
-        <v>978800</v>
+        <v>1019200</v>
       </c>
       <c r="I102" s="3">
-        <v>224700</v>
+        <v>234000</v>
       </c>
       <c r="J102" s="3">
-        <v>-715300</v>
+        <v>-744800</v>
       </c>
       <c r="K102" s="3">
         <v>431800</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -665,8 +665,7 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -721,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13582700</v>
+        <v>12944200</v>
       </c>
       <c r="E8" s="3">
-        <v>33306300</v>
+        <v>31740700</v>
       </c>
       <c r="F8" s="3">
-        <v>32127800</v>
+        <v>30617700</v>
       </c>
       <c r="G8" s="3">
-        <v>31686800</v>
+        <v>30197400</v>
       </c>
       <c r="H8" s="3">
-        <v>30436100</v>
+        <v>29005500</v>
       </c>
       <c r="I8" s="3">
-        <v>31471200</v>
+        <v>29991900</v>
       </c>
       <c r="J8" s="3">
-        <v>30539000</v>
+        <v>29103500</v>
       </c>
       <c r="K8" s="3">
         <v>30539000</v>
@@ -757,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8637400</v>
+        <v>8231400</v>
       </c>
       <c r="E9" s="3">
-        <v>16855900</v>
+        <v>16063600</v>
       </c>
       <c r="F9" s="3">
-        <v>15828100</v>
+        <v>15084100</v>
       </c>
       <c r="G9" s="3">
-        <v>16447900</v>
+        <v>15674800</v>
       </c>
       <c r="H9" s="3">
-        <v>17677800</v>
+        <v>16846900</v>
       </c>
       <c r="I9" s="3">
-        <v>19612100</v>
+        <v>18690200</v>
       </c>
       <c r="J9" s="3">
-        <v>18708000</v>
+        <v>17828700</v>
       </c>
       <c r="K9" s="3">
         <v>18116400</v>
@@ -793,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4945300</v>
+        <v>4712800</v>
       </c>
       <c r="E10" s="3">
-        <v>16450400</v>
+        <v>15677100</v>
       </c>
       <c r="F10" s="3">
-        <v>16299700</v>
+        <v>15533600</v>
       </c>
       <c r="G10" s="3">
-        <v>15238900</v>
+        <v>14522600</v>
       </c>
       <c r="H10" s="3">
-        <v>12758300</v>
+        <v>12158600</v>
       </c>
       <c r="I10" s="3">
-        <v>11859100</v>
+        <v>11301700</v>
       </c>
       <c r="J10" s="3">
-        <v>11831000</v>
+        <v>11274800</v>
       </c>
       <c r="K10" s="3">
         <v>12422500</v>
@@ -917,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1828900</v>
+        <v>1755800</v>
       </c>
       <c r="E14" s="3">
-        <v>187400</v>
+        <v>178600</v>
       </c>
       <c r="F14" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="G14" s="3">
-        <v>2358100</v>
+        <v>2247300</v>
       </c>
       <c r="H14" s="3">
-        <v>176400</v>
+        <v>168100</v>
       </c>
       <c r="I14" s="3">
-        <v>171500</v>
+        <v>163400</v>
       </c>
       <c r="J14" s="3">
-        <v>-848900</v>
+        <v>-809000</v>
       </c>
       <c r="K14" s="3">
         <v>412700</v>
@@ -953,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3351600</v>
+        <v>3194000</v>
       </c>
       <c r="E15" s="3">
-        <v>3602700</v>
+        <v>3433400</v>
       </c>
       <c r="F15" s="3">
-        <v>3515700</v>
+        <v>3350500</v>
       </c>
       <c r="G15" s="3">
-        <v>3376100</v>
+        <v>3217400</v>
       </c>
       <c r="H15" s="3">
-        <v>1924500</v>
+        <v>1834000</v>
       </c>
       <c r="I15" s="3">
-        <v>1926900</v>
+        <v>1836300</v>
       </c>
       <c r="J15" s="3">
-        <v>1946500</v>
+        <v>1855000</v>
       </c>
       <c r="K15" s="3">
         <v>1873200</v>
@@ -1002,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20932600</v>
+        <v>19948700</v>
       </c>
       <c r="E17" s="3">
-        <v>32069000</v>
+        <v>30561600</v>
       </c>
       <c r="F17" s="3">
-        <v>30421400</v>
+        <v>28991500</v>
       </c>
       <c r="G17" s="3">
-        <v>31667200</v>
+        <v>30178700</v>
       </c>
       <c r="H17" s="3">
-        <v>29078800</v>
+        <v>27712000</v>
       </c>
       <c r="I17" s="3">
-        <v>30140900</v>
+        <v>28724100</v>
       </c>
       <c r="J17" s="3">
-        <v>29611700</v>
+        <v>28219800</v>
       </c>
       <c r="K17" s="3">
         <v>30810500</v>
@@ -1038,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7349900</v>
+        <v>-7004500</v>
       </c>
       <c r="E18" s="3">
-        <v>1237200</v>
+        <v>1179100</v>
       </c>
       <c r="F18" s="3">
-        <v>1706400</v>
+        <v>1626200</v>
       </c>
       <c r="G18" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="H18" s="3">
-        <v>1357300</v>
+        <v>1293500</v>
       </c>
       <c r="I18" s="3">
-        <v>1330300</v>
+        <v>1267800</v>
       </c>
       <c r="J18" s="3">
-        <v>927300</v>
+        <v>883700</v>
       </c>
       <c r="K18" s="3">
         <v>-271500</v>
@@ -1090,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-628400</v>
+        <v>-598900</v>
       </c>
       <c r="E20" s="3">
-        <v>-313600</v>
+        <v>-298900</v>
       </c>
       <c r="F20" s="3">
-        <v>-401800</v>
+        <v>-382900</v>
       </c>
       <c r="G20" s="3">
-        <v>755800</v>
+        <v>720300</v>
       </c>
       <c r="H20" s="3">
-        <v>-68600</v>
+        <v>-65400</v>
       </c>
       <c r="I20" s="3">
-        <v>-779100</v>
+        <v>-742500</v>
       </c>
       <c r="J20" s="3">
-        <v>-496100</v>
+        <v>-472800</v>
       </c>
       <c r="K20" s="3">
         <v>65800</v>
@@ -1126,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4486100</v>
+        <v>-4255500</v>
       </c>
       <c r="E21" s="3">
-        <v>4572200</v>
+        <v>4378000</v>
       </c>
       <c r="F21" s="3">
-        <v>4832300</v>
+        <v>4625100</v>
       </c>
       <c r="G21" s="3">
-        <v>4244500</v>
+        <v>4064600</v>
       </c>
       <c r="H21" s="3">
-        <v>3322500</v>
+        <v>3177800</v>
       </c>
       <c r="I21" s="3">
-        <v>2544700</v>
+        <v>2436400</v>
       </c>
       <c r="J21" s="3">
-        <v>2538300</v>
+        <v>2430900</v>
       </c>
       <c r="K21" s="3">
         <v>1861200</v>
@@ -1162,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>508400</v>
+        <v>484500</v>
       </c>
       <c r="E22" s="3">
-        <v>499800</v>
+        <v>476300</v>
       </c>
       <c r="F22" s="3">
-        <v>531600</v>
+        <v>506700</v>
       </c>
       <c r="G22" s="3">
-        <v>617400</v>
+        <v>588400</v>
       </c>
       <c r="H22" s="3">
-        <v>280500</v>
+        <v>267300</v>
       </c>
       <c r="I22" s="3">
-        <v>347900</v>
+        <v>331500</v>
       </c>
       <c r="J22" s="3">
-        <v>404200</v>
+        <v>385200</v>
       </c>
       <c r="K22" s="3">
         <v>425800</v>
@@ -1198,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8486700</v>
+        <v>-8087800</v>
       </c>
       <c r="E23" s="3">
-        <v>423800</v>
+        <v>403900</v>
       </c>
       <c r="F23" s="3">
-        <v>773000</v>
+        <v>736600</v>
       </c>
       <c r="G23" s="3">
-        <v>158000</v>
+        <v>150600</v>
       </c>
       <c r="H23" s="3">
-        <v>1008200</v>
+        <v>960800</v>
       </c>
       <c r="I23" s="3">
-        <v>203300</v>
+        <v>193800</v>
       </c>
       <c r="J23" s="3">
-        <v>26900</v>
+        <v>25700</v>
       </c>
       <c r="K23" s="3">
         <v>-631600</v>
@@ -1234,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118800</v>
+        <v>113200</v>
       </c>
       <c r="E24" s="3">
-        <v>93100</v>
+        <v>88700</v>
       </c>
       <c r="F24" s="3">
-        <v>274400</v>
+        <v>261500</v>
       </c>
       <c r="G24" s="3">
-        <v>-25700</v>
+        <v>-24500</v>
       </c>
       <c r="H24" s="3">
-        <v>360100</v>
+        <v>343200</v>
       </c>
       <c r="I24" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="J24" s="3">
-        <v>238900</v>
+        <v>227600</v>
       </c>
       <c r="K24" s="3">
         <v>1144800</v>
@@ -1306,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8605600</v>
+        <v>-8201100</v>
       </c>
       <c r="E26" s="3">
-        <v>330700</v>
+        <v>315200</v>
       </c>
       <c r="F26" s="3">
-        <v>498600</v>
+        <v>475100</v>
       </c>
       <c r="G26" s="3">
-        <v>183700</v>
+        <v>175100</v>
       </c>
       <c r="H26" s="3">
-        <v>648000</v>
+        <v>617600</v>
       </c>
       <c r="I26" s="3">
-        <v>166600</v>
+        <v>158800</v>
       </c>
       <c r="J26" s="3">
-        <v>-211900</v>
+        <v>-202000</v>
       </c>
       <c r="K26" s="3">
         <v>-1776400</v>
@@ -1342,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8670500</v>
+        <v>-8262900</v>
       </c>
       <c r="E27" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="F27" s="3">
-        <v>483900</v>
+        <v>461100</v>
       </c>
       <c r="G27" s="3">
-        <v>178800</v>
+        <v>170400</v>
       </c>
       <c r="H27" s="3">
-        <v>639400</v>
+        <v>609400</v>
       </c>
       <c r="I27" s="3">
-        <v>90600</v>
+        <v>86400</v>
       </c>
       <c r="J27" s="3">
-        <v>-270700</v>
+        <v>-258000</v>
       </c>
       <c r="K27" s="3">
         <v>-2039500</v>
@@ -1423,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="H29" s="3">
-        <v>330700</v>
+        <v>315200</v>
       </c>
       <c r="I29" s="3">
-        <v>31800</v>
+        <v>30400</v>
       </c>
       <c r="J29" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="K29" s="3">
         <v>-145900</v>
@@ -1522,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="E32" s="3">
-        <v>313600</v>
+        <v>298900</v>
       </c>
       <c r="F32" s="3">
-        <v>401800</v>
+        <v>382900</v>
       </c>
       <c r="G32" s="3">
-        <v>-755800</v>
+        <v>-720300</v>
       </c>
       <c r="H32" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="I32" s="3">
-        <v>779100</v>
+        <v>742500</v>
       </c>
       <c r="J32" s="3">
-        <v>496100</v>
+        <v>472800</v>
       </c>
       <c r="K32" s="3">
         <v>-65800</v>
@@ -1558,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8670500</v>
+        <v>-8262900</v>
       </c>
       <c r="E33" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="F33" s="3">
-        <v>483900</v>
+        <v>461100</v>
       </c>
       <c r="G33" s="3">
-        <v>169000</v>
+        <v>161100</v>
       </c>
       <c r="H33" s="3">
-        <v>970200</v>
+        <v>924600</v>
       </c>
       <c r="I33" s="3">
-        <v>122500</v>
+        <v>116700</v>
       </c>
       <c r="J33" s="3">
-        <v>-275600</v>
+        <v>-262700</v>
       </c>
       <c r="K33" s="3">
         <v>-2185500</v>
@@ -1630,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8670500</v>
+        <v>-8262900</v>
       </c>
       <c r="E35" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="F35" s="3">
-        <v>483900</v>
+        <v>461100</v>
       </c>
       <c r="G35" s="3">
-        <v>169000</v>
+        <v>161100</v>
       </c>
       <c r="H35" s="3">
-        <v>970200</v>
+        <v>924600</v>
       </c>
       <c r="I35" s="3">
-        <v>122500</v>
+        <v>116700</v>
       </c>
       <c r="J35" s="3">
-        <v>-275600</v>
+        <v>-262700</v>
       </c>
       <c r="K35" s="3">
         <v>-2185500</v>
@@ -1739,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7868100</v>
+        <v>7498300</v>
       </c>
       <c r="E41" s="3">
-        <v>4550800</v>
+        <v>4336900</v>
       </c>
       <c r="F41" s="3">
-        <v>4391600</v>
+        <v>4185200</v>
       </c>
       <c r="G41" s="3">
-        <v>11450000</v>
+        <v>10911800</v>
       </c>
       <c r="H41" s="3">
-        <v>4824000</v>
+        <v>4597300</v>
       </c>
       <c r="I41" s="3">
-        <v>3802400</v>
+        <v>3623600</v>
       </c>
       <c r="J41" s="3">
-        <v>7739500</v>
+        <v>7375700</v>
       </c>
       <c r="K41" s="3">
         <v>4406800</v>
@@ -1775,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>743600</v>
+        <v>708600</v>
       </c>
       <c r="E42" s="3">
-        <v>980000</v>
+        <v>933900</v>
       </c>
       <c r="F42" s="3">
-        <v>398100</v>
+        <v>379400</v>
       </c>
       <c r="G42" s="3">
-        <v>515700</v>
+        <v>491500</v>
       </c>
       <c r="H42" s="3">
-        <v>159200</v>
+        <v>151800</v>
       </c>
       <c r="I42" s="3">
-        <v>1184600</v>
+        <v>1128900</v>
       </c>
       <c r="J42" s="3">
-        <v>964100</v>
+        <v>918800</v>
       </c>
       <c r="K42" s="3">
         <v>1233300</v>
@@ -1811,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2378900</v>
+        <v>2267100</v>
       </c>
       <c r="E43" s="3">
-        <v>3318500</v>
+        <v>3162500</v>
       </c>
       <c r="F43" s="3">
-        <v>3297700</v>
+        <v>3142700</v>
       </c>
       <c r="G43" s="3">
-        <v>5845700</v>
+        <v>5570900</v>
       </c>
       <c r="H43" s="3">
-        <v>2769700</v>
+        <v>2639500</v>
       </c>
       <c r="I43" s="3">
-        <v>2725600</v>
+        <v>2597500</v>
       </c>
       <c r="J43" s="3">
-        <v>4771300</v>
+        <v>4547100</v>
       </c>
       <c r="K43" s="3">
         <v>2732100</v>
@@ -1847,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>665200</v>
+        <v>633900</v>
       </c>
       <c r="E44" s="3">
-        <v>902800</v>
+        <v>860400</v>
       </c>
       <c r="F44" s="3">
-        <v>775400</v>
+        <v>739000</v>
       </c>
       <c r="G44" s="3">
-        <v>1364600</v>
+        <v>1300500</v>
       </c>
       <c r="H44" s="3">
-        <v>693300</v>
+        <v>660800</v>
       </c>
       <c r="I44" s="3">
-        <v>651700</v>
+        <v>621100</v>
       </c>
       <c r="J44" s="3">
-        <v>1318100</v>
+        <v>1256100</v>
       </c>
       <c r="K44" s="3">
         <v>611300</v>
@@ -1883,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>465500</v>
+        <v>443600</v>
       </c>
       <c r="E45" s="3">
-        <v>708000</v>
+        <v>674800</v>
       </c>
       <c r="F45" s="3">
-        <v>690900</v>
+        <v>658400</v>
       </c>
       <c r="G45" s="3">
-        <v>2500200</v>
+        <v>2382700</v>
       </c>
       <c r="H45" s="3">
-        <v>872200</v>
+        <v>831200</v>
       </c>
       <c r="I45" s="3">
-        <v>878300</v>
+        <v>837000</v>
       </c>
       <c r="J45" s="3">
-        <v>1820300</v>
+        <v>1734800</v>
       </c>
       <c r="K45" s="3">
         <v>1006000</v>
@@ -1919,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12121300</v>
+        <v>11551500</v>
       </c>
       <c r="E46" s="3">
-        <v>10460200</v>
+        <v>9968500</v>
       </c>
       <c r="F46" s="3">
-        <v>9553700</v>
+        <v>9104600</v>
       </c>
       <c r="G46" s="3">
-        <v>11096000</v>
+        <v>10574400</v>
       </c>
       <c r="H46" s="3">
-        <v>9318500</v>
+        <v>8880500</v>
       </c>
       <c r="I46" s="3">
-        <v>9242500</v>
+        <v>8808100</v>
       </c>
       <c r="J46" s="3">
-        <v>8790500</v>
+        <v>8377300</v>
       </c>
       <c r="K46" s="3">
         <v>9494200</v>
@@ -1955,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1260500</v>
+        <v>1201300</v>
       </c>
       <c r="E47" s="3">
-        <v>1722300</v>
+        <v>1641400</v>
       </c>
       <c r="F47" s="3">
-        <v>2216000</v>
+        <v>2111800</v>
       </c>
       <c r="G47" s="3">
-        <v>1930600</v>
+        <v>1839800</v>
       </c>
       <c r="H47" s="3">
-        <v>1715000</v>
+        <v>1634400</v>
       </c>
       <c r="I47" s="3">
-        <v>1648800</v>
+        <v>1571300</v>
       </c>
       <c r="J47" s="3">
-        <v>2013900</v>
+        <v>1919200</v>
       </c>
       <c r="K47" s="3">
         <v>2559900</v>
@@ -1991,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21139700</v>
+        <v>20146000</v>
       </c>
       <c r="E48" s="3">
-        <v>22156400</v>
+        <v>21114900</v>
       </c>
       <c r="F48" s="3">
-        <v>21406700</v>
+        <v>20400500</v>
       </c>
       <c r="G48" s="3">
-        <v>42888100</v>
+        <v>40872200</v>
       </c>
       <c r="H48" s="3">
-        <v>12983700</v>
+        <v>12373400</v>
       </c>
       <c r="I48" s="3">
-        <v>12755800</v>
+        <v>12156200</v>
       </c>
       <c r="J48" s="3">
-        <v>25670900</v>
+        <v>24464200</v>
       </c>
       <c r="K48" s="3">
         <v>13409400</v>
@@ -2027,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1770100</v>
+        <v>1686900</v>
       </c>
       <c r="E49" s="3">
-        <v>1864400</v>
+        <v>1776800</v>
       </c>
       <c r="F49" s="3">
-        <v>1728500</v>
+        <v>1647200</v>
       </c>
       <c r="G49" s="3">
-        <v>3278100</v>
+        <v>3124000</v>
       </c>
       <c r="H49" s="3">
-        <v>1572900</v>
+        <v>1499000</v>
       </c>
       <c r="I49" s="3">
-        <v>1549600</v>
+        <v>1476800</v>
       </c>
       <c r="J49" s="3">
-        <v>3067400</v>
+        <v>2923200</v>
       </c>
       <c r="K49" s="3">
         <v>1355300</v>
@@ -2135,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>716600</v>
+        <v>682900</v>
       </c>
       <c r="E52" s="3">
-        <v>1446700</v>
+        <v>1378700</v>
       </c>
       <c r="F52" s="3">
-        <v>1400200</v>
+        <v>1334300</v>
       </c>
       <c r="G52" s="3">
-        <v>1778700</v>
+        <v>1695100</v>
       </c>
       <c r="H52" s="3">
-        <v>2501400</v>
+        <v>2383900</v>
       </c>
       <c r="I52" s="3">
-        <v>3388300</v>
+        <v>3229100</v>
       </c>
       <c r="J52" s="3">
-        <v>3594100</v>
+        <v>3425200</v>
       </c>
       <c r="K52" s="3">
         <v>3589800</v>
@@ -2207,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>37008200</v>
+        <v>35268600</v>
       </c>
       <c r="E54" s="3">
-        <v>37650100</v>
+        <v>35880300</v>
       </c>
       <c r="F54" s="3">
-        <v>36305000</v>
+        <v>34598500</v>
       </c>
       <c r="G54" s="3">
-        <v>36704400</v>
+        <v>34979100</v>
       </c>
       <c r="H54" s="3">
-        <v>28091500</v>
+        <v>26771000</v>
       </c>
       <c r="I54" s="3">
-        <v>28585100</v>
+        <v>27241500</v>
       </c>
       <c r="J54" s="3">
-        <v>28470000</v>
+        <v>27131800</v>
       </c>
       <c r="K54" s="3">
         <v>30408600</v>
@@ -2275,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1757900</v>
+        <v>1675200</v>
       </c>
       <c r="E57" s="3">
-        <v>2914300</v>
+        <v>2777300</v>
       </c>
       <c r="F57" s="3">
-        <v>3006100</v>
+        <v>2864800</v>
       </c>
       <c r="G57" s="3">
-        <v>2897100</v>
+        <v>2760900</v>
       </c>
       <c r="H57" s="3">
-        <v>2889800</v>
+        <v>2753900</v>
       </c>
       <c r="I57" s="3">
-        <v>2933900</v>
+        <v>2795900</v>
       </c>
       <c r="J57" s="3">
-        <v>2993900</v>
+        <v>2853200</v>
       </c>
       <c r="K57" s="3">
         <v>2833800</v>
@@ -2311,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2512500</v>
+        <v>2394400</v>
       </c>
       <c r="E58" s="3">
-        <v>2149900</v>
+        <v>2048800</v>
       </c>
       <c r="F58" s="3">
-        <v>2149900</v>
+        <v>2048800</v>
       </c>
       <c r="G58" s="3">
-        <v>4508000</v>
+        <v>4296100</v>
       </c>
       <c r="H58" s="3">
-        <v>1147800</v>
+        <v>1093900</v>
       </c>
       <c r="I58" s="3">
-        <v>2358100</v>
+        <v>2247300</v>
       </c>
       <c r="J58" s="3">
-        <v>5725600</v>
+        <v>5456500</v>
       </c>
       <c r="K58" s="3">
         <v>1973700</v>
@@ -2347,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10157600</v>
+        <v>9680200</v>
       </c>
       <c r="E59" s="3">
-        <v>10430800</v>
+        <v>9940500</v>
       </c>
       <c r="F59" s="3">
-        <v>9962800</v>
+        <v>9494500</v>
       </c>
       <c r="G59" s="3">
-        <v>13024100</v>
+        <v>12411900</v>
       </c>
       <c r="H59" s="3">
-        <v>8385100</v>
+        <v>7990900</v>
       </c>
       <c r="I59" s="3">
-        <v>9406700</v>
+        <v>8964500</v>
       </c>
       <c r="J59" s="3">
-        <v>13109800</v>
+        <v>12493600</v>
       </c>
       <c r="K59" s="3">
         <v>10969200</v>
@@ -2383,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14427900</v>
+        <v>13749800</v>
       </c>
       <c r="E60" s="3">
-        <v>15494900</v>
+        <v>14766600</v>
       </c>
       <c r="F60" s="3">
-        <v>15118800</v>
+        <v>14408200</v>
       </c>
       <c r="G60" s="3">
-        <v>14766000</v>
+        <v>14072000</v>
       </c>
       <c r="H60" s="3">
-        <v>12422600</v>
+        <v>11838700</v>
       </c>
       <c r="I60" s="3">
-        <v>14698700</v>
+        <v>14007800</v>
       </c>
       <c r="J60" s="3">
-        <v>14488000</v>
+        <v>13807000</v>
       </c>
       <c r="K60" s="3">
         <v>12984800</v>
@@ -2419,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20329900</v>
+        <v>19374300</v>
       </c>
       <c r="E61" s="3">
-        <v>11539400</v>
+        <v>10997000</v>
       </c>
       <c r="F61" s="3">
-        <v>11365500</v>
+        <v>10831200</v>
       </c>
       <c r="G61" s="3">
-        <v>12077200</v>
+        <v>11509500</v>
       </c>
       <c r="H61" s="3">
-        <v>9102900</v>
+        <v>8675000</v>
       </c>
       <c r="I61" s="3">
-        <v>8648400</v>
+        <v>8241900</v>
       </c>
       <c r="J61" s="3">
-        <v>9792600</v>
+        <v>9332300</v>
       </c>
       <c r="K61" s="3">
         <v>10282500</v>
@@ -2455,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8887300</v>
+        <v>8469600</v>
       </c>
       <c r="E62" s="3">
-        <v>7799500</v>
+        <v>7432900</v>
       </c>
       <c r="F62" s="3">
-        <v>7618200</v>
+        <v>7260100</v>
       </c>
       <c r="G62" s="3">
-        <v>7338900</v>
+        <v>6994000</v>
       </c>
       <c r="H62" s="3">
-        <v>4978400</v>
+        <v>4744400</v>
       </c>
       <c r="I62" s="3">
-        <v>4903600</v>
+        <v>4673100</v>
       </c>
       <c r="J62" s="3">
-        <v>5646000</v>
+        <v>5380600</v>
       </c>
       <c r="K62" s="3">
         <v>4873300</v>
@@ -2599,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43656200</v>
+        <v>41604200</v>
       </c>
       <c r="E66" s="3">
-        <v>34852200</v>
+        <v>33214000</v>
       </c>
       <c r="F66" s="3">
-        <v>34117200</v>
+        <v>32513500</v>
       </c>
       <c r="G66" s="3">
-        <v>33754600</v>
+        <v>32168000</v>
       </c>
       <c r="H66" s="3">
-        <v>26518600</v>
+        <v>25272100</v>
       </c>
       <c r="I66" s="3">
-        <v>28309500</v>
+        <v>26978800</v>
       </c>
       <c r="J66" s="3">
-        <v>29317700</v>
+        <v>27939600</v>
       </c>
       <c r="K66" s="3">
         <v>27723100</v>
@@ -2795,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10068200</v>
+        <v>-9594900</v>
       </c>
       <c r="E72" s="3">
-        <v>-1198000</v>
+        <v>-1141700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1576600</v>
+        <v>-1502500</v>
       </c>
       <c r="G72" s="3">
-        <v>-5151100</v>
+        <v>-4909000</v>
       </c>
       <c r="H72" s="3">
-        <v>381000</v>
+        <v>363100</v>
       </c>
       <c r="I72" s="3">
-        <v>-556100</v>
+        <v>-530000</v>
       </c>
       <c r="J72" s="3">
-        <v>-5457300</v>
+        <v>-5200800</v>
       </c>
       <c r="K72" s="3">
         <v>-1125600</v>
@@ -2939,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6648000</v>
+        <v>-6335500</v>
       </c>
       <c r="E76" s="3">
-        <v>2797900</v>
+        <v>2666400</v>
       </c>
       <c r="F76" s="3">
-        <v>2187800</v>
+        <v>2085000</v>
       </c>
       <c r="G76" s="3">
-        <v>2949800</v>
+        <v>2811100</v>
       </c>
       <c r="H76" s="3">
-        <v>1572900</v>
+        <v>1499000</v>
       </c>
       <c r="I76" s="3">
-        <v>275600</v>
+        <v>262700</v>
       </c>
       <c r="J76" s="3">
-        <v>-847700</v>
+        <v>-807800</v>
       </c>
       <c r="K76" s="3">
         <v>2685500</v>
@@ -3052,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8670500</v>
+        <v>-8262900</v>
       </c>
       <c r="E81" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="F81" s="3">
-        <v>483900</v>
+        <v>461100</v>
       </c>
       <c r="G81" s="3">
-        <v>169000</v>
+        <v>161100</v>
       </c>
       <c r="H81" s="3">
-        <v>970200</v>
+        <v>924600</v>
       </c>
       <c r="I81" s="3">
-        <v>122500</v>
+        <v>116700</v>
       </c>
       <c r="J81" s="3">
-        <v>-275600</v>
+        <v>-262700</v>
       </c>
       <c r="K81" s="3">
         <v>-2185500</v>
@@ -3104,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3502200</v>
+        <v>3337600</v>
       </c>
       <c r="E83" s="3">
-        <v>3659000</v>
+        <v>3487100</v>
       </c>
       <c r="F83" s="3">
-        <v>3537800</v>
+        <v>3371500</v>
       </c>
       <c r="G83" s="3">
-        <v>3479000</v>
+        <v>3315400</v>
       </c>
       <c r="H83" s="3">
-        <v>2039600</v>
+        <v>1943700</v>
       </c>
       <c r="I83" s="3">
-        <v>1999200</v>
+        <v>1905200</v>
       </c>
       <c r="J83" s="3">
-        <v>2113100</v>
+        <v>2013800</v>
       </c>
       <c r="K83" s="3">
         <v>2075400</v>
@@ -3320,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3461800</v>
+        <v>-3299100</v>
       </c>
       <c r="E89" s="3">
-        <v>4771300</v>
+        <v>4547100</v>
       </c>
       <c r="F89" s="3">
-        <v>4652500</v>
+        <v>4433800</v>
       </c>
       <c r="G89" s="3">
-        <v>5021200</v>
+        <v>4785200</v>
       </c>
       <c r="H89" s="3">
-        <v>2742800</v>
+        <v>2613800</v>
       </c>
       <c r="I89" s="3">
-        <v>2327500</v>
+        <v>2218100</v>
       </c>
       <c r="J89" s="3">
-        <v>1247000</v>
+        <v>1188400</v>
       </c>
       <c r="K89" s="3">
         <v>1769200</v>
@@ -3372,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2571300</v>
+        <v>-2450400</v>
       </c>
       <c r="E91" s="3">
-        <v>-4130700</v>
+        <v>-3936500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6562300</v>
+        <v>-6253800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2844400</v>
+        <v>-2710700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2345900</v>
+        <v>-2235600</v>
       </c>
       <c r="I91" s="3">
-        <v>-3886900</v>
+        <v>-3704200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1753000</v>
+        <v>-1670600</v>
       </c>
       <c r="K91" s="3">
         <v>-1418700</v>
@@ -3480,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1939200</v>
+        <v>-1848000</v>
       </c>
       <c r="E94" s="3">
-        <v>-4064500</v>
+        <v>-3873500</v>
       </c>
       <c r="F94" s="3">
-        <v>-3312400</v>
+        <v>-3156700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3297700</v>
+        <v>-3142700</v>
       </c>
       <c r="H94" s="3">
-        <v>-890600</v>
+        <v>-848700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1423400</v>
+        <v>-1356500</v>
       </c>
       <c r="J94" s="3">
-        <v>-693300</v>
+        <v>-660800</v>
       </c>
       <c r="K94" s="3">
         <v>-1105300</v>
@@ -3676,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8755000</v>
+        <v>8343500</v>
       </c>
       <c r="E100" s="3">
-        <v>-547600</v>
+        <v>-521800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2680300</v>
+        <v>-2554300</v>
       </c>
       <c r="G100" s="3">
-        <v>-784000</v>
+        <v>-747100</v>
       </c>
       <c r="H100" s="3">
-        <v>-817100</v>
+        <v>-778700</v>
       </c>
       <c r="I100" s="3">
-        <v>-617400</v>
+        <v>-588400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1204200</v>
+        <v>-1147600</v>
       </c>
       <c r="K100" s="3">
         <v>-189000</v>
@@ -3712,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33100</v>
+        <v>-31500</v>
       </c>
       <c r="E101" s="3">
         <v>1200</v>
       </c>
       <c r="F101" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="G101" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="H101" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="I101" s="3">
-        <v>-52700</v>
+        <v>-50200</v>
       </c>
       <c r="J101" s="3">
-        <v>-94300</v>
+        <v>-89900</v>
       </c>
       <c r="K101" s="3">
         <v>-43100</v>
@@ -3748,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3320900</v>
+        <v>3164800</v>
       </c>
       <c r="E102" s="3">
-        <v>160500</v>
+        <v>152900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1331600</v>
+        <v>-1269000</v>
       </c>
       <c r="G102" s="3">
-        <v>899100</v>
+        <v>856900</v>
       </c>
       <c r="H102" s="3">
-        <v>1019200</v>
+        <v>971300</v>
       </c>
       <c r="I102" s="3">
-        <v>234000</v>
+        <v>223000</v>
       </c>
       <c r="J102" s="3">
-        <v>-744800</v>
+        <v>-709800</v>
       </c>
       <c r="K102" s="3">
         <v>431800</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12944200</v>
+        <v>12519500</v>
       </c>
       <c r="E8" s="3">
-        <v>31740700</v>
+        <v>30699100</v>
       </c>
       <c r="F8" s="3">
-        <v>30617700</v>
+        <v>29612900</v>
       </c>
       <c r="G8" s="3">
-        <v>30197400</v>
+        <v>29206400</v>
       </c>
       <c r="H8" s="3">
-        <v>29005500</v>
+        <v>28053600</v>
       </c>
       <c r="I8" s="3">
-        <v>29991900</v>
+        <v>29007700</v>
       </c>
       <c r="J8" s="3">
-        <v>29103500</v>
+        <v>28148500</v>
       </c>
       <c r="K8" s="3">
         <v>30539000</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8231400</v>
+        <v>7961300</v>
       </c>
       <c r="E9" s="3">
-        <v>16063600</v>
+        <v>15536400</v>
       </c>
       <c r="F9" s="3">
-        <v>15084100</v>
+        <v>14589100</v>
       </c>
       <c r="G9" s="3">
-        <v>15674800</v>
+        <v>15160400</v>
       </c>
       <c r="H9" s="3">
-        <v>16846900</v>
+        <v>16294000</v>
       </c>
       <c r="I9" s="3">
-        <v>18690200</v>
+        <v>18076900</v>
       </c>
       <c r="J9" s="3">
-        <v>17828700</v>
+        <v>17243600</v>
       </c>
       <c r="K9" s="3">
         <v>18116400</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4712800</v>
+        <v>4558200</v>
       </c>
       <c r="E10" s="3">
-        <v>15677100</v>
+        <v>15162700</v>
       </c>
       <c r="F10" s="3">
-        <v>15533600</v>
+        <v>15023800</v>
       </c>
       <c r="G10" s="3">
-        <v>14522600</v>
+        <v>14046000</v>
       </c>
       <c r="H10" s="3">
-        <v>12158600</v>
+        <v>11759600</v>
       </c>
       <c r="I10" s="3">
-        <v>11301700</v>
+        <v>10930800</v>
       </c>
       <c r="J10" s="3">
-        <v>11274800</v>
+        <v>10904800</v>
       </c>
       <c r="K10" s="3">
         <v>12422500</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1755800</v>
+        <v>511500</v>
       </c>
       <c r="E14" s="3">
-        <v>178600</v>
+        <v>172800</v>
       </c>
       <c r="F14" s="3">
-        <v>28000</v>
+        <v>27100</v>
       </c>
       <c r="G14" s="3">
-        <v>2247300</v>
+        <v>2173500</v>
       </c>
       <c r="H14" s="3">
-        <v>168100</v>
+        <v>162600</v>
       </c>
       <c r="I14" s="3">
-        <v>163400</v>
+        <v>158100</v>
       </c>
       <c r="J14" s="3">
-        <v>-809000</v>
+        <v>-782500</v>
       </c>
       <c r="K14" s="3">
         <v>412700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3194000</v>
+        <v>3089200</v>
       </c>
       <c r="E15" s="3">
-        <v>3433400</v>
+        <v>3320700</v>
       </c>
       <c r="F15" s="3">
-        <v>3350500</v>
+        <v>3240500</v>
       </c>
       <c r="G15" s="3">
-        <v>3217400</v>
+        <v>3111800</v>
       </c>
       <c r="H15" s="3">
-        <v>1834000</v>
+        <v>1773800</v>
       </c>
       <c r="I15" s="3">
-        <v>1836300</v>
+        <v>1776100</v>
       </c>
       <c r="J15" s="3">
-        <v>1855000</v>
+        <v>1794100</v>
       </c>
       <c r="K15" s="3">
         <v>1873200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19948700</v>
+        <v>19294100</v>
       </c>
       <c r="E17" s="3">
-        <v>30561600</v>
+        <v>29558700</v>
       </c>
       <c r="F17" s="3">
-        <v>28991500</v>
+        <v>28040100</v>
       </c>
       <c r="G17" s="3">
-        <v>30178700</v>
+        <v>29188400</v>
       </c>
       <c r="H17" s="3">
-        <v>27712000</v>
+        <v>26802600</v>
       </c>
       <c r="I17" s="3">
-        <v>28724100</v>
+        <v>27781500</v>
       </c>
       <c r="J17" s="3">
-        <v>28219800</v>
+        <v>27293700</v>
       </c>
       <c r="K17" s="3">
         <v>30810500</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7004500</v>
+        <v>-6774600</v>
       </c>
       <c r="E18" s="3">
-        <v>1179100</v>
+        <v>1140400</v>
       </c>
       <c r="F18" s="3">
-        <v>1626200</v>
+        <v>1572800</v>
       </c>
       <c r="G18" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="H18" s="3">
-        <v>1293500</v>
+        <v>1251000</v>
       </c>
       <c r="I18" s="3">
-        <v>1267800</v>
+        <v>1226200</v>
       </c>
       <c r="J18" s="3">
-        <v>883700</v>
+        <v>854700</v>
       </c>
       <c r="K18" s="3">
         <v>-271500</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-598900</v>
+        <v>-579200</v>
       </c>
       <c r="E20" s="3">
-        <v>-298900</v>
+        <v>-289000</v>
       </c>
       <c r="F20" s="3">
-        <v>-382900</v>
+        <v>-370300</v>
       </c>
       <c r="G20" s="3">
-        <v>720300</v>
+        <v>696700</v>
       </c>
       <c r="H20" s="3">
-        <v>-65400</v>
+        <v>-63200</v>
       </c>
       <c r="I20" s="3">
-        <v>-742500</v>
+        <v>-718100</v>
       </c>
       <c r="J20" s="3">
-        <v>-472800</v>
+        <v>-457300</v>
       </c>
       <c r="K20" s="3">
         <v>65800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4255500</v>
+        <v>-4118300</v>
       </c>
       <c r="E21" s="3">
-        <v>4378000</v>
+        <v>4231700</v>
       </c>
       <c r="F21" s="3">
-        <v>4625100</v>
+        <v>4470800</v>
       </c>
       <c r="G21" s="3">
-        <v>4064600</v>
+        <v>3928700</v>
       </c>
       <c r="H21" s="3">
-        <v>3177800</v>
+        <v>3072100</v>
       </c>
       <c r="I21" s="3">
-        <v>2436400</v>
+        <v>2355000</v>
       </c>
       <c r="J21" s="3">
-        <v>2430900</v>
+        <v>2349600</v>
       </c>
       <c r="K21" s="3">
         <v>1861200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>484500</v>
+        <v>468600</v>
       </c>
       <c r="E22" s="3">
-        <v>476300</v>
+        <v>460700</v>
       </c>
       <c r="F22" s="3">
-        <v>506700</v>
+        <v>490000</v>
       </c>
       <c r="G22" s="3">
-        <v>588400</v>
+        <v>569100</v>
       </c>
       <c r="H22" s="3">
-        <v>267300</v>
+        <v>258600</v>
       </c>
       <c r="I22" s="3">
-        <v>331500</v>
+        <v>320700</v>
       </c>
       <c r="J22" s="3">
-        <v>385200</v>
+        <v>372600</v>
       </c>
       <c r="K22" s="3">
         <v>425800</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8087800</v>
+        <v>-7822400</v>
       </c>
       <c r="E23" s="3">
-        <v>403900</v>
+        <v>390700</v>
       </c>
       <c r="F23" s="3">
-        <v>736600</v>
+        <v>712500</v>
       </c>
       <c r="G23" s="3">
-        <v>150600</v>
+        <v>145700</v>
       </c>
       <c r="H23" s="3">
-        <v>960800</v>
+        <v>929200</v>
       </c>
       <c r="I23" s="3">
-        <v>193800</v>
+        <v>187400</v>
       </c>
       <c r="J23" s="3">
-        <v>25700</v>
+        <v>24800</v>
       </c>
       <c r="K23" s="3">
         <v>-631600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113200</v>
+        <v>109500</v>
       </c>
       <c r="E24" s="3">
-        <v>88700</v>
+        <v>85800</v>
       </c>
       <c r="F24" s="3">
-        <v>261500</v>
+        <v>252900</v>
       </c>
       <c r="G24" s="3">
-        <v>-24500</v>
+        <v>-23700</v>
       </c>
       <c r="H24" s="3">
-        <v>343200</v>
+        <v>332000</v>
       </c>
       <c r="I24" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="J24" s="3">
-        <v>227600</v>
+        <v>220200</v>
       </c>
       <c r="K24" s="3">
         <v>1144800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8201100</v>
+        <v>-7931900</v>
       </c>
       <c r="E26" s="3">
-        <v>315200</v>
+        <v>304900</v>
       </c>
       <c r="F26" s="3">
-        <v>475100</v>
+        <v>459500</v>
       </c>
       <c r="G26" s="3">
-        <v>175100</v>
+        <v>169400</v>
       </c>
       <c r="H26" s="3">
-        <v>617600</v>
+        <v>597300</v>
       </c>
       <c r="I26" s="3">
-        <v>158800</v>
+        <v>153600</v>
       </c>
       <c r="J26" s="3">
-        <v>-202000</v>
+        <v>-195300</v>
       </c>
       <c r="K26" s="3">
         <v>-1776400</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8262900</v>
+        <v>-7991800</v>
       </c>
       <c r="E27" s="3">
-        <v>318700</v>
+        <v>308200</v>
       </c>
       <c r="F27" s="3">
-        <v>461100</v>
+        <v>446000</v>
       </c>
       <c r="G27" s="3">
-        <v>170400</v>
+        <v>164800</v>
       </c>
       <c r="H27" s="3">
-        <v>609400</v>
+        <v>589400</v>
       </c>
       <c r="I27" s="3">
-        <v>86400</v>
+        <v>83600</v>
       </c>
       <c r="J27" s="3">
-        <v>-258000</v>
+        <v>-249500</v>
       </c>
       <c r="K27" s="3">
         <v>-2039500</v>
@@ -1422,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="H29" s="3">
-        <v>315200</v>
+        <v>304900</v>
       </c>
       <c r="I29" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="J29" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="K29" s="3">
         <v>-145900</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="E32" s="3">
-        <v>298900</v>
+        <v>289000</v>
       </c>
       <c r="F32" s="3">
-        <v>382900</v>
+        <v>370300</v>
       </c>
       <c r="G32" s="3">
-        <v>-720300</v>
+        <v>-696700</v>
       </c>
       <c r="H32" s="3">
-        <v>65400</v>
+        <v>63200</v>
       </c>
       <c r="I32" s="3">
-        <v>742500</v>
+        <v>718100</v>
       </c>
       <c r="J32" s="3">
-        <v>472800</v>
+        <v>457300</v>
       </c>
       <c r="K32" s="3">
         <v>-65800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8262900</v>
+        <v>-7991800</v>
       </c>
       <c r="E33" s="3">
-        <v>318700</v>
+        <v>308200</v>
       </c>
       <c r="F33" s="3">
-        <v>461100</v>
+        <v>446000</v>
       </c>
       <c r="G33" s="3">
-        <v>161100</v>
+        <v>155800</v>
       </c>
       <c r="H33" s="3">
-        <v>924600</v>
+        <v>894200</v>
       </c>
       <c r="I33" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="J33" s="3">
-        <v>-262700</v>
+        <v>-254000</v>
       </c>
       <c r="K33" s="3">
         <v>-2185500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8262900</v>
+        <v>-7991800</v>
       </c>
       <c r="E35" s="3">
-        <v>318700</v>
+        <v>308200</v>
       </c>
       <c r="F35" s="3">
-        <v>461100</v>
+        <v>446000</v>
       </c>
       <c r="G35" s="3">
-        <v>161100</v>
+        <v>155800</v>
       </c>
       <c r="H35" s="3">
-        <v>924600</v>
+        <v>894200</v>
       </c>
       <c r="I35" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="J35" s="3">
-        <v>-262700</v>
+        <v>-254000</v>
       </c>
       <c r="K35" s="3">
         <v>-2185500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7498300</v>
+        <v>7252200</v>
       </c>
       <c r="E41" s="3">
-        <v>4336900</v>
+        <v>4194600</v>
       </c>
       <c r="F41" s="3">
-        <v>4185200</v>
+        <v>4047800</v>
       </c>
       <c r="G41" s="3">
-        <v>10911800</v>
+        <v>10553700</v>
       </c>
       <c r="H41" s="3">
-        <v>4597300</v>
+        <v>4446400</v>
       </c>
       <c r="I41" s="3">
-        <v>3623600</v>
+        <v>3504700</v>
       </c>
       <c r="J41" s="3">
-        <v>7375700</v>
+        <v>7133700</v>
       </c>
       <c r="K41" s="3">
         <v>4406800</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>708600</v>
+        <v>685400</v>
       </c>
       <c r="E42" s="3">
-        <v>933900</v>
+        <v>903300</v>
       </c>
       <c r="F42" s="3">
-        <v>379400</v>
+        <v>367000</v>
       </c>
       <c r="G42" s="3">
-        <v>491500</v>
+        <v>475400</v>
       </c>
       <c r="H42" s="3">
-        <v>151800</v>
+        <v>146800</v>
       </c>
       <c r="I42" s="3">
-        <v>1128900</v>
+        <v>1091800</v>
       </c>
       <c r="J42" s="3">
-        <v>918800</v>
+        <v>888600</v>
       </c>
       <c r="K42" s="3">
         <v>1233300</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2267100</v>
+        <v>2192700</v>
       </c>
       <c r="E43" s="3">
-        <v>3162500</v>
+        <v>3058700</v>
       </c>
       <c r="F43" s="3">
-        <v>3142700</v>
+        <v>3039500</v>
       </c>
       <c r="G43" s="3">
-        <v>5570900</v>
+        <v>5388100</v>
       </c>
       <c r="H43" s="3">
-        <v>2639500</v>
+        <v>2552900</v>
       </c>
       <c r="I43" s="3">
-        <v>2597500</v>
+        <v>2512200</v>
       </c>
       <c r="J43" s="3">
-        <v>4547100</v>
+        <v>4397800</v>
       </c>
       <c r="K43" s="3">
         <v>2732100</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>633900</v>
+        <v>613100</v>
       </c>
       <c r="E44" s="3">
-        <v>860400</v>
+        <v>832100</v>
       </c>
       <c r="F44" s="3">
-        <v>739000</v>
+        <v>714700</v>
       </c>
       <c r="G44" s="3">
-        <v>1300500</v>
+        <v>1257800</v>
       </c>
       <c r="H44" s="3">
-        <v>660800</v>
+        <v>639100</v>
       </c>
       <c r="I44" s="3">
-        <v>621100</v>
+        <v>600700</v>
       </c>
       <c r="J44" s="3">
-        <v>1256100</v>
+        <v>1214900</v>
       </c>
       <c r="K44" s="3">
         <v>611300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>443600</v>
+        <v>429100</v>
       </c>
       <c r="E45" s="3">
-        <v>674800</v>
+        <v>652600</v>
       </c>
       <c r="F45" s="3">
-        <v>658400</v>
+        <v>636800</v>
       </c>
       <c r="G45" s="3">
-        <v>2382700</v>
+        <v>2304500</v>
       </c>
       <c r="H45" s="3">
-        <v>831200</v>
+        <v>803900</v>
       </c>
       <c r="I45" s="3">
-        <v>837000</v>
+        <v>809600</v>
       </c>
       <c r="J45" s="3">
-        <v>1734800</v>
+        <v>1677800</v>
       </c>
       <c r="K45" s="3">
         <v>1006000</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11551500</v>
+        <v>11172400</v>
       </c>
       <c r="E46" s="3">
-        <v>9968500</v>
+        <v>9641400</v>
       </c>
       <c r="F46" s="3">
-        <v>9104600</v>
+        <v>8805900</v>
       </c>
       <c r="G46" s="3">
-        <v>10574400</v>
+        <v>10227400</v>
       </c>
       <c r="H46" s="3">
-        <v>8880500</v>
+        <v>8589100</v>
       </c>
       <c r="I46" s="3">
-        <v>8808100</v>
+        <v>8519100</v>
       </c>
       <c r="J46" s="3">
-        <v>8377300</v>
+        <v>8102400</v>
       </c>
       <c r="K46" s="3">
         <v>9494200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1201300</v>
+        <v>1161800</v>
       </c>
       <c r="E47" s="3">
-        <v>1641400</v>
+        <v>1587500</v>
       </c>
       <c r="F47" s="3">
-        <v>2111800</v>
+        <v>2042500</v>
       </c>
       <c r="G47" s="3">
-        <v>1839800</v>
+        <v>1779500</v>
       </c>
       <c r="H47" s="3">
-        <v>1634400</v>
+        <v>1580700</v>
       </c>
       <c r="I47" s="3">
-        <v>1571300</v>
+        <v>1519800</v>
       </c>
       <c r="J47" s="3">
-        <v>1919200</v>
+        <v>1856200</v>
       </c>
       <c r="K47" s="3">
         <v>2559900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20146000</v>
+        <v>19484900</v>
       </c>
       <c r="E48" s="3">
-        <v>21114900</v>
+        <v>20422000</v>
       </c>
       <c r="F48" s="3">
-        <v>20400500</v>
+        <v>19731000</v>
       </c>
       <c r="G48" s="3">
-        <v>40872200</v>
+        <v>39530900</v>
       </c>
       <c r="H48" s="3">
-        <v>12373400</v>
+        <v>11967300</v>
       </c>
       <c r="I48" s="3">
-        <v>12156200</v>
+        <v>11757300</v>
       </c>
       <c r="J48" s="3">
-        <v>24464200</v>
+        <v>23661400</v>
       </c>
       <c r="K48" s="3">
         <v>13409400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1686900</v>
+        <v>1631500</v>
       </c>
       <c r="E49" s="3">
-        <v>1776800</v>
+        <v>1718500</v>
       </c>
       <c r="F49" s="3">
-        <v>1647200</v>
+        <v>1593200</v>
       </c>
       <c r="G49" s="3">
-        <v>3124000</v>
+        <v>3021500</v>
       </c>
       <c r="H49" s="3">
-        <v>1499000</v>
+        <v>1449800</v>
       </c>
       <c r="I49" s="3">
-        <v>1476800</v>
+        <v>1428300</v>
       </c>
       <c r="J49" s="3">
-        <v>2923200</v>
+        <v>2827300</v>
       </c>
       <c r="K49" s="3">
         <v>1355300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>682900</v>
+        <v>660500</v>
       </c>
       <c r="E52" s="3">
-        <v>1378700</v>
+        <v>1333500</v>
       </c>
       <c r="F52" s="3">
-        <v>1334300</v>
+        <v>1290600</v>
       </c>
       <c r="G52" s="3">
-        <v>1695100</v>
+        <v>1639500</v>
       </c>
       <c r="H52" s="3">
-        <v>2383900</v>
+        <v>2305600</v>
       </c>
       <c r="I52" s="3">
-        <v>3229100</v>
+        <v>3123100</v>
       </c>
       <c r="J52" s="3">
-        <v>3425200</v>
+        <v>3312800</v>
       </c>
       <c r="K52" s="3">
         <v>3589800</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35268600</v>
+        <v>34111200</v>
       </c>
       <c r="E54" s="3">
-        <v>35880300</v>
+        <v>34702900</v>
       </c>
       <c r="F54" s="3">
-        <v>34598500</v>
+        <v>33463100</v>
       </c>
       <c r="G54" s="3">
-        <v>34979100</v>
+        <v>33831200</v>
       </c>
       <c r="H54" s="3">
-        <v>26771000</v>
+        <v>25892500</v>
       </c>
       <c r="I54" s="3">
-        <v>27241500</v>
+        <v>26347500</v>
       </c>
       <c r="J54" s="3">
-        <v>27131800</v>
+        <v>26241400</v>
       </c>
       <c r="K54" s="3">
         <v>30408600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1675200</v>
+        <v>1620300</v>
       </c>
       <c r="E57" s="3">
-        <v>2777300</v>
+        <v>2686100</v>
       </c>
       <c r="F57" s="3">
-        <v>2864800</v>
+        <v>2770800</v>
       </c>
       <c r="G57" s="3">
-        <v>2760900</v>
+        <v>2670300</v>
       </c>
       <c r="H57" s="3">
-        <v>2753900</v>
+        <v>2663500</v>
       </c>
       <c r="I57" s="3">
-        <v>2795900</v>
+        <v>2704200</v>
       </c>
       <c r="J57" s="3">
-        <v>2853200</v>
+        <v>2759500</v>
       </c>
       <c r="K57" s="3">
         <v>2833800</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2394400</v>
+        <v>2315800</v>
       </c>
       <c r="E58" s="3">
-        <v>2048800</v>
+        <v>1981600</v>
       </c>
       <c r="F58" s="3">
-        <v>2048800</v>
+        <v>1981600</v>
       </c>
       <c r="G58" s="3">
-        <v>4296100</v>
+        <v>4155100</v>
       </c>
       <c r="H58" s="3">
-        <v>1093900</v>
+        <v>1058000</v>
       </c>
       <c r="I58" s="3">
-        <v>2247300</v>
+        <v>2173500</v>
       </c>
       <c r="J58" s="3">
-        <v>5456500</v>
+        <v>5277400</v>
       </c>
       <c r="K58" s="3">
         <v>1973700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9680200</v>
+        <v>9362500</v>
       </c>
       <c r="E59" s="3">
-        <v>9940500</v>
+        <v>9614300</v>
       </c>
       <c r="F59" s="3">
-        <v>9494500</v>
+        <v>9183000</v>
       </c>
       <c r="G59" s="3">
-        <v>12411900</v>
+        <v>12004600</v>
       </c>
       <c r="H59" s="3">
-        <v>7990900</v>
+        <v>7728700</v>
       </c>
       <c r="I59" s="3">
-        <v>8964500</v>
+        <v>8670400</v>
       </c>
       <c r="J59" s="3">
-        <v>12493600</v>
+        <v>12083600</v>
       </c>
       <c r="K59" s="3">
         <v>10969200</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13749800</v>
+        <v>13298500</v>
       </c>
       <c r="E60" s="3">
-        <v>14766600</v>
+        <v>14282000</v>
       </c>
       <c r="F60" s="3">
-        <v>14408200</v>
+        <v>13935400</v>
       </c>
       <c r="G60" s="3">
-        <v>14072000</v>
+        <v>13610200</v>
       </c>
       <c r="H60" s="3">
-        <v>11838700</v>
+        <v>11450200</v>
       </c>
       <c r="I60" s="3">
-        <v>14007800</v>
+        <v>13548100</v>
       </c>
       <c r="J60" s="3">
-        <v>13807000</v>
+        <v>13353900</v>
       </c>
       <c r="K60" s="3">
         <v>12984800</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19374300</v>
+        <v>18738500</v>
       </c>
       <c r="E61" s="3">
-        <v>10997000</v>
+        <v>10636100</v>
       </c>
       <c r="F61" s="3">
-        <v>10831200</v>
+        <v>10475800</v>
       </c>
       <c r="G61" s="3">
-        <v>11509500</v>
+        <v>11131800</v>
       </c>
       <c r="H61" s="3">
-        <v>8675000</v>
+        <v>8390300</v>
       </c>
       <c r="I61" s="3">
-        <v>8241900</v>
+        <v>7971400</v>
       </c>
       <c r="J61" s="3">
-        <v>9332300</v>
+        <v>9026000</v>
       </c>
       <c r="K61" s="3">
         <v>10282500</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8469600</v>
+        <v>8191600</v>
       </c>
       <c r="E62" s="3">
-        <v>7432900</v>
+        <v>7189000</v>
       </c>
       <c r="F62" s="3">
-        <v>7260100</v>
+        <v>7021900</v>
       </c>
       <c r="G62" s="3">
-        <v>6994000</v>
+        <v>6764400</v>
       </c>
       <c r="H62" s="3">
-        <v>4744400</v>
+        <v>4588700</v>
       </c>
       <c r="I62" s="3">
-        <v>4673100</v>
+        <v>4519800</v>
       </c>
       <c r="J62" s="3">
-        <v>5380600</v>
+        <v>5204000</v>
       </c>
       <c r="K62" s="3">
         <v>4873300</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41604200</v>
+        <v>40238900</v>
       </c>
       <c r="E66" s="3">
-        <v>33214000</v>
+        <v>32124000</v>
       </c>
       <c r="F66" s="3">
-        <v>32513500</v>
+        <v>31446600</v>
       </c>
       <c r="G66" s="3">
-        <v>32168000</v>
+        <v>31112400</v>
       </c>
       <c r="H66" s="3">
-        <v>25272100</v>
+        <v>24442800</v>
       </c>
       <c r="I66" s="3">
-        <v>26978800</v>
+        <v>26093500</v>
       </c>
       <c r="J66" s="3">
-        <v>27939600</v>
+        <v>27022800</v>
       </c>
       <c r="K66" s="3">
         <v>27723100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9594900</v>
+        <v>-9280100</v>
       </c>
       <c r="E72" s="3">
-        <v>-1141700</v>
+        <v>-1104300</v>
       </c>
       <c r="F72" s="3">
-        <v>-1502500</v>
+        <v>-1453200</v>
       </c>
       <c r="G72" s="3">
-        <v>-4909000</v>
+        <v>-4747900</v>
       </c>
       <c r="H72" s="3">
-        <v>363100</v>
+        <v>351200</v>
       </c>
       <c r="I72" s="3">
-        <v>-530000</v>
+        <v>-512600</v>
       </c>
       <c r="J72" s="3">
-        <v>-5200800</v>
+        <v>-5030100</v>
       </c>
       <c r="K72" s="3">
         <v>-1125600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6335500</v>
+        <v>-6127600</v>
       </c>
       <c r="E76" s="3">
-        <v>2666400</v>
+        <v>2578900</v>
       </c>
       <c r="F76" s="3">
-        <v>2085000</v>
+        <v>2016600</v>
       </c>
       <c r="G76" s="3">
-        <v>2811100</v>
+        <v>2718900</v>
       </c>
       <c r="H76" s="3">
-        <v>1499000</v>
+        <v>1449800</v>
       </c>
       <c r="I76" s="3">
-        <v>262700</v>
+        <v>254000</v>
       </c>
       <c r="J76" s="3">
-        <v>-807800</v>
+        <v>-781300</v>
       </c>
       <c r="K76" s="3">
         <v>2685500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8262900</v>
+        <v>-7991800</v>
       </c>
       <c r="E81" s="3">
-        <v>318700</v>
+        <v>308200</v>
       </c>
       <c r="F81" s="3">
-        <v>461100</v>
+        <v>446000</v>
       </c>
       <c r="G81" s="3">
-        <v>161100</v>
+        <v>155800</v>
       </c>
       <c r="H81" s="3">
-        <v>924600</v>
+        <v>894200</v>
       </c>
       <c r="I81" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="J81" s="3">
-        <v>-262700</v>
+        <v>-254000</v>
       </c>
       <c r="K81" s="3">
         <v>-2185500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3337600</v>
+        <v>3228100</v>
       </c>
       <c r="E83" s="3">
-        <v>3487100</v>
+        <v>3372600</v>
       </c>
       <c r="F83" s="3">
-        <v>3371500</v>
+        <v>3260800</v>
       </c>
       <c r="G83" s="3">
-        <v>3315400</v>
+        <v>3206600</v>
       </c>
       <c r="H83" s="3">
-        <v>1943700</v>
+        <v>1880000</v>
       </c>
       <c r="I83" s="3">
-        <v>1905200</v>
+        <v>1842700</v>
       </c>
       <c r="J83" s="3">
-        <v>2013800</v>
+        <v>1947700</v>
       </c>
       <c r="K83" s="3">
         <v>2075400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3299100</v>
+        <v>-3190800</v>
       </c>
       <c r="E89" s="3">
-        <v>4547100</v>
+        <v>4397800</v>
       </c>
       <c r="F89" s="3">
-        <v>4433800</v>
+        <v>4288300</v>
       </c>
       <c r="G89" s="3">
-        <v>4785200</v>
+        <v>4628200</v>
       </c>
       <c r="H89" s="3">
-        <v>2613800</v>
+        <v>2528100</v>
       </c>
       <c r="I89" s="3">
-        <v>2218100</v>
+        <v>2145300</v>
       </c>
       <c r="J89" s="3">
-        <v>1188400</v>
+        <v>1149400</v>
       </c>
       <c r="K89" s="3">
         <v>1769200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2450400</v>
+        <v>-2370000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3936500</v>
+        <v>-3807300</v>
       </c>
       <c r="F91" s="3">
-        <v>-6253800</v>
+        <v>-6048600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2710700</v>
+        <v>-2621800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2235600</v>
+        <v>-2162200</v>
       </c>
       <c r="I91" s="3">
-        <v>-3704200</v>
+        <v>-3582600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1670600</v>
+        <v>-1615700</v>
       </c>
       <c r="K91" s="3">
         <v>-1418700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1848000</v>
+        <v>-1787400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3873500</v>
+        <v>-3746400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3156700</v>
+        <v>-3053100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3142700</v>
+        <v>-3039500</v>
       </c>
       <c r="H94" s="3">
-        <v>-848700</v>
+        <v>-820900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1356500</v>
+        <v>-1312000</v>
       </c>
       <c r="J94" s="3">
-        <v>-660800</v>
+        <v>-639100</v>
       </c>
       <c r="K94" s="3">
         <v>-1105300</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8343500</v>
+        <v>8069700</v>
       </c>
       <c r="E100" s="3">
-        <v>-521800</v>
+        <v>-504700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2554300</v>
+        <v>-2470500</v>
       </c>
       <c r="G100" s="3">
-        <v>-747100</v>
+        <v>-722600</v>
       </c>
       <c r="H100" s="3">
-        <v>-778700</v>
+        <v>-753100</v>
       </c>
       <c r="I100" s="3">
-        <v>-588400</v>
+        <v>-569100</v>
       </c>
       <c r="J100" s="3">
-        <v>-1147600</v>
+        <v>-1109900</v>
       </c>
       <c r="K100" s="3">
         <v>-189000</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-31500</v>
+        <v>-30500</v>
       </c>
       <c r="E101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>-38500</v>
+        <v>-37300</v>
       </c>
       <c r="H101" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="I101" s="3">
-        <v>-50200</v>
+        <v>-48600</v>
       </c>
       <c r="J101" s="3">
-        <v>-89900</v>
+        <v>-86900</v>
       </c>
       <c r="K101" s="3">
         <v>-43100</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3164800</v>
+        <v>3061000</v>
       </c>
       <c r="E102" s="3">
-        <v>152900</v>
+        <v>147900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1269000</v>
+        <v>-1227300</v>
       </c>
       <c r="G102" s="3">
-        <v>856900</v>
+        <v>828800</v>
       </c>
       <c r="H102" s="3">
-        <v>971300</v>
+        <v>939400</v>
       </c>
       <c r="I102" s="3">
-        <v>223000</v>
+        <v>215700</v>
       </c>
       <c r="J102" s="3">
-        <v>-709800</v>
+        <v>-686500</v>
       </c>
       <c r="K102" s="3">
         <v>431800</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -665,7 +665,8 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -720,25 +721,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12519500</v>
+        <v>12096000</v>
       </c>
       <c r="E8" s="3">
-        <v>30699100</v>
+        <v>29660800</v>
       </c>
       <c r="F8" s="3">
-        <v>29612900</v>
+        <v>28611300</v>
       </c>
       <c r="G8" s="3">
-        <v>29206400</v>
+        <v>28218600</v>
       </c>
       <c r="H8" s="3">
-        <v>28053600</v>
+        <v>27104700</v>
       </c>
       <c r="I8" s="3">
-        <v>29007700</v>
+        <v>28026600</v>
       </c>
       <c r="J8" s="3">
-        <v>28148500</v>
+        <v>27196400</v>
       </c>
       <c r="K8" s="3">
         <v>30539000</v>
@@ -756,25 +757,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7961300</v>
+        <v>7692000</v>
       </c>
       <c r="E9" s="3">
-        <v>15536400</v>
+        <v>15010900</v>
       </c>
       <c r="F9" s="3">
-        <v>14589100</v>
+        <v>14095600</v>
       </c>
       <c r="G9" s="3">
-        <v>15160400</v>
+        <v>14647600</v>
       </c>
       <c r="H9" s="3">
-        <v>16294000</v>
+        <v>15742900</v>
       </c>
       <c r="I9" s="3">
-        <v>18076900</v>
+        <v>17465500</v>
       </c>
       <c r="J9" s="3">
-        <v>17243600</v>
+        <v>16660400</v>
       </c>
       <c r="K9" s="3">
         <v>18116400</v>
@@ -792,25 +793,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4558200</v>
+        <v>4404000</v>
       </c>
       <c r="E10" s="3">
-        <v>15162700</v>
+        <v>14649800</v>
       </c>
       <c r="F10" s="3">
-        <v>15023800</v>
+        <v>14515600</v>
       </c>
       <c r="G10" s="3">
-        <v>14046000</v>
+        <v>13570900</v>
       </c>
       <c r="H10" s="3">
-        <v>11759600</v>
+        <v>11361800</v>
       </c>
       <c r="I10" s="3">
-        <v>10930800</v>
+        <v>10561100</v>
       </c>
       <c r="J10" s="3">
-        <v>10904800</v>
+        <v>10536000</v>
       </c>
       <c r="K10" s="3">
         <v>12422500</v>
@@ -916,25 +917,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>511500</v>
+        <v>510500</v>
       </c>
       <c r="E14" s="3">
-        <v>172800</v>
+        <v>166900</v>
       </c>
       <c r="F14" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="G14" s="3">
-        <v>2173500</v>
+        <v>2100000</v>
       </c>
       <c r="H14" s="3">
-        <v>162600</v>
+        <v>157100</v>
       </c>
       <c r="I14" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="J14" s="3">
-        <v>-782500</v>
+        <v>-756000</v>
       </c>
       <c r="K14" s="3">
         <v>412700</v>
@@ -952,25 +953,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3089200</v>
+        <v>2984700</v>
       </c>
       <c r="E15" s="3">
-        <v>3320700</v>
+        <v>3208400</v>
       </c>
       <c r="F15" s="3">
-        <v>3240500</v>
+        <v>3130900</v>
       </c>
       <c r="G15" s="3">
-        <v>3111800</v>
+        <v>3006500</v>
       </c>
       <c r="H15" s="3">
-        <v>1773800</v>
+        <v>1713800</v>
       </c>
       <c r="I15" s="3">
-        <v>1776100</v>
+        <v>1716000</v>
       </c>
       <c r="J15" s="3">
-        <v>1794100</v>
+        <v>1733500</v>
       </c>
       <c r="K15" s="3">
         <v>1873200</v>
@@ -1001,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19294100</v>
+        <v>18674200</v>
       </c>
       <c r="E17" s="3">
-        <v>29558700</v>
+        <v>28558900</v>
       </c>
       <c r="F17" s="3">
-        <v>28040100</v>
+        <v>27091700</v>
       </c>
       <c r="G17" s="3">
-        <v>29188400</v>
+        <v>28201100</v>
       </c>
       <c r="H17" s="3">
-        <v>26802600</v>
+        <v>25896000</v>
       </c>
       <c r="I17" s="3">
-        <v>27781500</v>
+        <v>26841800</v>
       </c>
       <c r="J17" s="3">
-        <v>27293700</v>
+        <v>26370600</v>
       </c>
       <c r="K17" s="3">
         <v>30810500</v>
@@ -1037,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6774600</v>
+        <v>-6578200</v>
       </c>
       <c r="E18" s="3">
-        <v>1140400</v>
+        <v>1101800</v>
       </c>
       <c r="F18" s="3">
-        <v>1572800</v>
+        <v>1519600</v>
       </c>
       <c r="G18" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="H18" s="3">
-        <v>1251000</v>
+        <v>1208700</v>
       </c>
       <c r="I18" s="3">
-        <v>1226200</v>
+        <v>1184700</v>
       </c>
       <c r="J18" s="3">
-        <v>854700</v>
+        <v>825800</v>
       </c>
       <c r="K18" s="3">
         <v>-271500</v>
@@ -1089,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-579200</v>
+        <v>-559600</v>
       </c>
       <c r="E20" s="3">
-        <v>-289000</v>
+        <v>-279300</v>
       </c>
       <c r="F20" s="3">
-        <v>-370300</v>
+        <v>-357800</v>
       </c>
       <c r="G20" s="3">
-        <v>696700</v>
+        <v>673100</v>
       </c>
       <c r="H20" s="3">
-        <v>-63200</v>
+        <v>-61100</v>
       </c>
       <c r="I20" s="3">
-        <v>-718100</v>
+        <v>-693800</v>
       </c>
       <c r="J20" s="3">
-        <v>-457300</v>
+        <v>-441800</v>
       </c>
       <c r="K20" s="3">
         <v>65800</v>
@@ -1125,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-4118300</v>
+        <v>-3971500</v>
       </c>
       <c r="E21" s="3">
-        <v>4231700</v>
+        <v>4130700</v>
       </c>
       <c r="F21" s="3">
-        <v>4470800</v>
+        <v>4360300</v>
       </c>
       <c r="G21" s="3">
-        <v>3928700</v>
+        <v>3835900</v>
       </c>
       <c r="H21" s="3">
-        <v>3072100</v>
+        <v>2991600</v>
       </c>
       <c r="I21" s="3">
-        <v>2355000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2349600</v>
+        <v>2298400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3">
         <v>1861200</v>
@@ -1161,25 +1162,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>468600</v>
+        <v>452700</v>
       </c>
       <c r="E22" s="3">
-        <v>460700</v>
+        <v>445100</v>
       </c>
       <c r="F22" s="3">
-        <v>490000</v>
+        <v>473500</v>
       </c>
       <c r="G22" s="3">
-        <v>569100</v>
+        <v>549800</v>
       </c>
       <c r="H22" s="3">
-        <v>258600</v>
+        <v>249800</v>
       </c>
       <c r="I22" s="3">
-        <v>320700</v>
+        <v>309800</v>
       </c>
       <c r="J22" s="3">
-        <v>372600</v>
+        <v>360000</v>
       </c>
       <c r="K22" s="3">
         <v>425800</v>
@@ -1197,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7822400</v>
+        <v>-7590600</v>
       </c>
       <c r="E23" s="3">
-        <v>390700</v>
+        <v>377500</v>
       </c>
       <c r="F23" s="3">
-        <v>712500</v>
+        <v>688400</v>
       </c>
       <c r="G23" s="3">
-        <v>145700</v>
+        <v>140700</v>
       </c>
       <c r="H23" s="3">
-        <v>929200</v>
+        <v>897800</v>
       </c>
       <c r="I23" s="3">
-        <v>187400</v>
+        <v>181100</v>
       </c>
       <c r="J23" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="K23" s="3">
         <v>-631600</v>
@@ -1233,25 +1234,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>109500</v>
+        <v>97100</v>
       </c>
       <c r="E24" s="3">
-        <v>85800</v>
+        <v>82900</v>
       </c>
       <c r="F24" s="3">
-        <v>252900</v>
+        <v>244400</v>
       </c>
       <c r="G24" s="3">
-        <v>-23700</v>
+        <v>-22900</v>
       </c>
       <c r="H24" s="3">
-        <v>332000</v>
+        <v>320700</v>
       </c>
       <c r="I24" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="J24" s="3">
-        <v>220200</v>
+        <v>212700</v>
       </c>
       <c r="K24" s="3">
         <v>1144800</v>
@@ -1305,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7931900</v>
+        <v>-7687600</v>
       </c>
       <c r="E26" s="3">
-        <v>304900</v>
+        <v>294500</v>
       </c>
       <c r="F26" s="3">
-        <v>459500</v>
+        <v>444000</v>
       </c>
       <c r="G26" s="3">
-        <v>169400</v>
+        <v>163600</v>
       </c>
       <c r="H26" s="3">
-        <v>597300</v>
+        <v>577100</v>
       </c>
       <c r="I26" s="3">
-        <v>153600</v>
+        <v>148400</v>
       </c>
       <c r="J26" s="3">
-        <v>-195300</v>
+        <v>-188700</v>
       </c>
       <c r="K26" s="3">
         <v>-1776400</v>
@@ -1341,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7991800</v>
+        <v>-7745500</v>
       </c>
       <c r="E27" s="3">
-        <v>308200</v>
+        <v>297800</v>
       </c>
       <c r="F27" s="3">
-        <v>446000</v>
+        <v>430900</v>
       </c>
       <c r="G27" s="3">
-        <v>164800</v>
+        <v>159300</v>
       </c>
       <c r="H27" s="3">
-        <v>589400</v>
+        <v>569500</v>
       </c>
       <c r="I27" s="3">
-        <v>83600</v>
+        <v>80700</v>
       </c>
       <c r="J27" s="3">
-        <v>-249500</v>
+        <v>-241100</v>
       </c>
       <c r="K27" s="3">
         <v>-2039500</v>
@@ -1422,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-9000</v>
+        <v>-8700</v>
       </c>
       <c r="H29" s="3">
-        <v>304900</v>
+        <v>294500</v>
       </c>
       <c r="I29" s="3">
-        <v>29400</v>
+        <v>28400</v>
       </c>
       <c r="J29" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="K29" s="3">
         <v>-145900</v>
@@ -1521,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>579200</v>
+        <v>559600</v>
       </c>
       <c r="E32" s="3">
-        <v>289000</v>
+        <v>279300</v>
       </c>
       <c r="F32" s="3">
-        <v>370300</v>
+        <v>357800</v>
       </c>
       <c r="G32" s="3">
-        <v>-696700</v>
+        <v>-673100</v>
       </c>
       <c r="H32" s="3">
-        <v>63200</v>
+        <v>61100</v>
       </c>
       <c r="I32" s="3">
-        <v>718100</v>
+        <v>693800</v>
       </c>
       <c r="J32" s="3">
-        <v>457300</v>
+        <v>441800</v>
       </c>
       <c r="K32" s="3">
         <v>-65800</v>
@@ -1557,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7991800</v>
+        <v>-7745500</v>
       </c>
       <c r="E33" s="3">
-        <v>308200</v>
+        <v>297800</v>
       </c>
       <c r="F33" s="3">
-        <v>446000</v>
+        <v>430900</v>
       </c>
       <c r="G33" s="3">
-        <v>155800</v>
+        <v>150500</v>
       </c>
       <c r="H33" s="3">
-        <v>894200</v>
+        <v>864000</v>
       </c>
       <c r="I33" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="J33" s="3">
-        <v>-254000</v>
+        <v>-245500</v>
       </c>
       <c r="K33" s="3">
         <v>-2185500</v>
@@ -1629,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7991800</v>
+        <v>-7745500</v>
       </c>
       <c r="E35" s="3">
-        <v>308200</v>
+        <v>297800</v>
       </c>
       <c r="F35" s="3">
-        <v>446000</v>
+        <v>430900</v>
       </c>
       <c r="G35" s="3">
-        <v>155800</v>
+        <v>150500</v>
       </c>
       <c r="H35" s="3">
-        <v>894200</v>
+        <v>864000</v>
       </c>
       <c r="I35" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="J35" s="3">
-        <v>-254000</v>
+        <v>-245500</v>
       </c>
       <c r="K35" s="3">
         <v>-2185500</v>
@@ -1738,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7252200</v>
+        <v>7263300</v>
       </c>
       <c r="E41" s="3">
-        <v>4194600</v>
+        <v>14013800</v>
       </c>
       <c r="F41" s="3">
-        <v>4047800</v>
+        <v>4052700</v>
       </c>
       <c r="G41" s="3">
-        <v>10553700</v>
+        <v>3910900</v>
       </c>
       <c r="H41" s="3">
-        <v>4446400</v>
+        <v>10196700</v>
       </c>
       <c r="I41" s="3">
-        <v>3504700</v>
+        <v>4296000</v>
       </c>
       <c r="J41" s="3">
-        <v>7133700</v>
+        <v>3386200</v>
       </c>
       <c r="K41" s="3">
         <v>4406800</v>
@@ -1774,25 +1775,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>685400</v>
+        <v>528000</v>
       </c>
       <c r="E42" s="3">
-        <v>903300</v>
+        <v>662200</v>
       </c>
       <c r="F42" s="3">
-        <v>367000</v>
+        <v>872700</v>
       </c>
       <c r="G42" s="3">
-        <v>475400</v>
+        <v>354500</v>
       </c>
       <c r="H42" s="3">
-        <v>146800</v>
+        <v>459300</v>
       </c>
       <c r="I42" s="3">
-        <v>1091800</v>
+        <v>141800</v>
       </c>
       <c r="J42" s="3">
-        <v>888600</v>
+        <v>1054900</v>
       </c>
       <c r="K42" s="3">
         <v>1233300</v>
@@ -1810,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2192700</v>
+        <v>1648400</v>
       </c>
       <c r="E43" s="3">
-        <v>3058700</v>
+        <v>3480000</v>
       </c>
       <c r="F43" s="3">
-        <v>3039500</v>
+        <v>2955300</v>
       </c>
       <c r="G43" s="3">
-        <v>5388100</v>
+        <v>2936700</v>
       </c>
       <c r="H43" s="3">
-        <v>2552900</v>
+        <v>5205800</v>
       </c>
       <c r="I43" s="3">
-        <v>2512200</v>
+        <v>2466500</v>
       </c>
       <c r="J43" s="3">
-        <v>4397800</v>
+        <v>2427300</v>
       </c>
       <c r="K43" s="3">
         <v>2732100</v>
@@ -1846,25 +1847,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>613100</v>
+        <v>618500</v>
       </c>
       <c r="E44" s="3">
-        <v>832100</v>
+        <v>1184700</v>
       </c>
       <c r="F44" s="3">
-        <v>714700</v>
+        <v>804000</v>
       </c>
       <c r="G44" s="3">
-        <v>1257800</v>
+        <v>690500</v>
       </c>
       <c r="H44" s="3">
-        <v>639100</v>
+        <v>1215300</v>
       </c>
       <c r="I44" s="3">
-        <v>600700</v>
+        <v>617500</v>
       </c>
       <c r="J44" s="3">
-        <v>1214900</v>
+        <v>580400</v>
       </c>
       <c r="K44" s="3">
         <v>611300</v>
@@ -1882,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>429100</v>
+        <v>1646200</v>
       </c>
       <c r="E45" s="3">
-        <v>652600</v>
+        <v>1411600</v>
       </c>
       <c r="F45" s="3">
-        <v>636800</v>
+        <v>630500</v>
       </c>
       <c r="G45" s="3">
-        <v>2304500</v>
+        <v>615300</v>
       </c>
       <c r="H45" s="3">
-        <v>803900</v>
+        <v>2226500</v>
       </c>
       <c r="I45" s="3">
-        <v>809600</v>
+        <v>776700</v>
       </c>
       <c r="J45" s="3">
-        <v>1677800</v>
+        <v>782200</v>
       </c>
       <c r="K45" s="3">
         <v>1006000</v>
@@ -1918,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11172400</v>
+        <v>11704400</v>
       </c>
       <c r="E46" s="3">
-        <v>9641400</v>
+        <v>10794600</v>
       </c>
       <c r="F46" s="3">
-        <v>8805900</v>
+        <v>9315300</v>
       </c>
       <c r="G46" s="3">
-        <v>10227400</v>
+        <v>8508000</v>
       </c>
       <c r="H46" s="3">
-        <v>8589100</v>
+        <v>9881500</v>
       </c>
       <c r="I46" s="3">
-        <v>8519100</v>
+        <v>8298600</v>
       </c>
       <c r="J46" s="3">
-        <v>8102400</v>
+        <v>8230900</v>
       </c>
       <c r="K46" s="3">
         <v>9494200</v>
@@ -1954,25 +1955,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1161800</v>
+        <v>1156400</v>
       </c>
       <c r="E47" s="3">
-        <v>1587500</v>
+        <v>1122500</v>
       </c>
       <c r="F47" s="3">
-        <v>2042500</v>
+        <v>1533800</v>
       </c>
       <c r="G47" s="3">
-        <v>1779500</v>
+        <v>1973500</v>
       </c>
       <c r="H47" s="3">
-        <v>1580700</v>
+        <v>1719300</v>
       </c>
       <c r="I47" s="3">
-        <v>1519800</v>
+        <v>1527300</v>
       </c>
       <c r="J47" s="3">
-        <v>1856200</v>
+        <v>1468400</v>
       </c>
       <c r="K47" s="3">
         <v>2559900</v>
@@ -1990,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19484900</v>
+        <v>18562900</v>
       </c>
       <c r="E48" s="3">
-        <v>20422000</v>
+        <v>37651700</v>
       </c>
       <c r="F48" s="3">
-        <v>19731000</v>
+        <v>19731300</v>
       </c>
       <c r="G48" s="3">
-        <v>39530900</v>
+        <v>19063700</v>
       </c>
       <c r="H48" s="3">
-        <v>11967300</v>
+        <v>38193900</v>
       </c>
       <c r="I48" s="3">
-        <v>11757300</v>
+        <v>11562600</v>
       </c>
       <c r="J48" s="3">
-        <v>23661400</v>
+        <v>11359600</v>
       </c>
       <c r="K48" s="3">
         <v>13409400</v>
@@ -2026,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1631500</v>
+        <v>1589500</v>
       </c>
       <c r="E49" s="3">
-        <v>1718500</v>
+        <v>3152700</v>
       </c>
       <c r="F49" s="3">
-        <v>1593200</v>
+        <v>1660400</v>
       </c>
       <c r="G49" s="3">
-        <v>3021500</v>
+        <v>1539300</v>
       </c>
       <c r="H49" s="3">
-        <v>1449800</v>
+        <v>2919300</v>
       </c>
       <c r="I49" s="3">
-        <v>1428300</v>
+        <v>1400700</v>
       </c>
       <c r="J49" s="3">
-        <v>2827300</v>
+        <v>1380000</v>
       </c>
       <c r="K49" s="3">
         <v>1355300</v>
@@ -2134,25 +2135,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>660500</v>
+        <v>459300</v>
       </c>
       <c r="E52" s="3">
-        <v>1333500</v>
+        <v>609800</v>
       </c>
       <c r="F52" s="3">
-        <v>1290600</v>
+        <v>1288400</v>
       </c>
       <c r="G52" s="3">
-        <v>1639500</v>
+        <v>1246900</v>
       </c>
       <c r="H52" s="3">
-        <v>2305600</v>
+        <v>1584000</v>
       </c>
       <c r="I52" s="3">
-        <v>3123100</v>
+        <v>2227600</v>
       </c>
       <c r="J52" s="3">
-        <v>3312800</v>
+        <v>3017500</v>
       </c>
       <c r="K52" s="3">
         <v>3589800</v>
@@ -2206,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34111200</v>
+        <v>33472400</v>
       </c>
       <c r="E54" s="3">
-        <v>34702900</v>
+        <v>32924800</v>
       </c>
       <c r="F54" s="3">
-        <v>33463100</v>
+        <v>33529100</v>
       </c>
       <c r="G54" s="3">
-        <v>33831200</v>
+        <v>32331300</v>
       </c>
       <c r="H54" s="3">
-        <v>25892500</v>
+        <v>32686900</v>
       </c>
       <c r="I54" s="3">
-        <v>26347500</v>
+        <v>25016700</v>
       </c>
       <c r="J54" s="3">
-        <v>26241400</v>
+        <v>25456400</v>
       </c>
       <c r="K54" s="3">
         <v>30408600</v>
@@ -2274,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1620300</v>
+        <v>2018200</v>
       </c>
       <c r="E57" s="3">
-        <v>2686100</v>
+        <v>1565500</v>
       </c>
       <c r="F57" s="3">
-        <v>2770800</v>
+        <v>2595300</v>
       </c>
       <c r="G57" s="3">
-        <v>2670300</v>
+        <v>2677100</v>
       </c>
       <c r="H57" s="3">
-        <v>2663500</v>
+        <v>2580000</v>
       </c>
       <c r="I57" s="3">
-        <v>2704200</v>
+        <v>2573500</v>
       </c>
       <c r="J57" s="3">
-        <v>2759500</v>
+        <v>2612700</v>
       </c>
       <c r="K57" s="3">
         <v>2833800</v>
@@ -2310,25 +2311,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2315800</v>
+        <v>2229800</v>
       </c>
       <c r="E58" s="3">
-        <v>1981600</v>
+        <v>4590500</v>
       </c>
       <c r="F58" s="3">
-        <v>1981600</v>
+        <v>1914500</v>
       </c>
       <c r="G58" s="3">
-        <v>4155100</v>
+        <v>1914500</v>
       </c>
       <c r="H58" s="3">
-        <v>1058000</v>
+        <v>4014500</v>
       </c>
       <c r="I58" s="3">
-        <v>2173500</v>
+        <v>1022200</v>
       </c>
       <c r="J58" s="3">
-        <v>5277400</v>
+        <v>2100000</v>
       </c>
       <c r="K58" s="3">
         <v>1973700</v>
@@ -2346,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9362500</v>
+        <v>8544000</v>
       </c>
       <c r="E59" s="3">
-        <v>9614300</v>
+        <v>12509500</v>
       </c>
       <c r="F59" s="3">
-        <v>9183000</v>
+        <v>9289100</v>
       </c>
       <c r="G59" s="3">
-        <v>12004600</v>
+        <v>8872400</v>
       </c>
       <c r="H59" s="3">
-        <v>7728700</v>
+        <v>11598600</v>
       </c>
       <c r="I59" s="3">
-        <v>8670400</v>
+        <v>7467300</v>
       </c>
       <c r="J59" s="3">
-        <v>12083600</v>
+        <v>8377100</v>
       </c>
       <c r="K59" s="3">
         <v>10969200</v>
@@ -2382,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13298500</v>
+        <v>12792000</v>
       </c>
       <c r="E60" s="3">
-        <v>14282000</v>
+        <v>12848700</v>
       </c>
       <c r="F60" s="3">
-        <v>13935400</v>
+        <v>13798900</v>
       </c>
       <c r="G60" s="3">
-        <v>13610200</v>
+        <v>13464000</v>
       </c>
       <c r="H60" s="3">
-        <v>11450200</v>
+        <v>13149800</v>
       </c>
       <c r="I60" s="3">
-        <v>13548100</v>
+        <v>11062900</v>
       </c>
       <c r="J60" s="3">
-        <v>13353900</v>
+        <v>13089800</v>
       </c>
       <c r="K60" s="3">
         <v>12984800</v>
@@ -2418,25 +2419,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18738500</v>
+        <v>15488700</v>
       </c>
       <c r="E61" s="3">
-        <v>10636100</v>
+        <v>18104700</v>
       </c>
       <c r="F61" s="3">
-        <v>10475800</v>
+        <v>10276400</v>
       </c>
       <c r="G61" s="3">
-        <v>11131800</v>
+        <v>10121500</v>
       </c>
       <c r="H61" s="3">
-        <v>8390300</v>
+        <v>10755300</v>
       </c>
       <c r="I61" s="3">
-        <v>7971400</v>
+        <v>8106600</v>
       </c>
       <c r="J61" s="3">
-        <v>9026000</v>
+        <v>7701800</v>
       </c>
       <c r="K61" s="3">
         <v>10282500</v>
@@ -2454,25 +2455,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8191600</v>
+        <v>9354600</v>
       </c>
       <c r="E62" s="3">
-        <v>7189000</v>
+        <v>13214200</v>
       </c>
       <c r="F62" s="3">
-        <v>7021900</v>
+        <v>6945800</v>
       </c>
       <c r="G62" s="3">
-        <v>6764400</v>
+        <v>6784400</v>
       </c>
       <c r="H62" s="3">
-        <v>4588700</v>
+        <v>6535600</v>
       </c>
       <c r="I62" s="3">
-        <v>4519800</v>
+        <v>4433500</v>
       </c>
       <c r="J62" s="3">
-        <v>5204000</v>
+        <v>4366900</v>
       </c>
       <c r="K62" s="3">
         <v>4873300</v>
@@ -2598,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40238900</v>
+        <v>37644000</v>
       </c>
       <c r="E66" s="3">
-        <v>32124000</v>
+        <v>38762200</v>
       </c>
       <c r="F66" s="3">
-        <v>31446600</v>
+        <v>31037500</v>
       </c>
       <c r="G66" s="3">
-        <v>31112400</v>
+        <v>30382900</v>
       </c>
       <c r="H66" s="3">
-        <v>24442800</v>
+        <v>30060000</v>
       </c>
       <c r="I66" s="3">
-        <v>26093500</v>
+        <v>23616000</v>
       </c>
       <c r="J66" s="3">
-        <v>27022800</v>
+        <v>25210900</v>
       </c>
       <c r="K66" s="3">
         <v>27723100</v>
@@ -2794,25 +2795,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-9280100</v>
+        <v>-13682200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1104300</v>
+        <v>-19759700</v>
       </c>
       <c r="F72" s="3">
-        <v>-1453200</v>
+        <v>-1066900</v>
       </c>
       <c r="G72" s="3">
-        <v>-4747900</v>
+        <v>-1404000</v>
       </c>
       <c r="H72" s="3">
-        <v>351200</v>
+        <v>-4587300</v>
       </c>
       <c r="I72" s="3">
-        <v>-512600</v>
+        <v>339300</v>
       </c>
       <c r="J72" s="3">
-        <v>-5030100</v>
+        <v>-495300</v>
       </c>
       <c r="K72" s="3">
         <v>-1125600</v>
@@ -2938,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-6127600</v>
+        <v>-4171600</v>
       </c>
       <c r="E76" s="3">
-        <v>2578900</v>
+        <v>-5837500</v>
       </c>
       <c r="F76" s="3">
-        <v>2016600</v>
+        <v>2491600</v>
       </c>
       <c r="G76" s="3">
-        <v>2718900</v>
+        <v>1948400</v>
       </c>
       <c r="H76" s="3">
-        <v>1449800</v>
+        <v>2626900</v>
       </c>
       <c r="I76" s="3">
-        <v>254000</v>
+        <v>1400700</v>
       </c>
       <c r="J76" s="3">
-        <v>-781300</v>
+        <v>245500</v>
       </c>
       <c r="K76" s="3">
         <v>2685500</v>
@@ -3051,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7991800</v>
+        <v>-7745500</v>
       </c>
       <c r="E81" s="3">
-        <v>308200</v>
+        <v>297800</v>
       </c>
       <c r="F81" s="3">
-        <v>446000</v>
+        <v>430900</v>
       </c>
       <c r="G81" s="3">
-        <v>155800</v>
+        <v>150500</v>
       </c>
       <c r="H81" s="3">
-        <v>894200</v>
+        <v>864000</v>
       </c>
       <c r="I81" s="3">
-        <v>112900</v>
+        <v>109100</v>
       </c>
       <c r="J81" s="3">
-        <v>-254000</v>
+        <v>-245500</v>
       </c>
       <c r="K81" s="3">
         <v>-2185500</v>
@@ -3103,25 +3104,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3228100</v>
+        <v>3118900</v>
       </c>
       <c r="E83" s="3">
-        <v>3372600</v>
+        <v>3258500</v>
       </c>
       <c r="F83" s="3">
-        <v>3260800</v>
+        <v>3150500</v>
       </c>
       <c r="G83" s="3">
-        <v>3206600</v>
+        <v>3098200</v>
       </c>
       <c r="H83" s="3">
-        <v>1880000</v>
+        <v>1816400</v>
       </c>
       <c r="I83" s="3">
-        <v>1842700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1947700</v>
+        <v>1780400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>2075400</v>
@@ -3319,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3190800</v>
+        <v>-3082900</v>
       </c>
       <c r="E89" s="3">
-        <v>4397800</v>
+        <v>4249100</v>
       </c>
       <c r="F89" s="3">
-        <v>4288300</v>
+        <v>4143300</v>
       </c>
       <c r="G89" s="3">
-        <v>4628200</v>
+        <v>4471600</v>
       </c>
       <c r="H89" s="3">
-        <v>2528100</v>
+        <v>2442500</v>
       </c>
       <c r="I89" s="3">
-        <v>2145300</v>
+        <v>2072700</v>
       </c>
       <c r="J89" s="3">
-        <v>1149400</v>
+        <v>1110500</v>
       </c>
       <c r="K89" s="3">
         <v>1769200</v>
@@ -3371,25 +3372,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2370000</v>
+        <v>-2289800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3807300</v>
+        <v>-3678500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6048600</v>
+        <v>-5844000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2621800</v>
+        <v>-2533100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2162200</v>
+        <v>-2089100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3582600</v>
+        <v>-3461500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1615700</v>
+        <v>-1561100</v>
       </c>
       <c r="K91" s="3">
         <v>-1418700</v>
@@ -3479,25 +3480,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1787400</v>
+        <v>-1726900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3746400</v>
+        <v>-3619600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3053100</v>
+        <v>-2949800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3039500</v>
+        <v>-2936700</v>
       </c>
       <c r="H94" s="3">
-        <v>-820900</v>
+        <v>-793100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1312000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-639100</v>
+        <v>-1267600</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3">
         <v>-1105300</v>
@@ -3675,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8069700</v>
+        <v>7796700</v>
       </c>
       <c r="E100" s="3">
-        <v>-504700</v>
+        <v>-487600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2470500</v>
+        <v>-2386900</v>
       </c>
       <c r="G100" s="3">
-        <v>-722600</v>
+        <v>-698200</v>
       </c>
       <c r="H100" s="3">
-        <v>-753100</v>
+        <v>-727600</v>
       </c>
       <c r="I100" s="3">
-        <v>-569100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1109900</v>
+        <v>-549800</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3">
         <v>-189000</v>
@@ -3711,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-30500</v>
+        <v>-29500</v>
       </c>
       <c r="E101" s="3">
         <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="G101" s="3">
-        <v>-37300</v>
+        <v>-36000</v>
       </c>
       <c r="H101" s="3">
-        <v>-14700</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
-        <v>-48600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-86900</v>
+        <v>-46900</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3">
         <v>-43100</v>
@@ -3747,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3061000</v>
+        <v>2957500</v>
       </c>
       <c r="E102" s="3">
-        <v>147900</v>
+        <v>142900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1227300</v>
+        <v>-1185800</v>
       </c>
       <c r="G102" s="3">
-        <v>828800</v>
+        <v>800700</v>
       </c>
       <c r="H102" s="3">
-        <v>939400</v>
+        <v>907600</v>
       </c>
       <c r="I102" s="3">
-        <v>215700</v>
+        <v>208400</v>
       </c>
       <c r="J102" s="3">
-        <v>-686500</v>
+        <v>-663300</v>
       </c>
       <c r="K102" s="3">
         <v>431800</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,178 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12096000</v>
+        <v>14857500</v>
       </c>
       <c r="E8" s="3">
-        <v>29660800</v>
+        <v>11508200</v>
       </c>
       <c r="F8" s="3">
-        <v>28611300</v>
+        <v>28219500</v>
       </c>
       <c r="G8" s="3">
-        <v>28218600</v>
+        <v>27221000</v>
       </c>
       <c r="H8" s="3">
-        <v>27104700</v>
+        <v>26847400</v>
       </c>
       <c r="I8" s="3">
-        <v>28026600</v>
+        <v>25787700</v>
       </c>
       <c r="J8" s="3">
+        <v>26664700</v>
+      </c>
+      <c r="K8" s="3">
         <v>27196400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>30539000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>27932000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21402000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7692000</v>
+        <v>8031300</v>
       </c>
       <c r="E9" s="3">
-        <v>15010900</v>
+        <v>7318200</v>
       </c>
       <c r="F9" s="3">
-        <v>14095600</v>
+        <v>14281500</v>
       </c>
       <c r="G9" s="3">
-        <v>14647600</v>
+        <v>13410700</v>
       </c>
       <c r="H9" s="3">
-        <v>15742900</v>
+        <v>13935900</v>
       </c>
       <c r="I9" s="3">
-        <v>17465500</v>
+        <v>14977900</v>
       </c>
       <c r="J9" s="3">
+        <v>16616800</v>
+      </c>
+      <c r="K9" s="3">
         <v>16660400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>18116400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>34958100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>12689700</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4404000</v>
+        <v>6826300</v>
       </c>
       <c r="E10" s="3">
-        <v>14649800</v>
+        <v>4190000</v>
       </c>
       <c r="F10" s="3">
-        <v>14515600</v>
+        <v>13938000</v>
       </c>
       <c r="G10" s="3">
-        <v>13570900</v>
+        <v>13810300</v>
       </c>
       <c r="H10" s="3">
-        <v>11361800</v>
+        <v>12911500</v>
       </c>
       <c r="I10" s="3">
-        <v>10561100</v>
+        <v>10809700</v>
       </c>
       <c r="J10" s="3">
+        <v>10047900</v>
+      </c>
+      <c r="K10" s="3">
         <v>10536000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>12422500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-7026100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>8712300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -839,8 +851,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -874,9 +887,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,81 +926,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>510500</v>
+        <v>754600</v>
       </c>
       <c r="E14" s="3">
-        <v>166900</v>
+        <v>1605600</v>
       </c>
       <c r="F14" s="3">
-        <v>26200</v>
+        <v>158800</v>
       </c>
       <c r="G14" s="3">
-        <v>2100000</v>
+        <v>24900</v>
       </c>
       <c r="H14" s="3">
-        <v>157100</v>
+        <v>1998000</v>
       </c>
       <c r="I14" s="3">
-        <v>152700</v>
+        <v>149500</v>
       </c>
       <c r="J14" s="3">
+        <v>145300</v>
+      </c>
+      <c r="K14" s="3">
         <v>-756000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>412700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>442500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>48200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2984700</v>
+        <v>2608200</v>
       </c>
       <c r="E15" s="3">
-        <v>3208400</v>
+        <v>2839700</v>
       </c>
       <c r="F15" s="3">
-        <v>3130900</v>
+        <v>3052500</v>
       </c>
       <c r="G15" s="3">
-        <v>3006500</v>
+        <v>2978800</v>
       </c>
       <c r="H15" s="3">
-        <v>1713800</v>
+        <v>2860500</v>
       </c>
       <c r="I15" s="3">
-        <v>1716000</v>
+        <v>1630500</v>
       </c>
       <c r="J15" s="3">
+        <v>1632600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1733500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1873200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1730400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1383400</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18674200</v>
+        <v>17485500</v>
       </c>
       <c r="E17" s="3">
-        <v>28558900</v>
+        <v>17766800</v>
       </c>
       <c r="F17" s="3">
-        <v>27091700</v>
+        <v>27171200</v>
       </c>
       <c r="G17" s="3">
-        <v>28201100</v>
+        <v>25775200</v>
       </c>
       <c r="H17" s="3">
-        <v>25896000</v>
+        <v>26830800</v>
       </c>
       <c r="I17" s="3">
-        <v>26841800</v>
+        <v>24637700</v>
       </c>
       <c r="J17" s="3">
+        <v>25537500</v>
+      </c>
+      <c r="K17" s="3">
         <v>26370600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>30810500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>28734700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>21372800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6578200</v>
+        <v>-2628000</v>
       </c>
       <c r="E18" s="3">
-        <v>1101800</v>
+        <v>-6258500</v>
       </c>
       <c r="F18" s="3">
-        <v>1519600</v>
+        <v>1048300</v>
       </c>
       <c r="G18" s="3">
-        <v>17500</v>
+        <v>1445800</v>
       </c>
       <c r="H18" s="3">
-        <v>1208700</v>
+        <v>16600</v>
       </c>
       <c r="I18" s="3">
-        <v>1184700</v>
+        <v>1150000</v>
       </c>
       <c r="J18" s="3">
+        <v>1127200</v>
+      </c>
+      <c r="K18" s="3">
         <v>825800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-271500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-802600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,188 +1116,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-559600</v>
+        <v>-494000</v>
       </c>
       <c r="E20" s="3">
-        <v>-279300</v>
+        <v>-532400</v>
       </c>
       <c r="F20" s="3">
-        <v>-357800</v>
+        <v>-265700</v>
       </c>
       <c r="G20" s="3">
-        <v>673100</v>
+        <v>-340400</v>
       </c>
       <c r="H20" s="3">
-        <v>-61100</v>
+        <v>640400</v>
       </c>
       <c r="I20" s="3">
-        <v>-693800</v>
+        <v>-58100</v>
       </c>
       <c r="J20" s="3">
+        <v>-660100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-441800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>65800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>146000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-570000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3971500</v>
+        <v>-629800</v>
       </c>
       <c r="E21" s="3">
-        <v>4130700</v>
+        <v>-3785900</v>
       </c>
       <c r="F21" s="3">
-        <v>4360300</v>
+        <v>3922200</v>
       </c>
       <c r="G21" s="3">
-        <v>3835900</v>
+        <v>4140900</v>
       </c>
       <c r="H21" s="3">
-        <v>2991600</v>
+        <v>3642100</v>
       </c>
       <c r="I21" s="3">
-        <v>2298400</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>2842000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2182500</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1861200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1265700</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>452700</v>
+        <v>561500</v>
       </c>
       <c r="E22" s="3">
-        <v>445100</v>
+        <v>430700</v>
       </c>
       <c r="F22" s="3">
-        <v>473500</v>
+        <v>423500</v>
       </c>
       <c r="G22" s="3">
-        <v>549800</v>
+        <v>450400</v>
       </c>
       <c r="H22" s="3">
-        <v>249800</v>
+        <v>523100</v>
       </c>
       <c r="I22" s="3">
-        <v>309800</v>
+        <v>237700</v>
       </c>
       <c r="J22" s="3">
+        <v>294800</v>
+      </c>
+      <c r="K22" s="3">
         <v>360000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>425800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>375500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7590600</v>
+        <v>-3683500</v>
       </c>
       <c r="E23" s="3">
-        <v>377500</v>
+        <v>-7221700</v>
       </c>
       <c r="F23" s="3">
-        <v>688400</v>
+        <v>359100</v>
       </c>
       <c r="G23" s="3">
-        <v>140700</v>
+        <v>654900</v>
       </c>
       <c r="H23" s="3">
-        <v>897800</v>
+        <v>133900</v>
       </c>
       <c r="I23" s="3">
-        <v>181100</v>
+        <v>854200</v>
       </c>
       <c r="J23" s="3">
+        <v>172300</v>
+      </c>
+      <c r="K23" s="3">
         <v>24000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-631600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1032100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-562100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97100</v>
+        <v>-292700</v>
       </c>
       <c r="E24" s="3">
-        <v>82900</v>
+        <v>92400</v>
       </c>
       <c r="F24" s="3">
-        <v>244400</v>
+        <v>78900</v>
       </c>
       <c r="G24" s="3">
-        <v>-22900</v>
+        <v>232500</v>
       </c>
       <c r="H24" s="3">
-        <v>320700</v>
+        <v>-21800</v>
       </c>
       <c r="I24" s="3">
-        <v>32700</v>
+        <v>305100</v>
       </c>
       <c r="J24" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K24" s="3">
         <v>212700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1144800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-84100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7687600</v>
+        <v>-3390800</v>
       </c>
       <c r="E26" s="3">
-        <v>294500</v>
+        <v>-7314100</v>
       </c>
       <c r="F26" s="3">
-        <v>444000</v>
+        <v>280200</v>
       </c>
       <c r="G26" s="3">
-        <v>163600</v>
+        <v>422400</v>
       </c>
       <c r="H26" s="3">
-        <v>577100</v>
+        <v>155700</v>
       </c>
       <c r="I26" s="3">
-        <v>148400</v>
+        <v>549000</v>
       </c>
       <c r="J26" s="3">
+        <v>141200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-188700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1050800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-478000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7745500</v>
+        <v>-3573500</v>
       </c>
       <c r="E27" s="3">
-        <v>297800</v>
+        <v>-7369100</v>
       </c>
       <c r="F27" s="3">
-        <v>430900</v>
+        <v>283300</v>
       </c>
       <c r="G27" s="3">
-        <v>159300</v>
+        <v>410000</v>
       </c>
       <c r="H27" s="3">
-        <v>569500</v>
+        <v>151500</v>
       </c>
       <c r="I27" s="3">
-        <v>80700</v>
+        <v>541800</v>
       </c>
       <c r="J27" s="3">
+        <v>76800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-241100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2039500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1128700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-495900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1419,33 +1479,36 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-8700</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>294500</v>
+        <v>-8300</v>
       </c>
       <c r="I29" s="3">
-        <v>28400</v>
+        <v>280200</v>
       </c>
       <c r="J29" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-4400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-145900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-216300</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>559600</v>
+        <v>494000</v>
       </c>
       <c r="E32" s="3">
-        <v>279300</v>
+        <v>532400</v>
       </c>
       <c r="F32" s="3">
-        <v>357800</v>
+        <v>265700</v>
       </c>
       <c r="G32" s="3">
-        <v>-673100</v>
+        <v>340400</v>
       </c>
       <c r="H32" s="3">
-        <v>61100</v>
+        <v>-640400</v>
       </c>
       <c r="I32" s="3">
-        <v>693800</v>
+        <v>58100</v>
       </c>
       <c r="J32" s="3">
+        <v>660100</v>
+      </c>
+      <c r="K32" s="3">
         <v>441800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-65800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-146000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>570000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7745500</v>
+        <v>-3573500</v>
       </c>
       <c r="E33" s="3">
-        <v>297800</v>
+        <v>-7369100</v>
       </c>
       <c r="F33" s="3">
-        <v>430900</v>
+        <v>283300</v>
       </c>
       <c r="G33" s="3">
-        <v>150500</v>
+        <v>410000</v>
       </c>
       <c r="H33" s="3">
-        <v>864000</v>
+        <v>143200</v>
       </c>
       <c r="I33" s="3">
-        <v>109100</v>
+        <v>822000</v>
       </c>
       <c r="J33" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-245500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2185500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1345100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-495900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7745500</v>
+        <v>-3573500</v>
       </c>
       <c r="E35" s="3">
-        <v>297800</v>
+        <v>-7369100</v>
       </c>
       <c r="F35" s="3">
-        <v>430900</v>
+        <v>283300</v>
       </c>
       <c r="G35" s="3">
-        <v>150500</v>
+        <v>410000</v>
       </c>
       <c r="H35" s="3">
-        <v>864000</v>
+        <v>143200</v>
       </c>
       <c r="I35" s="3">
-        <v>109100</v>
+        <v>822000</v>
       </c>
       <c r="J35" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-245500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2185500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1345100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-495900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,332 +1818,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7263300</v>
+        <v>6910300</v>
       </c>
       <c r="E41" s="3">
-        <v>14013800</v>
+        <v>6666400</v>
       </c>
       <c r="F41" s="3">
-        <v>4052700</v>
+        <v>3855800</v>
       </c>
       <c r="G41" s="3">
-        <v>3910900</v>
+        <v>3720900</v>
       </c>
       <c r="H41" s="3">
-        <v>10196700</v>
+        <v>9701300</v>
       </c>
       <c r="I41" s="3">
-        <v>4296000</v>
+        <v>4087300</v>
       </c>
       <c r="J41" s="3">
+        <v>3221600</v>
+      </c>
+      <c r="K41" s="3">
         <v>3386200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4406800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7510300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4631600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>528000</v>
+        <v>502300</v>
       </c>
       <c r="E42" s="3">
-        <v>662200</v>
+        <v>630000</v>
       </c>
       <c r="F42" s="3">
-        <v>872700</v>
+        <v>830300</v>
       </c>
       <c r="G42" s="3">
-        <v>354500</v>
+        <v>337300</v>
       </c>
       <c r="H42" s="3">
-        <v>459300</v>
+        <v>437000</v>
       </c>
       <c r="I42" s="3">
-        <v>141800</v>
+        <v>134900</v>
       </c>
       <c r="J42" s="3">
+        <v>1003600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1054900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1233300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1024400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>842600</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1648400</v>
+        <v>2266800</v>
       </c>
       <c r="E43" s="3">
-        <v>3480000</v>
+        <v>2015600</v>
       </c>
       <c r="F43" s="3">
-        <v>2955300</v>
+        <v>2811700</v>
       </c>
       <c r="G43" s="3">
-        <v>2936700</v>
+        <v>2794000</v>
       </c>
       <c r="H43" s="3">
-        <v>5205800</v>
+        <v>4952900</v>
       </c>
       <c r="I43" s="3">
-        <v>2466500</v>
+        <v>2346700</v>
       </c>
       <c r="J43" s="3">
+        <v>2309300</v>
+      </c>
+      <c r="K43" s="3">
         <v>2427300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2732100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4172400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4229900</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>618500</v>
+        <v>588500</v>
       </c>
       <c r="E44" s="3">
-        <v>1184700</v>
+        <v>563600</v>
       </c>
       <c r="F44" s="3">
-        <v>804000</v>
+        <v>764900</v>
       </c>
       <c r="G44" s="3">
-        <v>690500</v>
+        <v>657000</v>
       </c>
       <c r="H44" s="3">
-        <v>1215300</v>
+        <v>1156200</v>
       </c>
       <c r="I44" s="3">
-        <v>617500</v>
+        <v>587500</v>
       </c>
       <c r="J44" s="3">
+        <v>552200</v>
+      </c>
+      <c r="K44" s="3">
         <v>580400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>611300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1144100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1312700</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1646200</v>
+        <v>867700</v>
       </c>
       <c r="E45" s="3">
-        <v>1411600</v>
+        <v>394400</v>
       </c>
       <c r="F45" s="3">
-        <v>630500</v>
+        <v>599900</v>
       </c>
       <c r="G45" s="3">
-        <v>615300</v>
+        <v>585400</v>
       </c>
       <c r="H45" s="3">
-        <v>2226500</v>
+        <v>2118400</v>
       </c>
       <c r="I45" s="3">
-        <v>776700</v>
+        <v>739000</v>
       </c>
       <c r="J45" s="3">
+        <v>744200</v>
+      </c>
+      <c r="K45" s="3">
         <v>782200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1006000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1748000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2028600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11704400</v>
+        <v>11135600</v>
       </c>
       <c r="E46" s="3">
-        <v>10794600</v>
+        <v>10270000</v>
       </c>
       <c r="F46" s="3">
-        <v>9315300</v>
+        <v>8862600</v>
       </c>
       <c r="G46" s="3">
-        <v>8508000</v>
+        <v>8094600</v>
       </c>
       <c r="H46" s="3">
-        <v>9881500</v>
+        <v>9401300</v>
       </c>
       <c r="I46" s="3">
-        <v>8298600</v>
+        <v>7895300</v>
       </c>
       <c r="J46" s="3">
+        <v>7831000</v>
+      </c>
+      <c r="K46" s="3">
         <v>8230900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9494200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8321700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7189700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1156400</v>
+        <v>1100200</v>
       </c>
       <c r="E47" s="3">
-        <v>1122500</v>
+        <v>1072200</v>
       </c>
       <c r="F47" s="3">
-        <v>1533800</v>
+        <v>1459300</v>
       </c>
       <c r="G47" s="3">
-        <v>1973500</v>
+        <v>1877600</v>
       </c>
       <c r="H47" s="3">
-        <v>1719300</v>
+        <v>1635700</v>
       </c>
       <c r="I47" s="3">
-        <v>1527300</v>
+        <v>1453100</v>
       </c>
       <c r="J47" s="3">
+        <v>1397000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1468400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2559900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2246500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2734300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18562900</v>
+        <v>17660900</v>
       </c>
       <c r="E48" s="3">
-        <v>37651700</v>
+        <v>17911000</v>
       </c>
       <c r="F48" s="3">
-        <v>19731300</v>
+        <v>18772500</v>
       </c>
       <c r="G48" s="3">
-        <v>19063700</v>
+        <v>18137300</v>
       </c>
       <c r="H48" s="3">
-        <v>38193900</v>
+        <v>36337900</v>
       </c>
       <c r="I48" s="3">
-        <v>11562600</v>
+        <v>11000700</v>
       </c>
       <c r="J48" s="3">
+        <v>10807700</v>
+      </c>
+      <c r="K48" s="3">
         <v>11359600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13409400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26308100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6730800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1589500</v>
+        <v>1512200</v>
       </c>
       <c r="E49" s="3">
-        <v>3152700</v>
+        <v>1499800</v>
       </c>
       <c r="F49" s="3">
-        <v>1660400</v>
+        <v>1579700</v>
       </c>
       <c r="G49" s="3">
-        <v>1539300</v>
+        <v>1464500</v>
       </c>
       <c r="H49" s="3">
-        <v>2919300</v>
+        <v>2777400</v>
       </c>
       <c r="I49" s="3">
-        <v>1400700</v>
+        <v>1332700</v>
       </c>
       <c r="J49" s="3">
+        <v>1312900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1380000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1355300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2402400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2214800</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,45 +2244,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>459300</v>
+        <v>437000</v>
       </c>
       <c r="E52" s="3">
-        <v>609800</v>
+        <v>576000</v>
       </c>
       <c r="F52" s="3">
-        <v>1288400</v>
+        <v>1225800</v>
       </c>
       <c r="G52" s="3">
-        <v>1246900</v>
+        <v>1186300</v>
       </c>
       <c r="H52" s="3">
-        <v>1584000</v>
+        <v>1507000</v>
       </c>
       <c r="I52" s="3">
-        <v>2227600</v>
+        <v>2119400</v>
       </c>
       <c r="J52" s="3">
+        <v>2870800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3017500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3589800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4415100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7902200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33472400</v>
+        <v>31845900</v>
       </c>
       <c r="E54" s="3">
-        <v>32924800</v>
+        <v>31324900</v>
       </c>
       <c r="F54" s="3">
-        <v>33529100</v>
+        <v>31899900</v>
       </c>
       <c r="G54" s="3">
-        <v>32331300</v>
+        <v>30760200</v>
       </c>
       <c r="H54" s="3">
-        <v>32686900</v>
+        <v>31098600</v>
       </c>
       <c r="I54" s="3">
-        <v>25016700</v>
+        <v>23801100</v>
       </c>
       <c r="J54" s="3">
+        <v>24219400</v>
+      </c>
+      <c r="K54" s="3">
         <v>25456400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30408600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29338600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29861800</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,224 +2398,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2018200</v>
+        <v>1920100</v>
       </c>
       <c r="E57" s="3">
-        <v>1565500</v>
+        <v>1489400</v>
       </c>
       <c r="F57" s="3">
-        <v>2595300</v>
+        <v>2469200</v>
       </c>
       <c r="G57" s="3">
-        <v>2677100</v>
+        <v>2547000</v>
       </c>
       <c r="H57" s="3">
-        <v>2580000</v>
+        <v>2454600</v>
       </c>
       <c r="I57" s="3">
-        <v>2573500</v>
+        <v>2448400</v>
       </c>
       <c r="J57" s="3">
+        <v>2485800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2612700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2833800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2436500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2916100</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2229800</v>
+        <v>1989700</v>
       </c>
       <c r="E58" s="3">
-        <v>4590500</v>
+        <v>2128700</v>
       </c>
       <c r="F58" s="3">
-        <v>1914500</v>
+        <v>1821500</v>
       </c>
       <c r="G58" s="3">
-        <v>1914500</v>
+        <v>1821500</v>
       </c>
       <c r="H58" s="3">
-        <v>4014500</v>
+        <v>3819500</v>
       </c>
       <c r="I58" s="3">
-        <v>1022200</v>
+        <v>972500</v>
       </c>
       <c r="J58" s="3">
+        <v>1998000</v>
+      </c>
+      <c r="K58" s="3">
         <v>2100000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1973700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3308300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2849900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8544000</v>
+        <v>8260600</v>
       </c>
       <c r="E59" s="3">
-        <v>12509500</v>
+        <v>8606300</v>
       </c>
       <c r="F59" s="3">
-        <v>9289100</v>
+        <v>8837700</v>
       </c>
       <c r="G59" s="3">
-        <v>8872400</v>
+        <v>8441200</v>
       </c>
       <c r="H59" s="3">
-        <v>11598600</v>
+        <v>11035000</v>
       </c>
       <c r="I59" s="3">
-        <v>7467300</v>
+        <v>7104400</v>
       </c>
       <c r="J59" s="3">
+        <v>7970000</v>
+      </c>
+      <c r="K59" s="3">
         <v>8377100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10969200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9336300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11662000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12792000</v>
+        <v>12170400</v>
       </c>
       <c r="E60" s="3">
-        <v>12848700</v>
+        <v>12224400</v>
       </c>
       <c r="F60" s="3">
-        <v>13798900</v>
+        <v>13128400</v>
       </c>
       <c r="G60" s="3">
-        <v>13464000</v>
+        <v>12809800</v>
       </c>
       <c r="H60" s="3">
-        <v>13149800</v>
+        <v>12510800</v>
       </c>
       <c r="I60" s="3">
-        <v>11062900</v>
+        <v>10525300</v>
       </c>
       <c r="J60" s="3">
+        <v>12453800</v>
+      </c>
+      <c r="K60" s="3">
         <v>13089800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12984800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10790000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10262800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15488700</v>
+        <v>14735100</v>
       </c>
       <c r="E61" s="3">
-        <v>18104700</v>
+        <v>17225000</v>
       </c>
       <c r="F61" s="3">
-        <v>10276400</v>
+        <v>9777000</v>
       </c>
       <c r="G61" s="3">
-        <v>10121500</v>
+        <v>9629600</v>
       </c>
       <c r="H61" s="3">
-        <v>10755300</v>
+        <v>10232700</v>
       </c>
       <c r="I61" s="3">
-        <v>8106600</v>
+        <v>7712600</v>
       </c>
       <c r="J61" s="3">
+        <v>7327600</v>
+      </c>
+      <c r="K61" s="3">
         <v>7701800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10282500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10502400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10353700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9354600</v>
+        <v>8901000</v>
       </c>
       <c r="E62" s="3">
-        <v>13214200</v>
+        <v>7419900</v>
       </c>
       <c r="F62" s="3">
-        <v>6945800</v>
+        <v>6608300</v>
       </c>
       <c r="G62" s="3">
-        <v>6784400</v>
+        <v>6454700</v>
       </c>
       <c r="H62" s="3">
-        <v>6535600</v>
+        <v>6218100</v>
       </c>
       <c r="I62" s="3">
-        <v>4433500</v>
+        <v>4218000</v>
       </c>
       <c r="J62" s="3">
+        <v>4154700</v>
+      </c>
+      <c r="K62" s="3">
         <v>4366900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4873300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4509500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3911300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37644000</v>
+        <v>35814800</v>
       </c>
       <c r="E66" s="3">
-        <v>38762200</v>
+        <v>36878700</v>
       </c>
       <c r="F66" s="3">
-        <v>31037500</v>
+        <v>29529300</v>
       </c>
       <c r="G66" s="3">
-        <v>30382900</v>
+        <v>28906600</v>
       </c>
       <c r="H66" s="3">
-        <v>30060000</v>
+        <v>28599300</v>
       </c>
       <c r="I66" s="3">
-        <v>23616000</v>
+        <v>22468500</v>
       </c>
       <c r="J66" s="3">
+        <v>23985900</v>
+      </c>
+      <c r="K66" s="3">
         <v>25210900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>27723100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25397800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24300100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13682200</v>
+        <v>-12234800</v>
       </c>
       <c r="E72" s="3">
-        <v>-19759700</v>
+        <v>-8451600</v>
       </c>
       <c r="F72" s="3">
-        <v>-1066900</v>
+        <v>-1015100</v>
       </c>
       <c r="G72" s="3">
-        <v>-1404000</v>
+        <v>-1335800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4587300</v>
+        <v>-4364400</v>
       </c>
       <c r="I72" s="3">
-        <v>339300</v>
+        <v>322800</v>
       </c>
       <c r="J72" s="3">
+        <v>-471200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-495300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1125600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>442500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1991500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4171600</v>
+        <v>-3968900</v>
       </c>
       <c r="E76" s="3">
-        <v>-5837500</v>
+        <v>-5553800</v>
       </c>
       <c r="F76" s="3">
-        <v>2491600</v>
+        <v>2370600</v>
       </c>
       <c r="G76" s="3">
-        <v>1948400</v>
+        <v>1853700</v>
       </c>
       <c r="H76" s="3">
-        <v>2626900</v>
+        <v>2499300</v>
       </c>
       <c r="I76" s="3">
-        <v>1400700</v>
+        <v>1332700</v>
       </c>
       <c r="J76" s="3">
+        <v>233500</v>
+      </c>
+      <c r="K76" s="3">
         <v>245500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2685500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3940700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5561700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7745500</v>
+        <v>-3573500</v>
       </c>
       <c r="E81" s="3">
-        <v>297800</v>
+        <v>-7369100</v>
       </c>
       <c r="F81" s="3">
-        <v>430900</v>
+        <v>283300</v>
       </c>
       <c r="G81" s="3">
-        <v>150500</v>
+        <v>410000</v>
       </c>
       <c r="H81" s="3">
-        <v>864000</v>
+        <v>143200</v>
       </c>
       <c r="I81" s="3">
-        <v>109100</v>
+        <v>822000</v>
       </c>
       <c r="J81" s="3">
+        <v>103800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-245500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2185500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1345100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-495900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3118900</v>
+        <v>2460900</v>
       </c>
       <c r="E83" s="3">
-        <v>3258500</v>
+        <v>2967400</v>
       </c>
       <c r="F83" s="3">
-        <v>3150500</v>
+        <v>3100200</v>
       </c>
       <c r="G83" s="3">
-        <v>3098200</v>
+        <v>2997500</v>
       </c>
       <c r="H83" s="3">
-        <v>1816400</v>
+        <v>2947600</v>
       </c>
       <c r="I83" s="3">
-        <v>1780400</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1728100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1693900</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2075400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1919300</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3082900</v>
+        <v>1592100</v>
       </c>
       <c r="E89" s="3">
-        <v>4249100</v>
+        <v>-2933100</v>
       </c>
       <c r="F89" s="3">
-        <v>4143300</v>
+        <v>4042600</v>
       </c>
       <c r="G89" s="3">
-        <v>4471600</v>
+        <v>3941900</v>
       </c>
       <c r="H89" s="3">
-        <v>2442500</v>
+        <v>4254400</v>
       </c>
       <c r="I89" s="3">
-        <v>2072700</v>
+        <v>2323900</v>
       </c>
       <c r="J89" s="3">
+        <v>1972000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1110500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1769200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>934400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>626100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2289800</v>
+        <v>-2285500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3678500</v>
+        <v>-2178600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5844000</v>
+        <v>-3499800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2533100</v>
+        <v>-5560000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2089100</v>
+        <v>-2410000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3461500</v>
+        <v>-1987600</v>
       </c>
       <c r="J91" s="3">
+        <v>-3293300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1561100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1418700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1616300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2100400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1726900</v>
+        <v>-1286000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3619600</v>
+        <v>-1643000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2949800</v>
+        <v>-3443800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2936700</v>
+        <v>-2806500</v>
       </c>
       <c r="H94" s="3">
-        <v>-793100</v>
+        <v>-2794000</v>
       </c>
       <c r="I94" s="3">
-        <v>-1267600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-754600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1206000</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1105300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-269000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3556,14 +3789,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7796700</v>
+        <v>-79900</v>
       </c>
       <c r="E100" s="3">
-        <v>-487600</v>
+        <v>7417900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2386900</v>
+        <v>-463900</v>
       </c>
       <c r="G100" s="3">
-        <v>-698200</v>
+        <v>-2270900</v>
       </c>
       <c r="H100" s="3">
-        <v>-727600</v>
+        <v>-664300</v>
       </c>
       <c r="I100" s="3">
-        <v>-549800</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-692300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-523100</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-189000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>476500</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-29500</v>
+        <v>14500</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>-28000</v>
       </c>
       <c r="F101" s="3">
-        <v>7600</v>
+        <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>-36000</v>
+        <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>-14200</v>
+        <v>-34300</v>
       </c>
       <c r="I101" s="3">
-        <v>-46900</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>-13500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-43100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3300</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2957500</v>
+        <v>240800</v>
       </c>
       <c r="E102" s="3">
-        <v>142900</v>
+        <v>2813700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1185800</v>
+        <v>136000</v>
       </c>
       <c r="G102" s="3">
-        <v>800700</v>
+        <v>-1128200</v>
       </c>
       <c r="H102" s="3">
-        <v>907600</v>
+        <v>761800</v>
       </c>
       <c r="I102" s="3">
-        <v>208400</v>
+        <v>863500</v>
       </c>
       <c r="J102" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-663300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>431800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1138600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1640300</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14857500</v>
+        <v>14277800</v>
       </c>
       <c r="E8" s="3">
-        <v>11508200</v>
+        <v>11059200</v>
       </c>
       <c r="F8" s="3">
-        <v>28219500</v>
+        <v>27118300</v>
       </c>
       <c r="G8" s="3">
-        <v>27221000</v>
+        <v>26158800</v>
       </c>
       <c r="H8" s="3">
-        <v>26847400</v>
+        <v>25799700</v>
       </c>
       <c r="I8" s="3">
-        <v>25787700</v>
+        <v>24781400</v>
       </c>
       <c r="J8" s="3">
-        <v>26664700</v>
+        <v>25624200</v>
       </c>
       <c r="K8" s="3">
         <v>27196400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8031300</v>
+        <v>7717900</v>
       </c>
       <c r="E9" s="3">
-        <v>7318200</v>
+        <v>7032700</v>
       </c>
       <c r="F9" s="3">
-        <v>14281500</v>
+        <v>13724200</v>
       </c>
       <c r="G9" s="3">
-        <v>13410700</v>
+        <v>12887400</v>
       </c>
       <c r="H9" s="3">
-        <v>13935900</v>
+        <v>13392100</v>
       </c>
       <c r="I9" s="3">
-        <v>14977900</v>
+        <v>14393500</v>
       </c>
       <c r="J9" s="3">
-        <v>16616800</v>
+        <v>15968400</v>
       </c>
       <c r="K9" s="3">
         <v>16660400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6826300</v>
+        <v>6559900</v>
       </c>
       <c r="E10" s="3">
-        <v>4190000</v>
+        <v>4026500</v>
       </c>
       <c r="F10" s="3">
-        <v>13938000</v>
+        <v>13394100</v>
       </c>
       <c r="G10" s="3">
-        <v>13810300</v>
+        <v>13271400</v>
       </c>
       <c r="H10" s="3">
-        <v>12911500</v>
+        <v>12407700</v>
       </c>
       <c r="I10" s="3">
-        <v>10809700</v>
+        <v>10387900</v>
       </c>
       <c r="J10" s="3">
-        <v>10047900</v>
+        <v>9655800</v>
       </c>
       <c r="K10" s="3">
         <v>10536000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>754600</v>
+        <v>725100</v>
       </c>
       <c r="E14" s="3">
-        <v>1605600</v>
+        <v>1543000</v>
       </c>
       <c r="F14" s="3">
-        <v>158800</v>
+        <v>152600</v>
       </c>
       <c r="G14" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="H14" s="3">
-        <v>1998000</v>
+        <v>1920000</v>
       </c>
       <c r="I14" s="3">
-        <v>149500</v>
+        <v>143600</v>
       </c>
       <c r="J14" s="3">
-        <v>145300</v>
+        <v>139600</v>
       </c>
       <c r="K14" s="3">
         <v>-756000</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2608200</v>
+        <v>2506500</v>
       </c>
       <c r="E15" s="3">
-        <v>2839700</v>
+        <v>2728900</v>
       </c>
       <c r="F15" s="3">
-        <v>3052500</v>
+        <v>2933400</v>
       </c>
       <c r="G15" s="3">
-        <v>2978800</v>
+        <v>2862500</v>
       </c>
       <c r="H15" s="3">
-        <v>2860500</v>
+        <v>2748800</v>
       </c>
       <c r="I15" s="3">
-        <v>1630500</v>
+        <v>1566900</v>
       </c>
       <c r="J15" s="3">
-        <v>1632600</v>
+        <v>1568900</v>
       </c>
       <c r="K15" s="3">
         <v>1733500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17485500</v>
+        <v>16803200</v>
       </c>
       <c r="E17" s="3">
-        <v>17766800</v>
+        <v>17073500</v>
       </c>
       <c r="F17" s="3">
-        <v>27171200</v>
+        <v>26110900</v>
       </c>
       <c r="G17" s="3">
-        <v>25775200</v>
+        <v>24769400</v>
       </c>
       <c r="H17" s="3">
-        <v>26830800</v>
+        <v>25783800</v>
       </c>
       <c r="I17" s="3">
-        <v>24637700</v>
+        <v>23676300</v>
       </c>
       <c r="J17" s="3">
-        <v>25537500</v>
+        <v>24541000</v>
       </c>
       <c r="K17" s="3">
         <v>26370600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2628000</v>
+        <v>-2525400</v>
       </c>
       <c r="E18" s="3">
-        <v>-6258500</v>
+        <v>-6014300</v>
       </c>
       <c r="F18" s="3">
-        <v>1048300</v>
+        <v>1007400</v>
       </c>
       <c r="G18" s="3">
-        <v>1445800</v>
+        <v>1389400</v>
       </c>
       <c r="H18" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="I18" s="3">
-        <v>1150000</v>
+        <v>1105100</v>
       </c>
       <c r="J18" s="3">
-        <v>1127200</v>
+        <v>1083200</v>
       </c>
       <c r="K18" s="3">
         <v>825800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-494000</v>
+        <v>-474800</v>
       </c>
       <c r="E20" s="3">
-        <v>-532400</v>
+        <v>-511700</v>
       </c>
       <c r="F20" s="3">
-        <v>-265700</v>
+        <v>-255300</v>
       </c>
       <c r="G20" s="3">
-        <v>-340400</v>
+        <v>-327100</v>
       </c>
       <c r="H20" s="3">
-        <v>640400</v>
+        <v>615400</v>
       </c>
       <c r="I20" s="3">
-        <v>-58100</v>
+        <v>-55900</v>
       </c>
       <c r="J20" s="3">
-        <v>-660100</v>
+        <v>-634300</v>
       </c>
       <c r="K20" s="3">
         <v>-441800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-629800</v>
+        <v>-637500</v>
       </c>
       <c r="E21" s="3">
-        <v>-3785900</v>
+        <v>-3677000</v>
       </c>
       <c r="F21" s="3">
-        <v>3922200</v>
+        <v>3728600</v>
       </c>
       <c r="G21" s="3">
-        <v>4140900</v>
+        <v>3940100</v>
       </c>
       <c r="H21" s="3">
-        <v>3642100</v>
+        <v>3461400</v>
       </c>
       <c r="I21" s="3">
-        <v>2842000</v>
+        <v>2708400</v>
       </c>
       <c r="J21" s="3">
-        <v>2182500</v>
+        <v>2075100</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>561500</v>
+        <v>539600</v>
       </c>
       <c r="E22" s="3">
-        <v>430700</v>
+        <v>413900</v>
       </c>
       <c r="F22" s="3">
-        <v>423500</v>
+        <v>406900</v>
       </c>
       <c r="G22" s="3">
-        <v>450400</v>
+        <v>432900</v>
       </c>
       <c r="H22" s="3">
-        <v>523100</v>
+        <v>502700</v>
       </c>
       <c r="I22" s="3">
-        <v>237700</v>
+        <v>228400</v>
       </c>
       <c r="J22" s="3">
-        <v>294800</v>
+        <v>283300</v>
       </c>
       <c r="K22" s="3">
         <v>360000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3683500</v>
+        <v>-3539800</v>
       </c>
       <c r="E23" s="3">
-        <v>-7221700</v>
+        <v>-6939900</v>
       </c>
       <c r="F23" s="3">
-        <v>359100</v>
+        <v>345100</v>
       </c>
       <c r="G23" s="3">
-        <v>654900</v>
+        <v>629400</v>
       </c>
       <c r="H23" s="3">
-        <v>133900</v>
+        <v>128700</v>
       </c>
       <c r="I23" s="3">
-        <v>854200</v>
+        <v>820900</v>
       </c>
       <c r="J23" s="3">
-        <v>172300</v>
+        <v>165600</v>
       </c>
       <c r="K23" s="3">
         <v>24000</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-292700</v>
+        <v>-281300</v>
       </c>
       <c r="E24" s="3">
-        <v>92400</v>
+        <v>88800</v>
       </c>
       <c r="F24" s="3">
-        <v>78900</v>
+        <v>75800</v>
       </c>
       <c r="G24" s="3">
-        <v>232500</v>
+        <v>223400</v>
       </c>
       <c r="H24" s="3">
-        <v>-21800</v>
+        <v>-20900</v>
       </c>
       <c r="I24" s="3">
-        <v>305100</v>
+        <v>293200</v>
       </c>
       <c r="J24" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="K24" s="3">
         <v>212700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3390800</v>
+        <v>-3258500</v>
       </c>
       <c r="E26" s="3">
-        <v>-7314100</v>
+        <v>-7028700</v>
       </c>
       <c r="F26" s="3">
-        <v>280200</v>
+        <v>269300</v>
       </c>
       <c r="G26" s="3">
-        <v>422400</v>
+        <v>405900</v>
       </c>
       <c r="H26" s="3">
-        <v>155700</v>
+        <v>149600</v>
       </c>
       <c r="I26" s="3">
-        <v>549000</v>
+        <v>527600</v>
       </c>
       <c r="J26" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="K26" s="3">
         <v>-188700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3573500</v>
+        <v>-3434000</v>
       </c>
       <c r="E27" s="3">
-        <v>-7369100</v>
+        <v>-7081500</v>
       </c>
       <c r="F27" s="3">
-        <v>283300</v>
+        <v>272300</v>
       </c>
       <c r="G27" s="3">
-        <v>410000</v>
+        <v>394000</v>
       </c>
       <c r="H27" s="3">
-        <v>151500</v>
+        <v>145600</v>
       </c>
       <c r="I27" s="3">
-        <v>541800</v>
+        <v>520600</v>
       </c>
       <c r="J27" s="3">
-        <v>76800</v>
+        <v>73800</v>
       </c>
       <c r="K27" s="3">
         <v>-241100</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="I29" s="3">
-        <v>280200</v>
+        <v>269300</v>
       </c>
       <c r="J29" s="3">
-        <v>27000</v>
+        <v>25900</v>
       </c>
       <c r="K29" s="3">
         <v>-4400</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>494000</v>
+        <v>474800</v>
       </c>
       <c r="E32" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="F32" s="3">
-        <v>265700</v>
+        <v>255300</v>
       </c>
       <c r="G32" s="3">
-        <v>340400</v>
+        <v>327100</v>
       </c>
       <c r="H32" s="3">
-        <v>-640400</v>
+        <v>-615400</v>
       </c>
       <c r="I32" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="J32" s="3">
-        <v>660100</v>
+        <v>634300</v>
       </c>
       <c r="K32" s="3">
         <v>441800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3573500</v>
+        <v>-3434000</v>
       </c>
       <c r="E33" s="3">
-        <v>-7369100</v>
+        <v>-7081500</v>
       </c>
       <c r="F33" s="3">
-        <v>283300</v>
+        <v>272300</v>
       </c>
       <c r="G33" s="3">
-        <v>410000</v>
+        <v>394000</v>
       </c>
       <c r="H33" s="3">
-        <v>143200</v>
+        <v>137600</v>
       </c>
       <c r="I33" s="3">
-        <v>822000</v>
+        <v>789900</v>
       </c>
       <c r="J33" s="3">
-        <v>103800</v>
+        <v>99700</v>
       </c>
       <c r="K33" s="3">
         <v>-245500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3573500</v>
+        <v>-3434000</v>
       </c>
       <c r="E35" s="3">
-        <v>-7369100</v>
+        <v>-7081500</v>
       </c>
       <c r="F35" s="3">
-        <v>283300</v>
+        <v>272300</v>
       </c>
       <c r="G35" s="3">
-        <v>410000</v>
+        <v>394000</v>
       </c>
       <c r="H35" s="3">
-        <v>143200</v>
+        <v>137600</v>
       </c>
       <c r="I35" s="3">
-        <v>822000</v>
+        <v>789900</v>
       </c>
       <c r="J35" s="3">
-        <v>103800</v>
+        <v>99700</v>
       </c>
       <c r="K35" s="3">
         <v>-245500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6910300</v>
+        <v>6640700</v>
       </c>
       <c r="E41" s="3">
-        <v>6666400</v>
+        <v>6406300</v>
       </c>
       <c r="F41" s="3">
-        <v>3855800</v>
+        <v>3705300</v>
       </c>
       <c r="G41" s="3">
-        <v>3720900</v>
+        <v>3575700</v>
       </c>
       <c r="H41" s="3">
-        <v>9701300</v>
+        <v>9322700</v>
       </c>
       <c r="I41" s="3">
-        <v>4087300</v>
+        <v>3927800</v>
       </c>
       <c r="J41" s="3">
-        <v>3221600</v>
+        <v>3095900</v>
       </c>
       <c r="K41" s="3">
         <v>3386200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>502300</v>
+        <v>482700</v>
       </c>
       <c r="E42" s="3">
-        <v>630000</v>
+        <v>605400</v>
       </c>
       <c r="F42" s="3">
-        <v>830300</v>
+        <v>797900</v>
       </c>
       <c r="G42" s="3">
-        <v>337300</v>
+        <v>324200</v>
       </c>
       <c r="H42" s="3">
-        <v>437000</v>
+        <v>419900</v>
       </c>
       <c r="I42" s="3">
-        <v>134900</v>
+        <v>129700</v>
       </c>
       <c r="J42" s="3">
-        <v>1003600</v>
+        <v>964500</v>
       </c>
       <c r="K42" s="3">
         <v>1054900</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2266800</v>
+        <v>2178300</v>
       </c>
       <c r="E43" s="3">
-        <v>2015600</v>
+        <v>1937000</v>
       </c>
       <c r="F43" s="3">
-        <v>2811700</v>
+        <v>2702000</v>
       </c>
       <c r="G43" s="3">
-        <v>2794000</v>
+        <v>2685000</v>
       </c>
       <c r="H43" s="3">
-        <v>4952900</v>
+        <v>4759600</v>
       </c>
       <c r="I43" s="3">
-        <v>2346700</v>
+        <v>2255100</v>
       </c>
       <c r="J43" s="3">
-        <v>2309300</v>
+        <v>2219200</v>
       </c>
       <c r="K43" s="3">
         <v>2427300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>588500</v>
+        <v>565500</v>
       </c>
       <c r="E44" s="3">
-        <v>563600</v>
+        <v>541600</v>
       </c>
       <c r="F44" s="3">
-        <v>764900</v>
+        <v>735100</v>
       </c>
       <c r="G44" s="3">
-        <v>657000</v>
+        <v>631400</v>
       </c>
       <c r="H44" s="3">
-        <v>1156200</v>
+        <v>1111100</v>
       </c>
       <c r="I44" s="3">
-        <v>587500</v>
+        <v>564500</v>
       </c>
       <c r="J44" s="3">
-        <v>552200</v>
+        <v>530600</v>
       </c>
       <c r="K44" s="3">
         <v>580400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>867700</v>
+        <v>833800</v>
       </c>
       <c r="E45" s="3">
-        <v>394400</v>
+        <v>379000</v>
       </c>
       <c r="F45" s="3">
-        <v>599900</v>
+        <v>576500</v>
       </c>
       <c r="G45" s="3">
-        <v>585400</v>
+        <v>562500</v>
       </c>
       <c r="H45" s="3">
-        <v>2118400</v>
+        <v>2035700</v>
       </c>
       <c r="I45" s="3">
-        <v>739000</v>
+        <v>710100</v>
       </c>
       <c r="J45" s="3">
-        <v>744200</v>
+        <v>715100</v>
       </c>
       <c r="K45" s="3">
         <v>782200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11135600</v>
+        <v>10701100</v>
       </c>
       <c r="E46" s="3">
-        <v>10270000</v>
+        <v>9869300</v>
       </c>
       <c r="F46" s="3">
-        <v>8862600</v>
+        <v>8516800</v>
       </c>
       <c r="G46" s="3">
-        <v>8094600</v>
+        <v>7778700</v>
       </c>
       <c r="H46" s="3">
-        <v>9401300</v>
+        <v>9034400</v>
       </c>
       <c r="I46" s="3">
-        <v>7895300</v>
+        <v>7587200</v>
       </c>
       <c r="J46" s="3">
-        <v>7831000</v>
+        <v>7525400</v>
       </c>
       <c r="K46" s="3">
         <v>8230900</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100200</v>
+        <v>1057200</v>
       </c>
       <c r="E47" s="3">
-        <v>1072200</v>
+        <v>1030300</v>
       </c>
       <c r="F47" s="3">
-        <v>1459300</v>
+        <v>1402300</v>
       </c>
       <c r="G47" s="3">
-        <v>1877600</v>
+        <v>1804300</v>
       </c>
       <c r="H47" s="3">
-        <v>1635700</v>
+        <v>1571900</v>
       </c>
       <c r="I47" s="3">
-        <v>1453100</v>
+        <v>1396400</v>
       </c>
       <c r="J47" s="3">
-        <v>1397000</v>
+        <v>1342500</v>
       </c>
       <c r="K47" s="3">
         <v>1468400</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17660900</v>
+        <v>16971800</v>
       </c>
       <c r="E48" s="3">
-        <v>17911000</v>
+        <v>17212100</v>
       </c>
       <c r="F48" s="3">
-        <v>18772500</v>
+        <v>18040000</v>
       </c>
       <c r="G48" s="3">
-        <v>18137300</v>
+        <v>17429600</v>
       </c>
       <c r="H48" s="3">
-        <v>36337900</v>
+        <v>34920000</v>
       </c>
       <c r="I48" s="3">
-        <v>11000700</v>
+        <v>10571400</v>
       </c>
       <c r="J48" s="3">
-        <v>10807700</v>
+        <v>10385900</v>
       </c>
       <c r="K48" s="3">
         <v>11359600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1512200</v>
+        <v>1453200</v>
       </c>
       <c r="E49" s="3">
-        <v>1499800</v>
+        <v>1441200</v>
       </c>
       <c r="F49" s="3">
-        <v>1579700</v>
+        <v>1518000</v>
       </c>
       <c r="G49" s="3">
-        <v>1464500</v>
+        <v>1407300</v>
       </c>
       <c r="H49" s="3">
-        <v>2777400</v>
+        <v>2669000</v>
       </c>
       <c r="I49" s="3">
-        <v>1332700</v>
+        <v>1280700</v>
       </c>
       <c r="J49" s="3">
-        <v>1312900</v>
+        <v>1261700</v>
       </c>
       <c r="K49" s="3">
         <v>1380000</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>437000</v>
+        <v>419900</v>
       </c>
       <c r="E52" s="3">
-        <v>576000</v>
+        <v>553600</v>
       </c>
       <c r="F52" s="3">
-        <v>1225800</v>
+        <v>1177900</v>
       </c>
       <c r="G52" s="3">
-        <v>1186300</v>
+        <v>1140000</v>
       </c>
       <c r="H52" s="3">
-        <v>1507000</v>
+        <v>1448200</v>
       </c>
       <c r="I52" s="3">
-        <v>2119400</v>
+        <v>2036700</v>
       </c>
       <c r="J52" s="3">
-        <v>2870800</v>
+        <v>2758800</v>
       </c>
       <c r="K52" s="3">
         <v>3017500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31845900</v>
+        <v>30603200</v>
       </c>
       <c r="E54" s="3">
-        <v>31324900</v>
+        <v>30102500</v>
       </c>
       <c r="F54" s="3">
-        <v>31899900</v>
+        <v>30655100</v>
       </c>
       <c r="G54" s="3">
-        <v>30760200</v>
+        <v>29559900</v>
       </c>
       <c r="H54" s="3">
-        <v>31098600</v>
+        <v>29885100</v>
       </c>
       <c r="I54" s="3">
-        <v>23801100</v>
+        <v>22872400</v>
       </c>
       <c r="J54" s="3">
-        <v>24219400</v>
+        <v>23274300</v>
       </c>
       <c r="K54" s="3">
         <v>25456400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1920100</v>
+        <v>1845200</v>
       </c>
       <c r="E57" s="3">
-        <v>1489400</v>
+        <v>1431300</v>
       </c>
       <c r="F57" s="3">
-        <v>2469200</v>
+        <v>2372800</v>
       </c>
       <c r="G57" s="3">
-        <v>2547000</v>
+        <v>2447600</v>
       </c>
       <c r="H57" s="3">
-        <v>2454600</v>
+        <v>2358900</v>
       </c>
       <c r="I57" s="3">
-        <v>2448400</v>
+        <v>2352900</v>
       </c>
       <c r="J57" s="3">
-        <v>2485800</v>
+        <v>2388800</v>
       </c>
       <c r="K57" s="3">
         <v>2612700</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1989700</v>
+        <v>1912000</v>
       </c>
       <c r="E58" s="3">
-        <v>2128700</v>
+        <v>2045700</v>
       </c>
       <c r="F58" s="3">
-        <v>1821500</v>
+        <v>1750400</v>
       </c>
       <c r="G58" s="3">
-        <v>1821500</v>
+        <v>1750400</v>
       </c>
       <c r="H58" s="3">
-        <v>3819500</v>
+        <v>3670400</v>
       </c>
       <c r="I58" s="3">
-        <v>972500</v>
+        <v>934600</v>
       </c>
       <c r="J58" s="3">
-        <v>1998000</v>
+        <v>1920000</v>
       </c>
       <c r="K58" s="3">
         <v>2100000</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8260600</v>
+        <v>7938300</v>
       </c>
       <c r="E59" s="3">
-        <v>8606300</v>
+        <v>8270400</v>
       </c>
       <c r="F59" s="3">
-        <v>8837700</v>
+        <v>8492900</v>
       </c>
       <c r="G59" s="3">
-        <v>8441200</v>
+        <v>8111900</v>
       </c>
       <c r="H59" s="3">
-        <v>11035000</v>
+        <v>10604400</v>
       </c>
       <c r="I59" s="3">
-        <v>7104400</v>
+        <v>6827200</v>
       </c>
       <c r="J59" s="3">
-        <v>7970000</v>
+        <v>7659000</v>
       </c>
       <c r="K59" s="3">
         <v>8377100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12170400</v>
+        <v>11695500</v>
       </c>
       <c r="E60" s="3">
-        <v>12224400</v>
+        <v>11747400</v>
       </c>
       <c r="F60" s="3">
-        <v>13128400</v>
+        <v>12616100</v>
       </c>
       <c r="G60" s="3">
-        <v>12809800</v>
+        <v>12309900</v>
       </c>
       <c r="H60" s="3">
-        <v>12510800</v>
+        <v>12022700</v>
       </c>
       <c r="I60" s="3">
-        <v>10525300</v>
+        <v>10114600</v>
       </c>
       <c r="J60" s="3">
-        <v>12453800</v>
+        <v>11967800</v>
       </c>
       <c r="K60" s="3">
         <v>13089800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14735100</v>
+        <v>14160100</v>
       </c>
       <c r="E61" s="3">
-        <v>17225000</v>
+        <v>16552900</v>
       </c>
       <c r="F61" s="3">
-        <v>9777000</v>
+        <v>9395500</v>
       </c>
       <c r="G61" s="3">
-        <v>9629600</v>
+        <v>9253900</v>
       </c>
       <c r="H61" s="3">
-        <v>10232700</v>
+        <v>9833400</v>
       </c>
       <c r="I61" s="3">
-        <v>7712600</v>
+        <v>7411700</v>
       </c>
       <c r="J61" s="3">
-        <v>7327600</v>
+        <v>7041600</v>
       </c>
       <c r="K61" s="3">
         <v>7701800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8901000</v>
+        <v>8553700</v>
       </c>
       <c r="E62" s="3">
-        <v>7419900</v>
+        <v>7130400</v>
       </c>
       <c r="F62" s="3">
-        <v>6608300</v>
+        <v>6350400</v>
       </c>
       <c r="G62" s="3">
-        <v>6454700</v>
+        <v>6202800</v>
       </c>
       <c r="H62" s="3">
-        <v>6218100</v>
+        <v>5975400</v>
       </c>
       <c r="I62" s="3">
-        <v>4218000</v>
+        <v>4053400</v>
       </c>
       <c r="J62" s="3">
-        <v>4154700</v>
+        <v>3992600</v>
       </c>
       <c r="K62" s="3">
         <v>4366900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35814800</v>
+        <v>34417300</v>
       </c>
       <c r="E66" s="3">
-        <v>36878700</v>
+        <v>35439600</v>
       </c>
       <c r="F66" s="3">
-        <v>29529300</v>
+        <v>28377000</v>
       </c>
       <c r="G66" s="3">
-        <v>28906600</v>
+        <v>27778600</v>
       </c>
       <c r="H66" s="3">
-        <v>28599300</v>
+        <v>27483400</v>
       </c>
       <c r="I66" s="3">
-        <v>22468500</v>
+        <v>21591700</v>
       </c>
       <c r="J66" s="3">
-        <v>23985900</v>
+        <v>23049900</v>
       </c>
       <c r="K66" s="3">
         <v>25210900</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12234800</v>
+        <v>-11757400</v>
       </c>
       <c r="E72" s="3">
-        <v>-8451600</v>
+        <v>-8121800</v>
       </c>
       <c r="F72" s="3">
-        <v>-1015100</v>
+        <v>-975500</v>
       </c>
       <c r="G72" s="3">
-        <v>-1335800</v>
+        <v>-1283700</v>
       </c>
       <c r="H72" s="3">
-        <v>-4364400</v>
+        <v>-4194100</v>
       </c>
       <c r="I72" s="3">
-        <v>322800</v>
+        <v>310200</v>
       </c>
       <c r="J72" s="3">
-        <v>-471200</v>
+        <v>-452800</v>
       </c>
       <c r="K72" s="3">
         <v>-495300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3968900</v>
+        <v>-3814100</v>
       </c>
       <c r="E76" s="3">
-        <v>-5553800</v>
+        <v>-5337100</v>
       </c>
       <c r="F76" s="3">
-        <v>2370600</v>
+        <v>2278100</v>
       </c>
       <c r="G76" s="3">
-        <v>1853700</v>
+        <v>1781400</v>
       </c>
       <c r="H76" s="3">
-        <v>2499300</v>
+        <v>2401700</v>
       </c>
       <c r="I76" s="3">
-        <v>1332700</v>
+        <v>1280700</v>
       </c>
       <c r="J76" s="3">
-        <v>233500</v>
+        <v>224400</v>
       </c>
       <c r="K76" s="3">
         <v>245500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3573500</v>
+        <v>-3434000</v>
       </c>
       <c r="E81" s="3">
-        <v>-7369100</v>
+        <v>-7081500</v>
       </c>
       <c r="F81" s="3">
-        <v>283300</v>
+        <v>272300</v>
       </c>
       <c r="G81" s="3">
-        <v>410000</v>
+        <v>394000</v>
       </c>
       <c r="H81" s="3">
-        <v>143200</v>
+        <v>137600</v>
       </c>
       <c r="I81" s="3">
-        <v>822000</v>
+        <v>789900</v>
       </c>
       <c r="J81" s="3">
-        <v>103800</v>
+        <v>99700</v>
       </c>
       <c r="K81" s="3">
         <v>-245500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2460900</v>
+        <v>2364800</v>
       </c>
       <c r="E83" s="3">
-        <v>2967400</v>
+        <v>2851600</v>
       </c>
       <c r="F83" s="3">
-        <v>3100200</v>
+        <v>2979200</v>
       </c>
       <c r="G83" s="3">
-        <v>2997500</v>
+        <v>2880500</v>
       </c>
       <c r="H83" s="3">
-        <v>2947600</v>
+        <v>2832600</v>
       </c>
       <c r="I83" s="3">
-        <v>1728100</v>
+        <v>1660700</v>
       </c>
       <c r="J83" s="3">
-        <v>1693900</v>
+        <v>1627800</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1592100</v>
+        <v>1530000</v>
       </c>
       <c r="E89" s="3">
-        <v>-2933100</v>
+        <v>-2818700</v>
       </c>
       <c r="F89" s="3">
-        <v>4042600</v>
+        <v>3884900</v>
       </c>
       <c r="G89" s="3">
-        <v>3941900</v>
+        <v>3788100</v>
       </c>
       <c r="H89" s="3">
-        <v>4254400</v>
+        <v>4088300</v>
       </c>
       <c r="I89" s="3">
-        <v>2323900</v>
+        <v>2233200</v>
       </c>
       <c r="J89" s="3">
-        <v>1972000</v>
+        <v>1895100</v>
       </c>
       <c r="K89" s="3">
         <v>1110500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2285500</v>
+        <v>-2196300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2178600</v>
+        <v>-2093500</v>
       </c>
       <c r="F91" s="3">
-        <v>-3499800</v>
+        <v>-3363200</v>
       </c>
       <c r="G91" s="3">
-        <v>-5560000</v>
+        <v>-5343100</v>
       </c>
       <c r="H91" s="3">
-        <v>-2410000</v>
+        <v>-2316000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1987600</v>
+        <v>-1910000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3293300</v>
+        <v>-3164800</v>
       </c>
       <c r="K91" s="3">
         <v>-1561100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1286000</v>
+        <v>-1235800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1643000</v>
+        <v>-1578900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3443800</v>
+        <v>-3309400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2806500</v>
+        <v>-2697000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2794000</v>
+        <v>-2685000</v>
       </c>
       <c r="I94" s="3">
-        <v>-754600</v>
+        <v>-725100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1206000</v>
+        <v>-1159000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-79900</v>
+        <v>-76800</v>
       </c>
       <c r="E100" s="3">
-        <v>7417900</v>
+        <v>7128400</v>
       </c>
       <c r="F100" s="3">
-        <v>-463900</v>
+        <v>-445800</v>
       </c>
       <c r="G100" s="3">
-        <v>-2270900</v>
+        <v>-2182300</v>
       </c>
       <c r="H100" s="3">
-        <v>-664300</v>
+        <v>-638300</v>
       </c>
       <c r="I100" s="3">
-        <v>-692300</v>
+        <v>-665300</v>
       </c>
       <c r="J100" s="3">
-        <v>-523100</v>
+        <v>-502700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="E101" s="3">
-        <v>-28000</v>
+        <v>-26900</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="H101" s="3">
-        <v>-34300</v>
+        <v>-32900</v>
       </c>
       <c r="I101" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="J101" s="3">
-        <v>-44600</v>
+        <v>-42900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>240800</v>
+        <v>231400</v>
       </c>
       <c r="E102" s="3">
-        <v>2813700</v>
+        <v>2704000</v>
       </c>
       <c r="F102" s="3">
-        <v>136000</v>
+        <v>130700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1128200</v>
+        <v>-1084200</v>
       </c>
       <c r="H102" s="3">
-        <v>761800</v>
+        <v>732100</v>
       </c>
       <c r="I102" s="3">
-        <v>863500</v>
+        <v>829800</v>
       </c>
       <c r="J102" s="3">
-        <v>198200</v>
+        <v>190500</v>
       </c>
       <c r="K102" s="3">
         <v>-663300</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14277800</v>
+        <v>14612800</v>
       </c>
       <c r="E8" s="3">
-        <v>11059200</v>
+        <v>11318600</v>
       </c>
       <c r="F8" s="3">
-        <v>27118300</v>
+        <v>27754500</v>
       </c>
       <c r="G8" s="3">
-        <v>26158800</v>
+        <v>26772500</v>
       </c>
       <c r="H8" s="3">
-        <v>25799700</v>
+        <v>26405000</v>
       </c>
       <c r="I8" s="3">
-        <v>24781400</v>
+        <v>25362800</v>
       </c>
       <c r="J8" s="3">
-        <v>25624200</v>
+        <v>26225400</v>
       </c>
       <c r="K8" s="3">
         <v>27196400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7717900</v>
+        <v>7899000</v>
       </c>
       <c r="E9" s="3">
-        <v>7032700</v>
+        <v>7197700</v>
       </c>
       <c r="F9" s="3">
-        <v>13724200</v>
+        <v>14046200</v>
       </c>
       <c r="G9" s="3">
-        <v>12887400</v>
+        <v>13189800</v>
       </c>
       <c r="H9" s="3">
-        <v>13392100</v>
+        <v>13706300</v>
       </c>
       <c r="I9" s="3">
-        <v>14393500</v>
+        <v>14731200</v>
       </c>
       <c r="J9" s="3">
-        <v>15968400</v>
+        <v>16343000</v>
       </c>
       <c r="K9" s="3">
         <v>16660400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6559900</v>
+        <v>6713800</v>
       </c>
       <c r="E10" s="3">
-        <v>4026500</v>
+        <v>4121000</v>
       </c>
       <c r="F10" s="3">
-        <v>13394100</v>
+        <v>13708300</v>
       </c>
       <c r="G10" s="3">
-        <v>13271400</v>
+        <v>13582800</v>
       </c>
       <c r="H10" s="3">
-        <v>12407700</v>
+        <v>12698800</v>
       </c>
       <c r="I10" s="3">
-        <v>10387900</v>
+        <v>10631600</v>
       </c>
       <c r="J10" s="3">
-        <v>9655800</v>
+        <v>9882400</v>
       </c>
       <c r="K10" s="3">
         <v>10536000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>725100</v>
+        <v>742100</v>
       </c>
       <c r="E14" s="3">
-        <v>1543000</v>
+        <v>1579200</v>
       </c>
       <c r="F14" s="3">
-        <v>152600</v>
+        <v>156200</v>
       </c>
       <c r="G14" s="3">
-        <v>23900</v>
+        <v>24500</v>
       </c>
       <c r="H14" s="3">
-        <v>1920000</v>
+        <v>1965000</v>
       </c>
       <c r="I14" s="3">
-        <v>143600</v>
+        <v>147000</v>
       </c>
       <c r="J14" s="3">
-        <v>139600</v>
+        <v>142900</v>
       </c>
       <c r="K14" s="3">
         <v>-756000</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2506500</v>
+        <v>2565300</v>
       </c>
       <c r="E15" s="3">
-        <v>2728900</v>
+        <v>2792900</v>
       </c>
       <c r="F15" s="3">
-        <v>2933400</v>
+        <v>3002200</v>
       </c>
       <c r="G15" s="3">
-        <v>2862500</v>
+        <v>2929700</v>
       </c>
       <c r="H15" s="3">
-        <v>2748800</v>
+        <v>2813300</v>
       </c>
       <c r="I15" s="3">
-        <v>1566900</v>
+        <v>1603700</v>
       </c>
       <c r="J15" s="3">
-        <v>1568900</v>
+        <v>1605700</v>
       </c>
       <c r="K15" s="3">
         <v>1733500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16803200</v>
+        <v>17197400</v>
       </c>
       <c r="E17" s="3">
-        <v>17073500</v>
+        <v>17474100</v>
       </c>
       <c r="F17" s="3">
-        <v>26110900</v>
+        <v>26723500</v>
       </c>
       <c r="G17" s="3">
-        <v>24769400</v>
+        <v>25350500</v>
       </c>
       <c r="H17" s="3">
-        <v>25783800</v>
+        <v>26388700</v>
       </c>
       <c r="I17" s="3">
-        <v>23676300</v>
+        <v>24231800</v>
       </c>
       <c r="J17" s="3">
-        <v>24541000</v>
+        <v>25116800</v>
       </c>
       <c r="K17" s="3">
         <v>26370600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2525400</v>
+        <v>-2584700</v>
       </c>
       <c r="E18" s="3">
-        <v>-6014300</v>
+        <v>-6155400</v>
       </c>
       <c r="F18" s="3">
-        <v>1007400</v>
+        <v>1031000</v>
       </c>
       <c r="G18" s="3">
-        <v>1389400</v>
+        <v>1422000</v>
       </c>
       <c r="H18" s="3">
-        <v>16000</v>
+        <v>16300</v>
       </c>
       <c r="I18" s="3">
-        <v>1105100</v>
+        <v>1131000</v>
       </c>
       <c r="J18" s="3">
-        <v>1083200</v>
+        <v>1108600</v>
       </c>
       <c r="K18" s="3">
         <v>825800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-474800</v>
+        <v>-485900</v>
       </c>
       <c r="E20" s="3">
-        <v>-511700</v>
+        <v>-523700</v>
       </c>
       <c r="F20" s="3">
-        <v>-255300</v>
+        <v>-261300</v>
       </c>
       <c r="G20" s="3">
-        <v>-327100</v>
+        <v>-334800</v>
       </c>
       <c r="H20" s="3">
-        <v>615400</v>
+        <v>629800</v>
       </c>
       <c r="I20" s="3">
-        <v>-55900</v>
+        <v>-57200</v>
       </c>
       <c r="J20" s="3">
-        <v>-634300</v>
+        <v>-649200</v>
       </c>
       <c r="K20" s="3">
         <v>-441800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-637500</v>
+        <v>-697000</v>
       </c>
       <c r="E21" s="3">
-        <v>-3677000</v>
+        <v>-3816900</v>
       </c>
       <c r="F21" s="3">
-        <v>3728600</v>
+        <v>3760000</v>
       </c>
       <c r="G21" s="3">
-        <v>3940100</v>
+        <v>3978300</v>
       </c>
       <c r="H21" s="3">
-        <v>3461400</v>
+        <v>3489300</v>
       </c>
       <c r="I21" s="3">
-        <v>2708400</v>
+        <v>2740700</v>
       </c>
       <c r="J21" s="3">
-        <v>2075100</v>
+        <v>2093200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>539600</v>
+        <v>552300</v>
       </c>
       <c r="E22" s="3">
-        <v>413900</v>
+        <v>423600</v>
       </c>
       <c r="F22" s="3">
-        <v>406900</v>
+        <v>416500</v>
       </c>
       <c r="G22" s="3">
-        <v>432900</v>
+        <v>443000</v>
       </c>
       <c r="H22" s="3">
-        <v>502700</v>
+        <v>514500</v>
       </c>
       <c r="I22" s="3">
-        <v>228400</v>
+        <v>233800</v>
       </c>
       <c r="J22" s="3">
-        <v>283300</v>
+        <v>289900</v>
       </c>
       <c r="K22" s="3">
         <v>360000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3539800</v>
+        <v>-3622800</v>
       </c>
       <c r="E23" s="3">
-        <v>-6939900</v>
+        <v>-7102700</v>
       </c>
       <c r="F23" s="3">
-        <v>345100</v>
+        <v>353200</v>
       </c>
       <c r="G23" s="3">
-        <v>629400</v>
+        <v>644100</v>
       </c>
       <c r="H23" s="3">
-        <v>128700</v>
+        <v>131700</v>
       </c>
       <c r="I23" s="3">
-        <v>820900</v>
+        <v>840100</v>
       </c>
       <c r="J23" s="3">
-        <v>165600</v>
+        <v>169500</v>
       </c>
       <c r="K23" s="3">
         <v>24000</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-281300</v>
+        <v>-287900</v>
       </c>
       <c r="E24" s="3">
-        <v>88800</v>
+        <v>90900</v>
       </c>
       <c r="F24" s="3">
-        <v>75800</v>
+        <v>77600</v>
       </c>
       <c r="G24" s="3">
-        <v>223400</v>
+        <v>228700</v>
       </c>
       <c r="H24" s="3">
-        <v>-20900</v>
+        <v>-21400</v>
       </c>
       <c r="I24" s="3">
-        <v>293200</v>
+        <v>300100</v>
       </c>
       <c r="J24" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="K24" s="3">
         <v>212700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3258500</v>
+        <v>-3335000</v>
       </c>
       <c r="E26" s="3">
-        <v>-7028700</v>
+        <v>-7193600</v>
       </c>
       <c r="F26" s="3">
-        <v>269300</v>
+        <v>275600</v>
       </c>
       <c r="G26" s="3">
-        <v>405900</v>
+        <v>415500</v>
       </c>
       <c r="H26" s="3">
-        <v>149600</v>
+        <v>153100</v>
       </c>
       <c r="I26" s="3">
-        <v>527600</v>
+        <v>540000</v>
       </c>
       <c r="J26" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="K26" s="3">
         <v>-188700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3434000</v>
+        <v>-3514600</v>
       </c>
       <c r="E27" s="3">
-        <v>-7081500</v>
+        <v>-7247700</v>
       </c>
       <c r="F27" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="G27" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="H27" s="3">
-        <v>145600</v>
+        <v>149000</v>
       </c>
       <c r="I27" s="3">
-        <v>520600</v>
+        <v>532900</v>
       </c>
       <c r="J27" s="3">
-        <v>73800</v>
+        <v>75500</v>
       </c>
       <c r="K27" s="3">
         <v>-241100</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-8000</v>
+        <v>-8200</v>
       </c>
       <c r="I29" s="3">
-        <v>269300</v>
+        <v>275600</v>
       </c>
       <c r="J29" s="3">
-        <v>25900</v>
+        <v>26500</v>
       </c>
       <c r="K29" s="3">
         <v>-4400</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>474800</v>
+        <v>485900</v>
       </c>
       <c r="E32" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="F32" s="3">
-        <v>255300</v>
+        <v>261300</v>
       </c>
       <c r="G32" s="3">
-        <v>327100</v>
+        <v>334800</v>
       </c>
       <c r="H32" s="3">
-        <v>-615400</v>
+        <v>-629800</v>
       </c>
       <c r="I32" s="3">
-        <v>55900</v>
+        <v>57200</v>
       </c>
       <c r="J32" s="3">
-        <v>634300</v>
+        <v>649200</v>
       </c>
       <c r="K32" s="3">
         <v>441800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3434000</v>
+        <v>-3514600</v>
       </c>
       <c r="E33" s="3">
-        <v>-7081500</v>
+        <v>-7247700</v>
       </c>
       <c r="F33" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="G33" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="H33" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="I33" s="3">
-        <v>789900</v>
+        <v>808500</v>
       </c>
       <c r="J33" s="3">
-        <v>99700</v>
+        <v>102100</v>
       </c>
       <c r="K33" s="3">
         <v>-245500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3434000</v>
+        <v>-3514600</v>
       </c>
       <c r="E35" s="3">
-        <v>-7081500</v>
+        <v>-7247700</v>
       </c>
       <c r="F35" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="G35" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="H35" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="I35" s="3">
-        <v>789900</v>
+        <v>808500</v>
       </c>
       <c r="J35" s="3">
-        <v>99700</v>
+        <v>102100</v>
       </c>
       <c r="K35" s="3">
         <v>-245500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6640700</v>
+        <v>6796500</v>
       </c>
       <c r="E41" s="3">
-        <v>6406300</v>
+        <v>6556600</v>
       </c>
       <c r="F41" s="3">
-        <v>3705300</v>
+        <v>3792300</v>
       </c>
       <c r="G41" s="3">
-        <v>3575700</v>
+        <v>3659600</v>
       </c>
       <c r="H41" s="3">
-        <v>9322700</v>
+        <v>9541400</v>
       </c>
       <c r="I41" s="3">
-        <v>3927800</v>
+        <v>4019900</v>
       </c>
       <c r="J41" s="3">
-        <v>3095900</v>
+        <v>3168600</v>
       </c>
       <c r="K41" s="3">
         <v>3386200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>482700</v>
+        <v>494100</v>
       </c>
       <c r="E42" s="3">
-        <v>605400</v>
+        <v>619600</v>
       </c>
       <c r="F42" s="3">
-        <v>797900</v>
+        <v>816600</v>
       </c>
       <c r="G42" s="3">
-        <v>324200</v>
+        <v>331800</v>
       </c>
       <c r="H42" s="3">
-        <v>419900</v>
+        <v>429800</v>
       </c>
       <c r="I42" s="3">
-        <v>129700</v>
+        <v>132700</v>
       </c>
       <c r="J42" s="3">
-        <v>964500</v>
+        <v>987100</v>
       </c>
       <c r="K42" s="3">
         <v>1054900</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2178300</v>
+        <v>2229400</v>
       </c>
       <c r="E43" s="3">
-        <v>1937000</v>
+        <v>1982400</v>
       </c>
       <c r="F43" s="3">
-        <v>2702000</v>
+        <v>2765300</v>
       </c>
       <c r="G43" s="3">
-        <v>2685000</v>
+        <v>2748000</v>
       </c>
       <c r="H43" s="3">
-        <v>4759600</v>
+        <v>4871300</v>
       </c>
       <c r="I43" s="3">
-        <v>2255100</v>
+        <v>2308000</v>
       </c>
       <c r="J43" s="3">
-        <v>2219200</v>
+        <v>2271300</v>
       </c>
       <c r="K43" s="3">
         <v>2427300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>565500</v>
+        <v>578800</v>
       </c>
       <c r="E44" s="3">
-        <v>541600</v>
+        <v>554300</v>
       </c>
       <c r="F44" s="3">
-        <v>735100</v>
+        <v>752300</v>
       </c>
       <c r="G44" s="3">
-        <v>631400</v>
+        <v>646200</v>
       </c>
       <c r="H44" s="3">
-        <v>1111100</v>
+        <v>1137200</v>
       </c>
       <c r="I44" s="3">
-        <v>564500</v>
+        <v>577800</v>
       </c>
       <c r="J44" s="3">
-        <v>530600</v>
+        <v>543100</v>
       </c>
       <c r="K44" s="3">
         <v>580400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>833800</v>
+        <v>853400</v>
       </c>
       <c r="E45" s="3">
-        <v>379000</v>
+        <v>387900</v>
       </c>
       <c r="F45" s="3">
-        <v>576500</v>
+        <v>590000</v>
       </c>
       <c r="G45" s="3">
-        <v>562500</v>
+        <v>575700</v>
       </c>
       <c r="H45" s="3">
-        <v>2035700</v>
+        <v>2083500</v>
       </c>
       <c r="I45" s="3">
-        <v>710100</v>
+        <v>726800</v>
       </c>
       <c r="J45" s="3">
-        <v>715100</v>
+        <v>731900</v>
       </c>
       <c r="K45" s="3">
         <v>782200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10701100</v>
+        <v>10952200</v>
       </c>
       <c r="E46" s="3">
-        <v>9869300</v>
+        <v>10100800</v>
       </c>
       <c r="F46" s="3">
-        <v>8516800</v>
+        <v>8716600</v>
       </c>
       <c r="G46" s="3">
-        <v>7778700</v>
+        <v>7961200</v>
       </c>
       <c r="H46" s="3">
-        <v>9034400</v>
+        <v>9246400</v>
       </c>
       <c r="I46" s="3">
-        <v>7587200</v>
+        <v>7765200</v>
       </c>
       <c r="J46" s="3">
-        <v>7525400</v>
+        <v>7701900</v>
       </c>
       <c r="K46" s="3">
         <v>8230900</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1057200</v>
+        <v>1082000</v>
       </c>
       <c r="E47" s="3">
-        <v>1030300</v>
+        <v>1054500</v>
       </c>
       <c r="F47" s="3">
-        <v>1402300</v>
+        <v>1435200</v>
       </c>
       <c r="G47" s="3">
-        <v>1804300</v>
+        <v>1846600</v>
       </c>
       <c r="H47" s="3">
-        <v>1571900</v>
+        <v>1608800</v>
       </c>
       <c r="I47" s="3">
-        <v>1396400</v>
+        <v>1429100</v>
       </c>
       <c r="J47" s="3">
-        <v>1342500</v>
+        <v>1374000</v>
       </c>
       <c r="K47" s="3">
         <v>1468400</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16971800</v>
+        <v>17369900</v>
       </c>
       <c r="E48" s="3">
-        <v>17212100</v>
+        <v>17615900</v>
       </c>
       <c r="F48" s="3">
-        <v>18040000</v>
+        <v>18463200</v>
       </c>
       <c r="G48" s="3">
-        <v>17429600</v>
+        <v>17838500</v>
       </c>
       <c r="H48" s="3">
-        <v>34920000</v>
+        <v>35739200</v>
       </c>
       <c r="I48" s="3">
-        <v>10571400</v>
+        <v>10819500</v>
       </c>
       <c r="J48" s="3">
-        <v>10385900</v>
+        <v>10629600</v>
       </c>
       <c r="K48" s="3">
         <v>11359600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1453200</v>
+        <v>1487300</v>
       </c>
       <c r="E49" s="3">
-        <v>1441200</v>
+        <v>1475100</v>
       </c>
       <c r="F49" s="3">
-        <v>1518000</v>
+        <v>1553700</v>
       </c>
       <c r="G49" s="3">
-        <v>1407300</v>
+        <v>1440300</v>
       </c>
       <c r="H49" s="3">
-        <v>2669000</v>
+        <v>2731700</v>
       </c>
       <c r="I49" s="3">
-        <v>1280700</v>
+        <v>1310700</v>
       </c>
       <c r="J49" s="3">
-        <v>1261700</v>
+        <v>1291300</v>
       </c>
       <c r="K49" s="3">
         <v>1380000</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>419900</v>
+        <v>429800</v>
       </c>
       <c r="E52" s="3">
-        <v>553600</v>
+        <v>566500</v>
       </c>
       <c r="F52" s="3">
-        <v>1177900</v>
+        <v>1205600</v>
       </c>
       <c r="G52" s="3">
-        <v>1140000</v>
+        <v>1166800</v>
       </c>
       <c r="H52" s="3">
-        <v>1448200</v>
+        <v>1482200</v>
       </c>
       <c r="I52" s="3">
-        <v>2036700</v>
+        <v>2084500</v>
       </c>
       <c r="J52" s="3">
-        <v>2758800</v>
+        <v>2823500</v>
       </c>
       <c r="K52" s="3">
         <v>3017500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30603200</v>
+        <v>31321200</v>
       </c>
       <c r="E54" s="3">
-        <v>30102500</v>
+        <v>30808800</v>
       </c>
       <c r="F54" s="3">
-        <v>30655100</v>
+        <v>31374300</v>
       </c>
       <c r="G54" s="3">
-        <v>29559900</v>
+        <v>30253400</v>
       </c>
       <c r="H54" s="3">
-        <v>29885100</v>
+        <v>30586200</v>
       </c>
       <c r="I54" s="3">
-        <v>22872400</v>
+        <v>23409000</v>
       </c>
       <c r="J54" s="3">
-        <v>23274300</v>
+        <v>23820400</v>
       </c>
       <c r="K54" s="3">
         <v>25456400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1845200</v>
+        <v>1888500</v>
       </c>
       <c r="E57" s="3">
-        <v>1431300</v>
+        <v>1464800</v>
       </c>
       <c r="F57" s="3">
-        <v>2372800</v>
+        <v>2428500</v>
       </c>
       <c r="G57" s="3">
-        <v>2447600</v>
+        <v>2505000</v>
       </c>
       <c r="H57" s="3">
-        <v>2358900</v>
+        <v>2414200</v>
       </c>
       <c r="I57" s="3">
-        <v>2352900</v>
+        <v>2408100</v>
       </c>
       <c r="J57" s="3">
-        <v>2388800</v>
+        <v>2444800</v>
       </c>
       <c r="K57" s="3">
         <v>2612700</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1912000</v>
+        <v>1956900</v>
       </c>
       <c r="E58" s="3">
-        <v>2045700</v>
+        <v>2093700</v>
       </c>
       <c r="F58" s="3">
-        <v>1750400</v>
+        <v>1791500</v>
       </c>
       <c r="G58" s="3">
-        <v>1750400</v>
+        <v>1791500</v>
       </c>
       <c r="H58" s="3">
-        <v>3670400</v>
+        <v>3756500</v>
       </c>
       <c r="I58" s="3">
-        <v>934600</v>
+        <v>956500</v>
       </c>
       <c r="J58" s="3">
-        <v>1920000</v>
+        <v>1965000</v>
       </c>
       <c r="K58" s="3">
         <v>2100000</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7938300</v>
+        <v>8124500</v>
       </c>
       <c r="E59" s="3">
-        <v>8270400</v>
+        <v>8464500</v>
       </c>
       <c r="F59" s="3">
-        <v>8492900</v>
+        <v>8692100</v>
       </c>
       <c r="G59" s="3">
-        <v>8111900</v>
+        <v>8302200</v>
       </c>
       <c r="H59" s="3">
-        <v>10604400</v>
+        <v>10853100</v>
       </c>
       <c r="I59" s="3">
-        <v>6827200</v>
+        <v>6987400</v>
       </c>
       <c r="J59" s="3">
-        <v>7659000</v>
+        <v>7838700</v>
       </c>
       <c r="K59" s="3">
         <v>8377100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11695500</v>
+        <v>11969900</v>
       </c>
       <c r="E60" s="3">
-        <v>11747400</v>
+        <v>12023000</v>
       </c>
       <c r="F60" s="3">
-        <v>12616100</v>
+        <v>12912100</v>
       </c>
       <c r="G60" s="3">
-        <v>12309900</v>
+        <v>12598700</v>
       </c>
       <c r="H60" s="3">
-        <v>12022700</v>
+        <v>12304700</v>
       </c>
       <c r="I60" s="3">
-        <v>10114600</v>
+        <v>10351900</v>
       </c>
       <c r="J60" s="3">
-        <v>11967800</v>
+        <v>12248600</v>
       </c>
       <c r="K60" s="3">
         <v>13089800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14160100</v>
+        <v>14492300</v>
       </c>
       <c r="E61" s="3">
-        <v>16552900</v>
+        <v>16941200</v>
       </c>
       <c r="F61" s="3">
-        <v>9395500</v>
+        <v>9615900</v>
       </c>
       <c r="G61" s="3">
-        <v>9253900</v>
+        <v>9471000</v>
       </c>
       <c r="H61" s="3">
-        <v>9833400</v>
+        <v>10064100</v>
       </c>
       <c r="I61" s="3">
-        <v>7411700</v>
+        <v>7585600</v>
       </c>
       <c r="J61" s="3">
-        <v>7041600</v>
+        <v>7206800</v>
       </c>
       <c r="K61" s="3">
         <v>7701800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8553700</v>
+        <v>8754400</v>
       </c>
       <c r="E62" s="3">
-        <v>7130400</v>
+        <v>7297700</v>
       </c>
       <c r="F62" s="3">
-        <v>6350400</v>
+        <v>6499400</v>
       </c>
       <c r="G62" s="3">
-        <v>6202800</v>
+        <v>6348400</v>
       </c>
       <c r="H62" s="3">
-        <v>5975400</v>
+        <v>6115600</v>
       </c>
       <c r="I62" s="3">
-        <v>4053400</v>
+        <v>4148500</v>
       </c>
       <c r="J62" s="3">
-        <v>3992600</v>
+        <v>4086300</v>
       </c>
       <c r="K62" s="3">
         <v>4366900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34417300</v>
+        <v>35224700</v>
       </c>
       <c r="E66" s="3">
-        <v>35439600</v>
+        <v>36271100</v>
       </c>
       <c r="F66" s="3">
-        <v>28377000</v>
+        <v>29042800</v>
       </c>
       <c r="G66" s="3">
-        <v>27778600</v>
+        <v>28430300</v>
       </c>
       <c r="H66" s="3">
-        <v>27483400</v>
+        <v>28128100</v>
       </c>
       <c r="I66" s="3">
-        <v>21591700</v>
+        <v>22098300</v>
       </c>
       <c r="J66" s="3">
-        <v>23049900</v>
+        <v>23590700</v>
       </c>
       <c r="K66" s="3">
         <v>25210900</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-11757400</v>
+        <v>-12033200</v>
       </c>
       <c r="E72" s="3">
-        <v>-8121800</v>
+        <v>-8312400</v>
       </c>
       <c r="F72" s="3">
-        <v>-975500</v>
+        <v>-998300</v>
       </c>
       <c r="G72" s="3">
-        <v>-1283700</v>
+        <v>-1313800</v>
       </c>
       <c r="H72" s="3">
-        <v>-4194100</v>
+        <v>-4292500</v>
       </c>
       <c r="I72" s="3">
-        <v>310200</v>
+        <v>317500</v>
       </c>
       <c r="J72" s="3">
-        <v>-452800</v>
+        <v>-463400</v>
       </c>
       <c r="K72" s="3">
         <v>-495300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3814100</v>
+        <v>-3903500</v>
       </c>
       <c r="E76" s="3">
-        <v>-5337100</v>
+        <v>-5462300</v>
       </c>
       <c r="F76" s="3">
-        <v>2278100</v>
+        <v>2331500</v>
       </c>
       <c r="G76" s="3">
-        <v>1781400</v>
+        <v>1823100</v>
       </c>
       <c r="H76" s="3">
-        <v>2401700</v>
+        <v>2458100</v>
       </c>
       <c r="I76" s="3">
-        <v>1280700</v>
+        <v>1310700</v>
       </c>
       <c r="J76" s="3">
-        <v>224400</v>
+        <v>229700</v>
       </c>
       <c r="K76" s="3">
         <v>245500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3434000</v>
+        <v>-3514600</v>
       </c>
       <c r="E81" s="3">
-        <v>-7081500</v>
+        <v>-7247700</v>
       </c>
       <c r="F81" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="G81" s="3">
-        <v>394000</v>
+        <v>403200</v>
       </c>
       <c r="H81" s="3">
-        <v>137600</v>
+        <v>140900</v>
       </c>
       <c r="I81" s="3">
-        <v>789900</v>
+        <v>808500</v>
       </c>
       <c r="J81" s="3">
-        <v>99700</v>
+        <v>102100</v>
       </c>
       <c r="K81" s="3">
         <v>-245500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2364800</v>
+        <v>2420300</v>
       </c>
       <c r="E83" s="3">
-        <v>2851600</v>
+        <v>2918500</v>
       </c>
       <c r="F83" s="3">
-        <v>2979200</v>
+        <v>3049100</v>
       </c>
       <c r="G83" s="3">
-        <v>2880500</v>
+        <v>2948100</v>
       </c>
       <c r="H83" s="3">
-        <v>2832600</v>
+        <v>2899100</v>
       </c>
       <c r="I83" s="3">
-        <v>1660700</v>
+        <v>1699600</v>
       </c>
       <c r="J83" s="3">
-        <v>1627800</v>
+        <v>1665900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1530000</v>
+        <v>1565900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2818700</v>
+        <v>-2884800</v>
       </c>
       <c r="F89" s="3">
-        <v>3884900</v>
+        <v>3976000</v>
       </c>
       <c r="G89" s="3">
-        <v>3788100</v>
+        <v>3877000</v>
       </c>
       <c r="H89" s="3">
-        <v>4088300</v>
+        <v>4184300</v>
       </c>
       <c r="I89" s="3">
-        <v>2233200</v>
+        <v>2285600</v>
       </c>
       <c r="J89" s="3">
-        <v>1895100</v>
+        <v>1939500</v>
       </c>
       <c r="K89" s="3">
         <v>1110500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2196300</v>
+        <v>-2247800</v>
       </c>
       <c r="E91" s="3">
-        <v>-2093500</v>
+        <v>-2142700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3363200</v>
+        <v>-3442100</v>
       </c>
       <c r="G91" s="3">
-        <v>-5343100</v>
+        <v>-5468400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2316000</v>
+        <v>-2370300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1910000</v>
+        <v>-1954800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3164800</v>
+        <v>-3239000</v>
       </c>
       <c r="K91" s="3">
         <v>-1561100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1235800</v>
+        <v>-1264800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1578900</v>
+        <v>-1615900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3309400</v>
+        <v>-3387000</v>
       </c>
       <c r="G94" s="3">
-        <v>-2697000</v>
+        <v>-2760200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2685000</v>
+        <v>-2748000</v>
       </c>
       <c r="I94" s="3">
-        <v>-725100</v>
+        <v>-742100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1159000</v>
+        <v>-1186200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-76800</v>
+        <v>-78600</v>
       </c>
       <c r="E100" s="3">
-        <v>7128400</v>
+        <v>7295700</v>
       </c>
       <c r="F100" s="3">
-        <v>-445800</v>
+        <v>-456300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2182300</v>
+        <v>-2233500</v>
       </c>
       <c r="H100" s="3">
-        <v>-638300</v>
+        <v>-653300</v>
       </c>
       <c r="I100" s="3">
-        <v>-665300</v>
+        <v>-680900</v>
       </c>
       <c r="J100" s="3">
-        <v>-502700</v>
+        <v>-514500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="E101" s="3">
-        <v>-26900</v>
+        <v>-27600</v>
       </c>
       <c r="F101" s="3">
         <v>1000</v>
       </c>
       <c r="G101" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="H101" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="I101" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="J101" s="3">
-        <v>-42900</v>
+        <v>-43900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>231400</v>
+        <v>236800</v>
       </c>
       <c r="E102" s="3">
-        <v>2704000</v>
+        <v>2767400</v>
       </c>
       <c r="F102" s="3">
-        <v>130700</v>
+        <v>133700</v>
       </c>
       <c r="G102" s="3">
-        <v>-1084200</v>
+        <v>-1109600</v>
       </c>
       <c r="H102" s="3">
-        <v>732100</v>
+        <v>749300</v>
       </c>
       <c r="I102" s="3">
-        <v>829800</v>
+        <v>849300</v>
       </c>
       <c r="J102" s="3">
-        <v>190500</v>
+        <v>195000</v>
       </c>
       <c r="K102" s="3">
         <v>-663300</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -724,25 +724,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14612800</v>
+        <v>15145300</v>
       </c>
       <c r="E8" s="3">
-        <v>11318600</v>
+        <v>11731100</v>
       </c>
       <c r="F8" s="3">
-        <v>27754500</v>
+        <v>28766000</v>
       </c>
       <c r="G8" s="3">
-        <v>26772500</v>
+        <v>27748200</v>
       </c>
       <c r="H8" s="3">
-        <v>26405000</v>
+        <v>27367300</v>
       </c>
       <c r="I8" s="3">
-        <v>25362800</v>
+        <v>26287100</v>
       </c>
       <c r="J8" s="3">
-        <v>26225400</v>
+        <v>27181100</v>
       </c>
       <c r="K8" s="3">
         <v>27196400</v>
@@ -763,25 +763,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7899000</v>
+        <v>8186800</v>
       </c>
       <c r="E9" s="3">
-        <v>7197700</v>
+        <v>7460000</v>
       </c>
       <c r="F9" s="3">
-        <v>14046200</v>
+        <v>14558100</v>
       </c>
       <c r="G9" s="3">
-        <v>13189800</v>
+        <v>13670400</v>
       </c>
       <c r="H9" s="3">
-        <v>13706300</v>
+        <v>14205800</v>
       </c>
       <c r="I9" s="3">
-        <v>14731200</v>
+        <v>15268000</v>
       </c>
       <c r="J9" s="3">
-        <v>16343000</v>
+        <v>16938600</v>
       </c>
       <c r="K9" s="3">
         <v>16660400</v>
@@ -802,25 +802,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6713800</v>
+        <v>6958500</v>
       </c>
       <c r="E10" s="3">
-        <v>4121000</v>
+        <v>4271100</v>
       </c>
       <c r="F10" s="3">
-        <v>13708300</v>
+        <v>14207900</v>
       </c>
       <c r="G10" s="3">
-        <v>13582800</v>
+        <v>14077700</v>
       </c>
       <c r="H10" s="3">
-        <v>12698800</v>
+        <v>13161500</v>
       </c>
       <c r="I10" s="3">
-        <v>10631600</v>
+        <v>11019100</v>
       </c>
       <c r="J10" s="3">
-        <v>9882400</v>
+        <v>10242500</v>
       </c>
       <c r="K10" s="3">
         <v>10536000</v>
@@ -936,25 +936,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>742100</v>
+        <v>769200</v>
       </c>
       <c r="E14" s="3">
-        <v>1579200</v>
+        <v>1636700</v>
       </c>
       <c r="F14" s="3">
-        <v>156200</v>
+        <v>161900</v>
       </c>
       <c r="G14" s="3">
-        <v>24500</v>
+        <v>25400</v>
       </c>
       <c r="H14" s="3">
-        <v>1965000</v>
+        <v>2036700</v>
       </c>
       <c r="I14" s="3">
-        <v>147000</v>
+        <v>152400</v>
       </c>
       <c r="J14" s="3">
-        <v>142900</v>
+        <v>148100</v>
       </c>
       <c r="K14" s="3">
         <v>-756000</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2565300</v>
+        <v>2658800</v>
       </c>
       <c r="E15" s="3">
-        <v>2792900</v>
+        <v>2894700</v>
       </c>
       <c r="F15" s="3">
-        <v>3002200</v>
+        <v>3111600</v>
       </c>
       <c r="G15" s="3">
-        <v>2929700</v>
+        <v>3036500</v>
       </c>
       <c r="H15" s="3">
-        <v>2813300</v>
+        <v>2915800</v>
       </c>
       <c r="I15" s="3">
-        <v>1603700</v>
+        <v>1662100</v>
       </c>
       <c r="J15" s="3">
-        <v>1605700</v>
+        <v>1664200</v>
       </c>
       <c r="K15" s="3">
         <v>1733500</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17197400</v>
+        <v>17824100</v>
       </c>
       <c r="E17" s="3">
-        <v>17474100</v>
+        <v>18110800</v>
       </c>
       <c r="F17" s="3">
-        <v>26723500</v>
+        <v>27697400</v>
       </c>
       <c r="G17" s="3">
-        <v>25350500</v>
+        <v>26274400</v>
       </c>
       <c r="H17" s="3">
-        <v>26388700</v>
+        <v>27350400</v>
       </c>
       <c r="I17" s="3">
-        <v>24231800</v>
+        <v>25114800</v>
       </c>
       <c r="J17" s="3">
-        <v>25116800</v>
+        <v>26032100</v>
       </c>
       <c r="K17" s="3">
         <v>26370600</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2584700</v>
+        <v>-2678900</v>
       </c>
       <c r="E18" s="3">
-        <v>-6155400</v>
+        <v>-6379700</v>
       </c>
       <c r="F18" s="3">
-        <v>1031000</v>
+        <v>1068600</v>
       </c>
       <c r="G18" s="3">
-        <v>1422000</v>
+        <v>1473800</v>
       </c>
       <c r="H18" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I18" s="3">
-        <v>1131000</v>
+        <v>1172300</v>
       </c>
       <c r="J18" s="3">
-        <v>1108600</v>
+        <v>1149000</v>
       </c>
       <c r="K18" s="3">
         <v>825800</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-485900</v>
+        <v>-503600</v>
       </c>
       <c r="E20" s="3">
-        <v>-523700</v>
+        <v>-542800</v>
       </c>
       <c r="F20" s="3">
-        <v>-261300</v>
+        <v>-270800</v>
       </c>
       <c r="G20" s="3">
-        <v>-334800</v>
+        <v>-347000</v>
       </c>
       <c r="H20" s="3">
-        <v>629800</v>
+        <v>652800</v>
       </c>
       <c r="I20" s="3">
-        <v>-57200</v>
+        <v>-59200</v>
       </c>
       <c r="J20" s="3">
-        <v>-649200</v>
+        <v>-672900</v>
       </c>
       <c r="K20" s="3">
         <v>-441800</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-697000</v>
+        <v>-167900</v>
       </c>
       <c r="E21" s="3">
-        <v>-3816900</v>
+        <v>-3773000</v>
       </c>
       <c r="F21" s="3">
-        <v>3760000</v>
+        <v>3842800</v>
       </c>
       <c r="G21" s="3">
-        <v>3978300</v>
+        <v>4121300</v>
       </c>
       <c r="H21" s="3">
-        <v>3489300</v>
+        <v>2425300</v>
       </c>
       <c r="I21" s="3">
-        <v>2740700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2093200</v>
+        <v>2833800</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1201,25 +1201,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>552300</v>
+        <v>572400</v>
       </c>
       <c r="E22" s="3">
-        <v>423600</v>
+        <v>439100</v>
       </c>
       <c r="F22" s="3">
-        <v>416500</v>
+        <v>431700</v>
       </c>
       <c r="G22" s="3">
-        <v>443000</v>
+        <v>459200</v>
       </c>
       <c r="H22" s="3">
-        <v>514500</v>
+        <v>533200</v>
       </c>
       <c r="I22" s="3">
-        <v>233800</v>
+        <v>242300</v>
       </c>
       <c r="J22" s="3">
-        <v>289900</v>
+        <v>300500</v>
       </c>
       <c r="K22" s="3">
         <v>360000</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3622800</v>
+        <v>-3754800</v>
       </c>
       <c r="E23" s="3">
-        <v>-7102700</v>
+        <v>-7361600</v>
       </c>
       <c r="F23" s="3">
-        <v>353200</v>
+        <v>366100</v>
       </c>
       <c r="G23" s="3">
-        <v>644100</v>
+        <v>667600</v>
       </c>
       <c r="H23" s="3">
-        <v>131700</v>
+        <v>136500</v>
       </c>
       <c r="I23" s="3">
-        <v>840100</v>
+        <v>870700</v>
       </c>
       <c r="J23" s="3">
-        <v>169500</v>
+        <v>175600</v>
       </c>
       <c r="K23" s="3">
         <v>24000</v>
@@ -1279,25 +1279,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-287900</v>
+        <v>-298400</v>
       </c>
       <c r="E24" s="3">
-        <v>90900</v>
+        <v>94200</v>
       </c>
       <c r="F24" s="3">
-        <v>77600</v>
+        <v>80400</v>
       </c>
       <c r="G24" s="3">
-        <v>228700</v>
+        <v>237000</v>
       </c>
       <c r="H24" s="3">
-        <v>-21400</v>
+        <v>-22200</v>
       </c>
       <c r="I24" s="3">
-        <v>300100</v>
+        <v>311100</v>
       </c>
       <c r="J24" s="3">
-        <v>30600</v>
+        <v>31700</v>
       </c>
       <c r="K24" s="3">
         <v>212700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3335000</v>
+        <v>-3456500</v>
       </c>
       <c r="E26" s="3">
-        <v>-7193600</v>
+        <v>-7455700</v>
       </c>
       <c r="F26" s="3">
-        <v>275600</v>
+        <v>285700</v>
       </c>
       <c r="G26" s="3">
-        <v>415500</v>
+        <v>430600</v>
       </c>
       <c r="H26" s="3">
-        <v>153100</v>
+        <v>158700</v>
       </c>
       <c r="I26" s="3">
-        <v>540000</v>
+        <v>559700</v>
       </c>
       <c r="J26" s="3">
-        <v>138800</v>
+        <v>143900</v>
       </c>
       <c r="K26" s="3">
         <v>-188700</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3514600</v>
+        <v>-3642700</v>
       </c>
       <c r="E27" s="3">
-        <v>-7247700</v>
+        <v>-7511800</v>
       </c>
       <c r="F27" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="G27" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="H27" s="3">
-        <v>149000</v>
+        <v>154500</v>
       </c>
       <c r="I27" s="3">
-        <v>532900</v>
+        <v>552300</v>
       </c>
       <c r="J27" s="3">
-        <v>75500</v>
+        <v>78300</v>
       </c>
       <c r="K27" s="3">
         <v>-241100</v>
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-8200</v>
+        <v>-8500</v>
       </c>
       <c r="I29" s="3">
-        <v>275600</v>
+        <v>285700</v>
       </c>
       <c r="J29" s="3">
-        <v>26500</v>
+        <v>27500</v>
       </c>
       <c r="K29" s="3">
         <v>-4400</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>485900</v>
+        <v>503600</v>
       </c>
       <c r="E32" s="3">
-        <v>523700</v>
+        <v>542800</v>
       </c>
       <c r="F32" s="3">
-        <v>261300</v>
+        <v>270800</v>
       </c>
       <c r="G32" s="3">
-        <v>334800</v>
+        <v>347000</v>
       </c>
       <c r="H32" s="3">
-        <v>-629800</v>
+        <v>-652800</v>
       </c>
       <c r="I32" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="J32" s="3">
-        <v>649200</v>
+        <v>672900</v>
       </c>
       <c r="K32" s="3">
         <v>441800</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3514600</v>
+        <v>-3642700</v>
       </c>
       <c r="E33" s="3">
-        <v>-7247700</v>
+        <v>-7511800</v>
       </c>
       <c r="F33" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="G33" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="H33" s="3">
-        <v>140900</v>
+        <v>146000</v>
       </c>
       <c r="I33" s="3">
-        <v>808500</v>
+        <v>837900</v>
       </c>
       <c r="J33" s="3">
-        <v>102100</v>
+        <v>105800</v>
       </c>
       <c r="K33" s="3">
         <v>-245500</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3514600</v>
+        <v>-3642700</v>
       </c>
       <c r="E35" s="3">
-        <v>-7247700</v>
+        <v>-7511800</v>
       </c>
       <c r="F35" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="G35" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="H35" s="3">
-        <v>140900</v>
+        <v>146000</v>
       </c>
       <c r="I35" s="3">
-        <v>808500</v>
+        <v>837900</v>
       </c>
       <c r="J35" s="3">
-        <v>102100</v>
+        <v>105800</v>
       </c>
       <c r="K35" s="3">
         <v>-245500</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6796500</v>
+        <v>7044200</v>
       </c>
       <c r="E41" s="3">
-        <v>6556600</v>
+        <v>6795500</v>
       </c>
       <c r="F41" s="3">
-        <v>3792300</v>
+        <v>3930500</v>
       </c>
       <c r="G41" s="3">
-        <v>3659600</v>
+        <v>3792900</v>
       </c>
       <c r="H41" s="3">
-        <v>9541400</v>
+        <v>9889100</v>
       </c>
       <c r="I41" s="3">
-        <v>4019900</v>
+        <v>4166400</v>
       </c>
       <c r="J41" s="3">
-        <v>3168600</v>
+        <v>3284000</v>
       </c>
       <c r="K41" s="3">
         <v>3386200</v>
@@ -1864,25 +1864,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>494100</v>
+        <v>512100</v>
       </c>
       <c r="E42" s="3">
-        <v>619600</v>
+        <v>642200</v>
       </c>
       <c r="F42" s="3">
-        <v>816600</v>
+        <v>846400</v>
       </c>
       <c r="G42" s="3">
-        <v>331800</v>
+        <v>343900</v>
       </c>
       <c r="H42" s="3">
-        <v>429800</v>
+        <v>445400</v>
       </c>
       <c r="I42" s="3">
-        <v>132700</v>
+        <v>137500</v>
       </c>
       <c r="J42" s="3">
-        <v>987100</v>
+        <v>1023100</v>
       </c>
       <c r="K42" s="3">
         <v>1054900</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2229400</v>
+        <v>2310700</v>
       </c>
       <c r="E43" s="3">
-        <v>1982400</v>
+        <v>2054600</v>
       </c>
       <c r="F43" s="3">
-        <v>2765300</v>
+        <v>2866100</v>
       </c>
       <c r="G43" s="3">
-        <v>2748000</v>
+        <v>2848100</v>
       </c>
       <c r="H43" s="3">
-        <v>4871300</v>
+        <v>5048800</v>
       </c>
       <c r="I43" s="3">
-        <v>2308000</v>
+        <v>2392100</v>
       </c>
       <c r="J43" s="3">
-        <v>2271300</v>
+        <v>2354100</v>
       </c>
       <c r="K43" s="3">
         <v>2427300</v>
@@ -1942,25 +1942,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>578800</v>
+        <v>599900</v>
       </c>
       <c r="E44" s="3">
-        <v>554300</v>
+        <v>574500</v>
       </c>
       <c r="F44" s="3">
-        <v>752300</v>
+        <v>779700</v>
       </c>
       <c r="G44" s="3">
-        <v>646200</v>
+        <v>669700</v>
       </c>
       <c r="H44" s="3">
-        <v>1137200</v>
+        <v>1178600</v>
       </c>
       <c r="I44" s="3">
-        <v>577800</v>
+        <v>598800</v>
       </c>
       <c r="J44" s="3">
-        <v>543100</v>
+        <v>562900</v>
       </c>
       <c r="K44" s="3">
         <v>580400</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>853400</v>
+        <v>884500</v>
       </c>
       <c r="E45" s="3">
-        <v>387900</v>
+        <v>402000</v>
       </c>
       <c r="F45" s="3">
-        <v>590000</v>
+        <v>611500</v>
       </c>
       <c r="G45" s="3">
-        <v>575700</v>
+        <v>596700</v>
       </c>
       <c r="H45" s="3">
-        <v>2083500</v>
+        <v>2159400</v>
       </c>
       <c r="I45" s="3">
-        <v>726800</v>
+        <v>753300</v>
       </c>
       <c r="J45" s="3">
-        <v>731900</v>
+        <v>758600</v>
       </c>
       <c r="K45" s="3">
         <v>782200</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10952200</v>
+        <v>11351300</v>
       </c>
       <c r="E46" s="3">
-        <v>10100800</v>
+        <v>10468900</v>
       </c>
       <c r="F46" s="3">
-        <v>8716600</v>
+        <v>9034300</v>
       </c>
       <c r="G46" s="3">
-        <v>7961200</v>
+        <v>8251300</v>
       </c>
       <c r="H46" s="3">
-        <v>9246400</v>
+        <v>9583400</v>
       </c>
       <c r="I46" s="3">
-        <v>7765200</v>
+        <v>8048200</v>
       </c>
       <c r="J46" s="3">
-        <v>7701900</v>
+        <v>7982600</v>
       </c>
       <c r="K46" s="3">
         <v>8230900</v>
@@ -2059,25 +2059,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1082000</v>
+        <v>1121500</v>
       </c>
       <c r="E47" s="3">
-        <v>1054500</v>
+        <v>1092900</v>
       </c>
       <c r="F47" s="3">
-        <v>1435200</v>
+        <v>1487500</v>
       </c>
       <c r="G47" s="3">
-        <v>1846600</v>
+        <v>1913900</v>
       </c>
       <c r="H47" s="3">
-        <v>1608800</v>
+        <v>1667400</v>
       </c>
       <c r="I47" s="3">
-        <v>1429100</v>
+        <v>1481200</v>
       </c>
       <c r="J47" s="3">
-        <v>1374000</v>
+        <v>1424100</v>
       </c>
       <c r="K47" s="3">
         <v>1468400</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17369900</v>
+        <v>18002900</v>
       </c>
       <c r="E48" s="3">
-        <v>17615900</v>
+        <v>18257900</v>
       </c>
       <c r="F48" s="3">
-        <v>18463200</v>
+        <v>19136000</v>
       </c>
       <c r="G48" s="3">
-        <v>17838500</v>
+        <v>18488500</v>
       </c>
       <c r="H48" s="3">
-        <v>35739200</v>
+        <v>37041600</v>
       </c>
       <c r="I48" s="3">
-        <v>10819500</v>
+        <v>11213700</v>
       </c>
       <c r="J48" s="3">
-        <v>10629600</v>
+        <v>11017000</v>
       </c>
       <c r="K48" s="3">
         <v>11359600</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1487300</v>
+        <v>1541500</v>
       </c>
       <c r="E49" s="3">
-        <v>1475100</v>
+        <v>1528800</v>
       </c>
       <c r="F49" s="3">
-        <v>1553700</v>
+        <v>1610300</v>
       </c>
       <c r="G49" s="3">
-        <v>1440300</v>
+        <v>1492800</v>
       </c>
       <c r="H49" s="3">
-        <v>2731700</v>
+        <v>2831200</v>
       </c>
       <c r="I49" s="3">
-        <v>1310700</v>
+        <v>1358500</v>
       </c>
       <c r="J49" s="3">
-        <v>1291300</v>
+        <v>1338400</v>
       </c>
       <c r="K49" s="3">
         <v>1380000</v>
@@ -2254,25 +2254,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>429800</v>
+        <v>445400</v>
       </c>
       <c r="E52" s="3">
-        <v>566500</v>
+        <v>587200</v>
       </c>
       <c r="F52" s="3">
-        <v>1205600</v>
+        <v>1249500</v>
       </c>
       <c r="G52" s="3">
-        <v>1166800</v>
+        <v>1209300</v>
       </c>
       <c r="H52" s="3">
-        <v>1482200</v>
+        <v>1536200</v>
       </c>
       <c r="I52" s="3">
-        <v>2084500</v>
+        <v>2160400</v>
       </c>
       <c r="J52" s="3">
-        <v>2823500</v>
+        <v>2926400</v>
       </c>
       <c r="K52" s="3">
         <v>3017500</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31321200</v>
+        <v>32462600</v>
       </c>
       <c r="E54" s="3">
-        <v>30808800</v>
+        <v>31931500</v>
       </c>
       <c r="F54" s="3">
-        <v>31374300</v>
+        <v>32517600</v>
       </c>
       <c r="G54" s="3">
-        <v>30253400</v>
+        <v>31355900</v>
       </c>
       <c r="H54" s="3">
-        <v>30586200</v>
+        <v>31700900</v>
       </c>
       <c r="I54" s="3">
-        <v>23409000</v>
+        <v>24262100</v>
       </c>
       <c r="J54" s="3">
-        <v>23820400</v>
+        <v>24688400</v>
       </c>
       <c r="K54" s="3">
         <v>25456400</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1888500</v>
+        <v>1957300</v>
       </c>
       <c r="E57" s="3">
-        <v>1464800</v>
+        <v>1518200</v>
       </c>
       <c r="F57" s="3">
-        <v>2428500</v>
+        <v>2517000</v>
       </c>
       <c r="G57" s="3">
-        <v>2505000</v>
+        <v>2596300</v>
       </c>
       <c r="H57" s="3">
-        <v>2414200</v>
+        <v>2502200</v>
       </c>
       <c r="I57" s="3">
-        <v>2408100</v>
+        <v>2495800</v>
       </c>
       <c r="J57" s="3">
-        <v>2444800</v>
+        <v>2533900</v>
       </c>
       <c r="K57" s="3">
         <v>2612700</v>
@@ -2444,25 +2444,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1956900</v>
+        <v>2028200</v>
       </c>
       <c r="E58" s="3">
-        <v>2093700</v>
+        <v>2170000</v>
       </c>
       <c r="F58" s="3">
-        <v>1791500</v>
+        <v>1856800</v>
       </c>
       <c r="G58" s="3">
-        <v>1791500</v>
+        <v>1856800</v>
       </c>
       <c r="H58" s="3">
-        <v>3756500</v>
+        <v>3893400</v>
       </c>
       <c r="I58" s="3">
-        <v>956500</v>
+        <v>991300</v>
       </c>
       <c r="J58" s="3">
-        <v>1965000</v>
+        <v>2036700</v>
       </c>
       <c r="K58" s="3">
         <v>2100000</v>
@@ -2483,25 +2483,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8124500</v>
+        <v>8420600</v>
       </c>
       <c r="E59" s="3">
-        <v>8464500</v>
+        <v>8772900</v>
       </c>
       <c r="F59" s="3">
-        <v>8692100</v>
+        <v>9008900</v>
       </c>
       <c r="G59" s="3">
-        <v>8302200</v>
+        <v>8604700</v>
       </c>
       <c r="H59" s="3">
-        <v>10853100</v>
+        <v>11248700</v>
       </c>
       <c r="I59" s="3">
-        <v>6987400</v>
+        <v>7242000</v>
       </c>
       <c r="J59" s="3">
-        <v>7838700</v>
+        <v>8124400</v>
       </c>
       <c r="K59" s="3">
         <v>8377100</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11969900</v>
+        <v>12406100</v>
       </c>
       <c r="E60" s="3">
-        <v>12023000</v>
+        <v>12461100</v>
       </c>
       <c r="F60" s="3">
-        <v>12912100</v>
+        <v>13382600</v>
       </c>
       <c r="G60" s="3">
-        <v>12598700</v>
+        <v>13057800</v>
       </c>
       <c r="H60" s="3">
-        <v>12304700</v>
+        <v>12753100</v>
       </c>
       <c r="I60" s="3">
-        <v>10351900</v>
+        <v>10729200</v>
       </c>
       <c r="J60" s="3">
-        <v>12248600</v>
+        <v>12694900</v>
       </c>
       <c r="K60" s="3">
         <v>13089800</v>
@@ -2561,25 +2561,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14492300</v>
+        <v>15020400</v>
       </c>
       <c r="E61" s="3">
-        <v>16941200</v>
+        <v>17558600</v>
       </c>
       <c r="F61" s="3">
-        <v>9615900</v>
+        <v>9966400</v>
       </c>
       <c r="G61" s="3">
-        <v>9471000</v>
+        <v>9816100</v>
       </c>
       <c r="H61" s="3">
-        <v>10064100</v>
+        <v>10430800</v>
       </c>
       <c r="I61" s="3">
-        <v>7585600</v>
+        <v>7862000</v>
       </c>
       <c r="J61" s="3">
-        <v>7206800</v>
+        <v>7469500</v>
       </c>
       <c r="K61" s="3">
         <v>7701800</v>
@@ -2600,25 +2600,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8754400</v>
+        <v>9073400</v>
       </c>
       <c r="E62" s="3">
-        <v>7297700</v>
+        <v>7563600</v>
       </c>
       <c r="F62" s="3">
-        <v>6499400</v>
+        <v>6736300</v>
       </c>
       <c r="G62" s="3">
-        <v>6348400</v>
+        <v>6579700</v>
       </c>
       <c r="H62" s="3">
-        <v>6115600</v>
+        <v>6338500</v>
       </c>
       <c r="I62" s="3">
-        <v>4148500</v>
+        <v>4299700</v>
       </c>
       <c r="J62" s="3">
-        <v>4086300</v>
+        <v>4235200</v>
       </c>
       <c r="K62" s="3">
         <v>4366900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35224700</v>
+        <v>36508400</v>
       </c>
       <c r="E66" s="3">
-        <v>36271100</v>
+        <v>37592900</v>
       </c>
       <c r="F66" s="3">
-        <v>29042800</v>
+        <v>30101200</v>
       </c>
       <c r="G66" s="3">
-        <v>28430300</v>
+        <v>29466400</v>
       </c>
       <c r="H66" s="3">
-        <v>28128100</v>
+        <v>29153200</v>
       </c>
       <c r="I66" s="3">
-        <v>22098300</v>
+        <v>22903600</v>
       </c>
       <c r="J66" s="3">
-        <v>23590700</v>
+        <v>24450400</v>
       </c>
       <c r="K66" s="3">
         <v>25210900</v>
@@ -2968,25 +2968,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12033200</v>
+        <v>-12471700</v>
       </c>
       <c r="E72" s="3">
-        <v>-8312400</v>
+        <v>-8615300</v>
       </c>
       <c r="F72" s="3">
-        <v>-998300</v>
+        <v>-1034700</v>
       </c>
       <c r="G72" s="3">
-        <v>-1313800</v>
+        <v>-1361600</v>
       </c>
       <c r="H72" s="3">
-        <v>-4292500</v>
+        <v>-4448900</v>
       </c>
       <c r="I72" s="3">
-        <v>317500</v>
+        <v>329000</v>
       </c>
       <c r="J72" s="3">
-        <v>-463400</v>
+        <v>-480300</v>
       </c>
       <c r="K72" s="3">
         <v>-495300</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3903500</v>
+        <v>-4045800</v>
       </c>
       <c r="E76" s="3">
-        <v>-5462300</v>
+        <v>-5661400</v>
       </c>
       <c r="F76" s="3">
-        <v>2331500</v>
+        <v>2416500</v>
       </c>
       <c r="G76" s="3">
-        <v>1823100</v>
+        <v>1889600</v>
       </c>
       <c r="H76" s="3">
-        <v>2458100</v>
+        <v>2547700</v>
       </c>
       <c r="I76" s="3">
-        <v>1310700</v>
+        <v>1358500</v>
       </c>
       <c r="J76" s="3">
-        <v>229700</v>
+        <v>238100</v>
       </c>
       <c r="K76" s="3">
         <v>245500</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3514600</v>
+        <v>-3642700</v>
       </c>
       <c r="E81" s="3">
-        <v>-7247700</v>
+        <v>-7511800</v>
       </c>
       <c r="F81" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="G81" s="3">
-        <v>403200</v>
+        <v>417900</v>
       </c>
       <c r="H81" s="3">
-        <v>140900</v>
+        <v>146000</v>
       </c>
       <c r="I81" s="3">
-        <v>808500</v>
+        <v>837900</v>
       </c>
       <c r="J81" s="3">
-        <v>102100</v>
+        <v>105800</v>
       </c>
       <c r="K81" s="3">
         <v>-245500</v>
@@ -3302,25 +3302,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2420300</v>
+        <v>3024800</v>
       </c>
       <c r="E83" s="3">
-        <v>2918500</v>
+        <v>3160200</v>
       </c>
       <c r="F83" s="3">
-        <v>3049100</v>
+        <v>3055500</v>
       </c>
       <c r="G83" s="3">
-        <v>2948100</v>
+        <v>3004700</v>
       </c>
       <c r="H83" s="3">
-        <v>2899100</v>
+        <v>1761600</v>
       </c>
       <c r="I83" s="3">
-        <v>1699600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>1665900</v>
+        <v>1726700</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1565900</v>
+        <v>-2989900</v>
       </c>
       <c r="E89" s="3">
-        <v>-2884800</v>
+        <v>4120900</v>
       </c>
       <c r="F89" s="3">
-        <v>3976000</v>
+        <v>4018300</v>
       </c>
       <c r="G89" s="3">
-        <v>3877000</v>
+        <v>4336700</v>
       </c>
       <c r="H89" s="3">
-        <v>4184300</v>
+        <v>2368900</v>
       </c>
       <c r="I89" s="3">
-        <v>2285600</v>
+        <v>2010200</v>
       </c>
       <c r="J89" s="3">
-        <v>1939500</v>
+        <v>1077000</v>
       </c>
       <c r="K89" s="3">
         <v>1110500</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2247800</v>
+        <v>-2220700</v>
       </c>
       <c r="E91" s="3">
-        <v>-2142700</v>
+        <v>-3567600</v>
       </c>
       <c r="F91" s="3">
-        <v>-3442100</v>
+        <v>-5667700</v>
       </c>
       <c r="G91" s="3">
-        <v>-5468400</v>
+        <v>-2456700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2370300</v>
+        <v>-2026100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1954800</v>
+        <v>-3357000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3239000</v>
+        <v>-1514000</v>
       </c>
       <c r="K91" s="3">
         <v>-1561100</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1264800</v>
+        <v>-1674800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1615900</v>
+        <v>-3510400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3387000</v>
+        <v>-2860800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2760200</v>
+        <v>-2848100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2748000</v>
+        <v>-769200</v>
       </c>
       <c r="I94" s="3">
-        <v>-742100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1186200</v>
+        <v>-1229400</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-78600</v>
+        <v>7561500</v>
       </c>
       <c r="E100" s="3">
-        <v>7295700</v>
+        <v>-472900</v>
       </c>
       <c r="F100" s="3">
-        <v>-456300</v>
+        <v>-2314900</v>
       </c>
       <c r="G100" s="3">
-        <v>-2233500</v>
+        <v>-677100</v>
       </c>
       <c r="H100" s="3">
-        <v>-653300</v>
+        <v>-705700</v>
       </c>
       <c r="I100" s="3">
-        <v>-680900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-514500</v>
+        <v>-533200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>14300</v>
+        <v>-28600</v>
       </c>
       <c r="E101" s="3">
-        <v>-27600</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>1000</v>
+        <v>7400</v>
       </c>
       <c r="G101" s="3">
-        <v>7100</v>
+        <v>-34900</v>
       </c>
       <c r="H101" s="3">
-        <v>-33700</v>
+        <v>-13800</v>
       </c>
       <c r="I101" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-43900</v>
+        <v>-45500</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>236800</v>
+        <v>2868200</v>
       </c>
       <c r="E102" s="3">
-        <v>2767400</v>
+        <v>138600</v>
       </c>
       <c r="F102" s="3">
-        <v>133700</v>
+        <v>-1150000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1109600</v>
+        <v>776600</v>
       </c>
       <c r="H102" s="3">
-        <v>749300</v>
+        <v>880300</v>
       </c>
       <c r="I102" s="3">
-        <v>849300</v>
+        <v>202100</v>
       </c>
       <c r="J102" s="3">
-        <v>195000</v>
+        <v>-643300</v>
       </c>
       <c r="K102" s="3">
         <v>-663300</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>AFLYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,190 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15145300</v>
+        <v>28422600</v>
       </c>
       <c r="E8" s="3">
-        <v>11731100</v>
+        <v>15415800</v>
       </c>
       <c r="F8" s="3">
-        <v>28766000</v>
+        <v>11940700</v>
       </c>
       <c r="G8" s="3">
-        <v>27748200</v>
+        <v>29279800</v>
       </c>
       <c r="H8" s="3">
-        <v>27367300</v>
+        <v>28243900</v>
       </c>
       <c r="I8" s="3">
-        <v>26287100</v>
+        <v>27856200</v>
       </c>
       <c r="J8" s="3">
+        <v>26756700</v>
+      </c>
+      <c r="K8" s="3">
         <v>27181100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>27196400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>30539000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27932000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>21402000</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8186800</v>
+        <v>15518100</v>
       </c>
       <c r="E9" s="3">
-        <v>7460000</v>
+        <v>8333100</v>
       </c>
       <c r="F9" s="3">
-        <v>14558100</v>
+        <v>7593200</v>
       </c>
       <c r="G9" s="3">
-        <v>13670400</v>
+        <v>14818100</v>
       </c>
       <c r="H9" s="3">
-        <v>14205800</v>
+        <v>13914600</v>
       </c>
       <c r="I9" s="3">
-        <v>15268000</v>
+        <v>14459500</v>
       </c>
       <c r="J9" s="3">
+        <v>15540700</v>
+      </c>
+      <c r="K9" s="3">
         <v>16938600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>16660400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>18116400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>34958100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>12689700</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6958500</v>
+        <v>12904500</v>
       </c>
       <c r="E10" s="3">
-        <v>4271100</v>
+        <v>7082800</v>
       </c>
       <c r="F10" s="3">
-        <v>14207900</v>
+        <v>4347400</v>
       </c>
       <c r="G10" s="3">
-        <v>14077700</v>
+        <v>14461700</v>
       </c>
       <c r="H10" s="3">
-        <v>13161500</v>
+        <v>14329200</v>
       </c>
       <c r="I10" s="3">
-        <v>11019100</v>
+        <v>13396600</v>
       </c>
       <c r="J10" s="3">
+        <v>11215900</v>
+      </c>
+      <c r="K10" s="3">
         <v>10242500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>10536000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>12422500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-7026100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>8712300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -852,8 +864,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,9 +903,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,87 +945,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>769200</v>
+        <v>100200</v>
       </c>
       <c r="E14" s="3">
-        <v>1636700</v>
+        <v>782900</v>
       </c>
       <c r="F14" s="3">
-        <v>161900</v>
+        <v>1666000</v>
       </c>
       <c r="G14" s="3">
-        <v>25400</v>
+        <v>164800</v>
       </c>
       <c r="H14" s="3">
-        <v>2036700</v>
+        <v>25800</v>
       </c>
       <c r="I14" s="3">
-        <v>152400</v>
+        <v>2073000</v>
       </c>
       <c r="J14" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K14" s="3">
         <v>148100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-756000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>412700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>442500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>48200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2658800</v>
+        <v>2903300</v>
       </c>
       <c r="E15" s="3">
-        <v>2894700</v>
+        <v>2706200</v>
       </c>
       <c r="F15" s="3">
-        <v>3111600</v>
+        <v>2946400</v>
       </c>
       <c r="G15" s="3">
-        <v>3036500</v>
+        <v>3167200</v>
       </c>
       <c r="H15" s="3">
-        <v>2915800</v>
+        <v>3090700</v>
       </c>
       <c r="I15" s="3">
-        <v>1662100</v>
+        <v>2967900</v>
       </c>
       <c r="J15" s="3">
+        <v>1691800</v>
+      </c>
+      <c r="K15" s="3">
         <v>1664200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1733500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1873200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1730400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1383400</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17824100</v>
+        <v>27136800</v>
       </c>
       <c r="E17" s="3">
-        <v>18110800</v>
+        <v>18142500</v>
       </c>
       <c r="F17" s="3">
-        <v>27697400</v>
+        <v>18434400</v>
       </c>
       <c r="G17" s="3">
-        <v>26274400</v>
+        <v>28192200</v>
       </c>
       <c r="H17" s="3">
-        <v>27350400</v>
+        <v>26743700</v>
       </c>
       <c r="I17" s="3">
-        <v>25114800</v>
+        <v>27838900</v>
       </c>
       <c r="J17" s="3">
+        <v>25563500</v>
+      </c>
+      <c r="K17" s="3">
         <v>26032100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26370600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>30810500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>28734700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>21372800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-2678900</v>
+        <v>1285800</v>
       </c>
       <c r="E18" s="3">
-        <v>-6379700</v>
+        <v>-2726700</v>
       </c>
       <c r="F18" s="3">
-        <v>1068600</v>
+        <v>-6493700</v>
       </c>
       <c r="G18" s="3">
-        <v>1473800</v>
+        <v>1087700</v>
       </c>
       <c r="H18" s="3">
-        <v>16900</v>
+        <v>1500100</v>
       </c>
       <c r="I18" s="3">
-        <v>1172300</v>
+        <v>17200</v>
       </c>
       <c r="J18" s="3">
+        <v>1193200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1149000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>825800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-271500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-802600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,203 +1149,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-503600</v>
+        <v>-328500</v>
       </c>
       <c r="E20" s="3">
-        <v>-542800</v>
+        <v>-512600</v>
       </c>
       <c r="F20" s="3">
-        <v>-270800</v>
+        <v>-552400</v>
       </c>
       <c r="G20" s="3">
-        <v>-347000</v>
+        <v>-275700</v>
       </c>
       <c r="H20" s="3">
-        <v>652800</v>
+        <v>-353200</v>
       </c>
       <c r="I20" s="3">
-        <v>-59200</v>
+        <v>664400</v>
       </c>
       <c r="J20" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-672900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-441800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>65800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>146000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-570000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-167900</v>
+        <v>3582600</v>
       </c>
       <c r="E21" s="3">
-        <v>-3773000</v>
+        <v>-669400</v>
       </c>
       <c r="F21" s="3">
-        <v>3842800</v>
+        <v>-3947300</v>
       </c>
       <c r="G21" s="3">
-        <v>4121300</v>
+        <v>4049600</v>
       </c>
       <c r="H21" s="3">
-        <v>2425300</v>
+        <v>4277200</v>
       </c>
       <c r="I21" s="3">
-        <v>2833800</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>3760000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2937600</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>1861200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1265700</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>572400</v>
+        <v>589100</v>
       </c>
       <c r="E22" s="3">
-        <v>439100</v>
+        <v>582600</v>
       </c>
       <c r="F22" s="3">
-        <v>431700</v>
+        <v>446900</v>
       </c>
       <c r="G22" s="3">
-        <v>459200</v>
+        <v>439400</v>
       </c>
       <c r="H22" s="3">
-        <v>533200</v>
+        <v>467400</v>
       </c>
       <c r="I22" s="3">
-        <v>242300</v>
+        <v>542800</v>
       </c>
       <c r="J22" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K22" s="3">
         <v>300500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>360000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>425800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>375500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>21300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3754800</v>
+        <v>368300</v>
       </c>
       <c r="E23" s="3">
-        <v>-7361600</v>
+        <v>-3821900</v>
       </c>
       <c r="F23" s="3">
-        <v>366100</v>
+        <v>-7493100</v>
       </c>
       <c r="G23" s="3">
-        <v>667600</v>
+        <v>372600</v>
       </c>
       <c r="H23" s="3">
-        <v>136500</v>
+        <v>679500</v>
       </c>
       <c r="I23" s="3">
-        <v>870700</v>
+        <v>138900</v>
       </c>
       <c r="J23" s="3">
+        <v>886300</v>
+      </c>
+      <c r="K23" s="3">
         <v>175600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>24000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-631600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1032100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-562100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-298400</v>
+        <v>-420000</v>
       </c>
       <c r="E24" s="3">
-        <v>94200</v>
+        <v>-303700</v>
       </c>
       <c r="F24" s="3">
-        <v>80400</v>
+        <v>95800</v>
       </c>
       <c r="G24" s="3">
-        <v>237000</v>
+        <v>81800</v>
       </c>
       <c r="H24" s="3">
-        <v>-22200</v>
+        <v>241200</v>
       </c>
       <c r="I24" s="3">
-        <v>311100</v>
+        <v>-22600</v>
       </c>
       <c r="J24" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K24" s="3">
         <v>31700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>212700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1144800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-84100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3456500</v>
+        <v>788300</v>
       </c>
       <c r="E26" s="3">
-        <v>-7455700</v>
+        <v>-3518200</v>
       </c>
       <c r="F26" s="3">
-        <v>285700</v>
+        <v>-7588900</v>
       </c>
       <c r="G26" s="3">
-        <v>430600</v>
+        <v>290800</v>
       </c>
       <c r="H26" s="3">
-        <v>158700</v>
+        <v>438300</v>
       </c>
       <c r="I26" s="3">
-        <v>559700</v>
+        <v>161500</v>
       </c>
       <c r="J26" s="3">
+        <v>569700</v>
+      </c>
+      <c r="K26" s="3">
         <v>143900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-188700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1776400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1050800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-478000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3642700</v>
+        <v>636400</v>
       </c>
       <c r="E27" s="3">
-        <v>-7511800</v>
+        <v>-3707800</v>
       </c>
       <c r="F27" s="3">
-        <v>288800</v>
+        <v>-7646000</v>
       </c>
       <c r="G27" s="3">
-        <v>417900</v>
+        <v>294000</v>
       </c>
       <c r="H27" s="3">
-        <v>154500</v>
+        <v>425400</v>
       </c>
       <c r="I27" s="3">
-        <v>552300</v>
+        <v>157200</v>
       </c>
       <c r="J27" s="3">
+        <v>562100</v>
+      </c>
+      <c r="K27" s="3">
         <v>78300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-241100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2039500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1128700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-495900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1482,33 +1542,36 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>285700</v>
+        <v>-8600</v>
       </c>
       <c r="J29" s="3">
+        <v>290800</v>
+      </c>
+      <c r="K29" s="3">
         <v>27500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-4400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-145900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-216300</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>503600</v>
+        <v>328500</v>
       </c>
       <c r="E32" s="3">
-        <v>542800</v>
+        <v>512600</v>
       </c>
       <c r="F32" s="3">
-        <v>270800</v>
+        <v>552400</v>
       </c>
       <c r="G32" s="3">
-        <v>347000</v>
+        <v>275700</v>
       </c>
       <c r="H32" s="3">
-        <v>-652800</v>
+        <v>353200</v>
       </c>
       <c r="I32" s="3">
-        <v>59200</v>
+        <v>-664400</v>
       </c>
       <c r="J32" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K32" s="3">
         <v>672900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>441800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-65800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-146000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>570000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3642700</v>
+        <v>636400</v>
       </c>
       <c r="E33" s="3">
-        <v>-7511800</v>
+        <v>-3707800</v>
       </c>
       <c r="F33" s="3">
-        <v>288800</v>
+        <v>-7646000</v>
       </c>
       <c r="G33" s="3">
-        <v>417900</v>
+        <v>294000</v>
       </c>
       <c r="H33" s="3">
-        <v>146000</v>
+        <v>425400</v>
       </c>
       <c r="I33" s="3">
-        <v>837900</v>
+        <v>148600</v>
       </c>
       <c r="J33" s="3">
+        <v>852900</v>
+      </c>
+      <c r="K33" s="3">
         <v>105800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-245500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2185500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1345100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-495900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3642700</v>
+        <v>636400</v>
       </c>
       <c r="E35" s="3">
-        <v>-7511800</v>
+        <v>-3707800</v>
       </c>
       <c r="F35" s="3">
-        <v>288800</v>
+        <v>-7646000</v>
       </c>
       <c r="G35" s="3">
-        <v>417900</v>
+        <v>294000</v>
       </c>
       <c r="H35" s="3">
-        <v>146000</v>
+        <v>425400</v>
       </c>
       <c r="I35" s="3">
-        <v>837900</v>
+        <v>148600</v>
       </c>
       <c r="J35" s="3">
+        <v>852900</v>
+      </c>
+      <c r="K35" s="3">
         <v>105800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-245500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2185500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1345100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-495900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,359 +1904,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7044200</v>
+        <v>14271100</v>
       </c>
       <c r="E41" s="3">
-        <v>6795500</v>
+        <v>7170000</v>
       </c>
       <c r="F41" s="3">
-        <v>3930500</v>
+        <v>6916900</v>
       </c>
       <c r="G41" s="3">
-        <v>3792900</v>
+        <v>4000700</v>
       </c>
       <c r="H41" s="3">
-        <v>9889100</v>
+        <v>3860700</v>
       </c>
       <c r="I41" s="3">
-        <v>4166400</v>
+        <v>10065800</v>
       </c>
       <c r="J41" s="3">
+        <v>4240800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3284000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3386200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4406800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7510300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4631600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>512100</v>
+        <v>667700</v>
       </c>
       <c r="E42" s="3">
-        <v>642200</v>
+        <v>521200</v>
       </c>
       <c r="F42" s="3">
-        <v>846400</v>
+        <v>653700</v>
       </c>
       <c r="G42" s="3">
-        <v>343900</v>
+        <v>861500</v>
       </c>
       <c r="H42" s="3">
-        <v>445400</v>
+        <v>350000</v>
       </c>
       <c r="I42" s="3">
-        <v>137500</v>
+        <v>453400</v>
       </c>
       <c r="J42" s="3">
+        <v>140000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1023100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1054900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1233300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1024400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>842600</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2310700</v>
+        <v>4405600</v>
       </c>
       <c r="E43" s="3">
-        <v>2054600</v>
+        <v>2351900</v>
       </c>
       <c r="F43" s="3">
-        <v>2866100</v>
+        <v>2091300</v>
       </c>
       <c r="G43" s="3">
-        <v>2848100</v>
+        <v>2917300</v>
       </c>
       <c r="H43" s="3">
-        <v>5048800</v>
+        <v>2899000</v>
       </c>
       <c r="I43" s="3">
-        <v>2392100</v>
+        <v>5139000</v>
       </c>
       <c r="J43" s="3">
+        <v>2434900</v>
+      </c>
+      <c r="K43" s="3">
         <v>2354100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2427300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2732100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4172400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4229900</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>599900</v>
+        <v>1557200</v>
       </c>
       <c r="E44" s="3">
-        <v>574500</v>
+        <v>610600</v>
       </c>
       <c r="F44" s="3">
-        <v>779700</v>
+        <v>584800</v>
       </c>
       <c r="G44" s="3">
-        <v>669700</v>
+        <v>793700</v>
       </c>
       <c r="H44" s="3">
-        <v>1178600</v>
+        <v>681700</v>
       </c>
       <c r="I44" s="3">
-        <v>598800</v>
+        <v>1199700</v>
       </c>
       <c r="J44" s="3">
+        <v>609500</v>
+      </c>
+      <c r="K44" s="3">
         <v>562900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>580400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>611300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1144100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1312700</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>884500</v>
+        <v>1926600</v>
       </c>
       <c r="E45" s="3">
-        <v>402000</v>
+        <v>900300</v>
       </c>
       <c r="F45" s="3">
-        <v>611500</v>
+        <v>409200</v>
       </c>
       <c r="G45" s="3">
-        <v>596700</v>
+        <v>622400</v>
       </c>
       <c r="H45" s="3">
-        <v>2159400</v>
+        <v>607400</v>
       </c>
       <c r="I45" s="3">
-        <v>753300</v>
+        <v>2198000</v>
       </c>
       <c r="J45" s="3">
+        <v>766800</v>
+      </c>
+      <c r="K45" s="3">
         <v>758600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>782200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1006000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1748000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2028600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11351300</v>
+        <v>12079600</v>
       </c>
       <c r="E46" s="3">
-        <v>10468900</v>
+        <v>11554100</v>
       </c>
       <c r="F46" s="3">
-        <v>9034300</v>
+        <v>10655900</v>
       </c>
       <c r="G46" s="3">
-        <v>8251300</v>
+        <v>9195600</v>
       </c>
       <c r="H46" s="3">
-        <v>9583400</v>
+        <v>8398700</v>
       </c>
       <c r="I46" s="3">
-        <v>8048200</v>
+        <v>9754600</v>
       </c>
       <c r="J46" s="3">
+        <v>8192000</v>
+      </c>
+      <c r="K46" s="3">
         <v>7982600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8230900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9494200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8321700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7189700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1121500</v>
+        <v>1404300</v>
       </c>
       <c r="E47" s="3">
-        <v>1092900</v>
+        <v>1141500</v>
       </c>
       <c r="F47" s="3">
-        <v>1487500</v>
+        <v>1112400</v>
       </c>
       <c r="G47" s="3">
-        <v>1913900</v>
+        <v>1514100</v>
       </c>
       <c r="H47" s="3">
-        <v>1667400</v>
+        <v>1948100</v>
       </c>
       <c r="I47" s="3">
-        <v>1481200</v>
+        <v>1697200</v>
       </c>
       <c r="J47" s="3">
+        <v>1507700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1424100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1468400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2559900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2246500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2734300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18002900</v>
+        <v>37512700</v>
       </c>
       <c r="E48" s="3">
-        <v>18257900</v>
+        <v>18324500</v>
       </c>
       <c r="F48" s="3">
-        <v>19136000</v>
+        <v>18584100</v>
       </c>
       <c r="G48" s="3">
-        <v>18488500</v>
+        <v>19477900</v>
       </c>
       <c r="H48" s="3">
-        <v>37041600</v>
+        <v>18818800</v>
       </c>
       <c r="I48" s="3">
-        <v>11213700</v>
+        <v>37703300</v>
       </c>
       <c r="J48" s="3">
+        <v>11414100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11017000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11359600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13409400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26308100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6730800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1541500</v>
+        <v>3138100</v>
       </c>
       <c r="E49" s="3">
-        <v>1528800</v>
+        <v>1569000</v>
       </c>
       <c r="F49" s="3">
-        <v>1610300</v>
+        <v>1556100</v>
       </c>
       <c r="G49" s="3">
-        <v>1492800</v>
+        <v>1639000</v>
       </c>
       <c r="H49" s="3">
-        <v>2831200</v>
+        <v>1519500</v>
       </c>
       <c r="I49" s="3">
-        <v>1358500</v>
+        <v>2881800</v>
       </c>
       <c r="J49" s="3">
+        <v>1382700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1338400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1380000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1355300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2402400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2214800</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,48 +2363,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>445400</v>
+        <v>1093100</v>
       </c>
       <c r="E52" s="3">
-        <v>587200</v>
+        <v>453400</v>
       </c>
       <c r="F52" s="3">
-        <v>1249500</v>
+        <v>597700</v>
       </c>
       <c r="G52" s="3">
-        <v>1209300</v>
+        <v>1271800</v>
       </c>
       <c r="H52" s="3">
-        <v>1536200</v>
+        <v>1230900</v>
       </c>
       <c r="I52" s="3">
-        <v>2160400</v>
+        <v>1563700</v>
       </c>
       <c r="J52" s="3">
+        <v>2199000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2926400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3017500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3589800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4415100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7902200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32462600</v>
+        <v>34789300</v>
       </c>
       <c r="E54" s="3">
-        <v>31931500</v>
+        <v>33042500</v>
       </c>
       <c r="F54" s="3">
-        <v>32517600</v>
+        <v>32501900</v>
       </c>
       <c r="G54" s="3">
-        <v>31355900</v>
+        <v>33098500</v>
       </c>
       <c r="H54" s="3">
-        <v>31700900</v>
+        <v>31916100</v>
       </c>
       <c r="I54" s="3">
-        <v>24262100</v>
+        <v>32267200</v>
       </c>
       <c r="J54" s="3">
+        <v>24695500</v>
+      </c>
+      <c r="K54" s="3">
         <v>24688400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25456400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30408600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29338600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29861800</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,242 +2528,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1957300</v>
+        <v>2610400</v>
       </c>
       <c r="E57" s="3">
-        <v>1518200</v>
+        <v>1992300</v>
       </c>
       <c r="F57" s="3">
-        <v>2517000</v>
+        <v>1545400</v>
       </c>
       <c r="G57" s="3">
-        <v>2596300</v>
+        <v>2561900</v>
       </c>
       <c r="H57" s="3">
-        <v>2502200</v>
+        <v>2642700</v>
       </c>
       <c r="I57" s="3">
-        <v>2495800</v>
+        <v>2546900</v>
       </c>
       <c r="J57" s="3">
+        <v>2540400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2533900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2612700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2833800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2436500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2916100</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2028200</v>
+        <v>2628700</v>
       </c>
       <c r="E58" s="3">
-        <v>2170000</v>
+        <v>2064400</v>
       </c>
       <c r="F58" s="3">
-        <v>1856800</v>
+        <v>2208700</v>
       </c>
       <c r="G58" s="3">
-        <v>1856800</v>
+        <v>1890000</v>
       </c>
       <c r="H58" s="3">
-        <v>3893400</v>
+        <v>1890000</v>
       </c>
       <c r="I58" s="3">
-        <v>991300</v>
+        <v>3963000</v>
       </c>
       <c r="J58" s="3">
+        <v>1009100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2036700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1973700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3308300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2849900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8420600</v>
+        <v>10430900</v>
       </c>
       <c r="E59" s="3">
-        <v>8772900</v>
+        <v>8571000</v>
       </c>
       <c r="F59" s="3">
-        <v>9008900</v>
+        <v>8929700</v>
       </c>
       <c r="G59" s="3">
-        <v>8604700</v>
+        <v>9169800</v>
       </c>
       <c r="H59" s="3">
-        <v>11248700</v>
+        <v>8758400</v>
       </c>
       <c r="I59" s="3">
-        <v>7242000</v>
+        <v>11449600</v>
       </c>
       <c r="J59" s="3">
+        <v>7371400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8124400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8377100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10969200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9336300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11662000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12406100</v>
+        <v>14712600</v>
       </c>
       <c r="E60" s="3">
-        <v>12461100</v>
+        <v>12627700</v>
       </c>
       <c r="F60" s="3">
-        <v>13382600</v>
+        <v>12683700</v>
       </c>
       <c r="G60" s="3">
-        <v>13057800</v>
+        <v>13621700</v>
       </c>
       <c r="H60" s="3">
-        <v>12753100</v>
+        <v>13291100</v>
       </c>
       <c r="I60" s="3">
-        <v>10729200</v>
+        <v>12981000</v>
       </c>
       <c r="J60" s="3">
+        <v>10920800</v>
+      </c>
+      <c r="K60" s="3">
         <v>12694900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13089800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12984800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10790000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10262800</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15020400</v>
+        <v>13971700</v>
       </c>
       <c r="E61" s="3">
-        <v>17558600</v>
+        <v>15288700</v>
       </c>
       <c r="F61" s="3">
-        <v>9966400</v>
+        <v>17872200</v>
       </c>
       <c r="G61" s="3">
-        <v>9816100</v>
+        <v>10144400</v>
       </c>
       <c r="H61" s="3">
-        <v>10430800</v>
+        <v>9991500</v>
       </c>
       <c r="I61" s="3">
-        <v>7862000</v>
+        <v>10617200</v>
       </c>
       <c r="J61" s="3">
+        <v>8002400</v>
+      </c>
+      <c r="K61" s="3">
         <v>7469500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7701800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10282500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10502400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10353700</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9073400</v>
+        <v>13243700</v>
       </c>
       <c r="E62" s="3">
-        <v>7563600</v>
+        <v>9235500</v>
       </c>
       <c r="F62" s="3">
-        <v>6736300</v>
+        <v>7698800</v>
       </c>
       <c r="G62" s="3">
-        <v>6579700</v>
+        <v>6856600</v>
       </c>
       <c r="H62" s="3">
-        <v>6338500</v>
+        <v>6697200</v>
       </c>
       <c r="I62" s="3">
-        <v>4299700</v>
+        <v>6451700</v>
       </c>
       <c r="J62" s="3">
+        <v>4376500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4235200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4366900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4873300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4509500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3911300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36508400</v>
+        <v>38024300</v>
       </c>
       <c r="E66" s="3">
-        <v>37592900</v>
+        <v>37160600</v>
       </c>
       <c r="F66" s="3">
-        <v>30101200</v>
+        <v>38264400</v>
       </c>
       <c r="G66" s="3">
-        <v>29466400</v>
+        <v>30638900</v>
       </c>
       <c r="H66" s="3">
-        <v>29153200</v>
+        <v>29992700</v>
       </c>
       <c r="I66" s="3">
-        <v>22903600</v>
+        <v>29674000</v>
       </c>
       <c r="J66" s="3">
+        <v>23312700</v>
+      </c>
+      <c r="K66" s="3">
         <v>24450400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25210900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>27723100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25397800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24300100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-12471700</v>
+        <v>-24658900</v>
       </c>
       <c r="E72" s="3">
-        <v>-8615300</v>
+        <v>-12694500</v>
       </c>
       <c r="F72" s="3">
-        <v>-1034700</v>
+        <v>-8769200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1361600</v>
+        <v>-1053200</v>
       </c>
       <c r="H72" s="3">
-        <v>-4448900</v>
+        <v>-1386000</v>
       </c>
       <c r="I72" s="3">
-        <v>329000</v>
+        <v>-4528400</v>
       </c>
       <c r="J72" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-480300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-495300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1125600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>442500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1991500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4045800</v>
+        <v>-3235000</v>
       </c>
       <c r="E76" s="3">
-        <v>-5661400</v>
+        <v>-4118100</v>
       </c>
       <c r="F76" s="3">
-        <v>2416500</v>
+        <v>-5762500</v>
       </c>
       <c r="G76" s="3">
-        <v>1889600</v>
+        <v>2459600</v>
       </c>
       <c r="H76" s="3">
-        <v>2547700</v>
+        <v>1923300</v>
       </c>
       <c r="I76" s="3">
-        <v>1358500</v>
+        <v>2593200</v>
       </c>
       <c r="J76" s="3">
+        <v>1382700</v>
+      </c>
+      <c r="K76" s="3">
         <v>238100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>245500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2685500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3940700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5561700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3642700</v>
+        <v>636400</v>
       </c>
       <c r="E81" s="3">
-        <v>-7511800</v>
+        <v>-3707800</v>
       </c>
       <c r="F81" s="3">
-        <v>288800</v>
+        <v>-7646000</v>
       </c>
       <c r="G81" s="3">
-        <v>417900</v>
+        <v>294000</v>
       </c>
       <c r="H81" s="3">
-        <v>146000</v>
+        <v>425400</v>
       </c>
       <c r="I81" s="3">
-        <v>837900</v>
+        <v>148600</v>
       </c>
       <c r="J81" s="3">
+        <v>852900</v>
+      </c>
+      <c r="K81" s="3">
         <v>105800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-245500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2185500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1345100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-495900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3024800</v>
+        <v>2608300</v>
       </c>
       <c r="E83" s="3">
-        <v>3160200</v>
+        <v>2553300</v>
       </c>
       <c r="F83" s="3">
-        <v>3055500</v>
+        <v>3078900</v>
       </c>
       <c r="G83" s="3">
-        <v>3004700</v>
+        <v>3216700</v>
       </c>
       <c r="H83" s="3">
-        <v>1761600</v>
+        <v>3110100</v>
       </c>
       <c r="I83" s="3">
-        <v>1726700</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>3058400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1793000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>2075400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1919300</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2989900</v>
+        <v>5229400</v>
       </c>
       <c r="E89" s="3">
-        <v>4120900</v>
+        <v>1652000</v>
       </c>
       <c r="F89" s="3">
-        <v>4018300</v>
+        <v>-3043300</v>
       </c>
       <c r="G89" s="3">
-        <v>4336700</v>
+        <v>4194500</v>
       </c>
       <c r="H89" s="3">
-        <v>2368900</v>
+        <v>4090100</v>
       </c>
       <c r="I89" s="3">
-        <v>2010200</v>
+        <v>4414200</v>
       </c>
       <c r="J89" s="3">
+        <v>2411200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1077000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1110500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1769200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>934400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>626100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2220700</v>
+        <v>-3200500</v>
       </c>
       <c r="E91" s="3">
-        <v>-3567600</v>
+        <v>-2371300</v>
       </c>
       <c r="F91" s="3">
-        <v>-5667700</v>
+        <v>-2260400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2456700</v>
+        <v>-3631300</v>
       </c>
       <c r="H91" s="3">
-        <v>-2026100</v>
+        <v>-5769000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3357000</v>
+        <v>-2500600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2062300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1514000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1561100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1418700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1616300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2100400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1674800</v>
+        <v>-2318600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3510400</v>
+        <v>-1334300</v>
       </c>
       <c r="F94" s="3">
-        <v>-2860800</v>
+        <v>-1704700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2848100</v>
+        <v>-3573200</v>
       </c>
       <c r="H94" s="3">
-        <v>-769200</v>
+        <v>-2911900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1229400</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-2899000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-782900</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1105300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-269000</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3792,14 +4025,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-3400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>7561500</v>
+        <v>-2967900</v>
       </c>
       <c r="E100" s="3">
-        <v>-472900</v>
+        <v>-82900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2314900</v>
+        <v>7696600</v>
       </c>
       <c r="G100" s="3">
-        <v>-677100</v>
+        <v>-481400</v>
       </c>
       <c r="H100" s="3">
-        <v>-705700</v>
+        <v>-2356300</v>
       </c>
       <c r="I100" s="3">
-        <v>-533200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+        <v>-689200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-718300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-189000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>476500</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-28600</v>
+        <v>23700</v>
       </c>
       <c r="E101" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="G101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-34900</v>
-      </c>
       <c r="H101" s="3">
-        <v>-13800</v>
+        <v>7500</v>
       </c>
       <c r="I101" s="3">
-        <v>-45500</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>-35500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-14000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>-43100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3300</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2868200</v>
+        <v>-33400</v>
       </c>
       <c r="E102" s="3">
-        <v>138600</v>
+        <v>249800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1150000</v>
+        <v>2919500</v>
       </c>
       <c r="G102" s="3">
-        <v>776600</v>
+        <v>141100</v>
       </c>
       <c r="H102" s="3">
-        <v>880300</v>
+        <v>-1170600</v>
       </c>
       <c r="I102" s="3">
-        <v>202100</v>
+        <v>790400</v>
       </c>
       <c r="J102" s="3">
+        <v>896000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-643300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-663300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>431800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1138600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1640300</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28422600</v>
+        <v>28612700</v>
       </c>
       <c r="E8" s="3">
-        <v>15415800</v>
+        <v>15518900</v>
       </c>
       <c r="F8" s="3">
-        <v>11940700</v>
+        <v>12020500</v>
       </c>
       <c r="G8" s="3">
-        <v>29279800</v>
+        <v>29475600</v>
       </c>
       <c r="H8" s="3">
-        <v>28243900</v>
+        <v>28432700</v>
       </c>
       <c r="I8" s="3">
-        <v>27856200</v>
+        <v>28042400</v>
       </c>
       <c r="J8" s="3">
-        <v>26756700</v>
+        <v>26935500</v>
       </c>
       <c r="K8" s="3">
         <v>27181100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15518100</v>
+        <v>15621900</v>
       </c>
       <c r="E9" s="3">
-        <v>8333100</v>
+        <v>8388800</v>
       </c>
       <c r="F9" s="3">
-        <v>7593200</v>
+        <v>7644000</v>
       </c>
       <c r="G9" s="3">
-        <v>14818100</v>
+        <v>14917200</v>
       </c>
       <c r="H9" s="3">
-        <v>13914600</v>
+        <v>14007700</v>
       </c>
       <c r="I9" s="3">
-        <v>14459500</v>
+        <v>14556200</v>
       </c>
       <c r="J9" s="3">
-        <v>15540700</v>
+        <v>15644600</v>
       </c>
       <c r="K9" s="3">
         <v>16938600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12904500</v>
+        <v>12990800</v>
       </c>
       <c r="E10" s="3">
-        <v>7082800</v>
+        <v>7130100</v>
       </c>
       <c r="F10" s="3">
-        <v>4347400</v>
+        <v>4376500</v>
       </c>
       <c r="G10" s="3">
-        <v>14461700</v>
+        <v>14558400</v>
       </c>
       <c r="H10" s="3">
-        <v>14329200</v>
+        <v>14425000</v>
       </c>
       <c r="I10" s="3">
-        <v>13396600</v>
+        <v>13486200</v>
       </c>
       <c r="J10" s="3">
-        <v>11215900</v>
+        <v>11290900</v>
       </c>
       <c r="K10" s="3">
         <v>10242500</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="E14" s="3">
-        <v>782900</v>
+        <v>788100</v>
       </c>
       <c r="F14" s="3">
-        <v>1666000</v>
+        <v>1677100</v>
       </c>
       <c r="G14" s="3">
-        <v>164800</v>
+        <v>165900</v>
       </c>
       <c r="H14" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="I14" s="3">
-        <v>2073000</v>
+        <v>2086900</v>
       </c>
       <c r="J14" s="3">
-        <v>155100</v>
+        <v>156100</v>
       </c>
       <c r="K14" s="3">
         <v>148100</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2903300</v>
+        <v>2922700</v>
       </c>
       <c r="E15" s="3">
-        <v>2706200</v>
+        <v>2724300</v>
       </c>
       <c r="F15" s="3">
-        <v>2946400</v>
+        <v>2966100</v>
       </c>
       <c r="G15" s="3">
-        <v>3167200</v>
+        <v>3188300</v>
       </c>
       <c r="H15" s="3">
-        <v>3090700</v>
+        <v>3111400</v>
       </c>
       <c r="I15" s="3">
-        <v>2967900</v>
+        <v>2987800</v>
       </c>
       <c r="J15" s="3">
-        <v>1691800</v>
+        <v>1703100</v>
       </c>
       <c r="K15" s="3">
         <v>1664200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27136800</v>
+        <v>27318200</v>
       </c>
       <c r="E17" s="3">
-        <v>18142500</v>
+        <v>18263800</v>
       </c>
       <c r="F17" s="3">
-        <v>18434400</v>
+        <v>18557600</v>
       </c>
       <c r="G17" s="3">
-        <v>28192200</v>
+        <v>28380700</v>
       </c>
       <c r="H17" s="3">
-        <v>26743700</v>
+        <v>26922500</v>
       </c>
       <c r="I17" s="3">
-        <v>27838900</v>
+        <v>28025100</v>
       </c>
       <c r="J17" s="3">
-        <v>25563500</v>
+        <v>25734400</v>
       </c>
       <c r="K17" s="3">
         <v>26032100</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1285800</v>
+        <v>1294400</v>
       </c>
       <c r="E18" s="3">
-        <v>-2726700</v>
+        <v>-2744900</v>
       </c>
       <c r="F18" s="3">
-        <v>-6493700</v>
+        <v>-6537100</v>
       </c>
       <c r="G18" s="3">
-        <v>1087700</v>
+        <v>1094900</v>
       </c>
       <c r="H18" s="3">
-        <v>1500100</v>
+        <v>1510200</v>
       </c>
       <c r="I18" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="J18" s="3">
-        <v>1193200</v>
+        <v>1201200</v>
       </c>
       <c r="K18" s="3">
         <v>1149000</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-328500</v>
+        <v>-330700</v>
       </c>
       <c r="E20" s="3">
-        <v>-512600</v>
+        <v>-516000</v>
       </c>
       <c r="F20" s="3">
-        <v>-552400</v>
+        <v>-556100</v>
       </c>
       <c r="G20" s="3">
-        <v>-275700</v>
+        <v>-277500</v>
       </c>
       <c r="H20" s="3">
-        <v>-353200</v>
+        <v>-355600</v>
       </c>
       <c r="I20" s="3">
-        <v>664400</v>
+        <v>668900</v>
       </c>
       <c r="J20" s="3">
-        <v>-60300</v>
+        <v>-60700</v>
       </c>
       <c r="K20" s="3">
         <v>-672900</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3582600</v>
+        <v>3589500</v>
       </c>
       <c r="E21" s="3">
-        <v>-669400</v>
+        <v>-690600</v>
       </c>
       <c r="F21" s="3">
-        <v>-3947300</v>
+        <v>-3993800</v>
       </c>
       <c r="G21" s="3">
-        <v>4049600</v>
+        <v>4055600</v>
       </c>
       <c r="H21" s="3">
-        <v>4277200</v>
+        <v>4285400</v>
       </c>
       <c r="I21" s="3">
-        <v>3760000</v>
+        <v>3765100</v>
       </c>
       <c r="J21" s="3">
-        <v>2937600</v>
+        <v>2945500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>589100</v>
+        <v>593000</v>
       </c>
       <c r="E22" s="3">
-        <v>582600</v>
+        <v>586500</v>
       </c>
       <c r="F22" s="3">
-        <v>446900</v>
+        <v>449900</v>
       </c>
       <c r="G22" s="3">
-        <v>439400</v>
+        <v>442300</v>
       </c>
       <c r="H22" s="3">
-        <v>467400</v>
+        <v>470500</v>
       </c>
       <c r="I22" s="3">
-        <v>542800</v>
+        <v>546400</v>
       </c>
       <c r="J22" s="3">
-        <v>246600</v>
+        <v>248300</v>
       </c>
       <c r="K22" s="3">
         <v>300500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>368300</v>
+        <v>370800</v>
       </c>
       <c r="E23" s="3">
-        <v>-3821900</v>
+        <v>-3847500</v>
       </c>
       <c r="F23" s="3">
-        <v>-7493100</v>
+        <v>-7543200</v>
       </c>
       <c r="G23" s="3">
-        <v>372600</v>
+        <v>375100</v>
       </c>
       <c r="H23" s="3">
-        <v>679500</v>
+        <v>684100</v>
       </c>
       <c r="I23" s="3">
-        <v>138900</v>
+        <v>139800</v>
       </c>
       <c r="J23" s="3">
-        <v>886300</v>
+        <v>892200</v>
       </c>
       <c r="K23" s="3">
         <v>175600</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-420000</v>
+        <v>-422800</v>
       </c>
       <c r="E24" s="3">
-        <v>-303700</v>
+        <v>-305700</v>
       </c>
       <c r="F24" s="3">
-        <v>95800</v>
+        <v>96500</v>
       </c>
       <c r="G24" s="3">
-        <v>81800</v>
+        <v>82400</v>
       </c>
       <c r="H24" s="3">
-        <v>241200</v>
+        <v>242800</v>
       </c>
       <c r="I24" s="3">
-        <v>-22600</v>
+        <v>-22800</v>
       </c>
       <c r="J24" s="3">
-        <v>316600</v>
+        <v>318700</v>
       </c>
       <c r="K24" s="3">
         <v>31700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>788300</v>
+        <v>793600</v>
       </c>
       <c r="E26" s="3">
-        <v>-3518200</v>
+        <v>-3541800</v>
       </c>
       <c r="F26" s="3">
-        <v>-7588900</v>
+        <v>-7639700</v>
       </c>
       <c r="G26" s="3">
-        <v>290800</v>
+        <v>292700</v>
       </c>
       <c r="H26" s="3">
-        <v>438300</v>
+        <v>441200</v>
       </c>
       <c r="I26" s="3">
-        <v>161500</v>
+        <v>162600</v>
       </c>
       <c r="J26" s="3">
-        <v>569700</v>
+        <v>573500</v>
       </c>
       <c r="K26" s="3">
         <v>143900</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>636400</v>
+        <v>640700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3707800</v>
+        <v>-3732600</v>
       </c>
       <c r="F27" s="3">
-        <v>-7646000</v>
+        <v>-7697100</v>
       </c>
       <c r="G27" s="3">
-        <v>294000</v>
+        <v>296000</v>
       </c>
       <c r="H27" s="3">
-        <v>425400</v>
+        <v>428200</v>
       </c>
       <c r="I27" s="3">
-        <v>157200</v>
+        <v>158300</v>
       </c>
       <c r="J27" s="3">
-        <v>562100</v>
+        <v>565900</v>
       </c>
       <c r="K27" s="3">
         <v>78300</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="J29" s="3">
-        <v>290800</v>
+        <v>292700</v>
       </c>
       <c r="K29" s="3">
         <v>27500</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>328500</v>
+        <v>330700</v>
       </c>
       <c r="E32" s="3">
-        <v>512600</v>
+        <v>516000</v>
       </c>
       <c r="F32" s="3">
-        <v>552400</v>
+        <v>556100</v>
       </c>
       <c r="G32" s="3">
-        <v>275700</v>
+        <v>277500</v>
       </c>
       <c r="H32" s="3">
-        <v>353200</v>
+        <v>355600</v>
       </c>
       <c r="I32" s="3">
-        <v>-664400</v>
+        <v>-668900</v>
       </c>
       <c r="J32" s="3">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="K32" s="3">
         <v>672900</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>636400</v>
+        <v>640700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3707800</v>
+        <v>-3732600</v>
       </c>
       <c r="F33" s="3">
-        <v>-7646000</v>
+        <v>-7697100</v>
       </c>
       <c r="G33" s="3">
-        <v>294000</v>
+        <v>296000</v>
       </c>
       <c r="H33" s="3">
-        <v>425400</v>
+        <v>428200</v>
       </c>
       <c r="I33" s="3">
-        <v>148600</v>
+        <v>149600</v>
       </c>
       <c r="J33" s="3">
-        <v>852900</v>
+        <v>858600</v>
       </c>
       <c r="K33" s="3">
         <v>105800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>636400</v>
+        <v>640700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3707800</v>
+        <v>-3732600</v>
       </c>
       <c r="F35" s="3">
-        <v>-7646000</v>
+        <v>-7697100</v>
       </c>
       <c r="G35" s="3">
-        <v>294000</v>
+        <v>296000</v>
       </c>
       <c r="H35" s="3">
-        <v>425400</v>
+        <v>428200</v>
       </c>
       <c r="I35" s="3">
-        <v>148600</v>
+        <v>149600</v>
       </c>
       <c r="J35" s="3">
-        <v>852900</v>
+        <v>858600</v>
       </c>
       <c r="K35" s="3">
         <v>105800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14271100</v>
+        <v>14366500</v>
       </c>
       <c r="E41" s="3">
-        <v>7170000</v>
+        <v>7217900</v>
       </c>
       <c r="F41" s="3">
-        <v>6916900</v>
+        <v>6963200</v>
       </c>
       <c r="G41" s="3">
-        <v>4000700</v>
+        <v>4027400</v>
       </c>
       <c r="H41" s="3">
-        <v>3860700</v>
+        <v>3886500</v>
       </c>
       <c r="I41" s="3">
-        <v>10065800</v>
+        <v>10133100</v>
       </c>
       <c r="J41" s="3">
-        <v>4240800</v>
+        <v>4269200</v>
       </c>
       <c r="K41" s="3">
         <v>3284000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>667700</v>
+        <v>672100</v>
       </c>
       <c r="E42" s="3">
-        <v>521200</v>
+        <v>524700</v>
       </c>
       <c r="F42" s="3">
-        <v>653700</v>
+        <v>658000</v>
       </c>
       <c r="G42" s="3">
-        <v>861500</v>
+        <v>867300</v>
       </c>
       <c r="H42" s="3">
-        <v>350000</v>
+        <v>352300</v>
       </c>
       <c r="I42" s="3">
-        <v>453400</v>
+        <v>456400</v>
       </c>
       <c r="J42" s="3">
-        <v>140000</v>
+        <v>140900</v>
       </c>
       <c r="K42" s="3">
         <v>1023100</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4405600</v>
+        <v>4435100</v>
       </c>
       <c r="E43" s="3">
-        <v>2351900</v>
+        <v>2367700</v>
       </c>
       <c r="F43" s="3">
-        <v>2091300</v>
+        <v>2105300</v>
       </c>
       <c r="G43" s="3">
-        <v>2917300</v>
+        <v>2936800</v>
       </c>
       <c r="H43" s="3">
-        <v>2899000</v>
+        <v>2918400</v>
       </c>
       <c r="I43" s="3">
-        <v>5139000</v>
+        <v>5173300</v>
       </c>
       <c r="J43" s="3">
-        <v>2434900</v>
+        <v>2451200</v>
       </c>
       <c r="K43" s="3">
         <v>2354100</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1557200</v>
+        <v>1567600</v>
       </c>
       <c r="E44" s="3">
-        <v>610600</v>
+        <v>614700</v>
       </c>
       <c r="F44" s="3">
-        <v>584800</v>
+        <v>588700</v>
       </c>
       <c r="G44" s="3">
-        <v>793700</v>
+        <v>799000</v>
       </c>
       <c r="H44" s="3">
-        <v>681700</v>
+        <v>686200</v>
       </c>
       <c r="I44" s="3">
-        <v>1199700</v>
+        <v>1207700</v>
       </c>
       <c r="J44" s="3">
-        <v>609500</v>
+        <v>613600</v>
       </c>
       <c r="K44" s="3">
         <v>562900</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1926600</v>
+        <v>1854900</v>
       </c>
       <c r="E45" s="3">
-        <v>900300</v>
+        <v>906300</v>
       </c>
       <c r="F45" s="3">
-        <v>409200</v>
+        <v>412000</v>
       </c>
       <c r="G45" s="3">
-        <v>622400</v>
+        <v>626600</v>
       </c>
       <c r="H45" s="3">
-        <v>607400</v>
+        <v>611400</v>
       </c>
       <c r="I45" s="3">
-        <v>2198000</v>
+        <v>2212600</v>
       </c>
       <c r="J45" s="3">
-        <v>766800</v>
+        <v>771900</v>
       </c>
       <c r="K45" s="3">
         <v>758600</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12079600</v>
+        <v>12075800</v>
       </c>
       <c r="E46" s="3">
-        <v>11554100</v>
+        <v>11631300</v>
       </c>
       <c r="F46" s="3">
-        <v>10655900</v>
+        <v>10727200</v>
       </c>
       <c r="G46" s="3">
-        <v>9195600</v>
+        <v>9257100</v>
       </c>
       <c r="H46" s="3">
-        <v>8398700</v>
+        <v>8454900</v>
       </c>
       <c r="I46" s="3">
-        <v>9754600</v>
+        <v>9819800</v>
       </c>
       <c r="J46" s="3">
-        <v>8192000</v>
+        <v>8246700</v>
       </c>
       <c r="K46" s="3">
         <v>7982600</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1404300</v>
+        <v>1413700</v>
       </c>
       <c r="E47" s="3">
-        <v>1141500</v>
+        <v>1149100</v>
       </c>
       <c r="F47" s="3">
-        <v>1112400</v>
+        <v>1119900</v>
       </c>
       <c r="G47" s="3">
-        <v>1514100</v>
+        <v>1524200</v>
       </c>
       <c r="H47" s="3">
-        <v>1948100</v>
+        <v>1961100</v>
       </c>
       <c r="I47" s="3">
-        <v>1697200</v>
+        <v>1708500</v>
       </c>
       <c r="J47" s="3">
-        <v>1507700</v>
+        <v>1517700</v>
       </c>
       <c r="K47" s="3">
         <v>1424100</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37512700</v>
+        <v>37763500</v>
       </c>
       <c r="E48" s="3">
-        <v>18324500</v>
+        <v>18447000</v>
       </c>
       <c r="F48" s="3">
-        <v>18584100</v>
+        <v>18708300</v>
       </c>
       <c r="G48" s="3">
-        <v>19477900</v>
+        <v>19608100</v>
       </c>
       <c r="H48" s="3">
-        <v>18818800</v>
+        <v>18944600</v>
       </c>
       <c r="I48" s="3">
-        <v>37703300</v>
+        <v>37955400</v>
       </c>
       <c r="J48" s="3">
-        <v>11414100</v>
+        <v>11490400</v>
       </c>
       <c r="K48" s="3">
         <v>11017000</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3138100</v>
+        <v>3159100</v>
       </c>
       <c r="E49" s="3">
-        <v>1569000</v>
+        <v>1579500</v>
       </c>
       <c r="F49" s="3">
-        <v>1556100</v>
+        <v>1566500</v>
       </c>
       <c r="G49" s="3">
-        <v>1639000</v>
+        <v>1650000</v>
       </c>
       <c r="H49" s="3">
-        <v>1519500</v>
+        <v>1529700</v>
       </c>
       <c r="I49" s="3">
-        <v>2881800</v>
+        <v>2901100</v>
       </c>
       <c r="J49" s="3">
-        <v>1382700</v>
+        <v>1392000</v>
       </c>
       <c r="K49" s="3">
         <v>1338400</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1093100</v>
+        <v>1184900</v>
       </c>
       <c r="E52" s="3">
-        <v>453400</v>
+        <v>456400</v>
       </c>
       <c r="F52" s="3">
-        <v>597700</v>
+        <v>601700</v>
       </c>
       <c r="G52" s="3">
-        <v>1271800</v>
+        <v>1280300</v>
       </c>
       <c r="H52" s="3">
-        <v>1230900</v>
+        <v>1239100</v>
       </c>
       <c r="I52" s="3">
-        <v>1563700</v>
+        <v>1574100</v>
       </c>
       <c r="J52" s="3">
-        <v>2199000</v>
+        <v>2213700</v>
       </c>
       <c r="K52" s="3">
         <v>2926400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>34789300</v>
+        <v>35021900</v>
       </c>
       <c r="E54" s="3">
-        <v>33042500</v>
+        <v>33263400</v>
       </c>
       <c r="F54" s="3">
-        <v>32501900</v>
+        <v>32719200</v>
       </c>
       <c r="G54" s="3">
-        <v>33098500</v>
+        <v>33319800</v>
       </c>
       <c r="H54" s="3">
-        <v>31916100</v>
+        <v>32129500</v>
       </c>
       <c r="I54" s="3">
-        <v>32267200</v>
+        <v>32482900</v>
       </c>
       <c r="J54" s="3">
-        <v>24695500</v>
+        <v>24860600</v>
       </c>
       <c r="K54" s="3">
         <v>24688400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2610400</v>
+        <v>2627900</v>
       </c>
       <c r="E57" s="3">
-        <v>1992300</v>
+        <v>2005600</v>
       </c>
       <c r="F57" s="3">
-        <v>1545400</v>
+        <v>1555700</v>
       </c>
       <c r="G57" s="3">
-        <v>2561900</v>
+        <v>2579100</v>
       </c>
       <c r="H57" s="3">
-        <v>2642700</v>
+        <v>2660400</v>
       </c>
       <c r="I57" s="3">
-        <v>2546900</v>
+        <v>2563900</v>
       </c>
       <c r="J57" s="3">
-        <v>2540400</v>
+        <v>2557400</v>
       </c>
       <c r="K57" s="3">
         <v>2533900</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2628700</v>
+        <v>3963500</v>
       </c>
       <c r="E58" s="3">
-        <v>2064400</v>
+        <v>2078200</v>
       </c>
       <c r="F58" s="3">
-        <v>2208700</v>
+        <v>2223500</v>
       </c>
       <c r="G58" s="3">
-        <v>1890000</v>
+        <v>1902600</v>
       </c>
       <c r="H58" s="3">
-        <v>1890000</v>
+        <v>1902600</v>
       </c>
       <c r="I58" s="3">
-        <v>3963000</v>
+        <v>3989500</v>
       </c>
       <c r="J58" s="3">
-        <v>1009100</v>
+        <v>1015800</v>
       </c>
       <c r="K58" s="3">
         <v>2036700</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10430900</v>
+        <v>10405200</v>
       </c>
       <c r="E59" s="3">
-        <v>8571000</v>
+        <v>8628400</v>
       </c>
       <c r="F59" s="3">
-        <v>8929700</v>
+        <v>8989400</v>
       </c>
       <c r="G59" s="3">
-        <v>9169800</v>
+        <v>9231100</v>
       </c>
       <c r="H59" s="3">
-        <v>8758400</v>
+        <v>8817000</v>
       </c>
       <c r="I59" s="3">
-        <v>11449600</v>
+        <v>11526200</v>
       </c>
       <c r="J59" s="3">
-        <v>7371400</v>
+        <v>7420700</v>
       </c>
       <c r="K59" s="3">
         <v>8124400</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14712600</v>
+        <v>14811000</v>
       </c>
       <c r="E60" s="3">
-        <v>12627700</v>
+        <v>12712200</v>
       </c>
       <c r="F60" s="3">
-        <v>12683700</v>
+        <v>12768500</v>
       </c>
       <c r="G60" s="3">
-        <v>13621700</v>
+        <v>13712800</v>
       </c>
       <c r="H60" s="3">
-        <v>13291100</v>
+        <v>13380000</v>
       </c>
       <c r="I60" s="3">
-        <v>12981000</v>
+        <v>13067700</v>
       </c>
       <c r="J60" s="3">
-        <v>10920800</v>
+        <v>10993900</v>
       </c>
       <c r="K60" s="3">
         <v>12694900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13971700</v>
+        <v>14065100</v>
       </c>
       <c r="E61" s="3">
-        <v>15288700</v>
+        <v>15391000</v>
       </c>
       <c r="F61" s="3">
-        <v>17872200</v>
+        <v>17991700</v>
       </c>
       <c r="G61" s="3">
-        <v>10144400</v>
+        <v>10212200</v>
       </c>
       <c r="H61" s="3">
-        <v>9991500</v>
+        <v>10058300</v>
       </c>
       <c r="I61" s="3">
-        <v>10617200</v>
+        <v>10688100</v>
       </c>
       <c r="J61" s="3">
-        <v>8002400</v>
+        <v>8055900</v>
       </c>
       <c r="K61" s="3">
         <v>7469500</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13243700</v>
+        <v>13332300</v>
       </c>
       <c r="E62" s="3">
-        <v>9235500</v>
+        <v>9297200</v>
       </c>
       <c r="F62" s="3">
-        <v>7698800</v>
+        <v>7750200</v>
       </c>
       <c r="G62" s="3">
-        <v>6856600</v>
+        <v>6902500</v>
       </c>
       <c r="H62" s="3">
-        <v>6697200</v>
+        <v>6742000</v>
       </c>
       <c r="I62" s="3">
-        <v>6451700</v>
+        <v>6494800</v>
       </c>
       <c r="J62" s="3">
-        <v>4376500</v>
+        <v>4405800</v>
       </c>
       <c r="K62" s="3">
         <v>4235200</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38024300</v>
+        <v>38278500</v>
       </c>
       <c r="E66" s="3">
-        <v>37160600</v>
+        <v>37409000</v>
       </c>
       <c r="F66" s="3">
-        <v>38264400</v>
+        <v>38520200</v>
       </c>
       <c r="G66" s="3">
-        <v>30638900</v>
+        <v>30843700</v>
       </c>
       <c r="H66" s="3">
-        <v>29992700</v>
+        <v>30193300</v>
       </c>
       <c r="I66" s="3">
-        <v>29674000</v>
+        <v>29872400</v>
       </c>
       <c r="J66" s="3">
-        <v>23312700</v>
+        <v>23468600</v>
       </c>
       <c r="K66" s="3">
         <v>24450400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24658900</v>
+        <v>-24823700</v>
       </c>
       <c r="E72" s="3">
-        <v>-12694500</v>
+        <v>-12779400</v>
       </c>
       <c r="F72" s="3">
-        <v>-8769200</v>
+        <v>-8827800</v>
       </c>
       <c r="G72" s="3">
-        <v>-1053200</v>
+        <v>-1060200</v>
       </c>
       <c r="H72" s="3">
-        <v>-1386000</v>
+        <v>-1395200</v>
       </c>
       <c r="I72" s="3">
-        <v>-4528400</v>
+        <v>-4558600</v>
       </c>
       <c r="J72" s="3">
-        <v>334900</v>
+        <v>337200</v>
       </c>
       <c r="K72" s="3">
         <v>-480300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3235000</v>
+        <v>-3256600</v>
       </c>
       <c r="E76" s="3">
-        <v>-4118100</v>
+        <v>-4145600</v>
       </c>
       <c r="F76" s="3">
-        <v>-5762500</v>
+        <v>-5801000</v>
       </c>
       <c r="G76" s="3">
-        <v>2459600</v>
+        <v>2476100</v>
       </c>
       <c r="H76" s="3">
-        <v>1923300</v>
+        <v>1936200</v>
       </c>
       <c r="I76" s="3">
-        <v>2593200</v>
+        <v>2610500</v>
       </c>
       <c r="J76" s="3">
-        <v>1382700</v>
+        <v>1392000</v>
       </c>
       <c r="K76" s="3">
         <v>238100</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>636400</v>
+        <v>640700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3707800</v>
+        <v>-3732600</v>
       </c>
       <c r="F81" s="3">
-        <v>-7646000</v>
+        <v>-7697100</v>
       </c>
       <c r="G81" s="3">
-        <v>294000</v>
+        <v>296000</v>
       </c>
       <c r="H81" s="3">
-        <v>425400</v>
+        <v>428200</v>
       </c>
       <c r="I81" s="3">
-        <v>148600</v>
+        <v>149600</v>
       </c>
       <c r="J81" s="3">
-        <v>852900</v>
+        <v>858600</v>
       </c>
       <c r="K81" s="3">
         <v>105800</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2608300</v>
+        <v>2625700</v>
       </c>
       <c r="E83" s="3">
-        <v>2553300</v>
+        <v>2570400</v>
       </c>
       <c r="F83" s="3">
-        <v>3078900</v>
+        <v>3099400</v>
       </c>
       <c r="G83" s="3">
-        <v>3216700</v>
+        <v>3238200</v>
       </c>
       <c r="H83" s="3">
-        <v>3110100</v>
+        <v>3130900</v>
       </c>
       <c r="I83" s="3">
-        <v>3058400</v>
+        <v>3078800</v>
       </c>
       <c r="J83" s="3">
-        <v>1793000</v>
+        <v>1805000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5229400</v>
+        <v>5264400</v>
       </c>
       <c r="E89" s="3">
-        <v>1652000</v>
+        <v>1663000</v>
       </c>
       <c r="F89" s="3">
-        <v>-3043300</v>
+        <v>-3063700</v>
       </c>
       <c r="G89" s="3">
-        <v>4194500</v>
+        <v>4222600</v>
       </c>
       <c r="H89" s="3">
-        <v>4090100</v>
+        <v>4117400</v>
       </c>
       <c r="I89" s="3">
-        <v>4414200</v>
+        <v>4443700</v>
       </c>
       <c r="J89" s="3">
-        <v>2411200</v>
+        <v>2427300</v>
       </c>
       <c r="K89" s="3">
         <v>1077000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3200500</v>
+        <v>-3221900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2371300</v>
+        <v>-2387200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2260400</v>
+        <v>-2275500</v>
       </c>
       <c r="G91" s="3">
-        <v>-3631300</v>
+        <v>-3655600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5769000</v>
+        <v>-5807500</v>
       </c>
       <c r="I91" s="3">
-        <v>-2500600</v>
+        <v>-2517300</v>
       </c>
       <c r="J91" s="3">
-        <v>-2062300</v>
+        <v>-2076100</v>
       </c>
       <c r="K91" s="3">
         <v>-1514000</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2318600</v>
+        <v>-2334100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1334300</v>
+        <v>-1343200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1704700</v>
+        <v>-1716100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3573200</v>
+        <v>-3597000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2911900</v>
+        <v>-2931400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2899000</v>
+        <v>-2918400</v>
       </c>
       <c r="J94" s="3">
-        <v>-782900</v>
+        <v>-788100</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4001,22 +4001,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-28200</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-41200</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-41200</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-41200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2967900</v>
+        <v>-2987800</v>
       </c>
       <c r="E100" s="3">
-        <v>-82900</v>
+        <v>-83500</v>
       </c>
       <c r="F100" s="3">
-        <v>7696600</v>
+        <v>7748100</v>
       </c>
       <c r="G100" s="3">
-        <v>-481400</v>
+        <v>-484600</v>
       </c>
       <c r="H100" s="3">
-        <v>-2356300</v>
+        <v>-2372000</v>
       </c>
       <c r="I100" s="3">
-        <v>-689200</v>
+        <v>-693800</v>
       </c>
       <c r="J100" s="3">
-        <v>-718300</v>
+        <v>-723100</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="E101" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F101" s="3">
-        <v>-29100</v>
+        <v>-29300</v>
       </c>
       <c r="G101" s="3">
         <v>1100</v>
       </c>
       <c r="H101" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="I101" s="3">
-        <v>-35500</v>
+        <v>-35800</v>
       </c>
       <c r="J101" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -4250,25 +4250,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="E102" s="3">
-        <v>249800</v>
+        <v>251500</v>
       </c>
       <c r="F102" s="3">
-        <v>2919500</v>
+        <v>2939000</v>
       </c>
       <c r="G102" s="3">
-        <v>141100</v>
+        <v>142000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1170600</v>
+        <v>-1178400</v>
       </c>
       <c r="I102" s="3">
-        <v>790400</v>
+        <v>795700</v>
       </c>
       <c r="J102" s="3">
-        <v>896000</v>
+        <v>902000</v>
       </c>
       <c r="K102" s="3">
         <v>-643300</v>

--- a/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AFLYY_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>28612700</v>
+        <v>28636400</v>
       </c>
       <c r="E8" s="3">
-        <v>15518900</v>
+        <v>15531800</v>
       </c>
       <c r="F8" s="3">
-        <v>12020500</v>
+        <v>12030500</v>
       </c>
       <c r="G8" s="3">
-        <v>29475600</v>
+        <v>29500100</v>
       </c>
       <c r="H8" s="3">
-        <v>28432700</v>
+        <v>28456300</v>
       </c>
       <c r="I8" s="3">
-        <v>28042400</v>
+        <v>28065700</v>
       </c>
       <c r="J8" s="3">
-        <v>26935500</v>
+        <v>26957900</v>
       </c>
       <c r="K8" s="3">
         <v>27181100</v>
@@ -769,25 +769,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15621900</v>
+        <v>15634900</v>
       </c>
       <c r="E9" s="3">
-        <v>8388800</v>
+        <v>8395700</v>
       </c>
       <c r="F9" s="3">
-        <v>7644000</v>
+        <v>7650300</v>
       </c>
       <c r="G9" s="3">
-        <v>14917200</v>
+        <v>14929600</v>
       </c>
       <c r="H9" s="3">
-        <v>14007700</v>
+        <v>14019300</v>
       </c>
       <c r="I9" s="3">
-        <v>14556200</v>
+        <v>14568300</v>
       </c>
       <c r="J9" s="3">
-        <v>15644600</v>
+        <v>15657600</v>
       </c>
       <c r="K9" s="3">
         <v>16938600</v>
@@ -811,25 +811,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>12990800</v>
+        <v>13001600</v>
       </c>
       <c r="E10" s="3">
-        <v>7130100</v>
+        <v>7136000</v>
       </c>
       <c r="F10" s="3">
-        <v>4376500</v>
+        <v>4380100</v>
       </c>
       <c r="G10" s="3">
-        <v>14558400</v>
+        <v>14570500</v>
       </c>
       <c r="H10" s="3">
-        <v>14425000</v>
+        <v>14437000</v>
       </c>
       <c r="I10" s="3">
-        <v>13486200</v>
+        <v>13497400</v>
       </c>
       <c r="J10" s="3">
-        <v>11290900</v>
+        <v>11300300</v>
       </c>
       <c r="K10" s="3">
         <v>10242500</v>
@@ -955,25 +955,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="E14" s="3">
-        <v>788100</v>
+        <v>788800</v>
       </c>
       <c r="F14" s="3">
-        <v>1677100</v>
+        <v>1678500</v>
       </c>
       <c r="G14" s="3">
-        <v>165900</v>
+        <v>166000</v>
       </c>
       <c r="H14" s="3">
         <v>26000</v>
       </c>
       <c r="I14" s="3">
-        <v>2086900</v>
+        <v>2088600</v>
       </c>
       <c r="J14" s="3">
-        <v>156100</v>
+        <v>156200</v>
       </c>
       <c r="K14" s="3">
         <v>148100</v>
@@ -997,25 +997,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2922700</v>
+        <v>2925200</v>
       </c>
       <c r="E15" s="3">
-        <v>2724300</v>
+        <v>2726600</v>
       </c>
       <c r="F15" s="3">
-        <v>2966100</v>
+        <v>2968600</v>
       </c>
       <c r="G15" s="3">
-        <v>3188300</v>
+        <v>3191000</v>
       </c>
       <c r="H15" s="3">
-        <v>3111400</v>
+        <v>3114000</v>
       </c>
       <c r="I15" s="3">
-        <v>2987800</v>
+        <v>2990300</v>
       </c>
       <c r="J15" s="3">
-        <v>1703100</v>
+        <v>1704500</v>
       </c>
       <c r="K15" s="3">
         <v>1664200</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>27318200</v>
+        <v>27340900</v>
       </c>
       <c r="E17" s="3">
-        <v>18263800</v>
+        <v>18279000</v>
       </c>
       <c r="F17" s="3">
-        <v>18557600</v>
+        <v>18573000</v>
       </c>
       <c r="G17" s="3">
-        <v>28380700</v>
+        <v>28404200</v>
       </c>
       <c r="H17" s="3">
-        <v>26922500</v>
+        <v>26944900</v>
       </c>
       <c r="I17" s="3">
-        <v>28025100</v>
+        <v>28048300</v>
       </c>
       <c r="J17" s="3">
-        <v>25734400</v>
+        <v>25755700</v>
       </c>
       <c r="K17" s="3">
         <v>26032100</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1294400</v>
+        <v>1295500</v>
       </c>
       <c r="E18" s="3">
-        <v>-2744900</v>
+        <v>-2747200</v>
       </c>
       <c r="F18" s="3">
-        <v>-6537100</v>
+        <v>-6542600</v>
       </c>
       <c r="G18" s="3">
-        <v>1094900</v>
+        <v>1095900</v>
       </c>
       <c r="H18" s="3">
-        <v>1510200</v>
+        <v>1511400</v>
       </c>
       <c r="I18" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="J18" s="3">
-        <v>1201200</v>
+        <v>1202200</v>
       </c>
       <c r="K18" s="3">
         <v>1149000</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-330700</v>
+        <v>-330900</v>
       </c>
       <c r="E20" s="3">
-        <v>-516000</v>
+        <v>-516500</v>
       </c>
       <c r="F20" s="3">
-        <v>-556100</v>
+        <v>-556600</v>
       </c>
       <c r="G20" s="3">
-        <v>-277500</v>
+        <v>-277800</v>
       </c>
       <c r="H20" s="3">
-        <v>-355600</v>
+        <v>-355900</v>
       </c>
       <c r="I20" s="3">
-        <v>668900</v>
+        <v>669400</v>
       </c>
       <c r="J20" s="3">
-        <v>-60700</v>
+        <v>-60800</v>
       </c>
       <c r="K20" s="3">
         <v>-672900</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3589500</v>
+        <v>3591500</v>
       </c>
       <c r="E21" s="3">
-        <v>-690600</v>
+        <v>-692100</v>
       </c>
       <c r="F21" s="3">
-        <v>-3993800</v>
+        <v>-3998300</v>
       </c>
       <c r="G21" s="3">
-        <v>4055600</v>
+        <v>4057800</v>
       </c>
       <c r="H21" s="3">
-        <v>4285400</v>
+        <v>4287800</v>
       </c>
       <c r="I21" s="3">
-        <v>3765100</v>
+        <v>3767100</v>
       </c>
       <c r="J21" s="3">
-        <v>2945500</v>
+        <v>2947300</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1240,25 +1240,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>593000</v>
+        <v>593500</v>
       </c>
       <c r="E22" s="3">
-        <v>586500</v>
+        <v>587000</v>
       </c>
       <c r="F22" s="3">
-        <v>449900</v>
+        <v>450300</v>
       </c>
       <c r="G22" s="3">
-        <v>442300</v>
+        <v>442700</v>
       </c>
       <c r="H22" s="3">
-        <v>470500</v>
+        <v>470900</v>
       </c>
       <c r="I22" s="3">
-        <v>546400</v>
+        <v>546800</v>
       </c>
       <c r="J22" s="3">
-        <v>248300</v>
+        <v>248500</v>
       </c>
       <c r="K22" s="3">
         <v>300500</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>370800</v>
+        <v>371100</v>
       </c>
       <c r="E23" s="3">
-        <v>-3847500</v>
+        <v>-3850700</v>
       </c>
       <c r="F23" s="3">
-        <v>-7543200</v>
+        <v>-7549400</v>
       </c>
       <c r="G23" s="3">
-        <v>375100</v>
+        <v>375400</v>
       </c>
       <c r="H23" s="3">
-        <v>684100</v>
+        <v>684600</v>
       </c>
       <c r="I23" s="3">
-        <v>139800</v>
+        <v>140000</v>
       </c>
       <c r="J23" s="3">
-        <v>892200</v>
+        <v>893000</v>
       </c>
       <c r="K23" s="3">
         <v>175600</v>
@@ -1324,25 +1324,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-422800</v>
+        <v>-423200</v>
       </c>
       <c r="E24" s="3">
-        <v>-305700</v>
+        <v>-306000</v>
       </c>
       <c r="F24" s="3">
-        <v>96500</v>
+        <v>96600</v>
       </c>
       <c r="G24" s="3">
-        <v>82400</v>
+        <v>82500</v>
       </c>
       <c r="H24" s="3">
-        <v>242800</v>
+        <v>243000</v>
       </c>
       <c r="I24" s="3">
         <v>-22800</v>
       </c>
       <c r="J24" s="3">
-        <v>318700</v>
+        <v>319000</v>
       </c>
       <c r="K24" s="3">
         <v>31700</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>793600</v>
+        <v>794200</v>
       </c>
       <c r="E26" s="3">
-        <v>-3541800</v>
+        <v>-3544700</v>
       </c>
       <c r="F26" s="3">
-        <v>-7639700</v>
+        <v>-7646000</v>
       </c>
       <c r="G26" s="3">
-        <v>292700</v>
+        <v>293000</v>
       </c>
       <c r="H26" s="3">
-        <v>441200</v>
+        <v>441600</v>
       </c>
       <c r="I26" s="3">
-        <v>162600</v>
+        <v>162800</v>
       </c>
       <c r="J26" s="3">
-        <v>573500</v>
+        <v>574000</v>
       </c>
       <c r="K26" s="3">
         <v>143900</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>640700</v>
+        <v>641200</v>
       </c>
       <c r="E27" s="3">
-        <v>-3732600</v>
+        <v>-3735700</v>
       </c>
       <c r="F27" s="3">
-        <v>-7697100</v>
+        <v>-7703500</v>
       </c>
       <c r="G27" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="H27" s="3">
-        <v>428200</v>
+        <v>428600</v>
       </c>
       <c r="I27" s="3">
-        <v>158300</v>
+        <v>158400</v>
       </c>
       <c r="J27" s="3">
-        <v>565900</v>
+        <v>566400</v>
       </c>
       <c r="K27" s="3">
         <v>78300</v>
@@ -1552,7 +1552,7 @@
         <v>-8700</v>
       </c>
       <c r="J29" s="3">
-        <v>292700</v>
+        <v>293000</v>
       </c>
       <c r="K29" s="3">
         <v>27500</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>330700</v>
+        <v>330900</v>
       </c>
       <c r="E32" s="3">
-        <v>516000</v>
+        <v>516500</v>
       </c>
       <c r="F32" s="3">
-        <v>556100</v>
+        <v>556600</v>
       </c>
       <c r="G32" s="3">
-        <v>277500</v>
+        <v>277800</v>
       </c>
       <c r="H32" s="3">
-        <v>355600</v>
+        <v>355900</v>
       </c>
       <c r="I32" s="3">
-        <v>-668900</v>
+        <v>-669400</v>
       </c>
       <c r="J32" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="K32" s="3">
         <v>672900</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>640700</v>
+        <v>641200</v>
       </c>
       <c r="E33" s="3">
-        <v>-3732600</v>
+        <v>-3735700</v>
       </c>
       <c r="F33" s="3">
-        <v>-7697100</v>
+        <v>-7703500</v>
       </c>
       <c r="G33" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="H33" s="3">
-        <v>428200</v>
+        <v>428600</v>
       </c>
       <c r="I33" s="3">
-        <v>149600</v>
+        <v>149700</v>
       </c>
       <c r="J33" s="3">
-        <v>858600</v>
+        <v>859300</v>
       </c>
       <c r="K33" s="3">
         <v>105800</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>640700</v>
+        <v>641200</v>
       </c>
       <c r="E35" s="3">
-        <v>-3732600</v>
+        <v>-3735700</v>
       </c>
       <c r="F35" s="3">
-        <v>-7697100</v>
+        <v>-7703500</v>
       </c>
       <c r="G35" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="H35" s="3">
-        <v>428200</v>
+        <v>428600</v>
       </c>
       <c r="I35" s="3">
-        <v>149600</v>
+        <v>149700</v>
       </c>
       <c r="J35" s="3">
-        <v>858600</v>
+        <v>859300</v>
       </c>
       <c r="K35" s="3">
         <v>105800</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14366500</v>
+        <v>14378400</v>
       </c>
       <c r="E41" s="3">
-        <v>7217900</v>
+        <v>7223900</v>
       </c>
       <c r="F41" s="3">
-        <v>6963200</v>
+        <v>6969000</v>
       </c>
       <c r="G41" s="3">
-        <v>4027400</v>
+        <v>4030800</v>
       </c>
       <c r="H41" s="3">
-        <v>3886500</v>
+        <v>3889700</v>
       </c>
       <c r="I41" s="3">
-        <v>10133100</v>
+        <v>10141500</v>
       </c>
       <c r="J41" s="3">
-        <v>4269200</v>
+        <v>4272700</v>
       </c>
       <c r="K41" s="3">
         <v>3284000</v>
@@ -1953,25 +1953,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>672100</v>
+        <v>672700</v>
       </c>
       <c r="E42" s="3">
-        <v>524700</v>
+        <v>525100</v>
       </c>
       <c r="F42" s="3">
-        <v>658000</v>
+        <v>658600</v>
       </c>
       <c r="G42" s="3">
-        <v>867300</v>
+        <v>868000</v>
       </c>
       <c r="H42" s="3">
-        <v>352300</v>
+        <v>352600</v>
       </c>
       <c r="I42" s="3">
-        <v>456400</v>
+        <v>456800</v>
       </c>
       <c r="J42" s="3">
-        <v>140900</v>
+        <v>141000</v>
       </c>
       <c r="K42" s="3">
         <v>1023100</v>
@@ -1995,25 +1995,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4435100</v>
+        <v>4438700</v>
       </c>
       <c r="E43" s="3">
-        <v>2367700</v>
+        <v>2369600</v>
       </c>
       <c r="F43" s="3">
-        <v>2105300</v>
+        <v>2107100</v>
       </c>
       <c r="G43" s="3">
-        <v>2936800</v>
+        <v>2939300</v>
       </c>
       <c r="H43" s="3">
-        <v>2918400</v>
+        <v>2920800</v>
       </c>
       <c r="I43" s="3">
-        <v>5173300</v>
+        <v>5177600</v>
       </c>
       <c r="J43" s="3">
-        <v>2451200</v>
+        <v>2453200</v>
       </c>
       <c r="K43" s="3">
         <v>2354100</v>
@@ -2037,25 +2037,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1567600</v>
+        <v>1568900</v>
       </c>
       <c r="E44" s="3">
-        <v>614700</v>
+        <v>615200</v>
       </c>
       <c r="F44" s="3">
-        <v>588700</v>
+        <v>589200</v>
       </c>
       <c r="G44" s="3">
-        <v>799000</v>
+        <v>799600</v>
       </c>
       <c r="H44" s="3">
-        <v>686200</v>
+        <v>686800</v>
       </c>
       <c r="I44" s="3">
-        <v>1207700</v>
+        <v>1208700</v>
       </c>
       <c r="J44" s="3">
-        <v>613600</v>
+        <v>614100</v>
       </c>
       <c r="K44" s="3">
         <v>562900</v>
@@ -2079,25 +2079,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1854900</v>
+        <v>1856400</v>
       </c>
       <c r="E45" s="3">
-        <v>906300</v>
+        <v>907100</v>
       </c>
       <c r="F45" s="3">
-        <v>412000</v>
+        <v>412300</v>
       </c>
       <c r="G45" s="3">
-        <v>626600</v>
+        <v>627100</v>
       </c>
       <c r="H45" s="3">
-        <v>611400</v>
+        <v>611900</v>
       </c>
       <c r="I45" s="3">
-        <v>2212600</v>
+        <v>2214500</v>
       </c>
       <c r="J45" s="3">
-        <v>771900</v>
+        <v>772500</v>
       </c>
       <c r="K45" s="3">
         <v>758600</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12075800</v>
+        <v>12085800</v>
       </c>
       <c r="E46" s="3">
-        <v>11631300</v>
+        <v>11641000</v>
       </c>
       <c r="F46" s="3">
-        <v>10727200</v>
+        <v>10736100</v>
       </c>
       <c r="G46" s="3">
-        <v>9257100</v>
+        <v>9264800</v>
       </c>
       <c r="H46" s="3">
-        <v>8454900</v>
+        <v>8461900</v>
       </c>
       <c r="I46" s="3">
-        <v>9819800</v>
+        <v>9827900</v>
       </c>
       <c r="J46" s="3">
-        <v>8246700</v>
+        <v>8253600</v>
       </c>
       <c r="K46" s="3">
         <v>7982600</v>
@@ -2163,25 +2163,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1413700</v>
+        <v>1414800</v>
       </c>
       <c r="E47" s="3">
-        <v>1149100</v>
+        <v>1150100</v>
       </c>
       <c r="F47" s="3">
-        <v>1119900</v>
+        <v>1120800</v>
       </c>
       <c r="G47" s="3">
-        <v>1524200</v>
+        <v>1525500</v>
       </c>
       <c r="H47" s="3">
-        <v>1961100</v>
+        <v>1962800</v>
       </c>
       <c r="I47" s="3">
-        <v>1708500</v>
+        <v>1710000</v>
       </c>
       <c r="J47" s="3">
-        <v>1517700</v>
+        <v>1519000</v>
       </c>
       <c r="K47" s="3">
         <v>1424100</v>
@@ -2205,25 +2205,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>37763500</v>
+        <v>37794900</v>
       </c>
       <c r="E48" s="3">
-        <v>18447000</v>
+        <v>18462400</v>
       </c>
       <c r="F48" s="3">
-        <v>18708300</v>
+        <v>18723800</v>
       </c>
       <c r="G48" s="3">
-        <v>19608100</v>
+        <v>19624400</v>
       </c>
       <c r="H48" s="3">
-        <v>18944600</v>
+        <v>18960400</v>
       </c>
       <c r="I48" s="3">
-        <v>37955400</v>
+        <v>37986900</v>
       </c>
       <c r="J48" s="3">
-        <v>11490400</v>
+        <v>11499900</v>
       </c>
       <c r="K48" s="3">
         <v>11017000</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3159100</v>
+        <v>3161700</v>
       </c>
       <c r="E49" s="3">
-        <v>1579500</v>
+        <v>1580800</v>
       </c>
       <c r="F49" s="3">
-        <v>1566500</v>
+        <v>1567800</v>
       </c>
       <c r="G49" s="3">
-        <v>1650000</v>
+        <v>1651400</v>
       </c>
       <c r="H49" s="3">
-        <v>1529700</v>
+        <v>1530900</v>
       </c>
       <c r="I49" s="3">
-        <v>2901100</v>
+        <v>2903500</v>
       </c>
       <c r="J49" s="3">
-        <v>1392000</v>
+        <v>1393100</v>
       </c>
       <c r="K49" s="3">
         <v>1338400</v>
@@ -2373,25 +2373,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1184900</v>
+        <v>1185900</v>
       </c>
       <c r="E52" s="3">
-        <v>456400</v>
+        <v>456800</v>
       </c>
       <c r="F52" s="3">
-        <v>601700</v>
+        <v>602200</v>
       </c>
       <c r="G52" s="3">
-        <v>1280300</v>
+        <v>1281400</v>
       </c>
       <c r="H52" s="3">
-        <v>1239100</v>
+        <v>1240200</v>
       </c>
       <c r="I52" s="3">
-        <v>1574100</v>
+        <v>1575400</v>
       </c>
       <c r="J52" s="3">
-        <v>2213700</v>
+        <v>2215600</v>
       </c>
       <c r="K52" s="3">
         <v>2926400</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>35021900</v>
+        <v>35050900</v>
       </c>
       <c r="E54" s="3">
-        <v>33263400</v>
+        <v>33291100</v>
       </c>
       <c r="F54" s="3">
-        <v>32719200</v>
+        <v>32746400</v>
       </c>
       <c r="G54" s="3">
-        <v>33319800</v>
+        <v>33347500</v>
       </c>
       <c r="H54" s="3">
-        <v>32129500</v>
+        <v>32156100</v>
       </c>
       <c r="I54" s="3">
-        <v>32482900</v>
+        <v>32509900</v>
       </c>
       <c r="J54" s="3">
-        <v>24860600</v>
+        <v>24881200</v>
       </c>
       <c r="K54" s="3">
         <v>24688400</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2627900</v>
+        <v>2630000</v>
       </c>
       <c r="E57" s="3">
-        <v>2005600</v>
+        <v>2007300</v>
       </c>
       <c r="F57" s="3">
-        <v>1555700</v>
+        <v>1557000</v>
       </c>
       <c r="G57" s="3">
-        <v>2579100</v>
+        <v>2581200</v>
       </c>
       <c r="H57" s="3">
-        <v>2660400</v>
+        <v>2662600</v>
       </c>
       <c r="I57" s="3">
-        <v>2563900</v>
+        <v>2566000</v>
       </c>
       <c r="J57" s="3">
-        <v>2557400</v>
+        <v>2559500</v>
       </c>
       <c r="K57" s="3">
         <v>2533900</v>
@@ -2577,25 +2577,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3963500</v>
+        <v>3966800</v>
       </c>
       <c r="E58" s="3">
-        <v>2078200</v>
+        <v>2079900</v>
       </c>
       <c r="F58" s="3">
-        <v>2223500</v>
+        <v>2225300</v>
       </c>
       <c r="G58" s="3">
-        <v>1902600</v>
+        <v>1904200</v>
       </c>
       <c r="H58" s="3">
-        <v>1902600</v>
+        <v>1904200</v>
       </c>
       <c r="I58" s="3">
-        <v>3989500</v>
+        <v>3992800</v>
       </c>
       <c r="J58" s="3">
-        <v>1015800</v>
+        <v>1016600</v>
       </c>
       <c r="K58" s="3">
         <v>2036700</v>
@@ -2619,25 +2619,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10405200</v>
+        <v>10413800</v>
       </c>
       <c r="E59" s="3">
-        <v>8628400</v>
+        <v>8635500</v>
       </c>
       <c r="F59" s="3">
-        <v>8989400</v>
+        <v>8996800</v>
       </c>
       <c r="G59" s="3">
-        <v>9231100</v>
+        <v>9238800</v>
       </c>
       <c r="H59" s="3">
-        <v>8817000</v>
+        <v>8824300</v>
       </c>
       <c r="I59" s="3">
-        <v>11526200</v>
+        <v>11535700</v>
       </c>
       <c r="J59" s="3">
-        <v>7420700</v>
+        <v>7426800</v>
       </c>
       <c r="K59" s="3">
         <v>8124400</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14811000</v>
+        <v>14823300</v>
       </c>
       <c r="E60" s="3">
-        <v>12712200</v>
+        <v>12722700</v>
       </c>
       <c r="F60" s="3">
-        <v>12768500</v>
+        <v>12779100</v>
       </c>
       <c r="G60" s="3">
-        <v>13712800</v>
+        <v>13724200</v>
       </c>
       <c r="H60" s="3">
-        <v>13380000</v>
+        <v>13391100</v>
       </c>
       <c r="I60" s="3">
-        <v>13067700</v>
+        <v>13078600</v>
       </c>
       <c r="J60" s="3">
-        <v>10993900</v>
+        <v>11003000</v>
       </c>
       <c r="K60" s="3">
         <v>12694900</v>
@@ -2703,25 +2703,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14065100</v>
+        <v>14076800</v>
       </c>
       <c r="E61" s="3">
-        <v>15391000</v>
+        <v>15403700</v>
       </c>
       <c r="F61" s="3">
-        <v>17991700</v>
+        <v>18006700</v>
       </c>
       <c r="G61" s="3">
-        <v>10212200</v>
+        <v>10220700</v>
       </c>
       <c r="H61" s="3">
-        <v>10058300</v>
+        <v>10066600</v>
       </c>
       <c r="I61" s="3">
-        <v>10688100</v>
+        <v>10697000</v>
       </c>
       <c r="J61" s="3">
-        <v>8055900</v>
+        <v>8062600</v>
       </c>
       <c r="K61" s="3">
         <v>7469500</v>
@@ -2745,25 +2745,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13332300</v>
+        <v>13343300</v>
       </c>
       <c r="E62" s="3">
-        <v>9297200</v>
+        <v>9305000</v>
       </c>
       <c r="F62" s="3">
-        <v>7750200</v>
+        <v>7756700</v>
       </c>
       <c r="G62" s="3">
-        <v>6902500</v>
+        <v>6908200</v>
       </c>
       <c r="H62" s="3">
-        <v>6742000</v>
+        <v>6747600</v>
       </c>
       <c r="I62" s="3">
-        <v>6494800</v>
+        <v>6500200</v>
       </c>
       <c r="J62" s="3">
-        <v>4405800</v>
+        <v>4409400</v>
       </c>
       <c r="K62" s="3">
         <v>4235200</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38278500</v>
+        <v>38310300</v>
       </c>
       <c r="E66" s="3">
-        <v>37409000</v>
+        <v>37440100</v>
       </c>
       <c r="F66" s="3">
-        <v>38520200</v>
+        <v>38552200</v>
       </c>
       <c r="G66" s="3">
-        <v>30843700</v>
+        <v>30869300</v>
       </c>
       <c r="H66" s="3">
-        <v>30193300</v>
+        <v>30218300</v>
       </c>
       <c r="I66" s="3">
-        <v>29872400</v>
+        <v>29897200</v>
       </c>
       <c r="J66" s="3">
-        <v>23468600</v>
+        <v>23488100</v>
       </c>
       <c r="K66" s="3">
         <v>24450400</v>
@@ -3141,25 +3141,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-24823700</v>
+        <v>-24844300</v>
       </c>
       <c r="E72" s="3">
-        <v>-12779400</v>
+        <v>-12790000</v>
       </c>
       <c r="F72" s="3">
-        <v>-8827800</v>
+        <v>-8835200</v>
       </c>
       <c r="G72" s="3">
-        <v>-1060200</v>
+        <v>-1061100</v>
       </c>
       <c r="H72" s="3">
-        <v>-1395200</v>
+        <v>-1396400</v>
       </c>
       <c r="I72" s="3">
-        <v>-4558600</v>
+        <v>-4562400</v>
       </c>
       <c r="J72" s="3">
-        <v>337200</v>
+        <v>337400</v>
       </c>
       <c r="K72" s="3">
         <v>-480300</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3256600</v>
+        <v>-3259300</v>
       </c>
       <c r="E76" s="3">
-        <v>-4145600</v>
+        <v>-4149000</v>
       </c>
       <c r="F76" s="3">
-        <v>-5801000</v>
+        <v>-5805800</v>
       </c>
       <c r="G76" s="3">
-        <v>2476100</v>
+        <v>2478100</v>
       </c>
       <c r="H76" s="3">
-        <v>1936200</v>
+        <v>1937800</v>
       </c>
       <c r="I76" s="3">
-        <v>2610500</v>
+        <v>2612700</v>
       </c>
       <c r="J76" s="3">
-        <v>1392000</v>
+        <v>1393100</v>
       </c>
       <c r="K76" s="3">
         <v>238100</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>640700</v>
+        <v>641200</v>
       </c>
       <c r="E81" s="3">
-        <v>-3732600</v>
+        <v>-3735700</v>
       </c>
       <c r="F81" s="3">
-        <v>-7697100</v>
+        <v>-7703500</v>
       </c>
       <c r="G81" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="H81" s="3">
-        <v>428200</v>
+        <v>428600</v>
       </c>
       <c r="I81" s="3">
-        <v>149600</v>
+        <v>149700</v>
       </c>
       <c r="J81" s="3">
-        <v>858600</v>
+        <v>859300</v>
       </c>
       <c r="K81" s="3">
         <v>105800</v>
@@ -3500,25 +3500,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2625700</v>
+        <v>2627900</v>
       </c>
       <c r="E83" s="3">
-        <v>2570400</v>
+        <v>2572500</v>
       </c>
       <c r="F83" s="3">
-        <v>3099400</v>
+        <v>3102000</v>
       </c>
       <c r="G83" s="3">
-        <v>3238200</v>
+        <v>3240900</v>
       </c>
       <c r="H83" s="3">
-        <v>3130900</v>
+        <v>3133500</v>
       </c>
       <c r="I83" s="3">
-        <v>3078800</v>
+        <v>3081400</v>
       </c>
       <c r="J83" s="3">
-        <v>1805000</v>
+        <v>1806500</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5264400</v>
+        <v>5268800</v>
       </c>
       <c r="E89" s="3">
-        <v>1663000</v>
+        <v>1664400</v>
       </c>
       <c r="F89" s="3">
-        <v>-3063700</v>
+        <v>-3066200</v>
       </c>
       <c r="G89" s="3">
-        <v>4222600</v>
+        <v>4226100</v>
       </c>
       <c r="H89" s="3">
-        <v>4117400</v>
+        <v>4120800</v>
       </c>
       <c r="I89" s="3">
-        <v>4443700</v>
+        <v>4447400</v>
       </c>
       <c r="J89" s="3">
-        <v>2427300</v>
+        <v>2429300</v>
       </c>
       <c r="K89" s="3">
         <v>1077000</v>
@@ -3812,25 +3812,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3221900</v>
+        <v>-3224600</v>
       </c>
       <c r="E91" s="3">
-        <v>-2387200</v>
+        <v>-2389200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2275500</v>
+        <v>-2277400</v>
       </c>
       <c r="G91" s="3">
-        <v>-3655600</v>
+        <v>-3658600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5807500</v>
+        <v>-5812300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2517300</v>
+        <v>-2519400</v>
       </c>
       <c r="J91" s="3">
-        <v>-2076100</v>
+        <v>-2077800</v>
       </c>
       <c r="K91" s="3">
         <v>-1514000</v>
@@ -3938,25 +3938,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2334100</v>
+        <v>-2336000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1343200</v>
+        <v>-1344300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1716100</v>
+        <v>-1717600</v>
       </c>
       <c r="G94" s="3">
-        <v>-3597000</v>
+        <v>-3600000</v>
       </c>
       <c r="H94" s="3">
-        <v>-2931400</v>
+        <v>-2933800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2918400</v>
+        <v>-2920800</v>
       </c>
       <c r="J94" s="3">
-        <v>-788100</v>
+        <v>-788800</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2987800</v>
+        <v>-2990300</v>
       </c>
       <c r="E100" s="3">
         <v>-83500</v>
       </c>
       <c r="F100" s="3">
-        <v>7748100</v>
+        <v>7754500</v>
       </c>
       <c r="G100" s="3">
-        <v>-484600</v>
+        <v>-485000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2372000</v>
+        <v>-2374000</v>
       </c>
       <c r="I100" s="3">
-        <v>-693800</v>
+        <v>-694400</v>
       </c>
       <c r="J100" s="3">
-        <v>-723100</v>
+        <v>-723700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -4253,22 +4253,22 @@
         <v>-33600</v>
       </c>
       <c r="E102" s="3">
-        <v>251500</v>
+        <v>251700</v>
       </c>
       <c r="F102" s="3">
-        <v>2939000</v>
+        <v>2941400</v>
       </c>
       <c r="G102" s="3">
-        <v>142000</v>
+        <v>142100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1178400</v>
+        <v>-1179400</v>
       </c>
       <c r="I102" s="3">
-        <v>795700</v>
+        <v>796400</v>
       </c>
       <c r="J102" s="3">
-        <v>902000</v>
+        <v>902700</v>
       </c>
       <c r="K102" s="3">
         <v>-643300</v>
